--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC20BD6-97B3-4160-88AD-00D238BBB401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A98C4-0696-493C-93F6-86930E61BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40270" yWindow="2160" windowWidth="25050" windowHeight="15270" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="1550" yWindow="2320" windowWidth="26400" windowHeight="18030" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -224,6 +224,8 @@
     <externalReference r:id="rId207"/>
     <externalReference r:id="rId208"/>
     <externalReference r:id="rId209"/>
+    <externalReference r:id="rId210"/>
+    <externalReference r:id="rId211"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -393,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3474" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1996">
   <si>
     <t>Exarta</t>
   </si>
@@ -6378,6 +6380,9 @@
   </si>
   <si>
     <t>OCC</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -9527,6 +9532,40 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="varegacestat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>87.045007999999996</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>267.89999999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink154.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -9551,7 +9590,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink155.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9576,40 +9615,6 @@
         <row r="6">
           <cell r="J6">
             <v>264.50900000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink155.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="imdusiran"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>189.49168499999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>130.75800000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -9627,6 +9632,74 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="PRGN-2012"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>297.97291999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>59.753</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink157.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="imdusiran"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>189.49168499999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>130.75800000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink158.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="deramiocel"/>
     </sheetNames>
@@ -9655,7 +9728,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink159.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -9682,74 +9755,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink158.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="TX45"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>14.752689</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>159.095</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink159.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>6.1240869999999994</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>40.720092000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9903,19 +9908,18 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="ersodetug"/>
+      <sheetName val="TX45"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>97.631</v>
+            <v>14.752689</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>195.3</v>
+            <v>159.095</v>
           </cell>
         </row>
         <row r="6">
@@ -9925,7 +9929,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9939,25 +9942,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>32.475537000000003</v>
+          <cell r="L3">
+            <v>6.1240869999999994</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>16.823999999999998</v>
+          <cell r="L5">
+            <v>40.720092000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>14.916</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9971,6 +9976,74 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="ersodetug"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>97.631</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>195.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink163.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>32.475537000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>16.823999999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>14.916</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink164.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -9995,7 +10068,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink165.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10020,74 +10093,6 @@
         <row r="6">
           <cell r="J6">
             <v>18.355</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink164.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="P3">
-            <v>22.004159000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="P5">
-            <v>4.1559999999999997</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6">
-            <v>8.4879999999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink165.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>54.533253999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>371.02100000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10105,25 +10110,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>52.028145000000002</v>
+          <cell r="P3">
+            <v>22.004159000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>193.8</v>
+          <cell r="P5">
+            <v>4.1559999999999997</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="P6">
+            <v>8.4879999999999995</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10137,22 +10144,22 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="rilparencel"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="I3">
-            <v>129.53612100000001</v>
+          <cell r="L3">
+            <v>54.533253999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>358.29200000000003</v>
+          <cell r="L5">
+            <v>371.02100000000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
@@ -10175,18 +10182,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>48.755451000000001</v>
+          <cell r="L3">
+            <v>52.028145000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>71.718999999999994</v>
+          <cell r="L5">
+            <v>193.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>30.161999999999999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10203,29 +10210,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Pemgarda"/>
+      <sheetName val="rilparencel"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>119.961445</v>
+          <cell r="I3">
+            <v>129.53612100000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>69.349000000000004</v>
+          <cell r="I5">
+            <v>358.29200000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
+          <cell r="I6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10274,6 +10279,74 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>48.755451000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>71.718999999999994</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>30.161999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink171.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Pemgarda"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>119.961445</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>69.349000000000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink172.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
@@ -10299,7 +10372,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink173.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10337,7 +10410,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink174.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10389,7 +10462,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink175.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10416,72 +10489,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink174.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>36.819809999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>57.733724000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>24.225999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink175.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="AlloNK"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>24.289328000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>199.59700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10499,18 +10506,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>38.317897000000002</v>
+          <cell r="L3">
+            <v>36.819809999999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>62.823</v>
+          <cell r="L5">
+            <v>57.733724000000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="L6">
+            <v>24.225999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -10520,6 +10527,72 @@
 </file>
 
 <file path=xl/externalLinks/externalLink177.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="AlloNK"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>24.289328000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>199.59700000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink178.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>38.317897000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>62.823</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink179.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10550,74 +10623,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink178.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="vidofludimus"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>101.27258</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>59.1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink179.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="levosimendan "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>35.291576999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>98.310918000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10685,22 +10690,22 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="bempikibart"/>
+      <sheetName val="vidofludimus"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>12.076411999999999</v>
+          <cell r="L3">
+            <v>101.27258</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>89.078000000000003</v>
+          <cell r="L5">
+            <v>59.1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
@@ -10719,23 +10724,23 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="levosimendan "/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>27.999521999999999</v>
+            <v>35.291576999999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>19.905999999999999</v>
+            <v>98.310918000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>4.4909999999999997</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10746,6 +10751,74 @@
 </file>
 
 <file path=xl/externalLinks/externalLink182.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="bempikibart"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>12.076411999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>89.078000000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink183.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>27.999521999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>19.905999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>4.4909999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink184.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10785,7 +10858,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink183.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink185.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -10874,7 +10947,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink184.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink186.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -10903,7 +10976,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink187.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -10932,7 +11005,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink188.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -10953,70 +11026,6 @@
         <row r="6">
           <cell r="L6">
             <v>5.4249999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink187.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>60.293999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>136.64599999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink188.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>30.972162999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>220.43200000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -11037,17 +11046,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>114.846271</v>
+          <cell r="K3">
+            <v>60.293999999999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>122.197</v>
+          <cell r="K5">
+            <v>136.64599999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="K6">
             <v>0</v>
           </cell>
         </row>
@@ -11094,6 +11103,9 @@
 <file path=xl/externalLinks/externalLink190.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
     </sheetNames>
@@ -11101,17 +11113,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>121.89977399999999</v>
+            <v>30.972162999999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>601.89099999999996</v>
+            <v>220.43200000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>0.30099999999999999</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -11128,6 +11140,67 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>114.846271</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>122.197</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink192.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>121.89977399999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>601.89099999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0.30099999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink193.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="sabizabulin"/>
     </sheetNames>
     <sheetDataSet>
@@ -11154,7 +11227,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink192.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink194.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11185,7 +11258,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink195.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11214,7 +11287,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink196.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11248,7 +11321,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink195.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink197.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11284,7 +11357,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink196.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink198.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11318,7 +11391,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink197.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink199.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11450,6 +11523,9 @@
           <cell r="FN78">
             <v>2552.8999999999996</v>
           </cell>
+        </row>
+        <row r="86">
+          <cell r="FN86"/>
         </row>
       </sheetData>
       <sheetData sheetId="8"/>
@@ -15525,7 +15601,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15558,11 +15634,11 @@
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,D256)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H2" s="6">
-        <f>SUM(H5:H418)-H10-H8-H13-H19-H23-H26-H52-H57</f>
-        <v>4717375.252227108</v>
+        <f>SUM(H5:H419)-H10-H8-H13-H19-H23-H26-H52-H57</f>
+        <v>4735571.7457316676</v>
       </c>
       <c r="M2" s="9">
         <f>MIN(M5:M87)</f>
@@ -15570,7 +15646,7 @@
       </c>
       <c r="O2" s="10">
         <f>AVERAGE(O5:O25)</f>
-        <v>7.9548375400021534E-2</v>
+        <v>7.5035758838229452E-2</v>
       </c>
       <c r="S2" s="113" t="s">
         <v>311</v>
@@ -15696,27 +15772,27 @@
       <c r="R4" s="25"/>
       <c r="S4" s="106">
         <f t="shared" ref="S4:X4" si="0">TRIMMEAN(S5:S300,10%)</f>
-        <v>39.601401236554949</v>
+        <v>39.68751722217273</v>
       </c>
       <c r="T4" s="106">
         <f t="shared" si="0"/>
-        <v>82.901722336440599</v>
+        <v>83.074392353814645</v>
       </c>
       <c r="U4" s="106">
         <f t="shared" si="0"/>
-        <v>50.072998752727791</v>
+        <v>50.250858700986583</v>
       </c>
       <c r="V4" s="106">
         <f t="shared" si="0"/>
-        <v>17.370023553200696</v>
+        <v>17.413697610855692</v>
       </c>
       <c r="W4" s="106">
         <f t="shared" si="0"/>
-        <v>15.562464768051809</v>
+        <v>15.602038875228827</v>
       </c>
       <c r="X4" s="106">
         <f t="shared" si="0"/>
-        <v>14.289540148250502</v>
+        <v>14.424195196099975</v>
       </c>
       <c r="Y4" s="44" t="s">
         <v>1680</v>
@@ -15858,11 +15934,11 @@
         <v>15</v>
       </c>
       <c r="G6" s="7">
-        <v>171.08</v>
+        <v>174.16</v>
       </c>
       <c r="H6" s="6">
         <f>+G6*L6</f>
-        <v>411618.48000000004</v>
+        <v>419028.95999999996</v>
       </c>
       <c r="I6" s="6">
         <f>+[2]Main!$L$5-[2]Main!$L$6</f>
@@ -15870,7 +15946,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>425089.48000000004</v>
+        <v>432499.95999999996</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>1842</v>
@@ -15904,27 +15980,27 @@
       </c>
       <c r="S6" s="11">
         <f t="shared" si="2"/>
-        <v>26.25243972782259</v>
+        <v>26.710092030942945</v>
       </c>
       <c r="T6" s="11">
         <f t="shared" si="2"/>
-        <v>31.94917167599386</v>
+        <v>32.506133701310311</v>
       </c>
       <c r="U6" s="11">
         <f t="shared" si="2"/>
-        <v>30.514493845983775</v>
+        <v>31.046445486743703</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="2"/>
-        <v>16.652113041305</v>
+        <v>16.942405218496329</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="2"/>
-        <v>15.917019762905051</v>
+        <v>16.194497240382528</v>
       </c>
       <c r="X6" s="11">
         <f>($J6/$L6)/AD6</f>
-        <v>15.448511910080873</v>
+        <v>15.717822005779819</v>
       </c>
       <c r="Y6" s="62">
         <v>6.73</v>
@@ -15965,11 +16041,11 @@
         <v>18</v>
       </c>
       <c r="G7" s="53">
-        <v>197.91</v>
+        <v>203.44</v>
       </c>
       <c r="H7" s="29">
         <f>+G7*L7</f>
-        <v>350696.52</v>
+        <v>360495.68</v>
       </c>
       <c r="I7" s="29">
         <f>+[3]Main!$K$5-[3]Main!$K$6</f>
@@ -15977,7 +16053,7 @@
       </c>
       <c r="J7" s="29">
         <f t="shared" si="1"/>
-        <v>415122.52</v>
+        <v>424921.68</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>1842</v>
@@ -15995,7 +16071,7 @@
       </c>
       <c r="O7" s="10">
         <f>+N7/G7-1</f>
-        <v>0.1620844472544023</v>
+        <v>0.13049613132185778</v>
       </c>
       <c r="P7" s="10">
         <f>[3]Model!$DT$76</f>
@@ -16011,23 +16087,23 @@
       </c>
       <c r="S7" s="11">
         <f t="shared" si="2"/>
-        <v>35.334507965367081</v>
+        <v>36.168595446513386</v>
       </c>
       <c r="T7" s="11">
         <f t="shared" si="2"/>
-        <v>86.127863165582255</v>
+        <v>88.160951400876371</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" si="2"/>
-        <v>98.019994899742159</v>
+        <v>100.3338024311229</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="2"/>
-        <v>19.155174800521976</v>
+        <v>19.607341603465553</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="2"/>
-        <v>16.745374396739368</v>
+        <v>17.140656741271176</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>1680</v>
@@ -26889,7 +26965,7 @@
     </row>
     <row r="313" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D313" s="33">
-        <f t="shared" ref="D313:D378" si="24">+D312+1</f>
+        <f t="shared" ref="D313:D379" si="24">+D312+1</f>
         <v>302</v>
       </c>
       <c r="E313" s="33" t="s">
@@ -27754,106 +27830,123 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="350" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D350" s="33">
-        <f t="shared" si="24"/>
+    <row r="350" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <f>+D516+1</f>
+        <v>504</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G350" s="7">
+        <v>9.67</v>
+      </c>
+      <c r="H350" s="6">
+        <f>+G350*L350</f>
+        <v>841.72522735999996</v>
+      </c>
+      <c r="I350" s="6">
+        <f>+[153]Main!$K$5-[153]Main!$K$6</f>
+        <v>267.89999999999998</v>
+      </c>
+      <c r="J350" s="6">
+        <f>+H350-I350</f>
+        <v>573.82522735999999</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="L350" s="6">
+        <f>+[153]Main!$K$3</f>
+        <v>87.045007999999996</v>
+      </c>
+      <c r="M350" s="9">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="351" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D351" s="33">
+        <f>+D349+1</f>
         <v>338</v>
       </c>
-      <c r="E350" s="108" t="s">
+      <c r="E351" s="108" t="s">
         <v>829</v>
       </c>
-      <c r="F350" s="108" t="s">
+      <c r="F351" s="108" t="s">
         <v>830</v>
       </c>
-      <c r="G350" s="59"/>
-      <c r="H350" s="59"/>
-      <c r="I350" s="59"/>
-      <c r="J350" s="59"/>
-      <c r="K350" s="59"/>
-      <c r="L350" s="59"/>
-      <c r="M350" s="59"/>
-      <c r="N350" s="59"/>
-      <c r="O350" s="59"/>
-      <c r="P350" s="59"/>
-      <c r="Q350" s="59"/>
-      <c r="R350" s="59"/>
-      <c r="S350" s="61"/>
-      <c r="T350" s="61"/>
-      <c r="U350" s="61"/>
-      <c r="V350" s="61"/>
-      <c r="W350" s="61"/>
-      <c r="X350" s="61"/>
-      <c r="Y350" s="109"/>
-      <c r="Z350" s="109"/>
-      <c r="AA350" s="109"/>
-      <c r="AB350" s="109"/>
-      <c r="AC350" s="109"/>
-      <c r="AD350" s="109"/>
-    </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A351" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="B351"/>
-      <c r="C351"/>
-      <c r="D351">
-        <f t="shared" si="24"/>
-        <v>339</v>
-      </c>
-      <c r="E351" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F351" t="s">
-        <v>832</v>
-      </c>
-      <c r="G351" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="H351" s="3">
-        <v>184</v>
-      </c>
+      <c r="G351" s="59"/>
+      <c r="H351" s="59"/>
+      <c r="I351" s="59"/>
+      <c r="J351" s="59"/>
+      <c r="K351" s="59"/>
+      <c r="L351" s="59"/>
+      <c r="M351" s="59"/>
+      <c r="N351" s="59"/>
+      <c r="O351" s="59"/>
+      <c r="P351" s="59"/>
+      <c r="Q351" s="59"/>
+      <c r="R351" s="59"/>
+      <c r="S351" s="61"/>
+      <c r="T351" s="61"/>
+      <c r="U351" s="61"/>
+      <c r="V351" s="61"/>
+      <c r="W351" s="61"/>
+      <c r="X351" s="61"/>
+      <c r="Y351" s="109"/>
+      <c r="Z351" s="109"/>
+      <c r="AA351" s="109"/>
+      <c r="AB351" s="109"/>
+      <c r="AC351" s="109"/>
+      <c r="AD351" s="109"/>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="101" t="s">
         <v>333</v>
       </c>
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352">
         <f t="shared" si="24"/>
-        <v>340</v>
-      </c>
-      <c r="E352" t="s">
-        <v>833</v>
+        <v>339</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>831</v>
       </c>
       <c r="F352" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G352" s="3">
-        <v>10.67</v>
+        <v>1.06</v>
       </c>
       <c r="H352" s="3">
-        <v>114</v>
+        <v>184</v>
       </c>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A353" s="101" t="s">
+      <c r="A353" t="s">
         <v>333</v>
       </c>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353">
         <f t="shared" si="24"/>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E353" t="s">
-        <v>1936</v>
+        <v>833</v>
       </c>
       <c r="F353" t="s">
-        <v>1937</v>
-      </c>
-      <c r="G353" s="7">
-        <v>1</v>
+        <v>834</v>
+      </c>
+      <c r="G353" s="3">
+        <v>10.67</v>
+      </c>
+      <c r="H353" s="3">
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:30" x14ac:dyDescent="0.25">
@@ -27864,67 +27957,51 @@
       <c r="C354"/>
       <c r="D354">
         <f t="shared" si="24"/>
+        <v>341</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G354" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A355" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="B355"/>
+      <c r="C355"/>
+      <c r="D355">
+        <f t="shared" si="24"/>
         <v>342</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E355" t="s">
         <v>835</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F355" t="s">
         <v>836</v>
       </c>
-      <c r="G354" s="3">
+      <c r="G355" s="3">
         <v>8.18</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H355" s="3">
         <v>363</v>
       </c>
-    </row>
-    <row r="355" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D355" s="33">
-        <f t="shared" si="24"/>
-        <v>343</v>
-      </c>
-      <c r="E355" s="108" t="s">
-        <v>837</v>
-      </c>
-      <c r="F355" s="108" t="s">
-        <v>838</v>
-      </c>
-      <c r="G355" s="59"/>
-      <c r="H355" s="59"/>
-      <c r="I355" s="59"/>
-      <c r="J355" s="59"/>
-      <c r="K355" s="59"/>
-      <c r="L355" s="59"/>
-      <c r="M355" s="59"/>
-      <c r="N355" s="59"/>
-      <c r="O355" s="59"/>
-      <c r="P355" s="59"/>
-      <c r="Q355" s="59"/>
-      <c r="R355" s="59"/>
-      <c r="S355" s="61"/>
-      <c r="T355" s="61"/>
-      <c r="U355" s="61"/>
-      <c r="V355" s="61"/>
-      <c r="W355" s="61"/>
-      <c r="X355" s="61"/>
-      <c r="Y355" s="109"/>
-      <c r="Z355" s="109"/>
-      <c r="AA355" s="109"/>
-      <c r="AB355" s="109"/>
-      <c r="AC355" s="109"/>
-      <c r="AD355" s="109"/>
     </row>
     <row r="356" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D356" s="33">
         <f t="shared" si="24"/>
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E356" s="108" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F356" s="108" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G356" s="59"/>
       <c r="H356" s="59"/>
@@ -27951,45 +28028,61 @@
       <c r="AC356" s="109"/>
       <c r="AD356" s="109"/>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A357"/>
-      <c r="B357"/>
-      <c r="C357"/>
-      <c r="D357">
+    <row r="357" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D357" s="33">
         <f t="shared" si="24"/>
-        <v>345</v>
-      </c>
-      <c r="E357" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G357" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="H357" s="3">
-        <v>164</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="E357" s="108" t="s">
+        <v>839</v>
+      </c>
+      <c r="F357" s="108" t="s">
+        <v>840</v>
+      </c>
+      <c r="G357" s="59"/>
+      <c r="H357" s="59"/>
+      <c r="I357" s="59"/>
+      <c r="J357" s="59"/>
+      <c r="K357" s="59"/>
+      <c r="L357" s="59"/>
+      <c r="M357" s="59"/>
+      <c r="N357" s="59"/>
+      <c r="O357" s="59"/>
+      <c r="P357" s="59"/>
+      <c r="Q357" s="59"/>
+      <c r="R357" s="59"/>
+      <c r="S357" s="61"/>
+      <c r="T357" s="61"/>
+      <c r="U357" s="61"/>
+      <c r="V357" s="61"/>
+      <c r="W357" s="61"/>
+      <c r="X357" s="61"/>
+      <c r="Y357" s="109"/>
+      <c r="Z357" s="109"/>
+      <c r="AA357" s="109"/>
+      <c r="AB357" s="109"/>
+      <c r="AC357" s="109"/>
+      <c r="AD357" s="109"/>
     </row>
     <row r="358" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A358" s="101" t="s">
-        <v>333</v>
-      </c>
+      <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358">
         <f t="shared" si="24"/>
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E358" t="s">
-        <v>1968</v>
+        <v>1297</v>
       </c>
       <c r="F358" t="s">
-        <v>1969</v>
+        <v>1298</v>
       </c>
       <c r="G358" s="7">
-        <v>1.46</v>
+        <v>0.69</v>
+      </c>
+      <c r="H358" s="3">
+        <v>164</v>
       </c>
     </row>
     <row r="359" spans="1:30" x14ac:dyDescent="0.25">
@@ -28000,19 +28093,16 @@
       <c r="C359"/>
       <c r="D359">
         <f t="shared" si="24"/>
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E359" t="s">
-        <v>841</v>
+        <v>1968</v>
       </c>
       <c r="F359" t="s">
-        <v>842</v>
+        <v>1969</v>
       </c>
       <c r="G359" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="H359" s="3">
-        <v>120</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="360" spans="1:30" x14ac:dyDescent="0.25">
@@ -28023,158 +28113,139 @@
       <c r="C360"/>
       <c r="D360">
         <f t="shared" si="24"/>
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E360" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F360" t="s">
-        <v>844</v>
-      </c>
-      <c r="G360" s="3">
-        <v>1.56</v>
+        <v>842</v>
+      </c>
+      <c r="G360" s="7">
+        <v>1.6</v>
       </c>
       <c r="H360" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="101" t="s">
         <v>333</v>
       </c>
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361">
         <f t="shared" si="24"/>
-        <v>349</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>849</v>
+        <v>348</v>
+      </c>
+      <c r="E361" t="s">
+        <v>843</v>
       </c>
       <c r="F361" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G361" s="3">
-        <v>0.25</v>
+        <v>1.56</v>
+      </c>
+      <c r="H361" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A362" s="88" t="s">
+      <c r="A362" t="s">
         <v>333</v>
       </c>
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362">
         <f t="shared" si="24"/>
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F362" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G362" s="3">
-        <v>17.79</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A363"/>
+      <c r="A363" s="88" t="s">
+        <v>333</v>
+      </c>
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363">
         <f t="shared" si="24"/>
-        <v>351</v>
-      </c>
-      <c r="E363" t="s">
-        <v>853</v>
+        <v>350</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>851</v>
       </c>
       <c r="F363" t="s">
-        <v>854</v>
-      </c>
-      <c r="G363" s="7">
-        <v>20.5</v>
+        <v>852</v>
+      </c>
+      <c r="G363" s="3">
+        <v>17.79</v>
       </c>
     </row>
     <row r="364" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A364" s="88" t="s">
-        <v>333</v>
-      </c>
+      <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364">
         <f t="shared" si="24"/>
-        <v>352</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>855</v>
+        <v>351</v>
+      </c>
+      <c r="E364" t="s">
+        <v>853</v>
       </c>
       <c r="F364" t="s">
-        <v>856</v>
-      </c>
-      <c r="G364" s="3">
-        <v>24.24</v>
-      </c>
-      <c r="H364" s="6">
-        <f>+G364*L364</f>
-        <v>737.54277167999999</v>
-      </c>
-      <c r="I364" s="6">
-        <f>+[153]Main!$K$5-[153]Main!$K$6</f>
-        <v>458.03099999999995</v>
-      </c>
-      <c r="J364" s="6">
-        <f>+H364-I364</f>
-        <v>279.51177168000004</v>
-      </c>
-      <c r="K364" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L364" s="6">
-        <f>+[153]Main!$K$3</f>
-        <v>30.426682</v>
-      </c>
-      <c r="M364" s="9">
-        <v>45631</v>
+        <v>854</v>
+      </c>
+      <c r="G364" s="7">
+        <v>20.5</v>
       </c>
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="88" t="s">
         <v>333</v>
       </c>
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365">
         <f t="shared" si="24"/>
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F365" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G365" s="3">
-        <v>0.92</v>
+        <v>24.24</v>
       </c>
       <c r="H365" s="6">
         <f>+G365*L365</f>
-        <v>105.99633444000001</v>
+        <v>737.54277167999999</v>
       </c>
       <c r="I365" s="6">
-        <f>+[154]Main!$J$5-[154]Main!$J$6</f>
-        <v>316.5809999999999</v>
+        <f>+[154]Main!$K$5-[154]Main!$K$6</f>
+        <v>458.03099999999995</v>
       </c>
       <c r="J365" s="6">
         <f>+H365-I365</f>
-        <v>-210.58466555999991</v>
+        <v>279.51177168000004</v>
       </c>
       <c r="K365" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L365" s="6">
-        <f>+[154]Main!$J$3</f>
-        <v>115.213407</v>
+        <f>+[154]Main!$K$3</f>
+        <v>30.426682</v>
       </c>
       <c r="M365" s="9">
         <v>45631</v>
@@ -28188,76 +28259,98 @@
       <c r="C366"/>
       <c r="D366">
         <f t="shared" si="24"/>
+        <v>353</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F366" t="s">
+        <v>858</v>
+      </c>
+      <c r="G366" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="H366" s="6">
+        <f>+G366*L366</f>
+        <v>105.99633444000001</v>
+      </c>
+      <c r="I366" s="6">
+        <f>+[155]Main!$J$5-[155]Main!$J$6</f>
+        <v>316.5809999999999</v>
+      </c>
+      <c r="J366" s="6">
+        <f>+H366-I366</f>
+        <v>-210.58466555999991</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L366" s="6">
+        <f>+[155]Main!$J$3</f>
+        <v>115.213407</v>
+      </c>
+      <c r="M366" s="9">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="367" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>333</v>
+      </c>
+      <c r="B367"/>
+      <c r="C367"/>
+      <c r="D367">
+        <f t="shared" si="24"/>
         <v>354</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E367" t="s">
         <v>859</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F367" t="s">
         <v>860</v>
       </c>
-      <c r="G366" s="3">
+      <c r="G367" s="3">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="367" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A367" s="33" t="s">
+    <row r="368" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A368" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D367" s="33">
+      <c r="D368" s="33">
         <f t="shared" si="24"/>
         <v>355</v>
       </c>
-      <c r="E367" s="33" t="s">
+      <c r="E368" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="F367" s="33" t="s">
+      <c r="F368" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="G367" s="59"/>
-      <c r="H367" s="59"/>
-      <c r="I367" s="59"/>
-      <c r="J367" s="59"/>
-      <c r="K367" s="59"/>
-      <c r="L367" s="59"/>
-      <c r="M367" s="59"/>
-      <c r="N367" s="59"/>
-      <c r="O367" s="59"/>
-      <c r="P367" s="59"/>
-      <c r="Q367" s="59"/>
-      <c r="R367" s="59"/>
-      <c r="S367" s="61"/>
-      <c r="T367" s="61"/>
-      <c r="U367" s="61"/>
-      <c r="V367" s="61"/>
-      <c r="W367" s="61"/>
-      <c r="X367" s="61"/>
-      <c r="Y367" s="109"/>
-      <c r="Z367" s="109"/>
-      <c r="AA367" s="109"/>
-      <c r="AB367" s="109"/>
-      <c r="AC367" s="109"/>
-      <c r="AD367" s="109"/>
-    </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A368" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="B368"/>
-      <c r="C368"/>
-      <c r="D368">
-        <f t="shared" si="24"/>
-        <v>356</v>
-      </c>
-      <c r="E368" t="s">
-        <v>1934</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1935</v>
-      </c>
-      <c r="G368" s="3">
-        <v>12.09</v>
-      </c>
+      <c r="G368" s="59"/>
+      <c r="H368" s="59"/>
+      <c r="I368" s="59"/>
+      <c r="J368" s="59"/>
+      <c r="K368" s="59"/>
+      <c r="L368" s="59"/>
+      <c r="M368" s="59"/>
+      <c r="N368" s="59"/>
+      <c r="O368" s="59"/>
+      <c r="P368" s="59"/>
+      <c r="Q368" s="59"/>
+      <c r="R368" s="59"/>
+      <c r="S368" s="61"/>
+      <c r="T368" s="61"/>
+      <c r="U368" s="61"/>
+      <c r="V368" s="61"/>
+      <c r="W368" s="61"/>
+      <c r="X368" s="61"/>
+      <c r="Y368" s="109"/>
+      <c r="Z368" s="109"/>
+      <c r="AA368" s="109"/>
+      <c r="AB368" s="109"/>
+      <c r="AC368" s="109"/>
+      <c r="AD368" s="109"/>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="88" t="s">
@@ -28267,16 +28360,16 @@
       <c r="C369"/>
       <c r="D369">
         <f t="shared" si="24"/>
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E369" t="s">
-        <v>863</v>
+        <v>1934</v>
       </c>
       <c r="F369" t="s">
-        <v>864</v>
+        <v>1935</v>
       </c>
       <c r="G369" s="3">
-        <v>15.18</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
@@ -28287,16 +28380,16 @@
       <c r="C370"/>
       <c r="D370">
         <f t="shared" si="24"/>
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E370" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F370" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G370" s="3">
-        <v>2.37</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -28307,16 +28400,16 @@
       <c r="C371"/>
       <c r="D371">
         <f t="shared" si="24"/>
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E371" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F371" t="s">
-        <v>872</v>
-      </c>
-      <c r="G371" s="7">
-        <v>1.79</v>
+        <v>866</v>
+      </c>
+      <c r="G371" s="3">
+        <v>2.37</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -28327,38 +28420,16 @@
       <c r="C372"/>
       <c r="D372">
         <f t="shared" si="24"/>
-        <v>360</v>
-      </c>
-      <c r="E372" s="5" t="s">
-        <v>909</v>
+        <v>359</v>
+      </c>
+      <c r="E372" t="s">
+        <v>871</v>
       </c>
       <c r="F372" t="s">
-        <v>910</v>
+        <v>872</v>
       </c>
       <c r="G372" s="7">
-        <v>3.36</v>
-      </c>
-      <c r="H372" s="6">
-        <f>+G372*L372</f>
-        <v>636.69206159999999</v>
-      </c>
-      <c r="I372" s="6">
-        <f>+[155]Main!$L$5-[155]Main!$L$6</f>
-        <v>130.75800000000001</v>
-      </c>
-      <c r="J372" s="6">
-        <f>+H372-I372</f>
-        <v>505.93406159999995</v>
-      </c>
-      <c r="K372" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L372" s="6">
-        <f>+[155]Main!$L$3</f>
-        <v>189.49168499999999</v>
-      </c>
-      <c r="M372" s="9">
-        <v>45712</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -28368,39 +28439,39 @@
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373">
-        <f t="shared" si="24"/>
-        <v>361</v>
+        <f>+D375+1</f>
+        <v>362</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>1818</v>
+        <v>875</v>
       </c>
       <c r="F373" t="s">
-        <v>1819</v>
+        <v>876</v>
       </c>
       <c r="G373" s="7">
-        <v>7.6</v>
+        <v>1.91</v>
       </c>
       <c r="H373" s="6">
         <f>+G373*L373</f>
-        <v>347.3794244</v>
+        <v>569.12827719999996</v>
       </c>
       <c r="I373" s="6">
-        <f>+[156]Main!$K$5-[156]Main!$K$6</f>
-        <v>144.77739600000001</v>
+        <f>+[156]Main!$J$5-[156]Main!$J$6</f>
+        <v>59.753</v>
       </c>
       <c r="J373" s="6">
         <f>+H373-I373</f>
-        <v>202.60202839999999</v>
+        <v>509.37527719999997</v>
       </c>
       <c r="K373" s="3" t="s">
-        <v>1842</v>
+        <v>1995</v>
       </c>
       <c r="L373" s="6">
-        <f>+[156]Main!$K$3</f>
-        <v>45.707819000000001</v>
+        <f>+[156]Main!$J$3</f>
+        <v>297.97291999999999</v>
       </c>
       <c r="M373" s="9">
-        <v>45845</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -28410,20 +28481,39 @@
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374">
-        <f t="shared" si="24"/>
-        <v>362</v>
-      </c>
-      <c r="E374" t="s">
-        <v>875</v>
+        <f>+D372+1</f>
+        <v>360</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>909</v>
       </c>
       <c r="F374" t="s">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="G374" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="H374" s="3">
-        <v>424</v>
+        <v>3.36</v>
+      </c>
+      <c r="H374" s="6">
+        <f>+G374*L374</f>
+        <v>636.69206159999999</v>
+      </c>
+      <c r="I374" s="6">
+        <f>+[157]Main!$L$5-[157]Main!$L$6</f>
+        <v>130.75800000000001</v>
+      </c>
+      <c r="J374" s="6">
+        <f>+H374-I374</f>
+        <v>505.93406159999995</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L374" s="6">
+        <f>+[157]Main!$L$3</f>
+        <v>189.49168499999999</v>
+      </c>
+      <c r="M374" s="9">
+        <v>45712</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -28434,19 +28524,38 @@
       <c r="C375"/>
       <c r="D375">
         <f t="shared" si="24"/>
-        <v>363</v>
-      </c>
-      <c r="E375" t="s">
-        <v>899</v>
+        <v>361</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>1818</v>
       </c>
       <c r="F375" t="s">
-        <v>900</v>
-      </c>
-      <c r="G375" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="H375" s="3">
-        <v>404</v>
+        <v>1819</v>
+      </c>
+      <c r="G375" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="H375" s="6">
+        <f>+G375*L375</f>
+        <v>347.3794244</v>
+      </c>
+      <c r="I375" s="6">
+        <f>+[158]Main!$K$5-[158]Main!$K$6</f>
+        <v>144.77739600000001</v>
+      </c>
+      <c r="J375" s="6">
+        <f>+H375-I375</f>
+        <v>202.60202839999999</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L375" s="6">
+        <f>+[158]Main!$K$3</f>
+        <v>45.707819000000001</v>
+      </c>
+      <c r="M375" s="9">
+        <v>45845</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -28456,20 +28565,20 @@
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376">
-        <f t="shared" si="24"/>
-        <v>364</v>
+        <f>+D373+1</f>
+        <v>363</v>
       </c>
       <c r="E376" t="s">
-        <v>1828</v>
+        <v>899</v>
       </c>
       <c r="F376" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G376" s="7">
-        <v>22.09</v>
+        <v>900</v>
+      </c>
+      <c r="G376" s="3">
+        <v>3.74</v>
       </c>
       <c r="H376" s="3">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -28480,19 +28589,19 @@
       <c r="C377"/>
       <c r="D377">
         <f t="shared" si="24"/>
+        <v>364</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G377" s="7">
+        <v>22.09</v>
+      </c>
+      <c r="H377" s="3">
         <v>365</v>
-      </c>
-      <c r="E377" t="s">
-        <v>895</v>
-      </c>
-      <c r="F377" t="s">
-        <v>896</v>
-      </c>
-      <c r="G377" s="7">
-        <v>22.81</v>
-      </c>
-      <c r="H377" s="3">
-        <v>300</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -28503,19 +28612,19 @@
       <c r="C378"/>
       <c r="D378">
         <f t="shared" si="24"/>
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E378" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="F378" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="G378" s="7">
-        <v>8.5</v>
+        <v>22.81</v>
       </c>
       <c r="H378" s="3">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -28525,20 +28634,20 @@
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379">
-        <f t="shared" ref="D379:D442" si="25">+D378+1</f>
-        <v>367</v>
+        <f t="shared" si="24"/>
+        <v>366</v>
       </c>
       <c r="E379" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="F379" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="G379" s="7">
-        <v>27</v>
+        <v>8.5</v>
       </c>
       <c r="H379" s="3">
-        <v>245</v>
+        <v>327</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -28548,39 +28657,20 @@
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380">
-        <f t="shared" si="25"/>
-        <v>368</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>1830</v>
+        <f t="shared" ref="D380:D443" si="25">+D379+1</f>
+        <v>367</v>
+      </c>
+      <c r="E380" t="s">
+        <v>905</v>
       </c>
       <c r="F380" t="s">
-        <v>1831</v>
+        <v>906</v>
       </c>
       <c r="G380" s="7">
-        <v>4.59</v>
-      </c>
-      <c r="H380" s="6">
-        <f>+G380*L380</f>
-        <v>425.36967587999999</v>
-      </c>
-      <c r="I380" s="6">
-        <f>+[157]Sheet1!$K$5-[157]Sheet1!$K$6</f>
-        <v>134.916</v>
-      </c>
-      <c r="J380" s="6">
-        <f>+H380-I380</f>
-        <v>290.45367587999999</v>
-      </c>
-      <c r="K380" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L380" s="6">
-        <f>[157]Sheet1!$K$3</f>
-        <v>92.673131999999995</v>
-      </c>
-      <c r="M380" s="9">
-        <v>45762</v>
+        <v>27</v>
+      </c>
+      <c r="H380" s="3">
+        <v>245</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -28591,19 +28681,38 @@
       <c r="C381"/>
       <c r="D381">
         <f t="shared" si="25"/>
-        <v>369</v>
-      </c>
-      <c r="E381" t="s">
-        <v>881</v>
+        <v>368</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>1830</v>
       </c>
       <c r="F381" t="s">
-        <v>882</v>
+        <v>1831</v>
       </c>
       <c r="G381" s="7">
-        <v>6.51</v>
-      </c>
-      <c r="H381" s="3">
-        <v>145</v>
+        <v>4.59</v>
+      </c>
+      <c r="H381" s="6">
+        <f>+G381*L381</f>
+        <v>425.36967587999999</v>
+      </c>
+      <c r="I381" s="6">
+        <f>+[159]Sheet1!$K$5-[159]Sheet1!$K$6</f>
+        <v>134.916</v>
+      </c>
+      <c r="J381" s="6">
+        <f>+H381-I381</f>
+        <v>290.45367587999999</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L381" s="6">
+        <f>[159]Sheet1!$K$3</f>
+        <v>92.673131999999995</v>
+      </c>
+      <c r="M381" s="9">
+        <v>45762</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -28614,19 +28723,19 @@
       <c r="C382"/>
       <c r="D382">
         <f t="shared" si="25"/>
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E382" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="F382" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="G382" s="7">
-        <v>3.88</v>
+        <v>6.51</v>
       </c>
       <c r="H382" s="3">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -28637,16 +28746,19 @@
       <c r="C383"/>
       <c r="D383">
         <f t="shared" si="25"/>
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E383" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="F383" t="s">
-        <v>912</v>
-      </c>
-      <c r="G383" s="3">
-        <v>4.88</v>
+        <v>894</v>
+      </c>
+      <c r="G383" s="7">
+        <v>3.88</v>
+      </c>
+      <c r="H383" s="3">
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -28657,16 +28769,16 @@
       <c r="C384"/>
       <c r="D384">
         <f t="shared" si="25"/>
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E384" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F384" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G384" s="3">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -28677,16 +28789,16 @@
       <c r="C385"/>
       <c r="D385">
         <f t="shared" si="25"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E385" t="s">
-        <v>1927</v>
+        <v>913</v>
       </c>
       <c r="F385" t="s">
-        <v>1928</v>
+        <v>914</v>
       </c>
       <c r="G385" s="3">
-        <v>4.22</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -28697,16 +28809,16 @@
       <c r="C386"/>
       <c r="D386">
         <f t="shared" si="25"/>
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E386" t="s">
-        <v>917</v>
+        <v>1927</v>
       </c>
       <c r="F386" t="s">
-        <v>918</v>
+        <v>1928</v>
       </c>
       <c r="G386" s="3">
-        <v>7.34</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -28717,16 +28829,16 @@
       <c r="C387"/>
       <c r="D387">
         <f t="shared" si="25"/>
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E387" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F387" t="s">
-        <v>928</v>
-      </c>
-      <c r="G387" s="7">
-        <v>2.6</v>
+        <v>918</v>
+      </c>
+      <c r="G387" s="3">
+        <v>7.34</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -28737,16 +28849,16 @@
       <c r="C388"/>
       <c r="D388">
         <f t="shared" si="25"/>
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E388" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F388" t="s">
-        <v>932</v>
-      </c>
-      <c r="G388" s="3">
-        <v>9.81</v>
+        <v>928</v>
+      </c>
+      <c r="G388" s="7">
+        <v>2.6</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -28757,16 +28869,16 @@
       <c r="C389"/>
       <c r="D389">
         <f t="shared" si="25"/>
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E389" t="s">
-        <v>1952</v>
+        <v>929</v>
       </c>
       <c r="F389" t="s">
-        <v>1955</v>
+        <v>932</v>
       </c>
       <c r="G389" s="3">
-        <v>4.46</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -28777,16 +28889,16 @@
       <c r="C390"/>
       <c r="D390">
         <f t="shared" si="25"/>
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E390" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F390" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="G390" s="3">
-        <v>2.54</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -28797,16 +28909,16 @@
       <c r="C391"/>
       <c r="D391">
         <f t="shared" si="25"/>
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E391" t="s">
-        <v>930</v>
+        <v>1953</v>
       </c>
       <c r="F391" t="s">
-        <v>931</v>
+        <v>1954</v>
       </c>
       <c r="G391" s="3">
-        <v>0.54</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -28817,16 +28929,16 @@
       <c r="C392"/>
       <c r="D392">
         <f t="shared" si="25"/>
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E392" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="F392" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="G392" s="3">
-        <v>12.06</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -28837,16 +28949,16 @@
       <c r="C393"/>
       <c r="D393">
         <f t="shared" si="25"/>
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E393" t="s">
-        <v>1902</v>
+        <v>947</v>
       </c>
       <c r="F393" t="s">
-        <v>1903</v>
+        <v>948</v>
       </c>
       <c r="G393" s="3">
-        <v>9.06</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -28857,16 +28969,16 @@
       <c r="C394"/>
       <c r="D394">
         <f t="shared" si="25"/>
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E394" t="s">
-        <v>953</v>
+        <v>1902</v>
       </c>
       <c r="F394" t="s">
-        <v>954</v>
-      </c>
-      <c r="G394" s="7">
-        <v>1.5</v>
+        <v>1903</v>
+      </c>
+      <c r="G394" s="3">
+        <v>9.06</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -28877,16 +28989,16 @@
       <c r="C395"/>
       <c r="D395">
         <f t="shared" si="25"/>
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E395" t="s">
-        <v>1877</v>
+        <v>953</v>
       </c>
       <c r="F395" t="s">
-        <v>1878</v>
+        <v>954</v>
       </c>
       <c r="G395" s="7">
-        <v>21.07</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -28897,16 +29009,16 @@
       <c r="C396"/>
       <c r="D396">
         <f t="shared" si="25"/>
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E396" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="F396" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G396" s="3">
-        <v>16.350000000000001</v>
+        <v>1878</v>
+      </c>
+      <c r="G396" s="7">
+        <v>21.07</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -28917,16 +29029,16 @@
       <c r="C397"/>
       <c r="D397">
         <f t="shared" si="25"/>
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E397" t="s">
-        <v>963</v>
+        <v>1875</v>
       </c>
       <c r="F397" t="s">
-        <v>964</v>
-      </c>
-      <c r="G397" s="7">
-        <v>6.7</v>
+        <v>1876</v>
+      </c>
+      <c r="G397" s="3">
+        <v>16.350000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -28937,16 +29049,16 @@
       <c r="C398"/>
       <c r="D398">
         <f t="shared" si="25"/>
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E398" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F398" t="s">
-        <v>966</v>
-      </c>
-      <c r="G398" s="3">
-        <v>2.25</v>
+        <v>964</v>
+      </c>
+      <c r="G398" s="7">
+        <v>6.7</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -28957,16 +29069,16 @@
       <c r="C399"/>
       <c r="D399">
         <f t="shared" si="25"/>
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E399" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F399" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G399" s="3">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -28977,16 +29089,16 @@
       <c r="C400"/>
       <c r="D400">
         <f t="shared" si="25"/>
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E400" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F400" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G400" s="3">
-        <v>11.21</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -28997,16 +29109,16 @@
       <c r="C401"/>
       <c r="D401">
         <f t="shared" si="25"/>
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E401" t="s">
-        <v>1906</v>
+        <v>969</v>
       </c>
       <c r="F401" t="s">
-        <v>1907</v>
+        <v>970</v>
       </c>
       <c r="G401" s="3">
-        <v>14.16</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -29017,16 +29129,16 @@
       <c r="C402"/>
       <c r="D402">
         <f t="shared" si="25"/>
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E402" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="F402" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="G402" s="3">
-        <v>21.45</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -29037,142 +29149,122 @@
       <c r="C403"/>
       <c r="D403">
         <f t="shared" si="25"/>
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E403" t="s">
-        <v>1830</v>
+        <v>1914</v>
       </c>
       <c r="F403" t="s">
-        <v>1916</v>
-      </c>
-      <c r="G403" s="7">
-        <v>2.9</v>
+        <v>1915</v>
+      </c>
+      <c r="G403" s="3">
+        <v>21.45</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="88" t="s">
         <v>333</v>
       </c>
+      <c r="B404"/>
+      <c r="C404"/>
       <c r="D404">
         <f t="shared" si="25"/>
-        <v>392</v>
-      </c>
-      <c r="E404" s="5" t="s">
-        <v>1788</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>1789</v>
+        <v>391</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1916</v>
       </c>
       <c r="G404" s="7">
-        <v>21.73</v>
-      </c>
-      <c r="H404" s="6">
-        <f>+G404*L404</f>
-        <v>320.57593197</v>
-      </c>
-      <c r="I404" s="6">
-        <f>+[158]Main!$M$5-[158]Main!$M$6</f>
-        <v>159.095</v>
-      </c>
-      <c r="J404" s="6">
-        <f>+H404-I404</f>
-        <v>161.48093197</v>
-      </c>
-      <c r="K404" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L404" s="6">
-        <f>+[158]Main!$M$3</f>
-        <v>14.752689</v>
-      </c>
-      <c r="M404" s="9">
-        <v>45687</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="B405" s="1">
-        <v>6</v>
-      </c>
-      <c r="C405" s="1">
-        <v>2</v>
-      </c>
       <c r="D405">
         <f t="shared" si="25"/>
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F405" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G405" s="3">
-        <v>36.130000000000003</v>
+        <v>1788</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G405" s="7">
+        <v>21.73</v>
       </c>
       <c r="H405" s="6">
         <f>+G405*L405</f>
-        <v>221.26326330999999</v>
+        <v>320.57593197</v>
       </c>
       <c r="I405" s="6">
-        <f>+[159]Main!$L$5-[159]Main!$L$6</f>
-        <v>40.720092000000001</v>
+        <f>+[160]Main!$M$5-[160]Main!$M$6</f>
+        <v>159.095</v>
       </c>
       <c r="J405" s="6">
         <f>+H405-I405</f>
-        <v>180.54317130999999</v>
+        <v>161.48093197</v>
       </c>
       <c r="K405" s="3" t="s">
-        <v>1069</v>
+        <v>1275</v>
       </c>
       <c r="L405" s="6">
-        <f>+[159]Main!$L$3</f>
-        <v>6.1240869999999994</v>
+        <f>+[160]Main!$M$3</f>
+        <v>14.752689</v>
       </c>
       <c r="M405" s="9">
-        <v>45630</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="88" t="s">
         <v>333</v>
       </c>
+      <c r="B406" s="1">
+        <v>6</v>
+      </c>
+      <c r="C406" s="1">
+        <v>2</v>
+      </c>
       <c r="D406">
         <f t="shared" si="25"/>
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>1622</v>
+        <v>1634</v>
       </c>
       <c r="F406" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G406" s="7">
-        <v>5.88</v>
+        <v>1633</v>
+      </c>
+      <c r="G406" s="3">
+        <v>36.130000000000003</v>
       </c>
       <c r="H406" s="6">
         <f>+G406*L406</f>
-        <v>574.07028000000003</v>
+        <v>221.26326330999999</v>
       </c>
       <c r="I406" s="6">
-        <f>+[160]Main!$M$5-[160]Main!$M$6</f>
-        <v>195.3</v>
+        <f>+[161]Main!$L$5-[161]Main!$L$6</f>
+        <v>40.720092000000001</v>
       </c>
       <c r="J406" s="6">
         <f>+H406-I406</f>
-        <v>378.77028000000001</v>
+        <v>180.54317130999999</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>1275</v>
+        <v>1069</v>
       </c>
       <c r="L406" s="6">
-        <f>+[160]Main!$M$3</f>
-        <v>97.631</v>
+        <f>+[161]Main!$L$3</f>
+        <v>6.1240869999999994</v>
       </c>
       <c r="M406" s="9">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -29181,38 +29273,38 @@
       </c>
       <c r="D407">
         <f t="shared" si="25"/>
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>1639</v>
+        <v>1622</v>
       </c>
       <c r="F407" t="s">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="G407" s="7">
-        <v>6.31</v>
+        <v>5.88</v>
       </c>
       <c r="H407" s="6">
         <f>+G407*L407</f>
-        <v>204.92063847</v>
+        <v>574.07028000000003</v>
       </c>
       <c r="I407" s="6">
-        <f>+[161]Main!$M$5-[161]Main!$M$6</f>
-        <v>1.9079999999999977</v>
+        <f>+[162]Main!$M$5-[162]Main!$M$6</f>
+        <v>195.3</v>
       </c>
       <c r="J407" s="6">
         <f>+H407-I407</f>
-        <v>203.01263847000001</v>
+        <v>378.77028000000001</v>
       </c>
       <c r="K407" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L407" s="6">
-        <f>+[161]Main!$M$3</f>
-        <v>32.475537000000003</v>
+        <f>+[162]Main!$M$3</f>
+        <v>97.631</v>
       </c>
       <c r="M407" s="9">
-        <v>45630</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -29221,38 +29313,38 @@
       </c>
       <c r="D408">
         <f t="shared" si="25"/>
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>1610</v>
+        <v>1639</v>
       </c>
       <c r="F408" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G408" s="3">
-        <v>0.83</v>
+        <v>1640</v>
+      </c>
+      <c r="G408" s="7">
+        <v>6.31</v>
       </c>
       <c r="H408" s="6">
-        <f t="shared" ref="H408:H410" si="26">+G408*L408</f>
-        <v>107.21110332000001</v>
+        <f>+G408*L408</f>
+        <v>204.92063847</v>
       </c>
       <c r="I408" s="6">
-        <f>+[162]Main!$L$5-[162]Main!$L$6</f>
-        <v>65.116</v>
+        <f>+[163]Main!$M$5-[163]Main!$M$6</f>
+        <v>1.9079999999999977</v>
       </c>
       <c r="J408" s="6">
-        <f t="shared" ref="J408:J410" si="27">+H408-I408</f>
-        <v>42.095103320000007</v>
+        <f>+H408-I408</f>
+        <v>203.01263847000001</v>
       </c>
       <c r="K408" s="3" t="s">
-        <v>1842</v>
+        <v>1275</v>
       </c>
       <c r="L408" s="6">
-        <f>+[162]Main!$L$3</f>
-        <v>129.17000400000001</v>
+        <f>+[163]Main!$M$3</f>
+        <v>32.475537000000003</v>
       </c>
       <c r="M408" s="9">
-        <v>45810</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -29261,78 +29353,78 @@
       </c>
       <c r="D409">
         <f t="shared" si="25"/>
+        <v>396</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G409" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="H409" s="6">
+        <f t="shared" ref="H409:H411" si="26">+G409*L409</f>
+        <v>107.21110332000001</v>
+      </c>
+      <c r="I409" s="6">
+        <f>+[164]Main!$L$5-[164]Main!$L$6</f>
+        <v>65.116</v>
+      </c>
+      <c r="J409" s="6">
+        <f t="shared" ref="J409:J411" si="27">+H409-I409</f>
+        <v>42.095103320000007</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L409" s="6">
+        <f>+[164]Main!$L$3</f>
+        <v>129.17000400000001</v>
+      </c>
+      <c r="M409" s="9">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="25"/>
         <v>397</v>
       </c>
-      <c r="E409" s="5" t="s">
+      <c r="E410" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F410" t="s">
         <v>1095</v>
       </c>
-      <c r="G409" s="7">
+      <c r="G410" s="7">
         <v>6.49</v>
       </c>
-      <c r="H409" s="6">
+      <c r="H410" s="6">
         <f t="shared" si="26"/>
         <v>281.11043653000002</v>
       </c>
-      <c r="I409" s="6">
-        <f>+[163]Main!$J$5-[163]Main!$J$6</f>
+      <c r="I410" s="6">
+        <f>+[165]Main!$J$5-[165]Main!$J$6</f>
         <v>104.35299999999999</v>
       </c>
-      <c r="J409" s="6">
+      <c r="J410" s="6">
         <f t="shared" si="27"/>
         <v>176.75743653000001</v>
       </c>
-      <c r="K409" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L409" s="6">
-        <f>+[163]Main!$J$3</f>
-        <v>43.314397</v>
-      </c>
-      <c r="M409" s="9">
-        <v>45525</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A410" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="D410">
-        <f t="shared" si="25"/>
-        <v>398</v>
-      </c>
-      <c r="E410" s="5" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G410" s="3">
-        <v>44.74</v>
-      </c>
-      <c r="H410" s="6">
-        <f t="shared" si="26"/>
-        <v>984.46607366000012</v>
-      </c>
-      <c r="I410" s="6">
-        <f>+[164]Main!$P$5-[164]Main!$P$6</f>
-        <v>-4.3319999999999999</v>
-      </c>
-      <c r="J410" s="6">
-        <f t="shared" si="27"/>
-        <v>988.79807366000011</v>
-      </c>
       <c r="K410" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="L410" s="6">
-        <f>+[164]Main!$P$3</f>
-        <v>22.004159000000001</v>
+        <f>+[165]Main!$J$3</f>
+        <v>43.314397</v>
       </c>
       <c r="M410" s="9">
-        <v>45587</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -29341,38 +29433,38 @@
       </c>
       <c r="D411">
         <f t="shared" si="25"/>
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>1629</v>
+        <v>1432</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G411" s="7">
-        <v>3.5</v>
+        <v>1433</v>
+      </c>
+      <c r="G411" s="3">
+        <v>44.74</v>
       </c>
       <c r="H411" s="6">
-        <f>+G411*L411</f>
-        <v>190.866389</v>
+        <f t="shared" si="26"/>
+        <v>984.46607366000012</v>
       </c>
       <c r="I411" s="6">
-        <f>+[165]Main!$L$5-[165]Main!$L$6</f>
-        <v>371.02100000000002</v>
+        <f>+[166]Main!$P$5-[166]Main!$P$6</f>
+        <v>-4.3319999999999999</v>
       </c>
       <c r="J411" s="6">
-        <f>+H411-I411</f>
-        <v>-180.15461100000002</v>
+        <f t="shared" si="27"/>
+        <v>988.79807366000011</v>
       </c>
       <c r="K411" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="L411" s="6">
-        <f>+[165]Main!$L$3</f>
-        <v>54.533253999999999</v>
+        <f>+[166]Main!$P$3</f>
+        <v>22.004159000000001</v>
       </c>
       <c r="M411" s="9">
-        <v>45629</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -29381,16 +29473,38 @@
       </c>
       <c r="D412">
         <f t="shared" si="25"/>
-        <v>400</v>
-      </c>
-      <c r="E412" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F412" t="s">
-        <v>1963</v>
-      </c>
-      <c r="G412" s="3">
-        <v>8.68</v>
+        <v>399</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G412" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H412" s="6">
+        <f>+G412*L412</f>
+        <v>190.866389</v>
+      </c>
+      <c r="I412" s="6">
+        <f>+[167]Main!$L$5-[167]Main!$L$6</f>
+        <v>371.02100000000002</v>
+      </c>
+      <c r="J412" s="6">
+        <f>+H412-I412</f>
+        <v>-180.15461100000002</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L412" s="6">
+        <f>+[167]Main!$L$3</f>
+        <v>54.533253999999999</v>
+      </c>
+      <c r="M412" s="9">
+        <v>45629</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -29399,16 +29513,16 @@
       </c>
       <c r="D413">
         <f t="shared" si="25"/>
-        <v>401</v>
-      </c>
-      <c r="E413" s="5" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G413" s="7">
-        <v>40.82</v>
+        <v>400</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G413" s="3">
+        <v>8.68</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -29417,16 +29531,16 @@
       </c>
       <c r="D414">
         <f t="shared" si="25"/>
-        <v>402</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F414" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G414" s="3">
-        <v>13.02</v>
+        <v>401</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G414" s="7">
+        <v>40.82</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -29435,16 +29549,16 @@
       </c>
       <c r="D415">
         <f t="shared" si="25"/>
-        <v>403</v>
-      </c>
-      <c r="E415" t="s">
-        <v>1893</v>
+        <v>402</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1637</v>
       </c>
       <c r="F415" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G415" s="7">
-        <v>0.5</v>
+        <v>1638</v>
+      </c>
+      <c r="G415" s="3">
+        <v>13.02</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -29453,16 +29567,16 @@
       </c>
       <c r="D416">
         <f t="shared" si="25"/>
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E416" t="s">
-        <v>1929</v>
+        <v>1893</v>
       </c>
       <c r="F416" t="s">
-        <v>1930</v>
-      </c>
-      <c r="G416" s="3">
-        <v>3.53</v>
+        <v>1894</v>
+      </c>
+      <c r="G416" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="417" spans="1:30" x14ac:dyDescent="0.25">
@@ -29471,137 +29585,137 @@
       </c>
       <c r="D417">
         <f t="shared" si="25"/>
+        <v>404</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G417" s="3">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="418" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A418" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="25"/>
         <v>405</v>
       </c>
-      <c r="E417" t="s">
+      <c r="E418" t="s">
         <v>1931</v>
       </c>
-      <c r="F417" t="s">
+      <c r="F418" t="s">
         <v>1932</v>
       </c>
-      <c r="G417" s="3">
+      <c r="G418" s="3">
         <v>6.86</v>
       </c>
     </row>
-    <row r="418" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A418" s="108" t="s">
+    <row r="419" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A419" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="D418" s="33">
+      <c r="D419" s="33">
         <f t="shared" si="25"/>
         <v>406</v>
       </c>
-      <c r="E418" s="33" t="s">
+      <c r="E419" s="33" t="s">
         <v>1643</v>
       </c>
-      <c r="F418" s="33" t="s">
+      <c r="F419" s="33" t="s">
         <v>1644</v>
       </c>
-      <c r="G418" s="59"/>
-      <c r="H418" s="59"/>
-      <c r="I418" s="59"/>
-      <c r="J418" s="59"/>
-      <c r="K418" s="59"/>
-      <c r="L418" s="59"/>
-      <c r="M418" s="59"/>
-      <c r="N418" s="59"/>
-      <c r="O418" s="59"/>
-      <c r="P418" s="59"/>
-      <c r="Q418" s="59"/>
-      <c r="R418" s="59"/>
-      <c r="S418" s="61"/>
-      <c r="T418" s="61"/>
-      <c r="U418" s="61"/>
-      <c r="V418" s="61"/>
-      <c r="W418" s="61"/>
-      <c r="X418" s="61"/>
-      <c r="Y418" s="109"/>
-      <c r="Z418" s="109"/>
-      <c r="AA418" s="109"/>
-      <c r="AB418" s="109"/>
-      <c r="AC418" s="109"/>
-      <c r="AD418" s="109"/>
-    </row>
-    <row r="419" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A419" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="D419">
-        <f t="shared" si="25"/>
-        <v>407</v>
-      </c>
-      <c r="E419" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F419" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G419" s="3">
-        <v>3.94</v>
-      </c>
+      <c r="G419" s="59"/>
+      <c r="H419" s="59"/>
+      <c r="I419" s="59"/>
+      <c r="J419" s="59"/>
+      <c r="K419" s="59"/>
+      <c r="L419" s="59"/>
+      <c r="M419" s="59"/>
+      <c r="N419" s="59"/>
+      <c r="O419" s="59"/>
+      <c r="P419" s="59"/>
+      <c r="Q419" s="59"/>
+      <c r="R419" s="59"/>
+      <c r="S419" s="61"/>
+      <c r="T419" s="61"/>
+      <c r="U419" s="61"/>
+      <c r="V419" s="61"/>
+      <c r="W419" s="61"/>
+      <c r="X419" s="61"/>
+      <c r="Y419" s="109"/>
+      <c r="Z419" s="109"/>
+      <c r="AA419" s="109"/>
+      <c r="AB419" s="109"/>
+      <c r="AC419" s="109"/>
+      <c r="AD419" s="109"/>
     </row>
     <row r="420" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A420" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="B420" s="1">
-        <v>7</v>
-      </c>
-      <c r="C420" s="1">
-        <v>2</v>
-      </c>
       <c r="D420">
         <f t="shared" si="25"/>
-        <v>408</v>
-      </c>
-      <c r="E420" s="5" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G420" s="7">
-        <v>13.38</v>
-      </c>
-      <c r="H420" s="6">
-        <f>+G420*L420</f>
-        <v>696.13658010000006</v>
-      </c>
-      <c r="I420" s="6">
-        <f>+[166]Main!$L$5-[166]Main!$L$6</f>
-        <v>193.8</v>
-      </c>
-      <c r="J420" s="6">
-        <f>+H420-I420</f>
-        <v>502.33658010000005</v>
-      </c>
-      <c r="K420" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L420" s="6">
-        <f>+[166]Main!$L$3</f>
-        <v>52.028145000000002</v>
-      </c>
-      <c r="M420" s="9">
-        <v>45691</v>
+        <v>407</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G420" s="3">
+        <v>3.94</v>
       </c>
     </row>
     <row r="421" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A421" s="101" t="s">
         <v>333</v>
       </c>
+      <c r="B421" s="1">
+        <v>7</v>
+      </c>
+      <c r="C421" s="1">
+        <v>2</v>
+      </c>
       <c r="D421">
         <f t="shared" si="25"/>
-        <v>409</v>
-      </c>
-      <c r="E421" s="1" t="s">
-        <v>1653</v>
+        <v>408</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>1790</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="G421" s="3">
-        <v>6.87</v>
+        <v>1791</v>
+      </c>
+      <c r="G421" s="7">
+        <v>13.38</v>
+      </c>
+      <c r="H421" s="6">
+        <f>+G421*L421</f>
+        <v>696.13658010000006</v>
+      </c>
+      <c r="I421" s="6">
+        <f>+[168]Main!$L$5-[168]Main!$L$6</f>
+        <v>193.8</v>
+      </c>
+      <c r="J421" s="6">
+        <f>+H421-I421</f>
+        <v>502.33658010000005</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L421" s="6">
+        <f>+[168]Main!$L$3</f>
+        <v>52.028145000000002</v>
+      </c>
+      <c r="M421" s="9">
+        <v>45691</v>
       </c>
     </row>
     <row r="422" spans="1:30" x14ac:dyDescent="0.25">
@@ -29610,16 +29724,16 @@
       </c>
       <c r="D422">
         <f t="shared" si="25"/>
-        <v>410</v>
-      </c>
-      <c r="E422" t="s">
-        <v>1900</v>
-      </c>
-      <c r="F422" t="s">
-        <v>1901</v>
+        <v>409</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>1654</v>
       </c>
       <c r="G422" s="3">
-        <v>16.34</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="423" spans="1:30" x14ac:dyDescent="0.25">
@@ -29628,16 +29742,16 @@
       </c>
       <c r="D423">
         <f t="shared" si="25"/>
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E423" t="s">
-        <v>1655</v>
+        <v>1900</v>
       </c>
       <c r="F423" t="s">
-        <v>1656</v>
+        <v>1901</v>
       </c>
       <c r="G423" s="3">
-        <v>19.05</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="424" spans="1:30" x14ac:dyDescent="0.25">
@@ -29646,16 +29760,16 @@
       </c>
       <c r="D424">
         <f t="shared" si="25"/>
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E424" t="s">
-        <v>1933</v>
+        <v>1655</v>
       </c>
       <c r="F424" t="s">
-        <v>1142</v>
+        <v>1656</v>
       </c>
       <c r="G424" s="3">
-        <v>7.13</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="425" spans="1:30" x14ac:dyDescent="0.25">
@@ -29664,16 +29778,16 @@
       </c>
       <c r="D425">
         <f t="shared" si="25"/>
-        <v>413</v>
-      </c>
-      <c r="E425" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>1691</v>
+        <v>412</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1142</v>
       </c>
       <c r="G425" s="3">
-        <v>4.1399999999999997</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="426" spans="1:30" x14ac:dyDescent="0.25">
@@ -29682,38 +29796,16 @@
       </c>
       <c r="D426">
         <f t="shared" si="25"/>
-        <v>414</v>
-      </c>
-      <c r="E426" s="5" t="s">
-        <v>1834</v>
+        <v>413</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1110</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G426" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="H426" s="6">
-        <f>+G426*L426</f>
-        <v>420.99239325000002</v>
-      </c>
-      <c r="I426" s="6">
-        <f>[167]Main!$I$5-[167]Main!$I$6</f>
-        <v>358.29200000000003</v>
-      </c>
-      <c r="J426" s="6">
-        <f>+H426-I426</f>
-        <v>62.700393249999991</v>
-      </c>
-      <c r="K426" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L426" s="6">
-        <f>+[167]Main!$I$3</f>
-        <v>129.53612100000001</v>
-      </c>
-      <c r="M426" s="9">
-        <v>45846</v>
+        <v>1691</v>
+      </c>
+      <c r="G426" s="3">
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="427" spans="1:30" x14ac:dyDescent="0.25">
@@ -29722,1104 +29814,1126 @@
       </c>
       <c r="D427">
         <f t="shared" si="25"/>
-        <v>415</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F427" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G427" s="3">
-        <v>61.58</v>
+        <v>414</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G427" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="H427" s="6">
+        <f>+G427*L427</f>
+        <v>420.99239325000002</v>
+      </c>
+      <c r="I427" s="6">
+        <f>[169]Main!$I$5-[169]Main!$I$6</f>
+        <v>358.29200000000003</v>
+      </c>
+      <c r="J427" s="6">
+        <f>+H427-I427</f>
+        <v>62.700393249999991</v>
+      </c>
+      <c r="K427" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L427" s="6">
+        <f>+[169]Main!$I$3</f>
+        <v>129.53612100000001</v>
+      </c>
+      <c r="M427" s="9">
+        <v>45846</v>
       </c>
     </row>
     <row r="428" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B428" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C428" s="1">
-        <v>3</v>
+      <c r="A428" s="101" t="s">
+        <v>333</v>
       </c>
       <c r="D428">
         <f t="shared" si="25"/>
-        <v>416</v>
-      </c>
-      <c r="E428" s="5" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G428" s="7">
-        <v>1.89</v>
-      </c>
-      <c r="H428" s="6">
-        <f>+G428*L428</f>
-        <v>92.147802389999995</v>
-      </c>
-      <c r="I428" s="6">
-        <f>+[168]Main!$K$5-[168]Main!$K$6</f>
-        <v>41.556999999999995</v>
-      </c>
-      <c r="J428" s="6">
-        <f>+H428-I428</f>
-        <v>50.59080239</v>
-      </c>
-      <c r="K428" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L428" s="6">
-        <f>+[168]Main!$K$3</f>
-        <v>48.755451000000001</v>
-      </c>
-      <c r="M428" s="9">
-        <v>45733</v>
+        <v>415</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G428" s="3">
+        <v>61.58</v>
       </c>
     </row>
     <row r="429" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C429" s="1">
         <v>3</v>
       </c>
       <c r="D429">
         <f t="shared" si="25"/>
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F429" t="s">
-        <v>1792</v>
+        <v>1820</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>1821</v>
       </c>
       <c r="G429" s="7">
-        <v>0.74</v>
+        <v>1.89</v>
       </c>
       <c r="H429" s="6">
         <f>+G429*L429</f>
-        <v>88.771469299999993</v>
+        <v>92.147802389999995</v>
       </c>
       <c r="I429" s="6">
-        <f>+[169]Main!$M$5-[169]Main!$M$6</f>
-        <v>69.349000000000004</v>
+        <f>+[170]Main!$K$5-[170]Main!$K$6</f>
+        <v>41.556999999999995</v>
       </c>
       <c r="J429" s="6">
         <f>+H429-I429</f>
-        <v>19.422469299999989</v>
+        <v>50.59080239</v>
       </c>
       <c r="K429" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="L429" s="6">
-        <f>+[169]Main!$M$3</f>
-        <v>119.961445</v>
+        <f>+[170]Main!$K$3</f>
+        <v>48.755451000000001</v>
       </c>
       <c r="M429" s="9">
-        <v>45750</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="430" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B430" s="1">
+        <v>7</v>
+      </c>
+      <c r="C430" s="1">
+        <v>3</v>
+      </c>
       <c r="D430">
         <f t="shared" si="25"/>
-        <v>418</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>1794</v>
+        <v>417</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>1793</v>
       </c>
       <c r="F430" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="G430" s="7">
-        <v>16</v>
+        <v>0.74</v>
+      </c>
+      <c r="H430" s="6">
+        <f>+G430*L430</f>
+        <v>88.771469299999993</v>
+      </c>
+      <c r="I430" s="6">
+        <f>+[171]Main!$M$5-[171]Main!$M$6</f>
+        <v>69.349000000000004</v>
+      </c>
+      <c r="J430" s="6">
+        <f>+H430-I430</f>
+        <v>19.422469299999989</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L430" s="6">
+        <f>+[171]Main!$M$3</f>
+        <v>119.961445</v>
+      </c>
+      <c r="M430" s="9">
+        <v>45750</v>
       </c>
     </row>
     <row r="431" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D431">
         <f t="shared" si="25"/>
-        <v>419</v>
-      </c>
-      <c r="E431" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>1809</v>
+        <v>418</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1795</v>
       </c>
       <c r="G431" s="7">
-        <v>0.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D432">
         <f t="shared" si="25"/>
+        <v>419</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G432" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="433" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <f t="shared" si="25"/>
         <v>420</v>
       </c>
-      <c r="E432" s="1" t="s">
+      <c r="E433" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F433" t="s">
         <v>1813</v>
       </c>
-      <c r="G432" s="3">
+      <c r="G433" s="3">
         <v>19.45</v>
       </c>
     </row>
-    <row r="433" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B433" s="33">
+    <row r="434" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B434" s="33">
         <v>3</v>
       </c>
-      <c r="C433" s="33">
+      <c r="C434" s="33">
         <v>4</v>
       </c>
-      <c r="D433" s="33">
+      <c r="D434" s="33">
         <f t="shared" si="25"/>
         <v>421</v>
       </c>
-      <c r="E433" s="58" t="s">
+      <c r="E434" s="58" t="s">
         <v>1832</v>
       </c>
-      <c r="F433" s="33" t="s">
+      <c r="F434" s="33" t="s">
         <v>1833</v>
       </c>
-      <c r="G433" s="59">
+      <c r="G434" s="59">
         <v>0.31</v>
       </c>
-      <c r="H433" s="35">
-        <f>+G433*L433</f>
+      <c r="H434" s="35">
+        <f>+G434*L434</f>
         <v>18.356896450000001</v>
       </c>
-      <c r="I433" s="35">
-        <f>+[170]Sheet1!$J$5-[170]Sheet1!$J$6</f>
+      <c r="I434" s="35">
+        <f>+[172]Sheet1!$J$5-[172]Sheet1!$J$6</f>
         <v>62.05</v>
       </c>
-      <c r="J433" s="35">
-        <f>+H433-I433</f>
+      <c r="J434" s="35">
+        <f>+H434-I434</f>
         <v>-43.693103549999996</v>
       </c>
-      <c r="K433" s="59" t="s">
+      <c r="K434" s="59" t="s">
         <v>1276</v>
       </c>
-      <c r="L433" s="35">
-        <f>+[170]Sheet1!$J$3</f>
+      <c r="L434" s="35">
+        <f>+[172]Sheet1!$J$3</f>
         <v>59.215795</v>
       </c>
-      <c r="M433" s="60">
+      <c r="M434" s="60">
         <v>45763</v>
       </c>
-      <c r="N433" s="59"/>
-      <c r="O433" s="59"/>
-      <c r="P433" s="59"/>
-      <c r="Q433" s="59"/>
-      <c r="R433" s="59"/>
-      <c r="S433" s="61"/>
-      <c r="T433" s="61"/>
-      <c r="U433" s="61"/>
-      <c r="V433" s="61"/>
-      <c r="W433" s="61"/>
-      <c r="X433" s="61"/>
-      <c r="Y433" s="109"/>
-      <c r="Z433" s="109"/>
-      <c r="AA433" s="109"/>
-      <c r="AB433" s="109"/>
-      <c r="AC433" s="109"/>
-      <c r="AD433" s="109"/>
-    </row>
-    <row r="434" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D434">
-        <f t="shared" si="25"/>
-        <v>422</v>
-      </c>
-      <c r="E434" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F434" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G434" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="H434" s="6">
-        <f>+G434*[171]Main!$K$3</f>
-        <v>265.50328000000002</v>
-      </c>
-      <c r="I434" s="6">
-        <f>+[171]Main!$K$5-[171]Main!$K$6</f>
-        <v>371.63900000000001</v>
-      </c>
-      <c r="J434" s="6">
-        <f>+H434-I434</f>
-        <v>-106.13571999999999</v>
-      </c>
-      <c r="K434" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L434" s="6">
-        <f>+[171]Main!$K$3</f>
-        <v>158.98400000000001</v>
-      </c>
-      <c r="M434" s="9">
-        <v>45600</v>
-      </c>
+      <c r="N434" s="59"/>
+      <c r="O434" s="59"/>
+      <c r="P434" s="59"/>
+      <c r="Q434" s="59"/>
+      <c r="R434" s="59"/>
+      <c r="S434" s="61"/>
+      <c r="T434" s="61"/>
+      <c r="U434" s="61"/>
+      <c r="V434" s="61"/>
+      <c r="W434" s="61"/>
+      <c r="X434" s="61"/>
+      <c r="Y434" s="109"/>
+      <c r="Z434" s="109"/>
+      <c r="AA434" s="109"/>
+      <c r="AB434" s="109"/>
+      <c r="AC434" s="109"/>
+      <c r="AD434" s="109"/>
     </row>
     <row r="435" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D435">
         <f t="shared" si="25"/>
-        <v>423</v>
-      </c>
-      <c r="E435" t="s">
-        <v>1811</v>
+        <v>422</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>1294</v>
       </c>
       <c r="F435" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G435" s="3">
-        <v>1.31</v>
+        <v>1295</v>
+      </c>
+      <c r="G435" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="H435" s="6">
+        <f>+G435*[173]Main!$K$3</f>
+        <v>265.50328000000002</v>
+      </c>
+      <c r="I435" s="6">
+        <f>+[173]Main!$K$5-[173]Main!$K$6</f>
+        <v>371.63900000000001</v>
+      </c>
+      <c r="J435" s="6">
+        <f>+H435-I435</f>
+        <v>-106.13571999999999</v>
+      </c>
+      <c r="K435" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L435" s="6">
+        <f>+[173]Main!$K$3</f>
+        <v>158.98400000000001</v>
+      </c>
+      <c r="M435" s="9">
+        <v>45600</v>
       </c>
     </row>
     <row r="436" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D436">
         <f t="shared" si="25"/>
-        <v>424</v>
-      </c>
-      <c r="E436" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>1839</v>
+        <v>423</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1812</v>
       </c>
       <c r="G436" s="3">
-        <v>5.17</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="437" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D437">
         <f t="shared" si="25"/>
-        <v>425</v>
-      </c>
-      <c r="E437" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1841</v>
+        <v>424</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>1839</v>
       </c>
       <c r="G437" s="3">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="438" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>333</v>
-      </c>
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="438" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D438">
         <f t="shared" si="25"/>
-        <v>426</v>
-      </c>
-      <c r="E438" s="5" t="s">
-        <v>772</v>
+        <v>425</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1840</v>
       </c>
       <c r="F438" t="s">
-        <v>773</v>
-      </c>
-      <c r="G438" s="53">
-        <v>2.46</v>
-      </c>
-      <c r="H438" s="29">
-        <f>+G438*L438</f>
-        <v>118.02136836</v>
-      </c>
-      <c r="I438" s="29">
-        <f>+[172]Main!$J$5-[172]Main!$J$6</f>
-        <v>149</v>
-      </c>
-      <c r="J438" s="29">
-        <f>+H438-I438</f>
-        <v>-30.978631640000003</v>
-      </c>
-      <c r="K438" s="27" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L438" s="29">
-        <f>+[172]Main!$J$3</f>
-        <v>47.976165999999999</v>
-      </c>
-      <c r="M438" s="36">
-        <v>45628</v>
-      </c>
-      <c r="N438" s="27"/>
-      <c r="O438" s="27"/>
-      <c r="P438" s="27"/>
-      <c r="Q438" s="27"/>
-      <c r="R438" s="27"/>
-      <c r="S438" s="57"/>
-      <c r="T438" s="57"/>
-      <c r="U438" s="57"/>
-      <c r="V438" s="57"/>
-      <c r="W438" s="57"/>
-      <c r="X438" s="57"/>
-      <c r="Y438" s="105"/>
-      <c r="Z438" s="105"/>
-      <c r="AA438" s="105"/>
-      <c r="AB438" s="105"/>
-      <c r="AC438" s="105"/>
-      <c r="AD438" s="105"/>
-    </row>
-    <row r="439" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1841</v>
+      </c>
+      <c r="G438" s="3">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="439" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>333</v>
+      </c>
       <c r="D439">
         <f t="shared" si="25"/>
-        <v>427</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G439" s="3">
-        <v>0.37</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F439" t="s">
+        <v>773</v>
+      </c>
+      <c r="G439" s="53">
+        <v>2.46</v>
+      </c>
+      <c r="H439" s="29">
+        <f>+G439*L439</f>
+        <v>118.02136836</v>
+      </c>
+      <c r="I439" s="29">
+        <f>+[174]Main!$J$5-[174]Main!$J$6</f>
+        <v>149</v>
+      </c>
+      <c r="J439" s="29">
+        <f>+H439-I439</f>
+        <v>-30.978631640000003</v>
+      </c>
+      <c r="K439" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L439" s="29">
+        <f>+[174]Main!$J$3</f>
+        <v>47.976165999999999</v>
+      </c>
+      <c r="M439" s="36">
+        <v>45628</v>
+      </c>
+      <c r="N439" s="27"/>
+      <c r="O439" s="27"/>
+      <c r="P439" s="27"/>
+      <c r="Q439" s="27"/>
+      <c r="R439" s="27"/>
+      <c r="S439" s="57"/>
+      <c r="T439" s="57"/>
+      <c r="U439" s="57"/>
+      <c r="V439" s="57"/>
+      <c r="W439" s="57"/>
+      <c r="X439" s="57"/>
+      <c r="Y439" s="105"/>
+      <c r="Z439" s="105"/>
+      <c r="AA439" s="105"/>
+      <c r="AB439" s="105"/>
+      <c r="AC439" s="105"/>
+      <c r="AD439" s="105"/>
     </row>
     <row r="440" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D440">
         <f t="shared" si="25"/>
-        <v>428</v>
-      </c>
-      <c r="E440" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F440" t="s">
-        <v>1664</v>
+        <v>427</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>1658</v>
       </c>
       <c r="G440" s="3">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="441" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D441">
         <f t="shared" si="25"/>
-        <v>429</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>1665</v>
+        <v>428</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1664</v>
       </c>
       <c r="G441" s="3">
-        <v>1.31</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="442" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D442">
         <f t="shared" si="25"/>
-        <v>430</v>
-      </c>
-      <c r="E442" t="s">
-        <v>1671</v>
-      </c>
-      <c r="F442" t="s">
-        <v>1672</v>
+        <v>429</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>1665</v>
       </c>
       <c r="G442" s="3">
-        <v>9.9499999999999993</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="443" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D443">
-        <f t="shared" ref="D443:D506" si="28">+D442+1</f>
-        <v>431</v>
+        <f t="shared" si="25"/>
+        <v>430</v>
       </c>
       <c r="E443" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F443" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="G443" s="3">
-        <v>12.46</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="444" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D444">
-        <f t="shared" si="28"/>
-        <v>432</v>
+        <f t="shared" ref="D444:D507" si="28">+D443+1</f>
+        <v>431</v>
       </c>
       <c r="E444" t="s">
-        <v>1651</v>
+        <v>1673</v>
       </c>
       <c r="F444" t="s">
-        <v>1652</v>
+        <v>1674</v>
       </c>
       <c r="G444" s="3">
-        <v>1.01</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="445" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D445">
         <f t="shared" si="28"/>
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E445" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>1993</v>
+        <v>1651</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1652</v>
       </c>
       <c r="G445" s="3">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="446" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D446">
         <f t="shared" si="28"/>
-        <v>434</v>
-      </c>
-      <c r="E446" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F446" t="s">
-        <v>1613</v>
+        <v>433</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>1993</v>
       </c>
       <c r="G446" s="3">
-        <v>3.35</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="447" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D447">
         <f t="shared" si="28"/>
-        <v>435</v>
-      </c>
-      <c r="E447" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>1618</v>
+        <v>434</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1613</v>
       </c>
       <c r="G447" s="3">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="448" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D448">
         <f t="shared" si="28"/>
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E448" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F448" t="s">
-        <v>1620</v>
+        <v>1617</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>1618</v>
       </c>
       <c r="G448" s="3">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="449" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D449">
         <f t="shared" si="28"/>
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E449" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="F449" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="G449" s="3">
-        <v>0.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="450" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D450">
         <f t="shared" si="28"/>
-        <v>438</v>
-      </c>
-      <c r="E450" s="5" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>1631</v>
+        <v>437</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1628</v>
       </c>
       <c r="G450" s="3">
-        <v>7.98</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="451" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D451">
         <f t="shared" si="28"/>
-        <v>439</v>
-      </c>
-      <c r="E451" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F451" t="s">
-        <v>1302</v>
+        <v>438</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>1631</v>
       </c>
       <c r="G451" s="3">
-        <v>0.85</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="452" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D452">
         <f t="shared" si="28"/>
-        <v>440</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>1994</v>
+        <v>439</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1302</v>
       </c>
       <c r="G452" s="3">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="453" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D453">
         <f t="shared" si="28"/>
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1188</v>
+        <v>1352</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1189</v>
+        <v>1994</v>
       </c>
       <c r="G453" s="3">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="454" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D454">
         <f t="shared" si="28"/>
+        <v>441</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G454" s="3">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="455" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D455">
+        <f t="shared" si="28"/>
         <v>442</v>
       </c>
-      <c r="E454" s="1" t="s">
+      <c r="E455" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="F454" t="s">
+      <c r="F455" t="s">
         <v>1271</v>
       </c>
-      <c r="G454" s="7">
+      <c r="G455" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="4:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D455" s="33">
+    <row r="456" spans="4:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D456" s="33">
         <f t="shared" si="28"/>
         <v>443</v>
       </c>
-      <c r="E455" s="33" t="s">
+      <c r="E456" s="33" t="s">
         <v>1299</v>
       </c>
-      <c r="F455" s="33" t="s">
+      <c r="F456" s="33" t="s">
         <v>1300</v>
       </c>
-      <c r="G455" s="59"/>
-      <c r="H455" s="59"/>
-      <c r="I455" s="59"/>
-      <c r="J455" s="59"/>
-      <c r="K455" s="59"/>
-      <c r="L455" s="59"/>
-      <c r="M455" s="59"/>
-      <c r="N455" s="59"/>
-      <c r="O455" s="59"/>
-      <c r="P455" s="59"/>
-      <c r="Q455" s="59"/>
-      <c r="R455" s="59"/>
-      <c r="S455" s="61"/>
-      <c r="T455" s="61"/>
-      <c r="U455" s="61"/>
-      <c r="V455" s="61"/>
-      <c r="W455" s="61"/>
-      <c r="X455" s="61"/>
-      <c r="Y455" s="109"/>
-      <c r="Z455" s="109"/>
-      <c r="AA455" s="109"/>
-      <c r="AB455" s="109"/>
-      <c r="AC455" s="109"/>
-      <c r="AD455" s="109"/>
-    </row>
-    <row r="456" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D456">
-        <f t="shared" si="28"/>
-        <v>444</v>
-      </c>
-      <c r="E456" s="39" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F456" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G456" s="7">
-        <v>1.54</v>
-      </c>
-      <c r="H456" s="6">
-        <f t="shared" ref="H456:H465" si="29">+G456*L456</f>
-        <v>75.270832560000002</v>
-      </c>
-      <c r="I456" s="6">
-        <f>+[173]Main!$K$5-[173]Main!$K$6</f>
-        <v>183.012</v>
-      </c>
-      <c r="J456" s="6">
-        <f t="shared" ref="J456:J465" si="30">+H456-I456</f>
-        <v>-107.74116744</v>
-      </c>
-      <c r="K456" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L456" s="6">
-        <f>+[173]Main!$K$3</f>
-        <v>48.877164</v>
-      </c>
-      <c r="M456" s="9">
-        <v>45629</v>
-      </c>
+      <c r="G456" s="59"/>
+      <c r="H456" s="59"/>
+      <c r="I456" s="59"/>
+      <c r="J456" s="59"/>
+      <c r="K456" s="59"/>
+      <c r="L456" s="59"/>
+      <c r="M456" s="59"/>
+      <c r="N456" s="59"/>
+      <c r="O456" s="59"/>
+      <c r="P456" s="59"/>
+      <c r="Q456" s="59"/>
+      <c r="R456" s="59"/>
+      <c r="S456" s="61"/>
+      <c r="T456" s="61"/>
+      <c r="U456" s="61"/>
+      <c r="V456" s="61"/>
+      <c r="W456" s="61"/>
+      <c r="X456" s="61"/>
+      <c r="Y456" s="109"/>
+      <c r="Z456" s="109"/>
+      <c r="AA456" s="109"/>
+      <c r="AB456" s="109"/>
+      <c r="AC456" s="109"/>
+      <c r="AD456" s="109"/>
     </row>
     <row r="457" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D457">
         <f t="shared" si="28"/>
-        <v>445</v>
-      </c>
-      <c r="E457" s="5" t="s">
-        <v>1158</v>
+        <v>444</v>
+      </c>
+      <c r="E457" s="39" t="s">
+        <v>1626</v>
       </c>
       <c r="F457" t="s">
-        <v>1159</v>
+        <v>1625</v>
       </c>
       <c r="G457" s="7">
-        <v>1.1499999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="H457" s="6">
-        <f t="shared" si="29"/>
-        <v>42.342781499999994</v>
+        <f t="shared" ref="H457:H466" si="29">+G457*L457</f>
+        <v>75.270832560000002</v>
       </c>
       <c r="I457" s="6">
-        <f>+[174]Main!$L$5-[174]Main!$L$6</f>
-        <v>33.507724000000003</v>
+        <f>+[175]Main!$K$5-[175]Main!$K$6</f>
+        <v>183.012</v>
       </c>
       <c r="J457" s="6">
-        <f t="shared" si="30"/>
-        <v>8.8350574999999907</v>
+        <f t="shared" ref="J457:J466" si="30">+H457-I457</f>
+        <v>-107.74116744</v>
       </c>
       <c r="K457" s="3" t="s">
-        <v>1069</v>
+        <v>1275</v>
       </c>
       <c r="L457" s="6">
-        <f>+[174]Main!$L$3</f>
-        <v>36.819809999999997</v>
+        <f>+[175]Main!$K$3</f>
+        <v>48.877164</v>
       </c>
       <c r="M457" s="9">
-        <v>45567</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="458" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D458">
         <f t="shared" si="28"/>
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E458" s="5" t="s">
-        <v>1608</v>
+        <v>1158</v>
       </c>
       <c r="F458" t="s">
-        <v>1609</v>
+        <v>1159</v>
       </c>
       <c r="G458" s="7">
-        <v>3.02</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H458" s="6">
         <f t="shared" si="29"/>
-        <v>73.353770560000001</v>
+        <v>42.342781499999994</v>
       </c>
       <c r="I458" s="6">
-        <f>+[175]Main!$K$5-[175]Main!$K$6</f>
-        <v>199.59700000000001</v>
+        <f>+[176]Main!$L$5-[176]Main!$L$6</f>
+        <v>33.507724000000003</v>
       </c>
       <c r="J458" s="6">
         <f t="shared" si="30"/>
-        <v>-126.24322944000001</v>
+        <v>8.8350574999999907</v>
       </c>
       <c r="K458" s="3" t="s">
-        <v>1275</v>
+        <v>1069</v>
       </c>
       <c r="L458" s="6">
-        <f>+[175]Main!$K$3</f>
-        <v>24.289328000000001</v>
+        <f>+[176]Main!$L$3</f>
+        <v>36.819809999999997</v>
       </c>
       <c r="M458" s="9">
-        <v>45608</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="459" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D459">
         <f t="shared" si="28"/>
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="F459" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G459" s="3">
-        <v>0.32</v>
+        <v>1609</v>
+      </c>
+      <c r="G459" s="7">
+        <v>3.02</v>
       </c>
       <c r="H459" s="6">
         <f t="shared" si="29"/>
-        <v>12.26172704</v>
+        <v>73.353770560000001</v>
       </c>
       <c r="I459" s="6">
-        <f>+[176]Main!$K$5-[176]Main!$K$6</f>
-        <v>62.823</v>
+        <f>+[177]Main!$K$5-[177]Main!$K$6</f>
+        <v>199.59700000000001</v>
       </c>
       <c r="J459" s="6">
         <f t="shared" si="30"/>
-        <v>-50.561272959999997</v>
+        <v>-126.24322944000001</v>
       </c>
       <c r="K459" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L459" s="6">
-        <f>+[176]Main!$K$3</f>
-        <v>38.317897000000002</v>
+        <f>+[177]Main!$K$3</f>
+        <v>24.289328000000001</v>
       </c>
       <c r="M459" s="9">
-        <v>45629</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="460" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D460">
         <f t="shared" si="28"/>
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E460" s="5" t="s">
-        <v>1641</v>
+        <v>1624</v>
       </c>
       <c r="F460" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G460" s="7">
-        <v>0.46</v>
+        <v>1623</v>
+      </c>
+      <c r="G460" s="3">
+        <v>0.32</v>
       </c>
       <c r="H460" s="6">
         <f t="shared" si="29"/>
-        <v>15.382951539999999</v>
+        <v>12.26172704</v>
       </c>
       <c r="I460" s="6">
-        <f>+[177]Main!$K$5-[177]Main!$K$6</f>
-        <v>5.4758170000000002</v>
+        <f>+[178]Main!$K$5-[178]Main!$K$6</f>
+        <v>62.823</v>
       </c>
       <c r="J460" s="6">
         <f t="shared" si="30"/>
-        <v>9.9071345399999977</v>
+        <v>-50.561272959999997</v>
       </c>
       <c r="K460" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L460" s="6">
-        <f>+[177]Main!$K$3</f>
-        <v>33.441198999999997</v>
+        <f>+[178]Main!$K$3</f>
+        <v>38.317897000000002</v>
       </c>
       <c r="M460" s="9">
-        <v>45630</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="461" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D461">
         <f t="shared" si="28"/>
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E461" s="5" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="F461" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G461" s="3">
-        <v>0.99</v>
+        <v>1642</v>
+      </c>
+      <c r="G461" s="7">
+        <v>0.46</v>
       </c>
       <c r="H461" s="6">
         <f t="shared" si="29"/>
-        <v>100.25985420000001</v>
+        <v>15.382951539999999</v>
       </c>
       <c r="I461" s="6">
-        <f>+[178]Main!$L$5-[178]Main!$L$6</f>
-        <v>59.1</v>
+        <f>+[179]Main!$K$5-[179]Main!$K$6</f>
+        <v>5.4758170000000002</v>
       </c>
       <c r="J461" s="6">
         <f t="shared" si="30"/>
-        <v>41.159854200000005</v>
+        <v>9.9071345399999977</v>
       </c>
       <c r="K461" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L461" s="6">
-        <f>+[178]Main!$L$3</f>
-        <v>101.27258</v>
+        <f>+[179]Main!$K$3</f>
+        <v>33.441198999999997</v>
       </c>
       <c r="M461" s="9">
-        <v>45656</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="462" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D462">
         <f t="shared" si="28"/>
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E462" s="5" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="F462" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="G462" s="3">
-        <v>5.95</v>
+        <v>0.99</v>
       </c>
       <c r="H462" s="6">
         <f t="shared" si="29"/>
-        <v>209.98488314999997</v>
+        <v>100.25985420000001</v>
       </c>
       <c r="I462" s="6">
-        <f>+[179]Main!$K$5-[179]Main!$K$6</f>
-        <v>98.310918000000001</v>
+        <f>+[180]Main!$L$5-[180]Main!$L$6</f>
+        <v>59.1</v>
       </c>
       <c r="J462" s="6">
         <f t="shared" si="30"/>
-        <v>111.67396514999997</v>
+        <v>41.159854200000005</v>
       </c>
       <c r="K462" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L462" s="6">
-        <f>+[179]Main!$K$3</f>
-        <v>35.291576999999997</v>
+        <f>+[180]Main!$L$3</f>
+        <v>101.27258</v>
       </c>
       <c r="M462" s="9">
-        <v>45660</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="463" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D463">
         <f t="shared" si="28"/>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>1606</v>
+        <v>1667</v>
       </c>
       <c r="F463" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G463" s="7">
-        <v>1.93</v>
+        <v>1668</v>
+      </c>
+      <c r="G463" s="3">
+        <v>5.95</v>
       </c>
       <c r="H463" s="6">
         <f t="shared" si="29"/>
-        <v>23.307475159999999</v>
+        <v>209.98488314999997</v>
       </c>
       <c r="I463" s="6">
-        <f>+[180]Main!$K$5-[180]Main!$K$6</f>
-        <v>89.078000000000003</v>
+        <f>+[181]Main!$K$5-[181]Main!$K$6</f>
+        <v>98.310918000000001</v>
       </c>
       <c r="J463" s="6">
         <f t="shared" si="30"/>
-        <v>-65.770524840000007</v>
+        <v>111.67396514999997</v>
       </c>
       <c r="K463" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L463" s="6">
-        <f>+[180]Main!$K$3</f>
-        <v>12.076411999999999</v>
+        <f>+[181]Main!$K$3</f>
+        <v>35.291576999999997</v>
       </c>
       <c r="M463" s="9">
-        <v>45608</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="464" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D464">
         <f t="shared" si="28"/>
-        <v>452</v>
-      </c>
-      <c r="E464" s="39" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>1126</v>
+        <v>451</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F464" t="s">
+        <v>1607</v>
       </c>
       <c r="G464" s="7">
-        <v>11.12</v>
+        <v>1.93</v>
       </c>
       <c r="H464" s="6">
         <f t="shared" si="29"/>
-        <v>311.35468463999996</v>
+        <v>23.307475159999999</v>
       </c>
       <c r="I464" s="6">
-        <f>+[181]Main!$K$5-[181]Main!$K$6</f>
-        <v>15.414999999999999</v>
+        <f>+[182]Main!$K$5-[182]Main!$K$6</f>
+        <v>89.078000000000003</v>
       </c>
       <c r="J464" s="6">
         <f t="shared" si="30"/>
-        <v>295.93968463999994</v>
+        <v>-65.770524840000007</v>
       </c>
       <c r="K464" s="3" t="s">
-        <v>1069</v>
+        <v>1275</v>
       </c>
       <c r="L464" s="6">
-        <f>+[181]Main!$K$3</f>
-        <v>27.999521999999999</v>
+        <f>+[182]Main!$K$3</f>
+        <v>12.076411999999999</v>
       </c>
       <c r="M464" s="9">
-        <v>45474</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="465" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D465">
         <f t="shared" si="28"/>
-        <v>453</v>
-      </c>
-      <c r="E465" s="5" t="s">
-        <v>1616</v>
+        <v>452</v>
+      </c>
+      <c r="E465" s="39" t="s">
+        <v>1125</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G465" s="3">
-        <v>3.59</v>
+        <v>1126</v>
+      </c>
+      <c r="G465" s="7">
+        <v>11.12</v>
       </c>
       <c r="H465" s="6">
         <f t="shared" si="29"/>
-        <v>225.31495175000001</v>
+        <v>311.35468463999996</v>
       </c>
       <c r="I465" s="6">
-        <f>+[182]Main!$K$5-[182]Main!$K$6</f>
-        <v>-77.494</v>
+        <f>+[183]Main!$K$5-[183]Main!$K$6</f>
+        <v>15.414999999999999</v>
       </c>
       <c r="J465" s="6">
         <f t="shared" si="30"/>
-        <v>302.80895175000001</v>
+        <v>295.93968463999994</v>
       </c>
       <c r="K465" s="3" t="s">
-        <v>1275</v>
+        <v>1069</v>
       </c>
       <c r="L465" s="6">
-        <f>+[182]Main!$K$3</f>
-        <v>62.761825000000002</v>
+        <f>+[183]Main!$K$3</f>
+        <v>27.999521999999999</v>
       </c>
       <c r="M465" s="9">
-        <v>45628</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="466" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A466"/>
-      <c r="B466"/>
-      <c r="C466"/>
       <c r="D466">
         <f t="shared" si="28"/>
-        <v>454</v>
-      </c>
-      <c r="E466" t="s">
-        <v>971</v>
-      </c>
-      <c r="F466" t="s">
-        <v>972</v>
+        <v>453</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>1615</v>
       </c>
       <c r="G466" s="3">
-        <v>3.01</v>
+        <v>3.59</v>
+      </c>
+      <c r="H466" s="6">
+        <f t="shared" si="29"/>
+        <v>225.31495175000001</v>
+      </c>
+      <c r="I466" s="6">
+        <f>+[184]Main!$K$5-[184]Main!$K$6</f>
+        <v>-77.494</v>
+      </c>
+      <c r="J466" s="6">
+        <f t="shared" si="30"/>
+        <v>302.80895175000001</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L466" s="6">
+        <f>+[184]Main!$K$3</f>
+        <v>62.761825000000002</v>
+      </c>
+      <c r="M466" s="9">
+        <v>45628</v>
       </c>
     </row>
     <row r="467" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A467"/>
+      <c r="B467"/>
+      <c r="C467"/>
       <c r="D467">
         <f t="shared" si="28"/>
-        <v>455</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>1093</v>
+        <v>454</v>
+      </c>
+      <c r="E467" t="s">
+        <v>971</v>
+      </c>
+      <c r="F467" t="s">
+        <v>972</v>
       </c>
       <c r="G467" s="3">
-        <v>6.32</v>
-      </c>
-      <c r="H467" s="3">
-        <v>91</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="468" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A468"/>
-      <c r="B468"/>
-      <c r="C468"/>
       <c r="D468">
         <f t="shared" si="28"/>
+        <v>455</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G468" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="H468" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="469" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A469"/>
+      <c r="B469"/>
+      <c r="C469"/>
+      <c r="D469">
+        <f t="shared" si="28"/>
         <v>456</v>
       </c>
-      <c r="E468" t="s">
+      <c r="E469" t="s">
         <v>957</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F469" t="s">
         <v>958</v>
       </c>
-      <c r="G468" s="3">
+      <c r="G469" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H468" s="3">
+      <c r="H469" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="469" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D469" s="33">
+    <row r="470" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D470" s="33">
         <f t="shared" si="28"/>
         <v>457</v>
       </c>
-      <c r="E469" s="33" t="s">
+      <c r="E470" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="F469" s="33" t="s">
+      <c r="F470" s="33" t="s">
         <v>960</v>
       </c>
-      <c r="G469" s="59"/>
-      <c r="H469" s="59"/>
-      <c r="I469" s="59"/>
-      <c r="J469" s="59"/>
-      <c r="K469" s="59"/>
-      <c r="L469" s="59"/>
-      <c r="M469" s="59"/>
-      <c r="N469" s="59"/>
-      <c r="O469" s="59"/>
-      <c r="P469" s="59"/>
-      <c r="Q469" s="59"/>
-      <c r="R469" s="59"/>
-      <c r="S469" s="61"/>
-      <c r="T469" s="61"/>
-      <c r="U469" s="61"/>
-      <c r="V469" s="61"/>
-      <c r="W469" s="61"/>
-      <c r="X469" s="61"/>
-      <c r="Y469" s="109"/>
-      <c r="Z469" s="109"/>
-      <c r="AA469" s="109"/>
-      <c r="AB469" s="109"/>
-      <c r="AC469" s="109"/>
-      <c r="AD469" s="109"/>
-    </row>
-    <row r="470" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A470"/>
-      <c r="B470"/>
-      <c r="C470"/>
-      <c r="D470">
-        <f t="shared" si="28"/>
-        <v>458</v>
-      </c>
-      <c r="E470" t="s">
-        <v>961</v>
-      </c>
-      <c r="F470" t="s">
-        <v>962</v>
-      </c>
-      <c r="G470" s="3">
-        <v>37.049999999999997</v>
-      </c>
+      <c r="G470" s="59"/>
+      <c r="H470" s="59"/>
+      <c r="I470" s="59"/>
+      <c r="J470" s="59"/>
+      <c r="K470" s="59"/>
+      <c r="L470" s="59"/>
+      <c r="M470" s="59"/>
+      <c r="N470" s="59"/>
+      <c r="O470" s="59"/>
+      <c r="P470" s="59"/>
+      <c r="Q470" s="59"/>
+      <c r="R470" s="59"/>
+      <c r="S470" s="61"/>
+      <c r="T470" s="61"/>
+      <c r="U470" s="61"/>
+      <c r="V470" s="61"/>
+      <c r="W470" s="61"/>
+      <c r="X470" s="61"/>
+      <c r="Y470" s="109"/>
+      <c r="Z470" s="109"/>
+      <c r="AA470" s="109"/>
+      <c r="AB470" s="109"/>
+      <c r="AC470" s="109"/>
+      <c r="AD470" s="109"/>
     </row>
     <row r="471" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A471"/>
@@ -30827,16 +30941,16 @@
       <c r="C471"/>
       <c r="D471">
         <f t="shared" si="28"/>
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E471" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="F471" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="G471" s="3">
-        <v>3.94</v>
+        <v>37.049999999999997</v>
       </c>
     </row>
     <row r="472" spans="1:30" x14ac:dyDescent="0.25">
@@ -30845,16 +30959,16 @@
       <c r="C472"/>
       <c r="D472">
         <f t="shared" si="28"/>
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E472" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="F472" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="G472" s="3">
-        <v>1.51</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="473" spans="1:30" x14ac:dyDescent="0.25">
@@ -30863,106 +30977,88 @@
       <c r="C473"/>
       <c r="D473">
         <f t="shared" si="28"/>
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E473" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="F473" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="G473" s="3">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="474" spans="1:30" ht="13" x14ac:dyDescent="0.3">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="474" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474">
         <f t="shared" si="28"/>
-        <v>462</v>
-      </c>
-      <c r="E474" s="24" t="s">
-        <v>1348</v>
+        <v>461</v>
+      </c>
+      <c r="E474" t="s">
+        <v>935</v>
       </c>
       <c r="F474" t="s">
-        <v>1349</v>
+        <v>936</v>
       </c>
       <c r="G474" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="H474" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="475" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="475" spans="1:30" ht="13" x14ac:dyDescent="0.3">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475">
         <f t="shared" si="28"/>
+        <v>462</v>
+      </c>
+      <c r="E475" s="24" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G475" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="H475" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A476"/>
+      <c r="B476"/>
+      <c r="C476"/>
+      <c r="D476">
+        <f t="shared" si="28"/>
         <v>463</v>
       </c>
-      <c r="E475" t="s">
+      <c r="E476" t="s">
         <v>939</v>
       </c>
-      <c r="F475" t="s">
+      <c r="F476" t="s">
         <v>940</v>
       </c>
-      <c r="G475" s="7">
+      <c r="G476" s="7">
         <v>1.4</v>
       </c>
-      <c r="H475" s="3">
+      <c r="H476" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="476" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D476" s="33">
-        <f t="shared" si="28"/>
-        <v>464</v>
-      </c>
-      <c r="E476" s="33" t="s">
-        <v>941</v>
-      </c>
-      <c r="F476" s="33" t="s">
-        <v>942</v>
-      </c>
-      <c r="G476" s="59"/>
-      <c r="H476" s="59"/>
-      <c r="I476" s="59"/>
-      <c r="J476" s="59"/>
-      <c r="K476" s="59"/>
-      <c r="L476" s="59"/>
-      <c r="M476" s="59"/>
-      <c r="N476" s="59"/>
-      <c r="O476" s="59"/>
-      <c r="P476" s="59"/>
-      <c r="Q476" s="59"/>
-      <c r="R476" s="59"/>
-      <c r="S476" s="61"/>
-      <c r="T476" s="61"/>
-      <c r="U476" s="61"/>
-      <c r="V476" s="61"/>
-      <c r="W476" s="61"/>
-      <c r="X476" s="61"/>
-      <c r="Y476" s="109"/>
-      <c r="Z476" s="109"/>
-      <c r="AA476" s="109"/>
-      <c r="AB476" s="109"/>
-      <c r="AC476" s="109"/>
-      <c r="AD476" s="109"/>
     </row>
     <row r="477" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D477" s="33">
         <f t="shared" si="28"/>
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E477" s="33" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F477" s="33" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G477" s="59"/>
       <c r="H477" s="59"/>
@@ -30989,23 +31085,41 @@
       <c r="AC477" s="109"/>
       <c r="AD477" s="109"/>
     </row>
-    <row r="478" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A478"/>
-      <c r="B478"/>
-      <c r="C478"/>
-      <c r="D478">
+    <row r="478" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D478" s="33">
         <f t="shared" si="28"/>
-        <v>466</v>
-      </c>
-      <c r="E478" t="s">
-        <v>1984</v>
-      </c>
-      <c r="F478" t="s">
-        <v>1985</v>
-      </c>
-      <c r="G478" s="7">
-        <v>43.68</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="E478" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="F478" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="G478" s="59"/>
+      <c r="H478" s="59"/>
+      <c r="I478" s="59"/>
+      <c r="J478" s="59"/>
+      <c r="K478" s="59"/>
+      <c r="L478" s="59"/>
+      <c r="M478" s="59"/>
+      <c r="N478" s="59"/>
+      <c r="O478" s="59"/>
+      <c r="P478" s="59"/>
+      <c r="Q478" s="59"/>
+      <c r="R478" s="59"/>
+      <c r="S478" s="61"/>
+      <c r="T478" s="61"/>
+      <c r="U478" s="61"/>
+      <c r="V478" s="61"/>
+      <c r="W478" s="61"/>
+      <c r="X478" s="61"/>
+      <c r="Y478" s="109"/>
+      <c r="Z478" s="109"/>
+      <c r="AA478" s="109"/>
+      <c r="AB478" s="109"/>
+      <c r="AC478" s="109"/>
+      <c r="AD478" s="109"/>
     </row>
     <row r="479" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A479"/>
@@ -31013,71 +31127,71 @@
       <c r="C479"/>
       <c r="D479">
         <f t="shared" si="28"/>
+        <v>466</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G479" s="7">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="480" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A480"/>
+      <c r="B480"/>
+      <c r="C480"/>
+      <c r="D480">
+        <f t="shared" si="28"/>
         <v>467</v>
       </c>
-      <c r="E479" t="s">
+      <c r="E480" t="s">
         <v>945</v>
       </c>
-      <c r="F479" t="s">
+      <c r="F480" t="s">
         <v>946</v>
       </c>
-      <c r="G479" s="3">
+      <c r="G480" s="3">
         <v>0.32</v>
       </c>
     </row>
-    <row r="480" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D480" s="33">
+    <row r="481" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D481" s="33">
         <f t="shared" si="28"/>
         <v>468</v>
       </c>
-      <c r="E480" s="33" t="s">
+      <c r="E481" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="F480" s="33" t="s">
+      <c r="F481" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="G480" s="59"/>
-      <c r="H480" s="59"/>
-      <c r="I480" s="59"/>
-      <c r="J480" s="59"/>
-      <c r="K480" s="59"/>
-      <c r="L480" s="59"/>
-      <c r="M480" s="59"/>
-      <c r="N480" s="59"/>
-      <c r="O480" s="59"/>
-      <c r="P480" s="59"/>
-      <c r="Q480" s="59"/>
-      <c r="R480" s="59"/>
-      <c r="S480" s="61"/>
-      <c r="T480" s="61"/>
-      <c r="U480" s="61"/>
-      <c r="V480" s="61"/>
-      <c r="W480" s="61"/>
-      <c r="X480" s="61"/>
-      <c r="Y480" s="109"/>
-      <c r="Z480" s="109"/>
-      <c r="AA480" s="109"/>
-      <c r="AB480" s="109"/>
-      <c r="AC480" s="109"/>
-      <c r="AD480" s="109"/>
-    </row>
-    <row r="481" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A481"/>
-      <c r="B481"/>
-      <c r="C481"/>
-      <c r="D481">
-        <f t="shared" si="28"/>
-        <v>469</v>
-      </c>
-      <c r="E481" s="5" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F481" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G481" s="7">
-        <v>0.82</v>
-      </c>
+      <c r="G481" s="59"/>
+      <c r="H481" s="59"/>
+      <c r="I481" s="59"/>
+      <c r="J481" s="59"/>
+      <c r="K481" s="59"/>
+      <c r="L481" s="59"/>
+      <c r="M481" s="59"/>
+      <c r="N481" s="59"/>
+      <c r="O481" s="59"/>
+      <c r="P481" s="59"/>
+      <c r="Q481" s="59"/>
+      <c r="R481" s="59"/>
+      <c r="S481" s="61"/>
+      <c r="T481" s="61"/>
+      <c r="U481" s="61"/>
+      <c r="V481" s="61"/>
+      <c r="W481" s="61"/>
+      <c r="X481" s="61"/>
+      <c r="Y481" s="109"/>
+      <c r="Z481" s="109"/>
+      <c r="AA481" s="109"/>
+      <c r="AB481" s="109"/>
+      <c r="AC481" s="109"/>
+      <c r="AD481" s="109"/>
     </row>
     <row r="482" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A482"/>
@@ -31085,71 +31199,71 @@
       <c r="C482"/>
       <c r="D482">
         <f t="shared" si="28"/>
+        <v>469</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F482" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G482" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="483" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A483"/>
+      <c r="B483"/>
+      <c r="C483"/>
+      <c r="D483">
+        <f t="shared" si="28"/>
         <v>470</v>
       </c>
-      <c r="E482" t="s">
+      <c r="E483" t="s">
         <v>921</v>
       </c>
-      <c r="F482" t="s">
+      <c r="F483" t="s">
         <v>922</v>
       </c>
-      <c r="G482" s="3">
+      <c r="G483" s="3">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="483" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D483" s="33">
+    <row r="484" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D484" s="33">
         <f t="shared" si="28"/>
         <v>471</v>
       </c>
-      <c r="E483" s="33" t="s">
+      <c r="E484" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="F483" s="33" t="s">
+      <c r="F484" s="33" t="s">
         <v>924</v>
       </c>
-      <c r="G483" s="59"/>
-      <c r="H483" s="59"/>
-      <c r="I483" s="59"/>
-      <c r="J483" s="59"/>
-      <c r="K483" s="59"/>
-      <c r="L483" s="59"/>
-      <c r="M483" s="59"/>
-      <c r="N483" s="59"/>
-      <c r="O483" s="59"/>
-      <c r="P483" s="59"/>
-      <c r="Q483" s="59"/>
-      <c r="R483" s="59"/>
-      <c r="S483" s="61"/>
-      <c r="T483" s="61"/>
-      <c r="U483" s="61"/>
-      <c r="V483" s="61"/>
-      <c r="W483" s="61"/>
-      <c r="X483" s="61"/>
-      <c r="Y483" s="109"/>
-      <c r="Z483" s="109"/>
-      <c r="AA483" s="109"/>
-      <c r="AB483" s="109"/>
-      <c r="AC483" s="109"/>
-      <c r="AD483" s="109"/>
-    </row>
-    <row r="484" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A484"/>
-      <c r="B484"/>
-      <c r="C484"/>
-      <c r="D484">
-        <f t="shared" si="28"/>
-        <v>472</v>
-      </c>
-      <c r="E484" t="s">
-        <v>925</v>
-      </c>
-      <c r="F484" t="s">
-        <v>926</v>
-      </c>
-      <c r="G484" s="3">
-        <v>0.56999999999999995</v>
-      </c>
+      <c r="G484" s="59"/>
+      <c r="H484" s="59"/>
+      <c r="I484" s="59"/>
+      <c r="J484" s="59"/>
+      <c r="K484" s="59"/>
+      <c r="L484" s="59"/>
+      <c r="M484" s="59"/>
+      <c r="N484" s="59"/>
+      <c r="O484" s="59"/>
+      <c r="P484" s="59"/>
+      <c r="Q484" s="59"/>
+      <c r="R484" s="59"/>
+      <c r="S484" s="61"/>
+      <c r="T484" s="61"/>
+      <c r="U484" s="61"/>
+      <c r="V484" s="61"/>
+      <c r="W484" s="61"/>
+      <c r="X484" s="61"/>
+      <c r="Y484" s="109"/>
+      <c r="Z484" s="109"/>
+      <c r="AA484" s="109"/>
+      <c r="AB484" s="109"/>
+      <c r="AC484" s="109"/>
+      <c r="AD484" s="109"/>
     </row>
     <row r="485" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A485"/>
@@ -31157,39 +31271,34 @@
       <c r="C485"/>
       <c r="D485">
         <f t="shared" si="28"/>
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E485" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="F485" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="G485" s="3">
-        <v>2.59</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="486" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>333</v>
-      </c>
+      <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
       <c r="D486">
         <f t="shared" si="28"/>
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E486" t="s">
-        <v>891</v>
+        <v>915</v>
       </c>
       <c r="F486" t="s">
-        <v>892</v>
-      </c>
-      <c r="G486" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="H486" s="3">
-        <v>90</v>
+        <v>916</v>
+      </c>
+      <c r="G486" s="3">
+        <v>2.59</v>
       </c>
     </row>
     <row r="487" spans="1:30" x14ac:dyDescent="0.25">
@@ -31200,19 +31309,19 @@
       <c r="C487"/>
       <c r="D487">
         <f t="shared" si="28"/>
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E487" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="F487" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="G487" s="7">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H487" s="3">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="488" spans="1:30" x14ac:dyDescent="0.25">
@@ -31223,19 +31332,19 @@
       <c r="C488"/>
       <c r="D488">
         <f t="shared" si="28"/>
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E488" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F488" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G488" s="7">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="H488" s="3">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="489" spans="1:30" x14ac:dyDescent="0.25">
@@ -31246,19 +31355,19 @@
       <c r="C489"/>
       <c r="D489">
         <f t="shared" si="28"/>
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E489" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F489" t="s">
-        <v>898</v>
-      </c>
-      <c r="G489" s="3">
-        <v>1.56</v>
+        <v>889</v>
+      </c>
+      <c r="G489" s="7">
+        <v>1.05</v>
       </c>
       <c r="H489" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="490" spans="1:30" x14ac:dyDescent="0.25">
@@ -31269,86 +31378,86 @@
       <c r="C490"/>
       <c r="D490">
         <f t="shared" si="28"/>
+        <v>477</v>
+      </c>
+      <c r="E490" t="s">
+        <v>897</v>
+      </c>
+      <c r="F490" t="s">
+        <v>898</v>
+      </c>
+      <c r="G490" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="H490" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="491" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>333</v>
+      </c>
+      <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491">
+        <f t="shared" si="28"/>
         <v>478</v>
       </c>
-      <c r="E490" t="s">
+      <c r="E491" t="s">
         <v>877</v>
       </c>
-      <c r="F490" t="s">
+      <c r="F491" t="s">
         <v>878</v>
       </c>
-      <c r="G490" s="7">
+      <c r="G491" s="7">
         <v>4.68</v>
       </c>
-      <c r="H490" s="3">
+      <c r="H491" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A491" s="33" t="s">
+    <row r="492" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A492" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D491" s="33">
+      <c r="D492" s="33">
         <f t="shared" si="28"/>
         <v>479</v>
       </c>
-      <c r="E491" s="33" t="s">
+      <c r="E492" s="33" t="s">
         <v>901</v>
       </c>
-      <c r="F491" s="33" t="s">
+      <c r="F492" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="G491" s="59">
+      <c r="G492" s="59">
         <v>0.27</v>
       </c>
-      <c r="H491" s="59">
+      <c r="H492" s="59">
         <v>11</v>
       </c>
-      <c r="I491" s="59"/>
-      <c r="J491" s="59"/>
-      <c r="K491" s="59"/>
-      <c r="L491" s="59"/>
-      <c r="M491" s="59"/>
-      <c r="N491" s="59"/>
-      <c r="O491" s="59"/>
-      <c r="P491" s="59"/>
-      <c r="Q491" s="59"/>
-      <c r="R491" s="59"/>
-      <c r="S491" s="61"/>
-      <c r="T491" s="61"/>
-      <c r="U491" s="61"/>
-      <c r="V491" s="61"/>
-      <c r="W491" s="61"/>
-      <c r="X491" s="61"/>
-      <c r="Y491" s="109"/>
-      <c r="Z491" s="109"/>
-      <c r="AA491" s="109"/>
-      <c r="AB491" s="109"/>
-      <c r="AC491" s="109"/>
-      <c r="AD491" s="109"/>
-    </row>
-    <row r="492" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>333</v>
-      </c>
-      <c r="B492"/>
-      <c r="C492"/>
-      <c r="D492">
-        <f t="shared" si="28"/>
-        <v>480</v>
-      </c>
-      <c r="E492" t="s">
-        <v>903</v>
-      </c>
-      <c r="F492" t="s">
-        <v>904</v>
-      </c>
-      <c r="G492" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H492" s="3">
-        <v>47</v>
-      </c>
+      <c r="I492" s="59"/>
+      <c r="J492" s="59"/>
+      <c r="K492" s="59"/>
+      <c r="L492" s="59"/>
+      <c r="M492" s="59"/>
+      <c r="N492" s="59"/>
+      <c r="O492" s="59"/>
+      <c r="P492" s="59"/>
+      <c r="Q492" s="59"/>
+      <c r="R492" s="59"/>
+      <c r="S492" s="61"/>
+      <c r="T492" s="61"/>
+      <c r="U492" s="61"/>
+      <c r="V492" s="61"/>
+      <c r="W492" s="61"/>
+      <c r="X492" s="61"/>
+      <c r="Y492" s="109"/>
+      <c r="Z492" s="109"/>
+      <c r="AA492" s="109"/>
+      <c r="AB492" s="109"/>
+      <c r="AC492" s="109"/>
+      <c r="AD492" s="109"/>
     </row>
     <row r="493" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
@@ -31358,19 +31467,19 @@
       <c r="C493"/>
       <c r="D493">
         <f t="shared" si="28"/>
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E493" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F493" t="s">
-        <v>908</v>
-      </c>
-      <c r="G493" s="3">
-        <v>1.61</v>
+        <v>904</v>
+      </c>
+      <c r="G493" s="7">
+        <v>0.8</v>
       </c>
       <c r="H493" s="3">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="494" spans="1:30" x14ac:dyDescent="0.25">
@@ -31381,16 +31490,19 @@
       <c r="C494"/>
       <c r="D494">
         <f t="shared" si="28"/>
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E494" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="F494" t="s">
-        <v>880</v>
-      </c>
-      <c r="G494" s="7">
-        <v>1.36</v>
+        <v>908</v>
+      </c>
+      <c r="G494" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="H494" s="3">
+        <v>79</v>
       </c>
     </row>
     <row r="495" spans="1:30" x14ac:dyDescent="0.25">
@@ -31401,95 +31513,80 @@
       <c r="C495"/>
       <c r="D495">
         <f t="shared" si="28"/>
+        <v>482</v>
+      </c>
+      <c r="E495" t="s">
+        <v>879</v>
+      </c>
+      <c r="F495" t="s">
+        <v>880</v>
+      </c>
+      <c r="G495" s="7">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="496" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>333</v>
+      </c>
+      <c r="B496"/>
+      <c r="C496"/>
+      <c r="D496">
+        <f t="shared" si="28"/>
         <v>483</v>
       </c>
-      <c r="E495" t="s">
+      <c r="E496" t="s">
         <v>873</v>
       </c>
-      <c r="F495" t="s">
+      <c r="F496" t="s">
         <v>874</v>
       </c>
-      <c r="G495" s="7">
+      <c r="G496" s="7">
         <v>0.84</v>
       </c>
     </row>
-    <row r="496" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A496" s="33" t="s">
+    <row r="497" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A497" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D496" s="33">
+      <c r="D497" s="33">
         <f t="shared" si="28"/>
         <v>484</v>
       </c>
-      <c r="E496" s="33" t="s">
+      <c r="E497" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="F496" s="33" t="s">
+      <c r="F497" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="G496" s="34">
+      <c r="G497" s="34">
         <v>31.39</v>
       </c>
-      <c r="H496" s="59">
+      <c r="H497" s="59">
         <v>1020</v>
       </c>
-      <c r="I496" s="59"/>
-      <c r="J496" s="59"/>
-      <c r="K496" s="59"/>
-      <c r="L496" s="59"/>
-      <c r="M496" s="59"/>
-      <c r="N496" s="59"/>
-      <c r="O496" s="59"/>
-      <c r="P496" s="59"/>
-      <c r="Q496" s="59"/>
-      <c r="R496" s="59"/>
-      <c r="S496" s="61"/>
-      <c r="T496" s="61"/>
-      <c r="U496" s="61"/>
-      <c r="V496" s="61"/>
-      <c r="W496" s="61"/>
-      <c r="X496" s="61"/>
-      <c r="Y496" s="109"/>
-      <c r="Z496" s="109"/>
-      <c r="AA496" s="109"/>
-      <c r="AB496" s="109"/>
-      <c r="AC496" s="109"/>
-      <c r="AD496" s="109"/>
-    </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>333</v>
-      </c>
-      <c r="B497"/>
-      <c r="C497"/>
-      <c r="D497">
-        <f t="shared" si="28"/>
-        <v>485</v>
-      </c>
-      <c r="E497" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G497" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="H497" s="6">
-        <f>G497*[183]Main!$L$3</f>
-        <v>29.203180609999997</v>
-      </c>
-      <c r="I497" s="6">
-        <f>[183]Main!$L$5-[183]Main!$L$6</f>
-        <v>277.88299999999998</v>
-      </c>
-      <c r="J497" s="8">
-        <f t="shared" ref="J497:J503" si="31">+H497-I497</f>
-        <v>-248.67981938999998</v>
-      </c>
-      <c r="K497" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="I497" s="59"/>
+      <c r="J497" s="59"/>
+      <c r="K497" s="59"/>
+      <c r="L497" s="59"/>
+      <c r="M497" s="59"/>
+      <c r="N497" s="59"/>
+      <c r="O497" s="59"/>
+      <c r="P497" s="59"/>
+      <c r="Q497" s="59"/>
+      <c r="R497" s="59"/>
+      <c r="S497" s="61"/>
+      <c r="T497" s="61"/>
+      <c r="U497" s="61"/>
+      <c r="V497" s="61"/>
+      <c r="W497" s="61"/>
+      <c r="X497" s="61"/>
+      <c r="Y497" s="109"/>
+      <c r="Z497" s="109"/>
+      <c r="AA497" s="109"/>
+      <c r="AB497" s="109"/>
+      <c r="AC497" s="109"/>
+      <c r="AD497" s="109"/>
     </row>
     <row r="498" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
@@ -31499,117 +31596,103 @@
       <c r="C498"/>
       <c r="D498">
         <f t="shared" si="28"/>
+        <v>485</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G498" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="H498" s="6">
+        <f>G498*[185]Main!$L$3</f>
+        <v>29.203180609999997</v>
+      </c>
+      <c r="I498" s="6">
+        <f>[185]Main!$L$5-[185]Main!$L$6</f>
+        <v>277.88299999999998</v>
+      </c>
+      <c r="J498" s="8">
+        <f t="shared" ref="J498:J504" si="31">+H498-I498</f>
+        <v>-248.67981938999998</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="499" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>333</v>
+      </c>
+      <c r="B499"/>
+      <c r="C499"/>
+      <c r="D499">
+        <f t="shared" si="28"/>
         <v>486</v>
       </c>
-      <c r="E498" s="5" t="s">
+      <c r="E499" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F498" t="s">
+      <c r="F499" t="s">
         <v>321</v>
       </c>
-      <c r="G498" s="7">
+      <c r="G499" s="7">
         <v>8.5</v>
       </c>
-      <c r="H498" s="6">
-        <f>+G498*L498</f>
+      <c r="H499" s="6">
+        <f>+G499*L499</f>
         <v>80.019892499999997</v>
       </c>
-      <c r="I498" s="6">
-        <f>+[184]Main!$N$5-[184]Main!$N$6</f>
+      <c r="I499" s="6">
+        <f>+[186]Main!$N$5-[186]Main!$N$6</f>
         <v>-7.4640000000000004</v>
       </c>
-      <c r="J498" s="6">
+      <c r="J499" s="6">
         <f t="shared" si="31"/>
         <v>87.483892499999996</v>
       </c>
-      <c r="K498" s="3" t="s">
+      <c r="K499" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L498" s="6">
-        <f>+[184]Main!$N$3</f>
+      <c r="L499" s="6">
+        <f>+[186]Main!$N$3</f>
         <v>9.4141049999999993</v>
       </c>
-      <c r="M498" s="9">
+      <c r="M499" s="9">
         <v>44780</v>
       </c>
     </row>
-    <row r="499" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A499" s="33" t="s">
+    <row r="500" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A500" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D499" s="33">
+      <c r="D500" s="33">
         <f t="shared" si="28"/>
         <v>487</v>
       </c>
-      <c r="E499" s="58" t="s">
+      <c r="E500" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F499" s="33" t="s">
+      <c r="F500" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G499" s="59">
+      <c r="G500" s="59">
         <v>1.98</v>
       </c>
-      <c r="H499" s="35">
-        <f>G499*[185]Main!$N$3</f>
+      <c r="H500" s="35">
+        <f>G500*[187]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="I499" s="35">
-        <f>[185]Main!$N$5-[185]Main!$N$6</f>
+      <c r="I500" s="35">
+        <f>[187]Main!$N$5-[187]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="J499" s="112">
+      <c r="J500" s="112">
         <f t="shared" si="31"/>
         <v>23.815463459999997</v>
-      </c>
-      <c r="K499" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="L499" s="59"/>
-      <c r="M499" s="59"/>
-      <c r="N499" s="59"/>
-      <c r="O499" s="59"/>
-      <c r="P499" s="59"/>
-      <c r="Q499" s="59"/>
-      <c r="R499" s="59"/>
-      <c r="S499" s="61"/>
-      <c r="T499" s="61"/>
-      <c r="U499" s="61"/>
-      <c r="V499" s="61"/>
-      <c r="W499" s="61"/>
-      <c r="X499" s="61"/>
-      <c r="Y499" s="109"/>
-      <c r="Z499" s="109"/>
-      <c r="AA499" s="109"/>
-      <c r="AB499" s="109"/>
-      <c r="AC499" s="109"/>
-      <c r="AD499" s="109"/>
-    </row>
-    <row r="500" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D500" s="33">
-        <f t="shared" si="28"/>
-        <v>488</v>
-      </c>
-      <c r="E500" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="F500" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="G500" s="59">
-        <v>0.62</v>
-      </c>
-      <c r="H500" s="35">
-        <f>G500*[186]Main!$L$3</f>
-        <v>30.1881658</v>
-      </c>
-      <c r="I500" s="35">
-        <f>[186]Main!$L$5-[186]Main!$L$6</f>
-        <v>13.262999999999998</v>
-      </c>
-      <c r="J500" s="112">
-        <f t="shared" si="31"/>
-        <v>16.925165800000002</v>
       </c>
       <c r="K500" s="59" t="s">
         <v>16</v>
@@ -31634,117 +31717,112 @@
       <c r="AC500" s="109"/>
       <c r="AD500" s="109"/>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D501">
+    <row r="501" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D501" s="33">
+        <f t="shared" si="28"/>
+        <v>488</v>
+      </c>
+      <c r="E501" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="F501" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G501" s="59">
+        <v>0.62</v>
+      </c>
+      <c r="H501" s="35">
+        <f>G501*[188]Main!$L$3</f>
+        <v>30.1881658</v>
+      </c>
+      <c r="I501" s="35">
+        <f>[188]Main!$L$5-[188]Main!$L$6</f>
+        <v>13.262999999999998</v>
+      </c>
+      <c r="J501" s="112">
+        <f t="shared" si="31"/>
+        <v>16.925165800000002</v>
+      </c>
+      <c r="K501" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L501" s="59"/>
+      <c r="M501" s="59"/>
+      <c r="N501" s="59"/>
+      <c r="O501" s="59"/>
+      <c r="P501" s="59"/>
+      <c r="Q501" s="59"/>
+      <c r="R501" s="59"/>
+      <c r="S501" s="61"/>
+      <c r="T501" s="61"/>
+      <c r="U501" s="61"/>
+      <c r="V501" s="61"/>
+      <c r="W501" s="61"/>
+      <c r="X501" s="61"/>
+      <c r="Y501" s="109"/>
+      <c r="Z501" s="109"/>
+      <c r="AA501" s="109"/>
+      <c r="AB501" s="109"/>
+      <c r="AC501" s="109"/>
+      <c r="AD501" s="109"/>
+    </row>
+    <row r="502" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D502">
         <f t="shared" si="28"/>
         <v>489</v>
       </c>
-      <c r="E501" s="5" t="s">
+      <c r="E502" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F501" s="1" t="s">
+      <c r="F502" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G501" s="3">
+      <c r="G502" s="3">
         <v>6.75</v>
       </c>
-      <c r="H501" s="6">
+      <c r="H502" s="6">
         <v>125.46108324000001</v>
       </c>
-      <c r="I501" s="6">
+      <c r="I502" s="6">
         <v>131.17699999999999</v>
       </c>
-      <c r="J501" s="8">
+      <c r="J502" s="8">
         <f t="shared" si="31"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="K501" s="3" t="s">
+      <c r="K502" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="502" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D502" s="33">
-        <f t="shared" si="28"/>
-        <v>490</v>
-      </c>
-      <c r="E502" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="F502" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="G502" s="59">
-        <v>0.98</v>
-      </c>
-      <c r="H502" s="35">
-        <v>20.935517539999999</v>
-      </c>
-      <c r="I502" s="35">
-        <v>55.28</v>
-      </c>
-      <c r="J502" s="112">
-        <f t="shared" si="31"/>
-        <v>-34.344482460000002</v>
-      </c>
-      <c r="K502" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="L502" s="59"/>
-      <c r="M502" s="59"/>
-      <c r="N502" s="59"/>
-      <c r="O502" s="59"/>
-      <c r="P502" s="59"/>
-      <c r="Q502" s="59"/>
-      <c r="R502" s="59"/>
-      <c r="S502" s="61"/>
-      <c r="T502" s="61"/>
-      <c r="U502" s="61"/>
-      <c r="V502" s="61"/>
-      <c r="W502" s="61"/>
-      <c r="X502" s="61"/>
-      <c r="Y502" s="109"/>
-      <c r="Z502" s="109"/>
-      <c r="AA502" s="109"/>
-      <c r="AB502" s="109"/>
-      <c r="AC502" s="109"/>
-      <c r="AD502" s="109"/>
     </row>
     <row r="503" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D503" s="33">
         <f t="shared" si="28"/>
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E503" s="58" t="s">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="F503" s="33" t="s">
-        <v>545</v>
+        <v>248</v>
       </c>
       <c r="G503" s="59">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="H503" s="35">
-        <f>+G503*L503</f>
-        <v>56.676359999999995</v>
+        <v>20.935517539999999</v>
       </c>
       <c r="I503" s="35">
-        <f>+[187]Main!$K$5-[187]Main!$K$6</f>
-        <v>136.64599999999999</v>
-      </c>
-      <c r="J503" s="35">
+        <v>55.28</v>
+      </c>
+      <c r="J503" s="112">
         <f t="shared" si="31"/>
-        <v>-79.969639999999998</v>
+        <v>-34.344482460000002</v>
       </c>
       <c r="K503" s="59" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L503" s="35">
-        <f>+[187]Main!$K$3</f>
-        <v>60.293999999999997</v>
-      </c>
-      <c r="M503" s="60">
-        <v>45550</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L503" s="59"/>
+      <c r="M503" s="59"/>
       <c r="N503" s="59"/>
       <c r="O503" s="59"/>
       <c r="P503" s="59"/>
@@ -31762,84 +31840,98 @@
       <c r="AB503" s="109"/>
       <c r="AC503" s="109"/>
       <c r="AD503" s="109"/>
-      <c r="AE503" s="33">
+    </row>
+    <row r="504" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D504" s="33">
+        <f t="shared" si="28"/>
+        <v>491</v>
+      </c>
+      <c r="E504" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="F504" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G504" s="59">
+        <v>0.94</v>
+      </c>
+      <c r="H504" s="35">
+        <f>+G504*L504</f>
+        <v>56.676359999999995</v>
+      </c>
+      <c r="I504" s="35">
+        <f>+[189]Main!$K$5-[189]Main!$K$6</f>
+        <v>136.64599999999999</v>
+      </c>
+      <c r="J504" s="35">
+        <f t="shared" si="31"/>
+        <v>-79.969639999999998</v>
+      </c>
+      <c r="K504" s="59" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L504" s="35">
+        <f>+[189]Main!$K$3</f>
+        <v>60.293999999999997</v>
+      </c>
+      <c r="M504" s="60">
+        <v>45550</v>
+      </c>
+      <c r="N504" s="59"/>
+      <c r="O504" s="59"/>
+      <c r="P504" s="59"/>
+      <c r="Q504" s="59"/>
+      <c r="R504" s="59"/>
+      <c r="S504" s="61"/>
+      <c r="T504" s="61"/>
+      <c r="U504" s="61"/>
+      <c r="V504" s="61"/>
+      <c r="W504" s="61"/>
+      <c r="X504" s="61"/>
+      <c r="Y504" s="109"/>
+      <c r="Z504" s="109"/>
+      <c r="AA504" s="109"/>
+      <c r="AB504" s="109"/>
+      <c r="AC504" s="109"/>
+      <c r="AD504" s="109"/>
+      <c r="AE504" s="33">
         <v>2017</v>
       </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A504"/>
-      <c r="B504"/>
-      <c r="C504"/>
-      <c r="D504">
+    <row r="505" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A505"/>
+      <c r="B505"/>
+      <c r="C505"/>
+      <c r="D505">
         <f t="shared" si="28"/>
         <v>492</v>
       </c>
-      <c r="E504" t="s">
+      <c r="E505" t="s">
         <v>1177</v>
       </c>
-      <c r="F504" t="s">
+      <c r="F505" t="s">
         <v>1178</v>
       </c>
-      <c r="G504" s="3">
+      <c r="G505" s="3">
         <v>8.32</v>
       </c>
-      <c r="H504" s="6"/>
-    </row>
-    <row r="505" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D505" s="33">
-        <f t="shared" si="28"/>
-        <v>493</v>
-      </c>
-      <c r="E505" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F505" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G505" s="59">
-        <v>0.61</v>
-      </c>
-      <c r="H505" s="59"/>
-      <c r="I505" s="59"/>
-      <c r="J505" s="59"/>
-      <c r="K505" s="59"/>
-      <c r="L505" s="59"/>
-      <c r="M505" s="59"/>
-      <c r="N505" s="59"/>
-      <c r="O505" s="59"/>
-      <c r="P505" s="59"/>
-      <c r="Q505" s="59"/>
-      <c r="R505" s="59"/>
-      <c r="S505" s="61"/>
-      <c r="T505" s="61"/>
-      <c r="U505" s="61"/>
-      <c r="V505" s="61"/>
-      <c r="W505" s="61"/>
-      <c r="X505" s="61"/>
-      <c r="Y505" s="109"/>
-      <c r="Z505" s="109"/>
-      <c r="AA505" s="109"/>
-      <c r="AB505" s="109"/>
-      <c r="AC505" s="109"/>
-      <c r="AD505" s="109"/>
+      <c r="H505" s="6"/>
     </row>
     <row r="506" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D506" s="33">
         <f t="shared" si="28"/>
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E506" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F506" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G506" s="59">
-        <v>1.75</v>
-      </c>
-      <c r="H506" s="59">
-        <v>96</v>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="H506" s="59"/>
       <c r="I506" s="59"/>
       <c r="J506" s="59"/>
       <c r="K506" s="59"/>
@@ -31863,79 +31955,81 @@
       <c r="AC506" s="109"/>
       <c r="AD506" s="109"/>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D507">
-        <f t="shared" ref="D507:D553" si="32">+D506+1</f>
+    <row r="507" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D507" s="33">
+        <f t="shared" si="28"/>
+        <v>494</v>
+      </c>
+      <c r="E507" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F507" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G507" s="59">
+        <v>1.75</v>
+      </c>
+      <c r="H507" s="59">
+        <v>96</v>
+      </c>
+      <c r="I507" s="59"/>
+      <c r="J507" s="59"/>
+      <c r="K507" s="59"/>
+      <c r="L507" s="59"/>
+      <c r="M507" s="59"/>
+      <c r="N507" s="59"/>
+      <c r="O507" s="59"/>
+      <c r="P507" s="59"/>
+      <c r="Q507" s="59"/>
+      <c r="R507" s="59"/>
+      <c r="S507" s="61"/>
+      <c r="T507" s="61"/>
+      <c r="U507" s="61"/>
+      <c r="V507" s="61"/>
+      <c r="W507" s="61"/>
+      <c r="X507" s="61"/>
+      <c r="Y507" s="109"/>
+      <c r="Z507" s="109"/>
+      <c r="AA507" s="109"/>
+      <c r="AB507" s="109"/>
+      <c r="AC507" s="109"/>
+      <c r="AD507" s="109"/>
+    </row>
+    <row r="508" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D508">
+        <f t="shared" ref="D508:D553" si="32">+D507+1</f>
         <v>495</v>
       </c>
-      <c r="E507" s="1" t="s">
+      <c r="E508" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F507" t="s">
+      <c r="F508" t="s">
         <v>348</v>
       </c>
-      <c r="G507" s="7">
+      <c r="G508" s="7">
         <v>8.76</v>
       </c>
-      <c r="H507" s="3">
+      <c r="H508" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="508" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D508" s="33">
-        <f t="shared" si="32"/>
-        <v>496</v>
-      </c>
-      <c r="E508" s="33" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F508" s="33" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G508" s="34">
-        <v>14.68</v>
-      </c>
-      <c r="H508" s="59">
-        <v>396</v>
-      </c>
-      <c r="I508" s="59"/>
-      <c r="J508" s="59"/>
-      <c r="K508" s="59"/>
-      <c r="L508" s="59"/>
-      <c r="M508" s="59"/>
-      <c r="N508" s="59"/>
-      <c r="O508" s="59"/>
-      <c r="P508" s="59"/>
-      <c r="Q508" s="59"/>
-      <c r="R508" s="59"/>
-      <c r="S508" s="61"/>
-      <c r="T508" s="61"/>
-      <c r="U508" s="61"/>
-      <c r="V508" s="61"/>
-      <c r="W508" s="61"/>
-      <c r="X508" s="61"/>
-      <c r="Y508" s="109"/>
-      <c r="Z508" s="109"/>
-      <c r="AA508" s="109"/>
-      <c r="AB508" s="109"/>
-      <c r="AC508" s="109"/>
-      <c r="AD508" s="109"/>
     </row>
     <row r="509" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D509" s="33">
         <f t="shared" si="32"/>
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E509" s="33" t="s">
-        <v>378</v>
+        <v>1305</v>
       </c>
       <c r="F509" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="G509" s="59">
-        <v>25.85</v>
-      </c>
-      <c r="H509" s="59"/>
+        <v>1306</v>
+      </c>
+      <c r="G509" s="34">
+        <v>14.68</v>
+      </c>
+      <c r="H509" s="59">
+        <v>396</v>
+      </c>
       <c r="I509" s="59"/>
       <c r="J509" s="59"/>
       <c r="K509" s="59"/>
@@ -31959,141 +32053,164 @@
       <c r="AC509" s="109"/>
       <c r="AD509" s="109"/>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D510">
+    <row r="510" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D510" s="33">
         <f t="shared" si="32"/>
-        <v>498</v>
-      </c>
-      <c r="E510" t="s">
-        <v>384</v>
-      </c>
-      <c r="F510" t="s">
-        <v>385</v>
-      </c>
-      <c r="G510" s="3">
-        <v>9.26</v>
-      </c>
-      <c r="H510" s="3">
-        <v>204</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E510" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="F510" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G510" s="59">
+        <v>25.85</v>
+      </c>
+      <c r="H510" s="59"/>
+      <c r="I510" s="59"/>
+      <c r="J510" s="59"/>
+      <c r="K510" s="59"/>
+      <c r="L510" s="59"/>
+      <c r="M510" s="59"/>
+      <c r="N510" s="59"/>
+      <c r="O510" s="59"/>
+      <c r="P510" s="59"/>
+      <c r="Q510" s="59"/>
+      <c r="R510" s="59"/>
+      <c r="S510" s="61"/>
+      <c r="T510" s="61"/>
+      <c r="U510" s="61"/>
+      <c r="V510" s="61"/>
+      <c r="W510" s="61"/>
+      <c r="X510" s="61"/>
+      <c r="Y510" s="109"/>
+      <c r="Z510" s="109"/>
+      <c r="AA510" s="109"/>
+      <c r="AB510" s="109"/>
+      <c r="AC510" s="109"/>
+      <c r="AD510" s="109"/>
     </row>
     <row r="511" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D511">
         <f t="shared" si="32"/>
-        <v>499</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F511" s="1" t="s">
-        <v>395</v>
+        <v>498</v>
+      </c>
+      <c r="E511" t="s">
+        <v>384</v>
+      </c>
+      <c r="F511" t="s">
+        <v>385</v>
       </c>
       <c r="G511" s="3">
-        <v>0.69</v>
+        <v>9.26</v>
       </c>
       <c r="H511" s="3">
-        <v>4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="512" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D512">
         <f t="shared" si="32"/>
-        <v>500</v>
-      </c>
-      <c r="E512" t="s">
-        <v>744</v>
-      </c>
-      <c r="F512" t="s">
-        <v>745</v>
-      </c>
-      <c r="G512" s="7">
-        <v>83</v>
+        <v>499</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G512" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="H512" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D513">
         <f t="shared" si="32"/>
+        <v>500</v>
+      </c>
+      <c r="E513" t="s">
+        <v>744</v>
+      </c>
+      <c r="F513" t="s">
+        <v>745</v>
+      </c>
+      <c r="G513" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="514" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D514">
+        <f t="shared" si="32"/>
         <v>501</v>
       </c>
-      <c r="E513" t="s">
+      <c r="E514" t="s">
         <v>747</v>
       </c>
-      <c r="F513" t="s">
+      <c r="F514" t="s">
         <v>748</v>
       </c>
-      <c r="G513" s="6">
+      <c r="G514" s="6">
         <v>4445</v>
       </c>
     </row>
-    <row r="514" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D514" s="33">
+    <row r="515" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D515" s="33">
         <f t="shared" si="32"/>
         <v>502</v>
       </c>
-      <c r="E514" s="33" t="s">
+      <c r="E515" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="F514" s="33" t="s">
+      <c r="F515" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="G514" s="59"/>
-      <c r="H514" s="59"/>
-      <c r="I514" s="59"/>
-      <c r="J514" s="59"/>
-      <c r="K514" s="59"/>
-      <c r="L514" s="59"/>
-      <c r="M514" s="59"/>
-      <c r="N514" s="59"/>
-      <c r="O514" s="59"/>
-      <c r="P514" s="59"/>
-      <c r="Q514" s="59"/>
-      <c r="R514" s="59"/>
-      <c r="S514" s="61"/>
-      <c r="T514" s="61"/>
-      <c r="U514" s="61"/>
-      <c r="V514" s="61"/>
-      <c r="W514" s="61"/>
-      <c r="X514" s="61"/>
-      <c r="Y514" s="109"/>
-      <c r="Z514" s="109"/>
-      <c r="AA514" s="109"/>
-      <c r="AB514" s="109"/>
-      <c r="AC514" s="109"/>
-      <c r="AD514" s="109"/>
-    </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D515">
-        <f t="shared" si="32"/>
-        <v>503</v>
-      </c>
-      <c r="E515" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F515" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G515" s="3">
-        <v>2.5499999999999998</v>
-      </c>
+      <c r="G515" s="59"/>
+      <c r="H515" s="59"/>
+      <c r="I515" s="59"/>
+      <c r="J515" s="59"/>
+      <c r="K515" s="59"/>
+      <c r="L515" s="59"/>
+      <c r="M515" s="59"/>
+      <c r="N515" s="59"/>
+      <c r="O515" s="59"/>
+      <c r="P515" s="59"/>
+      <c r="Q515" s="59"/>
+      <c r="R515" s="59"/>
+      <c r="S515" s="61"/>
+      <c r="T515" s="61"/>
+      <c r="U515" s="61"/>
+      <c r="V515" s="61"/>
+      <c r="W515" s="61"/>
+      <c r="X515" s="61"/>
+      <c r="Y515" s="109"/>
+      <c r="Z515" s="109"/>
+      <c r="AA515" s="109"/>
+      <c r="AB515" s="109"/>
+      <c r="AC515" s="109"/>
+      <c r="AD515" s="109"/>
     </row>
     <row r="516" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D516">
         <f t="shared" si="32"/>
-        <v>504</v>
-      </c>
-      <c r="E516" t="s">
-        <v>519</v>
-      </c>
-      <c r="F516" t="s">
-        <v>1296</v>
+        <v>503</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="G516" s="3">
-        <v>10.81</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="517" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D517">
-        <f t="shared" si="32"/>
+        <f>+D350+1</f>
         <v>505</v>
       </c>
       <c r="E517" s="1" t="s">
@@ -32231,7 +32348,7 @@
         <v>40.883255159999997</v>
       </c>
       <c r="I523" s="6">
-        <f>+[188]Main!$J$5-[188]Main!$J$6</f>
+        <f>+[190]Main!$J$5-[190]Main!$J$6</f>
         <v>220.43200000000002</v>
       </c>
       <c r="J523" s="6">
@@ -32242,7 +32359,7 @@
         <v>1069</v>
       </c>
       <c r="L523" s="6">
-        <f>+[188]Main!$J$3</f>
+        <f>+[190]Main!$J$3</f>
         <v>30.972162999999998</v>
       </c>
       <c r="M523" s="9">
@@ -32739,7 +32856,7 @@
         <v>53.977747369999996</v>
       </c>
       <c r="I545" s="6">
-        <f>+[189]Main!$L$5-[189]Main!$L$6</f>
+        <f>+[191]Main!$L$5-[191]Main!$L$6</f>
         <v>122.197</v>
       </c>
       <c r="J545" s="6">
@@ -32750,7 +32867,7 @@
         <v>1069</v>
       </c>
       <c r="L545" s="6">
-        <f>+[189]Main!$L$3</f>
+        <f>+[191]Main!$L$3</f>
         <v>114.846271</v>
       </c>
       <c r="M545" s="9">
@@ -32779,7 +32896,7 @@
         <v>897.18233664000002</v>
       </c>
       <c r="I546" s="35">
-        <f>+[190]Main!$J$5-[190]Main!$J$6</f>
+        <f>+[192]Main!$J$5-[192]Main!$J$6</f>
         <v>601.58999999999992</v>
       </c>
       <c r="J546" s="35">
@@ -32790,7 +32907,7 @@
         <v>16</v>
       </c>
       <c r="L546" s="35">
-        <f>+[190]Main!$J$3</f>
+        <f>+[192]Main!$J$3</f>
         <v>121.89977399999999</v>
       </c>
       <c r="M546" s="60">
@@ -32838,7 +32955,7 @@
         <v>71.728120799999999</v>
       </c>
       <c r="I547" s="6">
-        <f>+[191]Main!$L$5-[191]Main!$L$6</f>
+        <f>+[193]Main!$L$5-[193]Main!$L$6</f>
         <v>24.916284999999998</v>
       </c>
       <c r="J547" s="6">
@@ -32849,7 +32966,7 @@
         <v>1275</v>
       </c>
       <c r="L547" s="6">
-        <f>+[191]Main!$L$3</f>
+        <f>+[193]Main!$L$3</f>
         <v>146.38391999999999</v>
       </c>
       <c r="M547" s="9">
@@ -32880,7 +32997,7 @@
         <v>80.467982309999996</v>
       </c>
       <c r="I548" s="6">
-        <f>+[192]Main!$K$5-[192]Main!$K$6</f>
+        <f>+[194]Main!$K$5-[194]Main!$K$6</f>
         <v>449.76100000000002</v>
       </c>
       <c r="J548" s="6">
@@ -32891,7 +33008,7 @@
         <v>418</v>
       </c>
       <c r="L548" s="6">
-        <f>+[192]Main!$K$3</f>
+        <f>+[194]Main!$K$3</f>
         <v>57.069490999999999</v>
       </c>
       <c r="M548" s="9">
@@ -33011,11 +33128,11 @@
         <v>0.12</v>
       </c>
       <c r="H553" s="6">
-        <f>G553*[193]Main!$M$3</f>
+        <f>G553*[195]Main!$M$3</f>
         <v>22.103871479999999</v>
       </c>
       <c r="I553" s="6">
-        <f>[193]Main!$M$5-[193]Main!$M$6</f>
+        <f>[195]Main!$M$5-[195]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="J553" s="8">
@@ -33052,13 +33169,13 @@
     <hyperlink ref="E31" r:id="rId15" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="E26" r:id="rId16" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
     <hyperlink ref="E261" r:id="rId17" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="E499" r:id="rId18" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="E497" r:id="rId19" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="E500" r:id="rId20" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="E500" r:id="rId18" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="E498" r:id="rId19" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="E501" r:id="rId20" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
     <hyperlink ref="E260" r:id="rId21" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="E502" r:id="rId22" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="E503" r:id="rId22" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
     <hyperlink ref="E255" r:id="rId23" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="E501" r:id="rId24" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="E502" r:id="rId24" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
     <hyperlink ref="E553" r:id="rId25" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="E55" r:id="rId26" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="E93" r:id="rId27" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
@@ -33069,7 +33186,7 @@
     <hyperlink ref="E213" r:id="rId32" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
     <hyperlink ref="E74" r:id="rId33" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
     <hyperlink ref="E84" r:id="rId34" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="E498" r:id="rId35" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="E499" r:id="rId35" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
     <hyperlink ref="E103" r:id="rId36" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
     <hyperlink ref="E64" r:id="rId37" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
     <hyperlink ref="E90" r:id="rId38" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
@@ -33118,14 +33235,14 @@
     <hyperlink ref="E163" r:id="rId81" xr:uid="{1924D31B-B6B9-4CB2-936E-0F68E40FA2F5}"/>
     <hyperlink ref="E164" r:id="rId82" xr:uid="{8E97DA51-E6CD-4B11-B6F8-BD0A3CC93541}"/>
     <hyperlink ref="E104" r:id="rId83" xr:uid="{BACD6400-1341-654E-A5B2-576C65F8052B}"/>
-    <hyperlink ref="E351" r:id="rId84" xr:uid="{C4CF7488-CAF7-4516-AB24-0FC50F0916A3}"/>
+    <hyperlink ref="E352" r:id="rId84" xr:uid="{C4CF7488-CAF7-4516-AB24-0FC50F0916A3}"/>
     <hyperlink ref="E122" r:id="rId85" xr:uid="{2B6C4E35-2657-4D1A-8D80-C54F892964F4}"/>
     <hyperlink ref="E8" r:id="rId86" xr:uid="{D4CC8F9A-CC3B-EE41-860B-629E01D90BFD}"/>
-    <hyperlink ref="E409" r:id="rId87" xr:uid="{C4EB2FD5-19C2-4B46-A645-6A4B58B3BF48}"/>
-    <hyperlink ref="E438" r:id="rId88" xr:uid="{E2D5EE7E-5721-5749-A98C-474C4C00D036}"/>
+    <hyperlink ref="E410" r:id="rId87" xr:uid="{C4EB2FD5-19C2-4B46-A645-6A4B58B3BF48}"/>
+    <hyperlink ref="E439" r:id="rId88" xr:uid="{E2D5EE7E-5721-5749-A98C-474C4C00D036}"/>
     <hyperlink ref="E23" r:id="rId89" xr:uid="{AA34EED3-260C-48F6-B18F-9CB2123B2DB8}"/>
     <hyperlink ref="E35" r:id="rId90" xr:uid="{3556B95F-6CC1-4165-90C0-F95B358B441D}"/>
-    <hyperlink ref="E464" r:id="rId91" xr:uid="{E9466C79-B428-4906-B5D4-8A65E345C46A}"/>
+    <hyperlink ref="E465" r:id="rId91" xr:uid="{E9466C79-B428-4906-B5D4-8A65E345C46A}"/>
     <hyperlink ref="E72" r:id="rId92" xr:uid="{0F64F384-8187-4F0A-B6D5-472BB2A5904F}"/>
     <hyperlink ref="E105" r:id="rId93" xr:uid="{5475D411-362D-4662-900D-6279A7227B29}"/>
     <hyperlink ref="E58" r:id="rId94" xr:uid="{6DB2BB02-C4A0-49AF-BAFF-B0F94FD8A18F}"/>
@@ -33140,12 +33257,12 @@
     <hyperlink ref="E94" r:id="rId103" xr:uid="{7DEB18EF-0653-42AE-848B-1CD34B6185B1}"/>
     <hyperlink ref="E306" r:id="rId104" xr:uid="{500E1EB4-5BFA-41DA-B498-9CADDCBC3BD8}"/>
     <hyperlink ref="E523" r:id="rId105" xr:uid="{DA843767-B487-45EC-B6B6-4CAF3C575C50}"/>
-    <hyperlink ref="E503" r:id="rId106" xr:uid="{91A036B5-0E03-4930-B738-BF1C076ACF18}"/>
+    <hyperlink ref="E504" r:id="rId106" xr:uid="{91A036B5-0E03-4930-B738-BF1C076ACF18}"/>
     <hyperlink ref="E109" r:id="rId107" xr:uid="{8068ED1A-3B17-4C79-9022-B1BEE306CC58}"/>
     <hyperlink ref="E98" r:id="rId108" xr:uid="{DEB94AB7-6F89-44AE-9C77-B3E2D1E51B70}"/>
     <hyperlink ref="E307" r:id="rId109" xr:uid="{C5AE6E9D-13C3-40F4-80F9-EB86590BF332}"/>
     <hyperlink ref="E227" r:id="rId110" xr:uid="{47C928EF-242B-4B5F-9296-FA878004232C}"/>
-    <hyperlink ref="E361" r:id="rId111" xr:uid="{B0C9190D-D136-462D-B004-BE374B10A4F0}"/>
+    <hyperlink ref="E362" r:id="rId111" xr:uid="{B0C9190D-D136-462D-B004-BE374B10A4F0}"/>
     <hyperlink ref="E79" r:id="rId112" xr:uid="{1C0EAF20-C59C-4E14-90E0-E67EED291627}"/>
     <hyperlink ref="E305" r:id="rId113" xr:uid="{820E74E5-32AF-43AF-A75C-37305E58D952}"/>
     <hyperlink ref="E100" r:id="rId114" xr:uid="{4A53B476-D8D4-4433-B5B3-B626DD5ECAA5}"/>
@@ -33165,14 +33282,14 @@
     <hyperlink ref="E75" r:id="rId128" xr:uid="{B2C89E35-9AED-4A34-8767-FB6CD96F1DF7}"/>
     <hyperlink ref="E114" r:id="rId129" xr:uid="{7A0C9405-40F2-4CD9-999B-9032EC028C8E}"/>
     <hyperlink ref="E303" r:id="rId130" xr:uid="{F79A5FA4-445D-4428-8347-8E6CA8EBA325}"/>
-    <hyperlink ref="E457" r:id="rId131" xr:uid="{C5162717-DEF1-45A6-BAF5-F5909C72945C}"/>
+    <hyperlink ref="E458" r:id="rId131" xr:uid="{C5162717-DEF1-45A6-BAF5-F5909C72945C}"/>
     <hyperlink ref="E545" r:id="rId132" xr:uid="{DCA25E80-5EA2-4E2F-B5AD-7E00734C912A}"/>
     <hyperlink ref="E302" r:id="rId133" xr:uid="{6E543356-A92B-4C40-A4D8-0039FD9CF30E}"/>
     <hyperlink ref="E230" r:id="rId134" xr:uid="{18B5F0EF-CE16-458F-B2EC-C055E9592268}"/>
     <hyperlink ref="E228" r:id="rId135" xr:uid="{8452EEB1-E3C6-4709-93A8-E45683AE4BD4}"/>
     <hyperlink ref="E77" r:id="rId136" xr:uid="{8515586A-C9D5-4B3A-AB81-567CAF8711D8}"/>
     <hyperlink ref="E91" r:id="rId137" xr:uid="{05112419-511E-40D9-B365-E7FC8328F3E3}"/>
-    <hyperlink ref="E481" r:id="rId138" xr:uid="{42ED5909-2E52-452C-9738-284A43C46BA0}"/>
+    <hyperlink ref="E482" r:id="rId138" xr:uid="{42ED5909-2E52-452C-9738-284A43C46BA0}"/>
     <hyperlink ref="E113" r:id="rId139" xr:uid="{7B9292BF-8007-4C13-92AA-E4F48B407B78}"/>
     <hyperlink ref="E92" r:id="rId140" xr:uid="{4455E1D2-0A06-49CD-B578-A39396AB2276}"/>
     <hyperlink ref="E95" r:id="rId141" xr:uid="{9DBA9CB6-4FFE-4633-8913-39BE132E7E63}"/>
@@ -33180,7 +33297,7 @@
     <hyperlink ref="E258" r:id="rId143" xr:uid="{909F79D0-EDBD-44C4-8C45-548124C5C81A}"/>
     <hyperlink ref="E162" r:id="rId144" xr:uid="{0A7AB162-5181-4ECD-BE39-067356A9A255}"/>
     <hyperlink ref="E97" r:id="rId145" xr:uid="{A780315D-7EE1-43B1-808B-CA1A9B40DACC}"/>
-    <hyperlink ref="E434" r:id="rId146" xr:uid="{6EE007AF-F0B0-4EED-9CDD-3FC2319822A5}"/>
+    <hyperlink ref="E435" r:id="rId146" xr:uid="{6EE007AF-F0B0-4EED-9CDD-3FC2319822A5}"/>
     <hyperlink ref="E257" r:id="rId147" xr:uid="{ED761473-51F4-41BF-8401-76685055518C}"/>
     <hyperlink ref="E78" r:id="rId148" xr:uid="{7F559409-F96D-4010-8F92-37C722C2B828}"/>
     <hyperlink ref="E89" r:id="rId149" xr:uid="{C48A4FCA-0630-EF43-9EEC-B6CAB37EFE4F}"/>
@@ -33191,30 +33308,30 @@
     <hyperlink ref="E102" r:id="rId154" xr:uid="{31B2FC14-DD5D-4E0C-A012-B1FDA85DBE36}"/>
     <hyperlink ref="E69" r:id="rId155" xr:uid="{96AAF9F5-B005-400B-B62E-90DC1A7E8852}"/>
     <hyperlink ref="E250" r:id="rId156" xr:uid="{5BE55498-D8ED-41C4-A33E-57BE28B07449}"/>
-    <hyperlink ref="E410" r:id="rId157" xr:uid="{2B1AAFD9-D8D6-4616-841E-10108CC8192B}"/>
-    <hyperlink ref="E413" r:id="rId158" xr:uid="{D4B5A9D9-65BB-430A-A731-1152EA8D5DED}"/>
+    <hyperlink ref="E411" r:id="rId157" xr:uid="{2B1AAFD9-D8D6-4616-841E-10108CC8192B}"/>
+    <hyperlink ref="E414" r:id="rId158" xr:uid="{D4B5A9D9-65BB-430A-A731-1152EA8D5DED}"/>
     <hyperlink ref="E96" r:id="rId159" xr:uid="{67670CCE-8D41-4404-8F2B-F79243E31585}"/>
     <hyperlink ref="E117" r:id="rId160" xr:uid="{C904B992-93FD-497A-93CC-2FE800E3CDD4}"/>
-    <hyperlink ref="E463" r:id="rId161" xr:uid="{B24388CE-B704-4189-8171-2A7C078385AA}"/>
-    <hyperlink ref="E458" r:id="rId162" xr:uid="{107ACC16-1AF2-463F-97B2-B3329D313681}"/>
-    <hyperlink ref="E408" r:id="rId163" xr:uid="{C40615BB-48F8-4AB1-92A6-E4710DC43430}"/>
+    <hyperlink ref="E464" r:id="rId161" xr:uid="{B24388CE-B704-4189-8171-2A7C078385AA}"/>
+    <hyperlink ref="E459" r:id="rId162" xr:uid="{107ACC16-1AF2-463F-97B2-B3329D313681}"/>
+    <hyperlink ref="E409" r:id="rId163" xr:uid="{C40615BB-48F8-4AB1-92A6-E4710DC43430}"/>
     <hyperlink ref="E349" r:id="rId164" xr:uid="{0695F03B-1E3F-0E41-B1ED-4F68787EFC35}"/>
-    <hyperlink ref="E465" r:id="rId165" xr:uid="{0152517F-3480-4755-804B-768910043082}"/>
+    <hyperlink ref="E466" r:id="rId165" xr:uid="{0152517F-3480-4755-804B-768910043082}"/>
     <hyperlink ref="E112" r:id="rId166" xr:uid="{F0EE4F6E-0A2F-4906-8143-739E8257E38C}"/>
-    <hyperlink ref="E406" r:id="rId167" xr:uid="{0F9B63DB-3B35-4E51-BD36-EC943559BF1E}"/>
-    <hyperlink ref="E459" r:id="rId168" xr:uid="{7592EF22-0CF5-48F3-8744-24868E314045}"/>
-    <hyperlink ref="E456" r:id="rId169" xr:uid="{66F30E61-4E4B-47C8-8D49-028CC77AA4C6}"/>
-    <hyperlink ref="E411" r:id="rId170" xr:uid="{778D749F-0610-418A-A963-ADCD5A226677}"/>
-    <hyperlink ref="E450" r:id="rId171" xr:uid="{8E820BFC-E26B-4A27-A962-89FF7A10589B}"/>
-    <hyperlink ref="E405" r:id="rId172" xr:uid="{3DD5CDF4-E650-429E-97DF-ABC116C3584D}"/>
+    <hyperlink ref="E407" r:id="rId167" xr:uid="{0F9B63DB-3B35-4E51-BD36-EC943559BF1E}"/>
+    <hyperlink ref="E460" r:id="rId168" xr:uid="{7592EF22-0CF5-48F3-8744-24868E314045}"/>
+    <hyperlink ref="E457" r:id="rId169" xr:uid="{66F30E61-4E4B-47C8-8D49-028CC77AA4C6}"/>
+    <hyperlink ref="E412" r:id="rId170" xr:uid="{778D749F-0610-418A-A963-ADCD5A226677}"/>
+    <hyperlink ref="E451" r:id="rId171" xr:uid="{8E820BFC-E26B-4A27-A962-89FF7A10589B}"/>
+    <hyperlink ref="E406" r:id="rId172" xr:uid="{3DD5CDF4-E650-429E-97DF-ABC116C3584D}"/>
     <hyperlink ref="E339" r:id="rId173" xr:uid="{1292FD9E-BA4F-4B20-AD44-4B752114EEEF}"/>
-    <hyperlink ref="E407" r:id="rId174" xr:uid="{35FB9AE4-5A31-48BA-9D76-BF10058F42EC}"/>
-    <hyperlink ref="E364" r:id="rId175" xr:uid="{4C62C768-C471-4E03-BD75-AF60DDF17283}"/>
+    <hyperlink ref="E408" r:id="rId174" xr:uid="{35FB9AE4-5A31-48BA-9D76-BF10058F42EC}"/>
+    <hyperlink ref="E365" r:id="rId175" xr:uid="{4C62C768-C471-4E03-BD75-AF60DDF17283}"/>
     <hyperlink ref="E85" r:id="rId176" xr:uid="{FCC7525B-426F-4D18-B356-CF6486A50A0F}"/>
-    <hyperlink ref="E365" r:id="rId177" xr:uid="{3714C986-B632-4E2F-8857-1DCA6DFD79FD}"/>
+    <hyperlink ref="E366" r:id="rId177" xr:uid="{3714C986-B632-4E2F-8857-1DCA6DFD79FD}"/>
     <hyperlink ref="E259" r:id="rId178" xr:uid="{CE44BEA4-012D-4699-8F08-C58713DDB2BE}"/>
     <hyperlink ref="E212" r:id="rId179" xr:uid="{0E4C0ACB-35E3-43D4-B0E1-F865F7ED59B8}"/>
-    <hyperlink ref="E362" r:id="rId180" xr:uid="{5127CACD-341C-4DCA-B244-83466075BEBF}"/>
+    <hyperlink ref="E363" r:id="rId180" xr:uid="{5127CACD-341C-4DCA-B244-83466075BEBF}"/>
     <hyperlink ref="E253" r:id="rId181" xr:uid="{3573C1AD-06BF-427D-B677-BD1F3CB3985C}"/>
     <hyperlink ref="E20" r:id="rId182" xr:uid="{2A05959C-B3A5-4B78-ADA7-E471C7CE2630}"/>
     <hyperlink ref="E11" r:id="rId183" xr:uid="{3E3C29B0-B6B6-4941-A344-5D4A8066AA33}"/>
@@ -33222,28 +33339,28 @@
     <hyperlink ref="E9" r:id="rId185" xr:uid="{5ABD642F-31BA-4307-9A24-D75F9ABBBDAA}"/>
     <hyperlink ref="E24" r:id="rId186" xr:uid="{C4B4660F-C5FF-4941-BE50-98ABDA101D7F}"/>
     <hyperlink ref="E27" r:id="rId187" xr:uid="{3481449D-1354-4BBE-B320-9EC407192702}"/>
-    <hyperlink ref="E460" r:id="rId188" xr:uid="{51D052A4-1B75-48F3-93AF-E8B1B96076CE}"/>
-    <hyperlink ref="E461" r:id="rId189" xr:uid="{FD546B4F-FF4A-4365-A9F1-25C43D119A98}"/>
-    <hyperlink ref="E462" r:id="rId190" xr:uid="{FA2E0702-7573-4035-93EA-A0CE71143105}"/>
+    <hyperlink ref="E461" r:id="rId188" xr:uid="{51D052A4-1B75-48F3-93AF-E8B1B96076CE}"/>
+    <hyperlink ref="E462" r:id="rId189" xr:uid="{FD546B4F-FF4A-4365-A9F1-25C43D119A98}"/>
+    <hyperlink ref="E463" r:id="rId190" xr:uid="{FA2E0702-7573-4035-93EA-A0CE71143105}"/>
     <hyperlink ref="E99" r:id="rId191" xr:uid="{19D04C6A-EB12-4779-9BF1-8615419B9493}"/>
     <hyperlink ref="E283" r:id="rId192" xr:uid="{F54AFBD3-3040-4478-815C-CC270DBC110E}"/>
     <hyperlink ref="E165" r:id="rId193" xr:uid="{5741E758-F26D-41A7-976D-943D0B4BBA8C}"/>
     <hyperlink ref="E232" r:id="rId194" xr:uid="{46E08616-E182-4770-A0EC-E67C429D363A}"/>
-    <hyperlink ref="E404" r:id="rId195" xr:uid="{25A8908D-5EB4-416E-B88A-983D1FDD66C7}"/>
-    <hyperlink ref="E420" r:id="rId196" xr:uid="{63936724-7806-4858-BC51-BF317429A4D3}"/>
-    <hyperlink ref="E429" r:id="rId197" xr:uid="{F7B60A92-FEBA-4956-8C32-3DAD1956FCBE}"/>
+    <hyperlink ref="E405" r:id="rId195" xr:uid="{25A8908D-5EB4-416E-B88A-983D1FDD66C7}"/>
+    <hyperlink ref="E421" r:id="rId196" xr:uid="{63936724-7806-4858-BC51-BF317429A4D3}"/>
+    <hyperlink ref="E430" r:id="rId197" xr:uid="{F7B60A92-FEBA-4956-8C32-3DAD1956FCBE}"/>
     <hyperlink ref="E254" r:id="rId198" xr:uid="{BB2D6CB0-9710-43BE-9C9C-96D4CB00CC27}"/>
-    <hyperlink ref="E372" r:id="rId199" xr:uid="{7EF10422-26D7-4738-A7D3-E7994A8DAA2B}"/>
+    <hyperlink ref="E374" r:id="rId199" xr:uid="{7EF10422-26D7-4738-A7D3-E7994A8DAA2B}"/>
     <hyperlink ref="E161" r:id="rId200" xr:uid="{F19BA876-8355-426C-9961-985F5221658A}"/>
-    <hyperlink ref="E428" r:id="rId201" xr:uid="{C5D06361-EB49-48E0-A1D9-AF4AC610A623}"/>
+    <hyperlink ref="E429" r:id="rId201" xr:uid="{C5D06361-EB49-48E0-A1D9-AF4AC610A623}"/>
     <hyperlink ref="E251" r:id="rId202" xr:uid="{3EBF05D2-CB49-4743-B497-44F343FEF925}"/>
     <hyperlink ref="E252" r:id="rId203" xr:uid="{9F744E11-79B1-41BF-84C3-9DB6AA9D6A0A}"/>
     <hyperlink ref="E229" r:id="rId204" xr:uid="{89A3EC98-D13D-4CF4-A6D0-7CE019243966}"/>
     <hyperlink ref="E88" r:id="rId205" xr:uid="{64B386A5-32AA-479A-BF21-CAB85694C43C}"/>
-    <hyperlink ref="E380" r:id="rId206" xr:uid="{C7EC599F-1BEA-45A7-9110-61C63AADB6EA}"/>
-    <hyperlink ref="E433" r:id="rId207" xr:uid="{F4947070-5DBC-4DB5-89C2-5BF3AAF42097}"/>
-    <hyperlink ref="E426" r:id="rId208" xr:uid="{2B90B6AE-5270-499A-ACC5-93CF43195988}"/>
-    <hyperlink ref="E373" r:id="rId209" xr:uid="{6C1AFFD3-C72A-4EC5-9C96-6ED79496D763}"/>
+    <hyperlink ref="E381" r:id="rId206" xr:uid="{C7EC599F-1BEA-45A7-9110-61C63AADB6EA}"/>
+    <hyperlink ref="E434" r:id="rId207" xr:uid="{F4947070-5DBC-4DB5-89C2-5BF3AAF42097}"/>
+    <hyperlink ref="E427" r:id="rId208" xr:uid="{2B90B6AE-5270-499A-ACC5-93CF43195988}"/>
+    <hyperlink ref="E375" r:id="rId209" xr:uid="{6C1AFFD3-C72A-4EC5-9C96-6ED79496D763}"/>
     <hyperlink ref="E108" r:id="rId210" xr:uid="{9F4AE380-FC68-48E0-95DA-205160A3646B}"/>
     <hyperlink ref="E170" r:id="rId211" xr:uid="{60CEAB5A-AEFD-4A1A-AE36-6388775884A6}"/>
     <hyperlink ref="E200" r:id="rId212" xr:uid="{D2FE86B3-4852-4B36-A676-E4C0EAECF9DF}"/>
@@ -33252,10 +33369,12 @@
     <hyperlink ref="E211" r:id="rId215" xr:uid="{B0DE8762-012E-4A0E-8BF3-E6C9446E18BD}"/>
     <hyperlink ref="E321" r:id="rId216" xr:uid="{44177C56-7D67-4FF8-B936-0EF935FF1B5F}"/>
     <hyperlink ref="E10" r:id="rId217" xr:uid="{CCC45DFB-BF73-4A15-8527-F4C3C617F472}"/>
+    <hyperlink ref="E350" r:id="rId218" xr:uid="{CF64233D-5E27-4237-93F7-72F94CEED779}"/>
+    <hyperlink ref="E373" r:id="rId219" xr:uid="{68F64B22-6B3E-4183-AD03-FDDABA17AC2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId218"/>
-  <legacyDrawing r:id="rId219"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId220"/>
+  <legacyDrawing r:id="rId221"/>
 </worksheet>
 </file>
 
@@ -34462,7 +34581,7 @@
         <v>24515.28782275</v>
       </c>
       <c r="F76" s="6">
-        <f>([194]Main!$J$5-[194]Main!$J$6)/HKD</f>
+        <f>([196]Main!$J$5-[196]Main!$J$6)/HKD</f>
         <v>991.71512820512828</v>
       </c>
       <c r="G76" s="6">
@@ -34473,7 +34592,7 @@
         <v>300</v>
       </c>
       <c r="I76" s="6">
-        <f>+[194]Main!$J$3</f>
+        <f>+[196]Main!$J$3</f>
         <v>4263.5283170000002</v>
       </c>
       <c r="J76" s="9">
@@ -34891,7 +35010,7 @@
         <v>13842.367175000001</v>
       </c>
       <c r="F120" s="35">
-        <f>+[195]Main!$L$5-[195]Main!$L$6</f>
+        <f>+[197]Main!$L$5-[197]Main!$L$6</f>
         <v>1024.6570000000002</v>
       </c>
       <c r="G120" s="35">
@@ -34902,7 +35021,7 @@
         <v>1069</v>
       </c>
       <c r="I120" s="35">
-        <f>+[195]Main!$L$3</f>
+        <f>+[197]Main!$L$3</f>
         <v>105.66692500000001</v>
       </c>
       <c r="J120" s="60">
@@ -34941,7 +35060,7 @@
         <v>1318.30476669</v>
       </c>
       <c r="F121" s="97">
-        <f>+[196]Main!$K$5-[196]Main!$K$6</f>
+        <f>+[198]Main!$K$5-[198]Main!$K$6</f>
         <v>304.87299999999999</v>
       </c>
       <c r="G121" s="97">
@@ -34952,7 +35071,7 @@
         <v>1069</v>
       </c>
       <c r="I121" s="97">
-        <f>+[196]Main!$K$3</f>
+        <f>+[198]Main!$K$3</f>
         <v>38.899521</v>
       </c>
       <c r="J121" s="98">
@@ -35006,7 +35125,7 @@
         <v>5465.1553000000004</v>
       </c>
       <c r="I123" s="35">
-        <f>+[197]Main!$K$5-[197]Main!$K$6</f>
+        <f>+[199]Main!$K$5-[199]Main!$K$6</f>
         <v>481.55700000000002</v>
       </c>
       <c r="J123" s="35">
@@ -35017,7 +35136,7 @@
         <v>1069</v>
       </c>
       <c r="L123" s="35">
-        <f>+[197]Main!$K$3</f>
+        <f>+[199]Main!$K$3</f>
         <v>62.853999999999999</v>
       </c>
       <c r="M123" s="60">

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14257DA3-D6E4-4EFA-AD23-0496C23807A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E60105-C833-4355-B41F-BA1B24768A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1550" yWindow="2320" windowWidth="26400" windowHeight="18030" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="47670" yWindow="4000" windowWidth="18410" windowHeight="14130" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -227,6 +227,7 @@
     <externalReference r:id="rId210"/>
     <externalReference r:id="rId211"/>
     <externalReference r:id="rId212"/>
+    <externalReference r:id="rId213"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -396,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1996">
   <si>
     <t>Exarta</t>
   </si>
@@ -6384,9 +6385,6 @@
   </si>
   <si>
     <t>Q225</t>
-  </si>
-  <si>
-    <t>cd`</t>
   </si>
 </sst>
 </file>
@@ -6689,7 +6687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6932,10 +6930,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7032,6 +7026,9 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8805,6 +8802,8 @@
       <sheetName val="efzofitimod"/>
       <sheetName val="Glossary"/>
       <sheetName val="Papers"/>
+      <sheetName val="Literature"/>
+      <sheetName val="ASS"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -8824,9 +8823,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9303,12 +9304,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>35.424388</v>
+            <v>88.319316999999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>33.298999999999999</v>
+            <v>14.502000000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -9949,22 +9950,22 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="TX45"/>
+      <sheetName val="nomlabofusp"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>14.752689</v>
+          <cell r="J3">
+            <v>106.59039199999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>159.095</v>
+          <cell r="J5">
+            <v>204.524</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
+          <cell r="J6">
             <v>0</v>
           </cell>
         </row>
@@ -9983,22 +9984,22 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="TX45"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>6.1240869999999994</v>
+          <cell r="M3">
+            <v>14.752689</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>40.720092000000001</v>
+          <cell r="M5">
+            <v>159.095</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="M6">
             <v>0</v>
           </cell>
         </row>
@@ -10018,28 +10019,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="ersodetug"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>97.631</v>
+          <cell r="L3">
+            <v>6.1240869999999994</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>195.3</v>
+          <cell r="L5">
+            <v>40.720092000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10053,25 +10052,29 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="ersodetug"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>32.475537000000003</v>
+            <v>97.631</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>16.823999999999998</v>
+            <v>195.3</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>14.916</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10089,18 +10092,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>129.17000400000001</v>
+          <cell r="M3">
+            <v>32.475537000000003</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>65.116</v>
+          <cell r="M5">
+            <v>16.823999999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="M6">
+            <v>14.916</v>
           </cell>
         </row>
       </sheetData>
@@ -10117,27 +10120,25 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="pz-cel"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>43.314397</v>
+          <cell r="L3">
+            <v>129.17000400000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>122.708</v>
+          <cell r="L5">
+            <v>65.116</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>18.355</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10151,23 +10152,23 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="pz-cel"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="P3">
-            <v>22.004159000000001</v>
+          <cell r="J3">
+            <v>43.314397</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="P5">
-            <v>4.1559999999999997</v>
+          <cell r="J5">
+            <v>122.708</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="P6">
-            <v>8.4879999999999995</v>
+          <cell r="J6">
+            <v>18.355</v>
           </cell>
         </row>
       </sheetData>
@@ -10190,18 +10191,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>54.533253999999999</v>
+          <cell r="P3">
+            <v>22.004159000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>371.02100000000002</v>
+          <cell r="P5">
+            <v>4.1559999999999997</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>0</v>
+          <cell r="P6">
+            <v>8.4879999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -10219,17 +10220,18 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>52.028145000000002</v>
+            <v>54.533253999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>193.8</v>
+            <v>371.02100000000002</v>
           </cell>
         </row>
         <row r="6">
@@ -10238,6 +10240,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10287,27 +10290,25 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="rilparencel"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="I3">
-            <v>129.53612100000001</v>
+          <cell r="L3">
+            <v>52.028145000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>358.29200000000003</v>
+          <cell r="L5">
+            <v>193.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10321,6 +10322,40 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="rilparencel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>129.53612100000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>358.29200000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink172.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -10345,7 +10380,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink173.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10381,7 +10416,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink174.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10413,7 +10448,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink175.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10451,7 +10486,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink176.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10503,7 +10538,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink177.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10527,38 +10562,6 @@
         <row r="6">
           <cell r="K6">
             <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink177.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>36.819809999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>57.733724000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>24.225999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -10575,27 +10578,25 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="AlloNK"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>24.289328000000001</v>
+          <cell r="L3">
+            <v>36.819809999999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>199.59700000000001</v>
+          <cell r="L5">
+            <v>57.733724000000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="L6">
+            <v>24.225999999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10609,17 +10610,18 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="AlloNK"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>38.317897000000002</v>
+            <v>24.289328000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>62.823</v>
+            <v>199.59700000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -10628,6 +10630,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10695,6 +10698,38 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>38.317897000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>62.823</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink181.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="brilaroxazine"/>
       <sheetName val="Model"/>
     </sheetNames>
@@ -10723,7 +10758,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink182.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10747,40 +10782,6 @@
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink182.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="levosimendan "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>35.291576999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>98.310918000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
             <v>0</v>
           </cell>
         </row>
@@ -10799,18 +10800,18 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="bempikibart"/>
+      <sheetName val="levosimendan "/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>12.076411999999999</v>
+            <v>35.291576999999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>89.078000000000003</v>
+            <v>98.310918000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -10833,23 +10834,23 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="bempikibart"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>27.999521999999999</v>
+            <v>12.076411999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>19.905999999999999</v>
+            <v>89.078000000000003</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>4.4909999999999997</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10860,6 +10861,40 @@
 </file>
 
 <file path=xl/externalLinks/externalLink185.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>27.999521999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>19.905999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>4.4909999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink186.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -10899,7 +10934,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink187.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -10988,7 +11023,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink187.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink188.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11009,35 +11044,6 @@
         <row r="6">
           <cell r="N6">
             <v>18.713000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink188.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -11055,18 +11061,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -11112,27 +11118,24 @@
 <file path=xl/externalLinks/externalLink190.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>60.293999999999997</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>136.64599999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -11153,17 +11156,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>30.972162999999998</v>
+          <cell r="K3">
+            <v>60.293999999999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>220.43200000000002</v>
+          <cell r="K5">
+            <v>136.64599999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
+          <cell r="K6">
             <v>0</v>
           </cell>
         </row>
@@ -11185,17 +11188,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>114.846271</v>
+          <cell r="J3">
+            <v>30.972162999999998</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>122.197</v>
+          <cell r="J5">
+            <v>220.43200000000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="J6">
             <v>0</v>
           </cell>
         </row>
@@ -11206,6 +11209,38 @@
 </file>
 
 <file path=xl/externalLinks/externalLink193.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>114.846271</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>122.197</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink194.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11234,7 +11269,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink195.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11268,7 +11303,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink195.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink196.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11299,7 +11334,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink196.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink197.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11328,7 +11363,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink197.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink198.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11362,7 +11397,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink198.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink199.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -11393,40 +11428,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink199.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="bexicaserin"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>38.899521</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>304.87299999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11629,6 +11630,40 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="bexicaserin"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>38.899521</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>304.87299999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink201.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -14357,73 +14392,73 @@
       <sheetName val="Zolinza"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
-            <v>2526.0362399999999</v>
+            <v>2531</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>14152</v>
+            <v>9396</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>37111</v>
+            <v>35402</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="108">
-          <cell r="EM108">
-            <v>0.01</v>
-          </cell>
-        </row>
         <row r="109">
           <cell r="EM109">
-            <v>-0.01</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="110">
           <cell r="EM110">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="EM111">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
-        <row r="112">
-          <cell r="EM112">
-            <v>97.158745924197234</v>
+        <row r="113">
+          <cell r="EM113">
+            <v>91.467147927246273</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15639,10 +15674,10 @@
   <dimension ref="A1:AF553"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F407" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H427" sqref="H427"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15675,11 +15710,11 @@
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,D257)</f>
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(H5:H419)-H10-H8-H13-H19-H23-H26-H52-H57</f>
-        <v>4691074.3237622473</v>
+        <v>4704489.8912811782</v>
       </c>
       <c r="M2" s="9">
         <f>MIN(M5:M87)</f>
@@ -15687,24 +15722,24 @@
       </c>
       <c r="O2" s="10">
         <f>AVERAGE(O5:O25)</f>
-        <v>8.902555603023081E-2</v>
-      </c>
-      <c r="S2" s="116" t="s">
+        <v>6.9210709202229534E-2</v>
+      </c>
+      <c r="S2" s="112" t="s">
         <v>311</v>
       </c>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116" t="s">
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -15799,6 +15834,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="E4" s="144"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -15813,23 +15849,23 @@
       <c r="R4" s="25"/>
       <c r="S4" s="105">
         <f t="shared" ref="S4:X4" si="0">TRIMMEAN(S5:S301,10%)</f>
-        <v>39.156884465247579</v>
+        <v>39.229342689246025</v>
       </c>
       <c r="T4" s="105">
         <f t="shared" si="0"/>
-        <v>82.443653229705816</v>
+        <v>85.398913651356921</v>
       </c>
       <c r="U4" s="105">
         <f t="shared" si="0"/>
-        <v>49.968162324537303</v>
+        <v>50.025710978890672</v>
       </c>
       <c r="V4" s="105">
         <f t="shared" si="0"/>
-        <v>17.27094840471317</v>
+        <v>17.311966559937673</v>
       </c>
       <c r="W4" s="105">
         <f t="shared" si="0"/>
-        <v>15.499518668297847</v>
+        <v>15.537076444172135</v>
       </c>
       <c r="X4" s="105">
         <f t="shared" si="0"/>
@@ -15865,7 +15901,7 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -15968,7 +16004,7 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -16075,7 +16111,7 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
@@ -16181,7 +16217,7 @@
         <f>+D7+1</f>
         <v>4</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -16264,7 +16300,7 @@
         <f>+D8</f>
         <v>4</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -16359,7 +16395,7 @@
         <f>+D9+1</f>
         <v>5</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -16460,7 +16496,7 @@
         <f>+D10</f>
         <v>5</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
@@ -16563,7 +16599,7 @@
         <f>+D11+1</f>
         <v>6</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -16653,7 +16689,7 @@
         <f>+D12+1</f>
         <v>7</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -16736,7 +16772,7 @@
         <f>+D13</f>
         <v>7</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
@@ -16830,76 +16866,76 @@
         <f>+D14+1</f>
         <v>8</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="7">
-        <v>79.98</v>
+        <v>85</v>
       </c>
       <c r="H15" s="6">
         <f>+G15*L15</f>
-        <v>202032.37847520001</v>
+        <v>215135</v>
       </c>
       <c r="I15" s="6">
         <f>+[8]Main!$J$5-[8]Main!$J$6</f>
-        <v>-22959</v>
+        <v>-26006</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="1"/>
-        <v>224991.37847520001</v>
+        <v>241141</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>1276</v>
       </c>
       <c r="L15" s="6">
         <f>+[8]Main!$J$3</f>
-        <v>2526.0362399999999</v>
+        <v>2531</v>
       </c>
       <c r="M15" s="9">
         <v>45771</v>
       </c>
       <c r="N15" s="7">
-        <f>[8]Model!$EM$112</f>
-        <v>97.158745924197234</v>
+        <f>[8]Model!$EM$113</f>
+        <v>91.467147927246273</v>
       </c>
       <c r="O15" s="10">
         <f>N15/G15-1</f>
-        <v>0.21478802105772976</v>
+        <v>7.6084093261720831E-2</v>
       </c>
       <c r="P15" s="10">
-        <f>[8]Model!$EM$108</f>
+        <f>[8]Model!$EM$109</f>
         <v>0.01</v>
       </c>
       <c r="Q15" s="10">
-        <f>[8]Model!$EM$109</f>
+        <f>[8]Model!$EM$110</f>
         <v>-0.01</v>
       </c>
       <c r="R15" s="10">
-        <f>[8]Model!$EM$110</f>
+        <f>[8]Model!$EM$111</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S15" s="11">
         <f t="shared" ref="S15:W18" si="3">($J15/$L15)/Y15</f>
-        <v>15.598764139582119</v>
+        <v>16.685637499558883</v>
       </c>
       <c r="T15" s="11">
         <f t="shared" si="3"/>
-        <v>636.20673740724203</v>
+        <v>680.53564373200868</v>
       </c>
       <c r="U15" s="11">
         <f t="shared" si="3"/>
-        <v>13.21497674139672</v>
+        <v>14.135755211050627</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="3"/>
-        <v>10.007746431125156</v>
+        <v>10.705055069941711</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="3"/>
-        <v>9.163471526441759</v>
+        <v>9.8019537163046522</v>
       </c>
       <c r="X15" s="4" t="s">
         <v>1680</v>
@@ -16936,7 +16972,7 @@
         <f>+D15+1</f>
         <v>9</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="145" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -17042,7 +17078,7 @@
         <f>+D16+1</f>
         <v>10</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -17130,7 +17166,7 @@
         <f>+D17+1</f>
         <v>11</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -17213,7 +17249,7 @@
         <f>+D18+1</f>
         <v>12</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -17293,7 +17329,7 @@
         <f>+D19</f>
         <v>12</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
@@ -17388,7 +17424,7 @@
         <f>+D20+1</f>
         <v>13</v>
       </c>
-      <c r="E21" s="115" t="s">
+      <c r="E21" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -17474,7 +17510,7 @@
         <f>+D21+1</f>
         <v>14</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -17578,7 +17614,7 @@
         <f>+D22+1</f>
         <v>15</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -17661,7 +17697,7 @@
         <f>+D23</f>
         <v>15</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -17761,7 +17797,7 @@
         <f>+D24+1</f>
         <v>16</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -17844,7 +17880,7 @@
         <f>+D25+1</f>
         <v>17</v>
       </c>
-      <c r="E26" s="115" t="s">
+      <c r="E26" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -17886,7 +17922,7 @@
         <f>+D26</f>
         <v>17</v>
       </c>
-      <c r="E27" s="115" t="s">
+      <c r="E27" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -17929,7 +17965,7 @@
         <f t="shared" ref="D28:D46" si="5">+D27+1</f>
         <v>18</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -17974,7 +18010,7 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -18015,7 +18051,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="13" t="s">
         <v>254</v>
       </c>
       <c r="F30" t="s">
@@ -18057,7 +18093,7 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -18102,7 +18138,7 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="13" t="s">
         <v>264</v>
       </c>
       <c r="F32" t="s">
@@ -18147,7 +18183,7 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="13" t="s">
         <v>256</v>
       </c>
       <c r="F33" t="s">
@@ -18187,7 +18223,7 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -18227,7 +18263,7 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="13" t="s">
         <v>270</v>
       </c>
       <c r="F35" t="s">
@@ -18267,7 +18303,7 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -18309,7 +18345,7 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -18357,7 +18393,7 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="13" t="s">
         <v>63</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -18402,7 +18438,7 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="13" t="s">
         <v>65</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -18447,7 +18483,7 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="146" t="s">
         <v>1826</v>
       </c>
       <c r="F40" t="s">
@@ -18470,7 +18506,7 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -18513,7 +18549,7 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -18553,7 +18589,7 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -18598,7 +18634,7 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -18640,7 +18676,7 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="13" t="s">
         <v>77</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -18685,7 +18721,7 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="13" t="s">
         <v>262</v>
       </c>
       <c r="F46" t="s">
@@ -18733,7 +18769,7 @@
         <f>+D55+1</f>
         <v>44</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="13" t="s">
         <v>707</v>
       </c>
       <c r="F47" t="s">
@@ -26886,22 +26922,22 @@
       </c>
       <c r="H309" s="6">
         <f>+G309*L309</f>
-        <v>18.774925640000003</v>
+        <v>46.809238010000001</v>
       </c>
       <c r="I309" s="6">
         <f>+[148]Main!$L$5-[148]Main!$L$6</f>
-        <v>33.298999999999999</v>
+        <v>14.502000000000001</v>
       </c>
       <c r="J309" s="6">
         <f>+H309-I309</f>
-        <v>-14.524074359999997</v>
+        <v>32.307238009999999</v>
       </c>
       <c r="K309" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="L309" s="6">
         <f>+[148]Main!$L$3</f>
-        <v>35.424388</v>
+        <v>88.319316999999998</v>
       </c>
       <c r="M309" s="9">
         <v>45558</v>
@@ -28811,17 +28847,36 @@
         <f t="shared" si="26"/>
         <v>295</v>
       </c>
-      <c r="E383" t="s">
+      <c r="E383" s="5" t="s">
         <v>893</v>
       </c>
       <c r="F383" t="s">
         <v>894</v>
       </c>
       <c r="G383" s="7">
-        <v>3.88</v>
-      </c>
-      <c r="H383" s="3">
-        <v>118</v>
+        <v>3.78</v>
+      </c>
+      <c r="H383" s="6">
+        <f>+G383*L383</f>
+        <v>402.91168175999996</v>
+      </c>
+      <c r="I383" s="6">
+        <f>+[161]Main!$J$5-[161]Main!$J$6</f>
+        <v>204.524</v>
+      </c>
+      <c r="J383" s="6">
+        <f>+H383-I383</f>
+        <v>198.38768175999996</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="L383" s="6">
+        <f>+[161]Main!$J$3</f>
+        <v>106.59039199999999</v>
+      </c>
+      <c r="M383" s="9">
+        <v>45898</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -29266,7 +29321,7 @@
         <v>320.57593197</v>
       </c>
       <c r="I405" s="6">
-        <f>+[161]Main!$M$5-[161]Main!$M$6</f>
+        <f>+[162]Main!$M$5-[162]Main!$M$6</f>
         <v>159.095</v>
       </c>
       <c r="J405" s="6">
@@ -29277,7 +29332,7 @@
         <v>1275</v>
       </c>
       <c r="L405" s="6">
-        <f>+[161]Main!$M$3</f>
+        <f>+[162]Main!$M$3</f>
         <v>14.752689</v>
       </c>
       <c r="M405" s="9">
@@ -29312,7 +29367,7 @@
         <v>221.26326330999999</v>
       </c>
       <c r="I406" s="6">
-        <f>+[162]Main!$L$5-[162]Main!$L$6</f>
+        <f>+[163]Main!$L$5-[163]Main!$L$6</f>
         <v>40.720092000000001</v>
       </c>
       <c r="J406" s="6">
@@ -29323,7 +29378,7 @@
         <v>1069</v>
       </c>
       <c r="L406" s="6">
-        <f>+[162]Main!$L$3</f>
+        <f>+[163]Main!$L$3</f>
         <v>6.1240869999999994</v>
       </c>
       <c r="M406" s="9">
@@ -29352,7 +29407,7 @@
         <v>574.07028000000003</v>
       </c>
       <c r="I407" s="6">
-        <f>+[163]Main!$M$5-[163]Main!$M$6</f>
+        <f>+[164]Main!$M$5-[164]Main!$M$6</f>
         <v>195.3</v>
       </c>
       <c r="J407" s="6">
@@ -29363,7 +29418,7 @@
         <v>1275</v>
       </c>
       <c r="L407" s="6">
-        <f>+[163]Main!$M$3</f>
+        <f>+[164]Main!$M$3</f>
         <v>97.631</v>
       </c>
       <c r="M407" s="9">
@@ -29392,7 +29447,7 @@
         <v>204.92063847</v>
       </c>
       <c r="I408" s="6">
-        <f>+[164]Main!$M$5-[164]Main!$M$6</f>
+        <f>+[165]Main!$M$5-[165]Main!$M$6</f>
         <v>1.9079999999999977</v>
       </c>
       <c r="J408" s="6">
@@ -29403,7 +29458,7 @@
         <v>1275</v>
       </c>
       <c r="L408" s="6">
-        <f>+[164]Main!$M$3</f>
+        <f>+[165]Main!$M$3</f>
         <v>32.475537000000003</v>
       </c>
       <c r="M408" s="9">
@@ -29432,7 +29487,7 @@
         <v>107.21110332000001</v>
       </c>
       <c r="I409" s="6">
-        <f>+[165]Main!$L$5-[165]Main!$L$6</f>
+        <f>+[166]Main!$L$5-[166]Main!$L$6</f>
         <v>65.116</v>
       </c>
       <c r="J409" s="6">
@@ -29443,7 +29498,7 @@
         <v>1842</v>
       </c>
       <c r="L409" s="6">
-        <f>+[165]Main!$L$3</f>
+        <f>+[166]Main!$L$3</f>
         <v>129.17000400000001</v>
       </c>
       <c r="M409" s="9">
@@ -29472,7 +29527,7 @@
         <v>281.11043653000002</v>
       </c>
       <c r="I410" s="6">
-        <f>+[166]Main!$J$5-[166]Main!$J$6</f>
+        <f>+[167]Main!$J$5-[167]Main!$J$6</f>
         <v>104.35299999999999</v>
       </c>
       <c r="J410" s="6">
@@ -29483,7 +29538,7 @@
         <v>1069</v>
       </c>
       <c r="L410" s="6">
-        <f>+[166]Main!$J$3</f>
+        <f>+[167]Main!$J$3</f>
         <v>43.314397</v>
       </c>
       <c r="M410" s="9">
@@ -29512,7 +29567,7 @@
         <v>984.46607366000012</v>
       </c>
       <c r="I411" s="6">
-        <f>+[167]Main!$P$5-[167]Main!$P$6</f>
+        <f>+[168]Main!$P$5-[168]Main!$P$6</f>
         <v>-4.3319999999999999</v>
       </c>
       <c r="J411" s="6">
@@ -29523,7 +29578,7 @@
         <v>1069</v>
       </c>
       <c r="L411" s="6">
-        <f>+[167]Main!$P$3</f>
+        <f>+[168]Main!$P$3</f>
         <v>22.004159000000001</v>
       </c>
       <c r="M411" s="9">
@@ -29552,7 +29607,7 @@
         <v>190.866389</v>
       </c>
       <c r="I412" s="6">
-        <f>+[168]Main!$L$5-[168]Main!$L$6</f>
+        <f>+[169]Main!$L$5-[169]Main!$L$6</f>
         <v>371.02100000000002</v>
       </c>
       <c r="J412" s="6">
@@ -29563,7 +29618,7 @@
         <v>1069</v>
       </c>
       <c r="L412" s="6">
-        <f>+[168]Main!$L$3</f>
+        <f>+[169]Main!$L$3</f>
         <v>54.533253999999999</v>
       </c>
       <c r="M412" s="9">
@@ -29763,7 +29818,7 @@
         <v>696.13658010000006</v>
       </c>
       <c r="I421" s="6">
-        <f>+[169]Main!$L$5-[169]Main!$L$6</f>
+        <f>+[170]Main!$L$5-[170]Main!$L$6</f>
         <v>193.8</v>
       </c>
       <c r="J421" s="6">
@@ -29774,7 +29829,7 @@
         <v>1275</v>
       </c>
       <c r="L421" s="6">
-        <f>+[169]Main!$L$3</f>
+        <f>+[170]Main!$L$3</f>
         <v>52.028145000000002</v>
       </c>
       <c r="M421" s="9">
@@ -29885,9 +29940,6 @@
       <c r="H426" s="3">
         <v>242</v>
       </c>
-      <c r="I426" s="3" t="s">
-        <v>1996</v>
-      </c>
     </row>
     <row r="427" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A427" s="100" t="s">
@@ -29911,7 +29963,7 @@
         <v>420.99239325000002</v>
       </c>
       <c r="I427" s="6">
-        <f>[170]Main!$I$5-[170]Main!$I$6</f>
+        <f>[171]Main!$I$5-[171]Main!$I$6</f>
         <v>358.29200000000003</v>
       </c>
       <c r="J427" s="6">
@@ -29922,7 +29974,7 @@
         <v>1276</v>
       </c>
       <c r="L427" s="6">
-        <f>+[170]Main!$I$3</f>
+        <f>+[171]Main!$I$3</f>
         <v>129.53612100000001</v>
       </c>
       <c r="M427" s="9">
@@ -29975,7 +30027,7 @@
         <v>92.147802389999995</v>
       </c>
       <c r="I429" s="6">
-        <f>+[171]Main!$K$5-[171]Main!$K$6</f>
+        <f>+[172]Main!$K$5-[172]Main!$K$6</f>
         <v>41.556999999999995</v>
       </c>
       <c r="J429" s="6">
@@ -29986,7 +30038,7 @@
         <v>1276</v>
       </c>
       <c r="L429" s="6">
-        <f>+[171]Main!$K$3</f>
+        <f>+[172]Main!$K$3</f>
         <v>48.755451000000001</v>
       </c>
       <c r="M429" s="9">
@@ -30018,7 +30070,7 @@
         <v>88.771469299999993</v>
       </c>
       <c r="I430" s="6">
-        <f>+[172]Main!$M$5-[172]Main!$M$6</f>
+        <f>+[173]Main!$M$5-[173]Main!$M$6</f>
         <v>69.349000000000004</v>
       </c>
       <c r="J430" s="6">
@@ -30029,7 +30081,7 @@
         <v>1275</v>
       </c>
       <c r="L430" s="6">
-        <f>+[172]Main!$M$3</f>
+        <f>+[173]Main!$M$3</f>
         <v>119.961445</v>
       </c>
       <c r="M430" s="9">
@@ -30106,7 +30158,7 @@
         <v>18.356896450000001</v>
       </c>
       <c r="I434" s="35">
-        <f>+[173]Sheet1!$J$5-[173]Sheet1!$J$6</f>
+        <f>+[174]Sheet1!$J$5-[174]Sheet1!$J$6</f>
         <v>62.05</v>
       </c>
       <c r="J434" s="35">
@@ -30117,7 +30169,7 @@
         <v>1276</v>
       </c>
       <c r="L434" s="35">
-        <f>+[173]Sheet1!$J$3</f>
+        <f>+[174]Sheet1!$J$3</f>
         <v>59.215795</v>
       </c>
       <c r="M434" s="59">
@@ -30156,11 +30208,11 @@
         <v>1.67</v>
       </c>
       <c r="H435" s="6">
-        <f>+G435*[174]Main!$K$3</f>
+        <f>+G435*[175]Main!$K$3</f>
         <v>265.50328000000002</v>
       </c>
       <c r="I435" s="6">
-        <f>+[174]Main!$K$5-[174]Main!$K$6</f>
+        <f>+[175]Main!$K$5-[175]Main!$K$6</f>
         <v>371.63900000000001</v>
       </c>
       <c r="J435" s="6">
@@ -30171,7 +30223,7 @@
         <v>1069</v>
       </c>
       <c r="L435" s="6">
-        <f>+[174]Main!$K$3</f>
+        <f>+[175]Main!$K$3</f>
         <v>158.98400000000001</v>
       </c>
       <c r="M435" s="9">
@@ -30245,7 +30297,7 @@
         <v>118.02136836</v>
       </c>
       <c r="I439" s="29">
-        <f>+[175]Main!$J$5-[175]Main!$J$6</f>
+        <f>+[176]Main!$J$5-[176]Main!$J$6</f>
         <v>149</v>
       </c>
       <c r="J439" s="29">
@@ -30256,7 +30308,7 @@
         <v>1275</v>
       </c>
       <c r="L439" s="29">
-        <f>+[175]Main!$J$3</f>
+        <f>+[176]Main!$J$3</f>
         <v>47.976165999999999</v>
       </c>
       <c r="M439" s="36">
@@ -30575,7 +30627,7 @@
         <v>75.270832560000002</v>
       </c>
       <c r="I457" s="6">
-        <f>+[176]Main!$K$5-[176]Main!$K$6</f>
+        <f>+[177]Main!$K$5-[177]Main!$K$6</f>
         <v>183.012</v>
       </c>
       <c r="J457" s="6">
@@ -30586,7 +30638,7 @@
         <v>1275</v>
       </c>
       <c r="L457" s="6">
-        <f>+[176]Main!$K$3</f>
+        <f>+[177]Main!$K$3</f>
         <v>48.877164</v>
       </c>
       <c r="M457" s="9">
@@ -30612,7 +30664,7 @@
         <v>42.342781499999994</v>
       </c>
       <c r="I458" s="6">
-        <f>+[177]Main!$L$5-[177]Main!$L$6</f>
+        <f>+[178]Main!$L$5-[178]Main!$L$6</f>
         <v>33.507724000000003</v>
       </c>
       <c r="J458" s="6">
@@ -30623,7 +30675,7 @@
         <v>1069</v>
       </c>
       <c r="L458" s="6">
-        <f>+[177]Main!$L$3</f>
+        <f>+[178]Main!$L$3</f>
         <v>36.819809999999997</v>
       </c>
       <c r="M458" s="9">
@@ -30649,7 +30701,7 @@
         <v>73.353770560000001</v>
       </c>
       <c r="I459" s="6">
-        <f>+[178]Main!$K$5-[178]Main!$K$6</f>
+        <f>+[179]Main!$K$5-[179]Main!$K$6</f>
         <v>199.59700000000001</v>
       </c>
       <c r="J459" s="6">
@@ -30660,7 +30712,7 @@
         <v>1275</v>
       </c>
       <c r="L459" s="6">
-        <f>+[178]Main!$K$3</f>
+        <f>+[179]Main!$K$3</f>
         <v>24.289328000000001</v>
       </c>
       <c r="M459" s="9">
@@ -30686,7 +30738,7 @@
         <v>12.26172704</v>
       </c>
       <c r="I460" s="6">
-        <f>+[179]Main!$K$5-[179]Main!$K$6</f>
+        <f>+[180]Main!$K$5-[180]Main!$K$6</f>
         <v>62.823</v>
       </c>
       <c r="J460" s="6">
@@ -30697,7 +30749,7 @@
         <v>1275</v>
       </c>
       <c r="L460" s="6">
-        <f>+[179]Main!$K$3</f>
+        <f>+[180]Main!$K$3</f>
         <v>38.317897000000002</v>
       </c>
       <c r="M460" s="9">
@@ -30723,7 +30775,7 @@
         <v>15.382951539999999</v>
       </c>
       <c r="I461" s="6">
-        <f>+[180]Main!$K$5-[180]Main!$K$6</f>
+        <f>+[181]Main!$K$5-[181]Main!$K$6</f>
         <v>5.4758170000000002</v>
       </c>
       <c r="J461" s="6">
@@ -30734,7 +30786,7 @@
         <v>1275</v>
       </c>
       <c r="L461" s="6">
-        <f>+[180]Main!$K$3</f>
+        <f>+[181]Main!$K$3</f>
         <v>33.441198999999997</v>
       </c>
       <c r="M461" s="9">
@@ -30760,7 +30812,7 @@
         <v>100.25985420000001</v>
       </c>
       <c r="I462" s="6">
-        <f>+[181]Main!$L$5-[181]Main!$L$6</f>
+        <f>+[182]Main!$L$5-[182]Main!$L$6</f>
         <v>59.1</v>
       </c>
       <c r="J462" s="6">
@@ -30771,7 +30823,7 @@
         <v>1275</v>
       </c>
       <c r="L462" s="6">
-        <f>+[181]Main!$L$3</f>
+        <f>+[182]Main!$L$3</f>
         <v>101.27258</v>
       </c>
       <c r="M462" s="9">
@@ -30797,7 +30849,7 @@
         <v>209.98488314999997</v>
       </c>
       <c r="I463" s="6">
-        <f>+[182]Main!$K$5-[182]Main!$K$6</f>
+        <f>+[183]Main!$K$5-[183]Main!$K$6</f>
         <v>98.310918000000001</v>
       </c>
       <c r="J463" s="6">
@@ -30808,7 +30860,7 @@
         <v>1275</v>
       </c>
       <c r="L463" s="6">
-        <f>+[182]Main!$K$3</f>
+        <f>+[183]Main!$K$3</f>
         <v>35.291576999999997</v>
       </c>
       <c r="M463" s="9">
@@ -30834,7 +30886,7 @@
         <v>23.307475159999999</v>
       </c>
       <c r="I464" s="6">
-        <f>+[183]Main!$K$5-[183]Main!$K$6</f>
+        <f>+[184]Main!$K$5-[184]Main!$K$6</f>
         <v>89.078000000000003</v>
       </c>
       <c r="J464" s="6">
@@ -30845,7 +30897,7 @@
         <v>1275</v>
       </c>
       <c r="L464" s="6">
-        <f>+[183]Main!$K$3</f>
+        <f>+[184]Main!$K$3</f>
         <v>12.076411999999999</v>
       </c>
       <c r="M464" s="9">
@@ -30871,7 +30923,7 @@
         <v>311.35468463999996</v>
       </c>
       <c r="I465" s="6">
-        <f>+[184]Main!$K$5-[184]Main!$K$6</f>
+        <f>+[185]Main!$K$5-[185]Main!$K$6</f>
         <v>15.414999999999999</v>
       </c>
       <c r="J465" s="6">
@@ -30882,7 +30934,7 @@
         <v>1069</v>
       </c>
       <c r="L465" s="6">
-        <f>+[184]Main!$K$3</f>
+        <f>+[185]Main!$K$3</f>
         <v>27.999521999999999</v>
       </c>
       <c r="M465" s="9">
@@ -30908,7 +30960,7 @@
         <v>225.31495175000001</v>
       </c>
       <c r="I466" s="6">
-        <f>+[185]Main!$K$5-[185]Main!$K$6</f>
+        <f>+[186]Main!$K$5-[186]Main!$K$6</f>
         <v>-77.494</v>
       </c>
       <c r="J466" s="6">
@@ -30919,7 +30971,7 @@
         <v>1275</v>
       </c>
       <c r="L466" s="6">
-        <f>+[185]Main!$K$3</f>
+        <f>+[186]Main!$K$3</f>
         <v>62.761825000000002</v>
       </c>
       <c r="M466" s="9">
@@ -31692,11 +31744,11 @@
         <v>0.73</v>
       </c>
       <c r="H498" s="6">
-        <f>G498*[186]Main!$L$3</f>
+        <f>G498*[187]Main!$L$3</f>
         <v>29.203180609999997</v>
       </c>
       <c r="I498" s="6">
-        <f>[186]Main!$L$5-[186]Main!$L$6</f>
+        <f>[187]Main!$L$5-[187]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="J498" s="8">
@@ -31731,7 +31783,7 @@
         <v>80.019892499999997</v>
       </c>
       <c r="I499" s="6">
-        <f>+[187]Main!$N$5-[187]Main!$N$6</f>
+        <f>+[188]Main!$N$5-[188]Main!$N$6</f>
         <v>-7.4640000000000004</v>
       </c>
       <c r="J499" s="6">
@@ -31742,7 +31794,7 @@
         <v>300</v>
       </c>
       <c r="L499" s="6">
-        <f>+[187]Main!$N$3</f>
+        <f>+[188]Main!$N$3</f>
         <v>9.4141049999999993</v>
       </c>
       <c r="M499" s="9">
@@ -31767,11 +31819,11 @@
         <v>1.98</v>
       </c>
       <c r="H500" s="35">
-        <f>G500*[188]Main!$N$3</f>
+        <f>G500*[189]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="I500" s="35">
-        <f>[188]Main!$N$5-[188]Main!$N$6</f>
+        <f>[189]Main!$N$5-[189]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="J500" s="111">
@@ -31816,11 +31868,11 @@
         <v>0.62</v>
       </c>
       <c r="H501" s="35">
-        <f>G501*[189]Main!$L$3</f>
+        <f>G501*[190]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="I501" s="35">
-        <f>[189]Main!$L$5-[189]Main!$L$6</f>
+        <f>[190]Main!$L$5-[190]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="J501" s="111">
@@ -31944,7 +31996,7 @@
         <v>56.676359999999995</v>
       </c>
       <c r="I504" s="35">
-        <f>+[190]Main!$K$5-[190]Main!$K$6</f>
+        <f>+[191]Main!$K$5-[191]Main!$K$6</f>
         <v>136.64599999999999</v>
       </c>
       <c r="J504" s="35">
@@ -31955,7 +32007,7 @@
         <v>1069</v>
       </c>
       <c r="L504" s="35">
-        <f>+[190]Main!$K$3</f>
+        <f>+[191]Main!$K$3</f>
         <v>60.293999999999997</v>
       </c>
       <c r="M504" s="59">
@@ -32432,7 +32484,7 @@
         <v>40.883255159999997</v>
       </c>
       <c r="I523" s="6">
-        <f>+[191]Main!$J$5-[191]Main!$J$6</f>
+        <f>+[192]Main!$J$5-[192]Main!$J$6</f>
         <v>220.43200000000002</v>
       </c>
       <c r="J523" s="6">
@@ -32443,7 +32495,7 @@
         <v>1069</v>
       </c>
       <c r="L523" s="6">
-        <f>+[191]Main!$J$3</f>
+        <f>+[192]Main!$J$3</f>
         <v>30.972162999999998</v>
       </c>
       <c r="M523" s="9">
@@ -32940,7 +32992,7 @@
         <v>53.977747369999996</v>
       </c>
       <c r="I545" s="6">
-        <f>+[192]Main!$L$5-[192]Main!$L$6</f>
+        <f>+[193]Main!$L$5-[193]Main!$L$6</f>
         <v>122.197</v>
       </c>
       <c r="J545" s="6">
@@ -32951,7 +33003,7 @@
         <v>1069</v>
       </c>
       <c r="L545" s="6">
-        <f>+[192]Main!$L$3</f>
+        <f>+[193]Main!$L$3</f>
         <v>114.846271</v>
       </c>
       <c r="M545" s="9">
@@ -32980,7 +33032,7 @@
         <v>897.18233664000002</v>
       </c>
       <c r="I546" s="35">
-        <f>+[193]Main!$J$5-[193]Main!$J$6</f>
+        <f>+[194]Main!$J$5-[194]Main!$J$6</f>
         <v>601.58999999999992</v>
       </c>
       <c r="J546" s="35">
@@ -32991,7 +33043,7 @@
         <v>16</v>
       </c>
       <c r="L546" s="35">
-        <f>+[193]Main!$J$3</f>
+        <f>+[194]Main!$J$3</f>
         <v>121.89977399999999</v>
       </c>
       <c r="M546" s="59">
@@ -33039,7 +33091,7 @@
         <v>71.728120799999999</v>
       </c>
       <c r="I547" s="6">
-        <f>+[194]Main!$L$5-[194]Main!$L$6</f>
+        <f>+[195]Main!$L$5-[195]Main!$L$6</f>
         <v>24.916284999999998</v>
       </c>
       <c r="J547" s="6">
@@ -33050,7 +33102,7 @@
         <v>1275</v>
       </c>
       <c r="L547" s="6">
-        <f>+[194]Main!$L$3</f>
+        <f>+[195]Main!$L$3</f>
         <v>146.38391999999999</v>
       </c>
       <c r="M547" s="9">
@@ -33081,7 +33133,7 @@
         <v>80.467982309999996</v>
       </c>
       <c r="I548" s="6">
-        <f>+[195]Main!$K$5-[195]Main!$K$6</f>
+        <f>+[196]Main!$K$5-[196]Main!$K$6</f>
         <v>449.76100000000002</v>
       </c>
       <c r="J548" s="6">
@@ -33092,7 +33144,7 @@
         <v>418</v>
       </c>
       <c r="L548" s="6">
-        <f>+[195]Main!$K$3</f>
+        <f>+[196]Main!$K$3</f>
         <v>57.069490999999999</v>
       </c>
       <c r="M548" s="9">
@@ -33212,11 +33264,11 @@
         <v>0.12</v>
       </c>
       <c r="H553" s="6">
-        <f>G553*[196]Main!$M$3</f>
+        <f>G553*[197]Main!$M$3</f>
         <v>22.103871479999999</v>
       </c>
       <c r="I553" s="6">
-        <f>[196]Main!$M$5-[196]Main!$M$6</f>
+        <f>[197]Main!$M$5-[197]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="J553" s="8">
@@ -33456,10 +33508,11 @@
     <hyperlink ref="E350" r:id="rId218" xr:uid="{CF64233D-5E27-4237-93F7-72F94CEED779}"/>
     <hyperlink ref="E373" r:id="rId219" xr:uid="{68F64B22-6B3E-4183-AD03-FDDABA17AC2B}"/>
     <hyperlink ref="E251" r:id="rId220" xr:uid="{261A7145-1FA7-4DCC-A3A0-431B0C38DA5F}"/>
+    <hyperlink ref="E383" r:id="rId221" xr:uid="{0F5C85DD-60FC-4904-9B31-0E2B75B65546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId221"/>
-  <legacyDrawing r:id="rId222"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId222"/>
+  <legacyDrawing r:id="rId223"/>
 </worksheet>
 </file>
 
@@ -34666,7 +34719,7 @@
         <v>24515.28782275</v>
       </c>
       <c r="F76" s="6">
-        <f>([197]Main!$J$5-[197]Main!$J$6)/HKD</f>
+        <f>([198]Main!$J$5-[198]Main!$J$6)/HKD</f>
         <v>991.71512820512828</v>
       </c>
       <c r="G76" s="6">
@@ -34677,7 +34730,7 @@
         <v>300</v>
       </c>
       <c r="I76" s="6">
-        <f>+[197]Main!$J$3</f>
+        <f>+[198]Main!$J$3</f>
         <v>4263.5283170000002</v>
       </c>
       <c r="J76" s="9">
@@ -35095,7 +35148,7 @@
         <v>13842.367175000001</v>
       </c>
       <c r="F120" s="35">
-        <f>+[198]Main!$L$5-[198]Main!$L$6</f>
+        <f>+[199]Main!$L$5-[199]Main!$L$6</f>
         <v>1024.6570000000002</v>
       </c>
       <c r="G120" s="35">
@@ -35106,7 +35159,7 @@
         <v>1069</v>
       </c>
       <c r="I120" s="35">
-        <f>+[198]Main!$L$3</f>
+        <f>+[199]Main!$L$3</f>
         <v>105.66692500000001</v>
       </c>
       <c r="J120" s="59">
@@ -35145,7 +35198,7 @@
         <v>1318.30476669</v>
       </c>
       <c r="F121" s="96">
-        <f>+[199]Main!$K$5-[199]Main!$K$6</f>
+        <f>+[200]Main!$K$5-[200]Main!$K$6</f>
         <v>304.87299999999999</v>
       </c>
       <c r="G121" s="96">
@@ -35156,7 +35209,7 @@
         <v>1069</v>
       </c>
       <c r="I121" s="96">
-        <f>+[199]Main!$K$3</f>
+        <f>+[200]Main!$K$3</f>
         <v>38.899521</v>
       </c>
       <c r="J121" s="97">
@@ -35210,7 +35263,7 @@
         <v>5465.1553000000004</v>
       </c>
       <c r="I123" s="35">
-        <f>+[200]Main!$K$5-[200]Main!$K$6</f>
+        <f>+[201]Main!$K$5-[201]Main!$K$6</f>
         <v>481.55700000000002</v>
       </c>
       <c r="J123" s="35">
@@ -35221,7 +35274,7 @@
         <v>1069</v>
       </c>
       <c r="L123" s="35">
-        <f>+[200]Main!$K$3</f>
+        <f>+[201]Main!$K$3</f>
         <v>62.853999999999999</v>
       </c>
       <c r="M123" s="59">
@@ -36374,94 +36427,94 @@
       <c r="ES7" s="73" t="s">
         <v>1734</v>
       </c>
-      <c r="ET7" s="131" t="s">
+      <c r="ET7" s="127" t="s">
         <v>1736</v>
       </c>
-      <c r="EU7" s="131" t="s">
+      <c r="EU7" s="127" t="s">
         <v>1736</v>
       </c>
-      <c r="EV7" s="131" t="s">
+      <c r="EV7" s="127" t="s">
         <v>1736</v>
       </c>
-      <c r="EW7" s="131" t="s">
+      <c r="EW7" s="127" t="s">
         <v>1736</v>
       </c>
-      <c r="EX7" s="142" t="s">
+      <c r="EX7" s="138" t="s">
         <v>1204</v>
       </c>
-      <c r="EY7" s="142" t="s">
+      <c r="EY7" s="138" t="s">
         <v>1204</v>
       </c>
-      <c r="EZ7" s="142" t="s">
+      <c r="EZ7" s="138" t="s">
         <v>1204</v>
       </c>
-      <c r="FA7" s="143" t="s">
+      <c r="FA7" s="139" t="s">
         <v>1730</v>
       </c>
-      <c r="FB7" s="139" t="s">
+      <c r="FB7" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="FC7" s="139" t="s">
+      <c r="FC7" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="FD7" s="139" t="s">
+      <c r="FD7" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="FE7" s="139" t="s">
+      <c r="FE7" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="FF7" s="139" t="s">
+      <c r="FF7" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="FG7" s="147" t="s">
+      <c r="FG7" s="143" t="s">
         <v>1760</v>
       </c>
-      <c r="FH7" s="138" t="s">
+      <c r="FH7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FI7" s="138" t="s">
+      <c r="FI7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FJ7" s="138" t="s">
+      <c r="FJ7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FK7" s="138" t="s">
+      <c r="FK7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FL7" s="138" t="s">
+      <c r="FL7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FM7" s="138" t="s">
+      <c r="FM7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FN7" s="138" t="s">
+      <c r="FN7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FO7" s="138" t="s">
+      <c r="FO7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FP7" s="138" t="s">
+      <c r="FP7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FQ7" s="138" t="s">
+      <c r="FQ7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FR7" s="138" t="s">
+      <c r="FR7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FS7" s="138" t="s">
+      <c r="FS7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FT7" s="138" t="s">
+      <c r="FT7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FU7" s="138" t="s">
+      <c r="FU7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FV7" s="138" t="s">
+      <c r="FV7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="FW7" s="138" t="s">
+      <c r="FW7" s="134" t="s">
         <v>23</v>
       </c>
     </row>
@@ -36644,36 +36697,36 @@
       <c r="ES8" s="74" t="s">
         <v>1735</v>
       </c>
-      <c r="ET8" s="131"/>
-      <c r="EU8" s="131"/>
-      <c r="EV8" s="131"/>
-      <c r="EW8" s="131"/>
-      <c r="EX8" s="142"/>
-      <c r="EY8" s="142"/>
-      <c r="EZ8" s="142"/>
-      <c r="FA8" s="143"/>
-      <c r="FB8" s="139"/>
-      <c r="FC8" s="139"/>
-      <c r="FD8" s="139"/>
-      <c r="FE8" s="139"/>
-      <c r="FF8" s="139"/>
-      <c r="FG8" s="147"/>
-      <c r="FH8" s="138"/>
-      <c r="FI8" s="138"/>
-      <c r="FJ8" s="138"/>
-      <c r="FK8" s="138"/>
-      <c r="FL8" s="138"/>
-      <c r="FM8" s="138"/>
-      <c r="FN8" s="138"/>
-      <c r="FO8" s="138"/>
-      <c r="FP8" s="138"/>
-      <c r="FQ8" s="138"/>
-      <c r="FR8" s="138"/>
-      <c r="FS8" s="138"/>
-      <c r="FT8" s="138"/>
-      <c r="FU8" s="138"/>
-      <c r="FV8" s="138"/>
-      <c r="FW8" s="138"/>
+      <c r="ET8" s="127"/>
+      <c r="EU8" s="127"/>
+      <c r="EV8" s="127"/>
+      <c r="EW8" s="127"/>
+      <c r="EX8" s="138"/>
+      <c r="EY8" s="138"/>
+      <c r="EZ8" s="138"/>
+      <c r="FA8" s="139"/>
+      <c r="FB8" s="135"/>
+      <c r="FC8" s="135"/>
+      <c r="FD8" s="135"/>
+      <c r="FE8" s="135"/>
+      <c r="FF8" s="135"/>
+      <c r="FG8" s="143"/>
+      <c r="FH8" s="134"/>
+      <c r="FI8" s="134"/>
+      <c r="FJ8" s="134"/>
+      <c r="FK8" s="134"/>
+      <c r="FL8" s="134"/>
+      <c r="FM8" s="134"/>
+      <c r="FN8" s="134"/>
+      <c r="FO8" s="134"/>
+      <c r="FP8" s="134"/>
+      <c r="FQ8" s="134"/>
+      <c r="FR8" s="134"/>
+      <c r="FS8" s="134"/>
+      <c r="FT8" s="134"/>
+      <c r="FU8" s="134"/>
+      <c r="FV8" s="134"/>
+      <c r="FW8" s="134"/>
     </row>
     <row r="9" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -36824,74 +36877,74 @@
       <c r="EI9" s="76" t="s">
         <v>1740</v>
       </c>
-      <c r="EJ9" s="128" t="s">
+      <c r="EJ9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EK9" s="128" t="s">
+      <c r="EK9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EL9" s="128" t="s">
+      <c r="EL9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EM9" s="128" t="s">
+      <c r="EM9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EN9" s="128" t="s">
+      <c r="EN9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EO9" s="128" t="s">
+      <c r="EO9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EP9" s="128" t="s">
+      <c r="EP9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EQ9" s="128" t="s">
+      <c r="EQ9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="ER9" s="128" t="s">
+      <c r="ER9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="ES9" s="128" t="s">
+      <c r="ES9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="ET9" s="128" t="s">
+      <c r="ET9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EU9" s="128" t="s">
+      <c r="EU9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EV9" s="128" t="s">
+      <c r="EV9" s="124" t="s">
         <v>1255</v>
       </c>
-      <c r="EW9" s="145" t="s">
+      <c r="EW9" s="141" t="s">
         <v>1739</v>
       </c>
-      <c r="EX9" s="142"/>
-      <c r="EY9" s="142"/>
-      <c r="EZ9" s="142"/>
-      <c r="FA9" s="143"/>
-      <c r="FB9" s="139"/>
-      <c r="FC9" s="139"/>
-      <c r="FD9" s="139"/>
-      <c r="FE9" s="139"/>
-      <c r="FF9" s="139"/>
-      <c r="FG9" s="147"/>
-      <c r="FH9" s="138"/>
-      <c r="FI9" s="138"/>
-      <c r="FJ9" s="138"/>
-      <c r="FK9" s="138"/>
-      <c r="FL9" s="138"/>
-      <c r="FM9" s="138"/>
-      <c r="FN9" s="138"/>
-      <c r="FO9" s="138"/>
-      <c r="FP9" s="138"/>
-      <c r="FQ9" s="138"/>
-      <c r="FR9" s="138"/>
-      <c r="FS9" s="138"/>
-      <c r="FT9" s="138"/>
-      <c r="FU9" s="138"/>
-      <c r="FV9" s="138"/>
-      <c r="FW9" s="138"/>
+      <c r="EX9" s="138"/>
+      <c r="EY9" s="138"/>
+      <c r="EZ9" s="138"/>
+      <c r="FA9" s="139"/>
+      <c r="FB9" s="135"/>
+      <c r="FC9" s="135"/>
+      <c r="FD9" s="135"/>
+      <c r="FE9" s="135"/>
+      <c r="FF9" s="135"/>
+      <c r="FG9" s="143"/>
+      <c r="FH9" s="134"/>
+      <c r="FI9" s="134"/>
+      <c r="FJ9" s="134"/>
+      <c r="FK9" s="134"/>
+      <c r="FL9" s="134"/>
+      <c r="FM9" s="134"/>
+      <c r="FN9" s="134"/>
+      <c r="FO9" s="134"/>
+      <c r="FP9" s="134"/>
+      <c r="FQ9" s="134"/>
+      <c r="FR9" s="134"/>
+      <c r="FS9" s="134"/>
+      <c r="FT9" s="134"/>
+      <c r="FU9" s="134"/>
+      <c r="FV9" s="134"/>
+      <c r="FW9" s="134"/>
     </row>
     <row r="10" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -37042,46 +37095,46 @@
       <c r="EI10" s="73" t="s">
         <v>1741</v>
       </c>
-      <c r="EJ10" s="128"/>
-      <c r="EK10" s="128"/>
-      <c r="EL10" s="128"/>
-      <c r="EM10" s="128"/>
-      <c r="EN10" s="128"/>
-      <c r="EO10" s="128"/>
-      <c r="EP10" s="128"/>
-      <c r="EQ10" s="128"/>
-      <c r="ER10" s="128"/>
-      <c r="ES10" s="128"/>
-      <c r="ET10" s="128"/>
-      <c r="EU10" s="128"/>
-      <c r="EV10" s="128"/>
-      <c r="EW10" s="145"/>
-      <c r="EX10" s="142"/>
-      <c r="EY10" s="142"/>
-      <c r="EZ10" s="142"/>
-      <c r="FA10" s="143"/>
-      <c r="FB10" s="139"/>
-      <c r="FC10" s="139"/>
-      <c r="FD10" s="139"/>
-      <c r="FE10" s="139"/>
-      <c r="FF10" s="139"/>
-      <c r="FG10" s="147"/>
-      <c r="FH10" s="138"/>
-      <c r="FI10" s="138"/>
-      <c r="FJ10" s="138"/>
-      <c r="FK10" s="138"/>
-      <c r="FL10" s="138"/>
-      <c r="FM10" s="138"/>
-      <c r="FN10" s="138"/>
-      <c r="FO10" s="138"/>
-      <c r="FP10" s="138"/>
-      <c r="FQ10" s="138"/>
-      <c r="FR10" s="138"/>
-      <c r="FS10" s="138"/>
-      <c r="FT10" s="138"/>
-      <c r="FU10" s="138"/>
-      <c r="FV10" s="138"/>
-      <c r="FW10" s="138"/>
+      <c r="EJ10" s="124"/>
+      <c r="EK10" s="124"/>
+      <c r="EL10" s="124"/>
+      <c r="EM10" s="124"/>
+      <c r="EN10" s="124"/>
+      <c r="EO10" s="124"/>
+      <c r="EP10" s="124"/>
+      <c r="EQ10" s="124"/>
+      <c r="ER10" s="124"/>
+      <c r="ES10" s="124"/>
+      <c r="ET10" s="124"/>
+      <c r="EU10" s="124"/>
+      <c r="EV10" s="124"/>
+      <c r="EW10" s="141"/>
+      <c r="EX10" s="138"/>
+      <c r="EY10" s="138"/>
+      <c r="EZ10" s="138"/>
+      <c r="FA10" s="139"/>
+      <c r="FB10" s="135"/>
+      <c r="FC10" s="135"/>
+      <c r="FD10" s="135"/>
+      <c r="FE10" s="135"/>
+      <c r="FF10" s="135"/>
+      <c r="FG10" s="143"/>
+      <c r="FH10" s="134"/>
+      <c r="FI10" s="134"/>
+      <c r="FJ10" s="134"/>
+      <c r="FK10" s="134"/>
+      <c r="FL10" s="134"/>
+      <c r="FM10" s="134"/>
+      <c r="FN10" s="134"/>
+      <c r="FO10" s="134"/>
+      <c r="FP10" s="134"/>
+      <c r="FQ10" s="134"/>
+      <c r="FR10" s="134"/>
+      <c r="FS10" s="134"/>
+      <c r="FT10" s="134"/>
+      <c r="FU10" s="134"/>
+      <c r="FV10" s="134"/>
+      <c r="FW10" s="134"/>
     </row>
     <row r="11" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -37256,32 +37309,32 @@
       <c r="EW11" s="86" t="s">
         <v>1771</v>
       </c>
-      <c r="EX11" s="142"/>
-      <c r="EY11" s="142"/>
-      <c r="EZ11" s="142"/>
-      <c r="FA11" s="143"/>
-      <c r="FB11" s="139"/>
-      <c r="FC11" s="139"/>
-      <c r="FD11" s="139"/>
-      <c r="FE11" s="139"/>
-      <c r="FF11" s="139"/>
-      <c r="FG11" s="147"/>
-      <c r="FH11" s="138"/>
-      <c r="FI11" s="138"/>
-      <c r="FJ11" s="138"/>
-      <c r="FK11" s="138"/>
-      <c r="FL11" s="138"/>
-      <c r="FM11" s="138"/>
-      <c r="FN11" s="138"/>
-      <c r="FO11" s="138"/>
-      <c r="FP11" s="138"/>
-      <c r="FQ11" s="138"/>
-      <c r="FR11" s="138"/>
-      <c r="FS11" s="138"/>
-      <c r="FT11" s="138"/>
-      <c r="FU11" s="138"/>
-      <c r="FV11" s="138"/>
-      <c r="FW11" s="138"/>
+      <c r="EX11" s="138"/>
+      <c r="EY11" s="138"/>
+      <c r="EZ11" s="138"/>
+      <c r="FA11" s="139"/>
+      <c r="FB11" s="135"/>
+      <c r="FC11" s="135"/>
+      <c r="FD11" s="135"/>
+      <c r="FE11" s="135"/>
+      <c r="FF11" s="135"/>
+      <c r="FG11" s="143"/>
+      <c r="FH11" s="134"/>
+      <c r="FI11" s="134"/>
+      <c r="FJ11" s="134"/>
+      <c r="FK11" s="134"/>
+      <c r="FL11" s="134"/>
+      <c r="FM11" s="134"/>
+      <c r="FN11" s="134"/>
+      <c r="FO11" s="134"/>
+      <c r="FP11" s="134"/>
+      <c r="FQ11" s="134"/>
+      <c r="FR11" s="134"/>
+      <c r="FS11" s="134"/>
+      <c r="FT11" s="134"/>
+      <c r="FU11" s="134"/>
+      <c r="FV11" s="134"/>
+      <c r="FW11" s="134"/>
     </row>
     <row r="12" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -37484,40 +37537,40 @@
       <c r="EW12" s="65" t="s">
         <v>1731</v>
       </c>
-      <c r="EX12" s="130" t="s">
+      <c r="EX12" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="EY12" s="130" t="s">
+      <c r="EY12" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="EZ12" s="130" t="s">
+      <c r="EZ12" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="FA12" s="146" t="s">
+      <c r="FA12" s="142" t="s">
         <v>1742</v>
       </c>
-      <c r="FB12" s="139"/>
-      <c r="FC12" s="139"/>
-      <c r="FD12" s="139"/>
-      <c r="FE12" s="139"/>
-      <c r="FF12" s="139"/>
-      <c r="FG12" s="147"/>
-      <c r="FH12" s="138"/>
-      <c r="FI12" s="138"/>
-      <c r="FJ12" s="138"/>
-      <c r="FK12" s="138"/>
-      <c r="FL12" s="138"/>
-      <c r="FM12" s="138"/>
-      <c r="FN12" s="138"/>
-      <c r="FO12" s="138"/>
-      <c r="FP12" s="138"/>
-      <c r="FQ12" s="138"/>
-      <c r="FR12" s="138"/>
-      <c r="FS12" s="138"/>
-      <c r="FT12" s="138"/>
-      <c r="FU12" s="138"/>
-      <c r="FV12" s="138"/>
-      <c r="FW12" s="138"/>
+      <c r="FB12" s="135"/>
+      <c r="FC12" s="135"/>
+      <c r="FD12" s="135"/>
+      <c r="FE12" s="135"/>
+      <c r="FF12" s="135"/>
+      <c r="FG12" s="143"/>
+      <c r="FH12" s="134"/>
+      <c r="FI12" s="134"/>
+      <c r="FJ12" s="134"/>
+      <c r="FK12" s="134"/>
+      <c r="FL12" s="134"/>
+      <c r="FM12" s="134"/>
+      <c r="FN12" s="134"/>
+      <c r="FO12" s="134"/>
+      <c r="FP12" s="134"/>
+      <c r="FQ12" s="134"/>
+      <c r="FR12" s="134"/>
+      <c r="FS12" s="134"/>
+      <c r="FT12" s="134"/>
+      <c r="FU12" s="134"/>
+      <c r="FV12" s="134"/>
+      <c r="FW12" s="134"/>
     </row>
     <row r="13" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -37636,116 +37689,116 @@
       <c r="DE13" s="70" t="s">
         <v>1763</v>
       </c>
-      <c r="DF13" s="126" t="s">
+      <c r="DF13" s="122" t="s">
         <v>1710</v>
       </c>
-      <c r="DG13" s="126"/>
-      <c r="DH13" s="126"/>
-      <c r="DI13" s="126"/>
-      <c r="DJ13" s="126"/>
-      <c r="DK13" s="126"/>
-      <c r="DL13" s="126"/>
-      <c r="DM13" s="126"/>
-      <c r="DN13" s="126"/>
-      <c r="DO13" s="126"/>
-      <c r="DP13" s="126"/>
-      <c r="DQ13" s="126"/>
-      <c r="DR13" s="126"/>
-      <c r="DS13" s="126"/>
-      <c r="DT13" s="127" t="s">
+      <c r="DG13" s="122"/>
+      <c r="DH13" s="122"/>
+      <c r="DI13" s="122"/>
+      <c r="DJ13" s="122"/>
+      <c r="DK13" s="122"/>
+      <c r="DL13" s="122"/>
+      <c r="DM13" s="122"/>
+      <c r="DN13" s="122"/>
+      <c r="DO13" s="122"/>
+      <c r="DP13" s="122"/>
+      <c r="DQ13" s="122"/>
+      <c r="DR13" s="122"/>
+      <c r="DS13" s="122"/>
+      <c r="DT13" s="123" t="s">
         <v>1765</v>
       </c>
-      <c r="DU13" s="118" t="s">
+      <c r="DU13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="DV13" s="118"/>
-      <c r="DW13" s="118"/>
-      <c r="DX13" s="118"/>
-      <c r="DY13" s="118" t="s">
+      <c r="DV13" s="114"/>
+      <c r="DW13" s="114"/>
+      <c r="DX13" s="114"/>
+      <c r="DY13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="DZ13" s="118"/>
-      <c r="EA13" s="118"/>
-      <c r="EB13" s="118"/>
-      <c r="EC13" s="118"/>
-      <c r="ED13" s="118" t="s">
+      <c r="DZ13" s="114"/>
+      <c r="EA13" s="114"/>
+      <c r="EB13" s="114"/>
+      <c r="EC13" s="114"/>
+      <c r="ED13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EE13" s="118"/>
-      <c r="EF13" s="118"/>
-      <c r="EG13" s="118"/>
-      <c r="EH13" s="118"/>
-      <c r="EI13" s="118" t="s">
+      <c r="EE13" s="114"/>
+      <c r="EF13" s="114"/>
+      <c r="EG13" s="114"/>
+      <c r="EH13" s="114"/>
+      <c r="EI13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EJ13" s="118" t="s">
+      <c r="EJ13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EK13" s="118" t="s">
+      <c r="EK13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EL13" s="118" t="s">
+      <c r="EL13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EM13" s="118" t="s">
+      <c r="EM13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EN13" s="118" t="s">
+      <c r="EN13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EO13" s="118" t="s">
+      <c r="EO13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EP13" s="118" t="s">
+      <c r="EP13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EQ13" s="118" t="s">
+      <c r="EQ13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="ER13" s="118" t="s">
+      <c r="ER13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="ES13" s="118" t="s">
+      <c r="ES13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="ET13" s="118" t="s">
+      <c r="ET13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EU13" s="118" t="s">
+      <c r="EU13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EV13" s="118" t="s">
+      <c r="EV13" s="114" t="s">
         <v>1710</v>
       </c>
-      <c r="EW13" s="129" t="s">
+      <c r="EW13" s="125" t="s">
         <v>1730</v>
       </c>
-      <c r="EX13" s="130"/>
-      <c r="EY13" s="130"/>
-      <c r="EZ13" s="130"/>
-      <c r="FA13" s="146"/>
-      <c r="FB13" s="139"/>
-      <c r="FC13" s="139"/>
-      <c r="FD13" s="139"/>
-      <c r="FE13" s="139"/>
-      <c r="FF13" s="139"/>
-      <c r="FG13" s="147"/>
-      <c r="FH13" s="138"/>
-      <c r="FI13" s="138"/>
-      <c r="FJ13" s="138"/>
-      <c r="FK13" s="138"/>
-      <c r="FL13" s="138"/>
-      <c r="FM13" s="138"/>
-      <c r="FN13" s="138"/>
-      <c r="FO13" s="138"/>
-      <c r="FP13" s="138"/>
-      <c r="FQ13" s="138"/>
-      <c r="FR13" s="138"/>
-      <c r="FS13" s="138"/>
-      <c r="FT13" s="138"/>
-      <c r="FU13" s="138"/>
-      <c r="FV13" s="138"/>
-      <c r="FW13" s="138"/>
+      <c r="EX13" s="126"/>
+      <c r="EY13" s="126"/>
+      <c r="EZ13" s="126"/>
+      <c r="FA13" s="142"/>
+      <c r="FB13" s="135"/>
+      <c r="FC13" s="135"/>
+      <c r="FD13" s="135"/>
+      <c r="FE13" s="135"/>
+      <c r="FF13" s="135"/>
+      <c r="FG13" s="143"/>
+      <c r="FH13" s="134"/>
+      <c r="FI13" s="134"/>
+      <c r="FJ13" s="134"/>
+      <c r="FK13" s="134"/>
+      <c r="FL13" s="134"/>
+      <c r="FM13" s="134"/>
+      <c r="FN13" s="134"/>
+      <c r="FO13" s="134"/>
+      <c r="FP13" s="134"/>
+      <c r="FQ13" s="134"/>
+      <c r="FR13" s="134"/>
+      <c r="FS13" s="134"/>
+      <c r="FT13" s="134"/>
+      <c r="FU13" s="134"/>
+      <c r="FV13" s="134"/>
+      <c r="FW13" s="134"/>
     </row>
     <row r="14" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -37862,76 +37915,76 @@
       <c r="DE14" s="65" t="s">
         <v>1762</v>
       </c>
-      <c r="DF14" s="126"/>
-      <c r="DG14" s="126"/>
-      <c r="DH14" s="126"/>
-      <c r="DI14" s="126"/>
-      <c r="DJ14" s="126"/>
-      <c r="DK14" s="126"/>
-      <c r="DL14" s="126"/>
-      <c r="DM14" s="126"/>
-      <c r="DN14" s="126"/>
-      <c r="DO14" s="126"/>
-      <c r="DP14" s="126"/>
-      <c r="DQ14" s="126"/>
-      <c r="DR14" s="126"/>
-      <c r="DS14" s="126"/>
-      <c r="DT14" s="127"/>
-      <c r="DU14" s="118"/>
-      <c r="DV14" s="118"/>
-      <c r="DW14" s="118"/>
-      <c r="DX14" s="118"/>
-      <c r="DY14" s="118"/>
-      <c r="DZ14" s="118"/>
-      <c r="EA14" s="118"/>
-      <c r="EB14" s="118"/>
-      <c r="EC14" s="118"/>
-      <c r="ED14" s="118"/>
-      <c r="EE14" s="118"/>
-      <c r="EF14" s="118"/>
-      <c r="EG14" s="118"/>
-      <c r="EH14" s="118"/>
-      <c r="EI14" s="118"/>
-      <c r="EJ14" s="118"/>
-      <c r="EK14" s="118"/>
-      <c r="EL14" s="118"/>
-      <c r="EM14" s="118"/>
-      <c r="EN14" s="118"/>
-      <c r="EO14" s="118"/>
-      <c r="EP14" s="118"/>
-      <c r="EQ14" s="118"/>
-      <c r="ER14" s="118"/>
-      <c r="ES14" s="118"/>
-      <c r="ET14" s="118"/>
-      <c r="EU14" s="118"/>
-      <c r="EV14" s="118"/>
-      <c r="EW14" s="129"/>
-      <c r="EX14" s="130"/>
-      <c r="EY14" s="130"/>
-      <c r="EZ14" s="130"/>
-      <c r="FA14" s="146"/>
-      <c r="FB14" s="139"/>
-      <c r="FC14" s="139"/>
-      <c r="FD14" s="139"/>
-      <c r="FE14" s="139"/>
-      <c r="FF14" s="139"/>
-      <c r="FG14" s="147"/>
-      <c r="FH14" s="138"/>
-      <c r="FI14" s="138"/>
-      <c r="FJ14" s="138"/>
-      <c r="FK14" s="138"/>
-      <c r="FL14" s="138"/>
-      <c r="FM14" s="138"/>
-      <c r="FN14" s="138"/>
-      <c r="FO14" s="138"/>
-      <c r="FP14" s="138"/>
-      <c r="FQ14" s="138"/>
-      <c r="FR14" s="138"/>
-      <c r="FS14" s="138"/>
-      <c r="FT14" s="138"/>
-      <c r="FU14" s="138"/>
-      <c r="FV14" s="138"/>
-      <c r="FW14" s="138"/>
+      <c r="DF14" s="122"/>
+      <c r="DG14" s="122"/>
+      <c r="DH14" s="122"/>
+      <c r="DI14" s="122"/>
+      <c r="DJ14" s="122"/>
+      <c r="DK14" s="122"/>
+      <c r="DL14" s="122"/>
+      <c r="DM14" s="122"/>
+      <c r="DN14" s="122"/>
+      <c r="DO14" s="122"/>
+      <c r="DP14" s="122"/>
+      <c r="DQ14" s="122"/>
+      <c r="DR14" s="122"/>
+      <c r="DS14" s="122"/>
+      <c r="DT14" s="123"/>
+      <c r="DU14" s="114"/>
+      <c r="DV14" s="114"/>
+      <c r="DW14" s="114"/>
+      <c r="DX14" s="114"/>
+      <c r="DY14" s="114"/>
+      <c r="DZ14" s="114"/>
+      <c r="EA14" s="114"/>
+      <c r="EB14" s="114"/>
+      <c r="EC14" s="114"/>
+      <c r="ED14" s="114"/>
+      <c r="EE14" s="114"/>
+      <c r="EF14" s="114"/>
+      <c r="EG14" s="114"/>
+      <c r="EH14" s="114"/>
+      <c r="EI14" s="114"/>
+      <c r="EJ14" s="114"/>
+      <c r="EK14" s="114"/>
+      <c r="EL14" s="114"/>
+      <c r="EM14" s="114"/>
+      <c r="EN14" s="114"/>
+      <c r="EO14" s="114"/>
+      <c r="EP14" s="114"/>
+      <c r="EQ14" s="114"/>
+      <c r="ER14" s="114"/>
+      <c r="ES14" s="114"/>
+      <c r="ET14" s="114"/>
+      <c r="EU14" s="114"/>
+      <c r="EV14" s="114"/>
+      <c r="EW14" s="125"/>
+      <c r="EX14" s="126"/>
+      <c r="EY14" s="126"/>
+      <c r="EZ14" s="126"/>
+      <c r="FA14" s="142"/>
+      <c r="FB14" s="135"/>
+      <c r="FC14" s="135"/>
+      <c r="FD14" s="135"/>
+      <c r="FE14" s="135"/>
+      <c r="FF14" s="135"/>
+      <c r="FG14" s="143"/>
+      <c r="FH14" s="134"/>
+      <c r="FI14" s="134"/>
+      <c r="FJ14" s="134"/>
+      <c r="FK14" s="134"/>
+      <c r="FL14" s="134"/>
+      <c r="FM14" s="134"/>
+      <c r="FN14" s="134"/>
+      <c r="FO14" s="134"/>
+      <c r="FP14" s="134"/>
+      <c r="FQ14" s="134"/>
+      <c r="FR14" s="134"/>
+      <c r="FS14" s="134"/>
+      <c r="FT14" s="134"/>
+      <c r="FU14" s="134"/>
+      <c r="FV14" s="134"/>
+      <c r="FW14" s="134"/>
     </row>
     <row r="15" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
@@ -38063,61 +38116,61 @@
       <c r="DT15" s="80" t="s">
         <v>1764</v>
       </c>
-      <c r="DU15" s="118"/>
-      <c r="DV15" s="118"/>
-      <c r="DW15" s="118"/>
-      <c r="DX15" s="118"/>
-      <c r="DY15" s="118"/>
-      <c r="DZ15" s="118"/>
-      <c r="EA15" s="118"/>
-      <c r="EB15" s="118"/>
-      <c r="EC15" s="118"/>
-      <c r="ED15" s="118"/>
-      <c r="EE15" s="118"/>
-      <c r="EF15" s="118"/>
-      <c r="EG15" s="118"/>
-      <c r="EH15" s="118"/>
-      <c r="EI15" s="118"/>
-      <c r="EJ15" s="118"/>
-      <c r="EK15" s="118"/>
-      <c r="EL15" s="118"/>
-      <c r="EM15" s="118"/>
-      <c r="EN15" s="118"/>
-      <c r="EO15" s="118"/>
-      <c r="EP15" s="118"/>
-      <c r="EQ15" s="118"/>
-      <c r="ER15" s="118"/>
-      <c r="ES15" s="118"/>
-      <c r="ET15" s="118"/>
-      <c r="EU15" s="118"/>
-      <c r="EV15" s="118"/>
-      <c r="EW15" s="129"/>
-      <c r="EX15" s="130"/>
-      <c r="EY15" s="130"/>
-      <c r="EZ15" s="130"/>
-      <c r="FA15" s="146"/>
-      <c r="FB15" s="139"/>
-      <c r="FC15" s="139"/>
-      <c r="FD15" s="139"/>
-      <c r="FE15" s="139"/>
-      <c r="FF15" s="139"/>
-      <c r="FG15" s="147"/>
-      <c r="FH15" s="138"/>
-      <c r="FI15" s="138"/>
-      <c r="FJ15" s="138"/>
-      <c r="FK15" s="138"/>
-      <c r="FL15" s="138"/>
-      <c r="FM15" s="138"/>
-      <c r="FN15" s="138"/>
-      <c r="FO15" s="138"/>
-      <c r="FP15" s="138"/>
-      <c r="FQ15" s="138"/>
-      <c r="FR15" s="138"/>
-      <c r="FS15" s="138"/>
-      <c r="FT15" s="138"/>
-      <c r="FU15" s="138"/>
-      <c r="FV15" s="138"/>
-      <c r="FW15" s="138"/>
+      <c r="DU15" s="114"/>
+      <c r="DV15" s="114"/>
+      <c r="DW15" s="114"/>
+      <c r="DX15" s="114"/>
+      <c r="DY15" s="114"/>
+      <c r="DZ15" s="114"/>
+      <c r="EA15" s="114"/>
+      <c r="EB15" s="114"/>
+      <c r="EC15" s="114"/>
+      <c r="ED15" s="114"/>
+      <c r="EE15" s="114"/>
+      <c r="EF15" s="114"/>
+      <c r="EG15" s="114"/>
+      <c r="EH15" s="114"/>
+      <c r="EI15" s="114"/>
+      <c r="EJ15" s="114"/>
+      <c r="EK15" s="114"/>
+      <c r="EL15" s="114"/>
+      <c r="EM15" s="114"/>
+      <c r="EN15" s="114"/>
+      <c r="EO15" s="114"/>
+      <c r="EP15" s="114"/>
+      <c r="EQ15" s="114"/>
+      <c r="ER15" s="114"/>
+      <c r="ES15" s="114"/>
+      <c r="ET15" s="114"/>
+      <c r="EU15" s="114"/>
+      <c r="EV15" s="114"/>
+      <c r="EW15" s="125"/>
+      <c r="EX15" s="126"/>
+      <c r="EY15" s="126"/>
+      <c r="EZ15" s="126"/>
+      <c r="FA15" s="142"/>
+      <c r="FB15" s="135"/>
+      <c r="FC15" s="135"/>
+      <c r="FD15" s="135"/>
+      <c r="FE15" s="135"/>
+      <c r="FF15" s="135"/>
+      <c r="FG15" s="143"/>
+      <c r="FH15" s="134"/>
+      <c r="FI15" s="134"/>
+      <c r="FJ15" s="134"/>
+      <c r="FK15" s="134"/>
+      <c r="FL15" s="134"/>
+      <c r="FM15" s="134"/>
+      <c r="FN15" s="134"/>
+      <c r="FO15" s="134"/>
+      <c r="FP15" s="134"/>
+      <c r="FQ15" s="134"/>
+      <c r="FR15" s="134"/>
+      <c r="FS15" s="134"/>
+      <c r="FT15" s="134"/>
+      <c r="FU15" s="134"/>
+      <c r="FV15" s="134"/>
+      <c r="FW15" s="134"/>
     </row>
     <row r="16" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -38209,177 +38262,177 @@
       <c r="CF16" s="79" t="s">
         <v>1749</v>
       </c>
-      <c r="CG16" s="132" t="s">
+      <c r="CG16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="CH16" s="133"/>
-      <c r="CI16" s="133"/>
-      <c r="CJ16" s="133"/>
-      <c r="CK16" s="133"/>
-      <c r="CL16" s="133"/>
-      <c r="CM16" s="133"/>
-      <c r="CN16" s="133"/>
-      <c r="CO16" s="133"/>
-      <c r="CP16" s="133"/>
-      <c r="CQ16" s="133"/>
-      <c r="CR16" s="133"/>
-      <c r="CS16" s="137" t="s">
+      <c r="CH16" s="129"/>
+      <c r="CI16" s="129"/>
+      <c r="CJ16" s="129"/>
+      <c r="CK16" s="129"/>
+      <c r="CL16" s="129"/>
+      <c r="CM16" s="129"/>
+      <c r="CN16" s="129"/>
+      <c r="CO16" s="129"/>
+      <c r="CP16" s="129"/>
+      <c r="CQ16" s="129"/>
+      <c r="CR16" s="129"/>
+      <c r="CS16" s="133" t="s">
         <v>1758</v>
       </c>
-      <c r="CT16" s="136" t="s">
+      <c r="CT16" s="132" t="s">
         <v>1743</v>
       </c>
-      <c r="CU16" s="136"/>
-      <c r="CV16" s="136"/>
-      <c r="CW16" s="136"/>
-      <c r="CX16" s="136"/>
-      <c r="CY16" s="136"/>
-      <c r="CZ16" s="136"/>
-      <c r="DA16" s="136"/>
-      <c r="DB16" s="136"/>
-      <c r="DC16" s="136"/>
-      <c r="DD16" s="136"/>
-      <c r="DE16" s="136"/>
-      <c r="DF16" s="136"/>
-      <c r="DG16" s="136"/>
-      <c r="DH16" s="136"/>
-      <c r="DI16" s="136"/>
-      <c r="DJ16" s="136"/>
-      <c r="DK16" s="136"/>
-      <c r="DL16" s="136"/>
-      <c r="DM16" s="136"/>
-      <c r="DN16" s="136"/>
-      <c r="DO16" s="136"/>
-      <c r="DP16" s="136"/>
-      <c r="DQ16" s="136"/>
-      <c r="DR16" s="136"/>
-      <c r="DS16" s="136"/>
-      <c r="DT16" s="136"/>
-      <c r="DU16" s="136"/>
-      <c r="DV16" s="136"/>
-      <c r="DW16" s="136"/>
-      <c r="DX16" s="136"/>
-      <c r="DY16" s="117" t="s">
+      <c r="CU16" s="132"/>
+      <c r="CV16" s="132"/>
+      <c r="CW16" s="132"/>
+      <c r="CX16" s="132"/>
+      <c r="CY16" s="132"/>
+      <c r="CZ16" s="132"/>
+      <c r="DA16" s="132"/>
+      <c r="DB16" s="132"/>
+      <c r="DC16" s="132"/>
+      <c r="DD16" s="132"/>
+      <c r="DE16" s="132"/>
+      <c r="DF16" s="132"/>
+      <c r="DG16" s="132"/>
+      <c r="DH16" s="132"/>
+      <c r="DI16" s="132"/>
+      <c r="DJ16" s="132"/>
+      <c r="DK16" s="132"/>
+      <c r="DL16" s="132"/>
+      <c r="DM16" s="132"/>
+      <c r="DN16" s="132"/>
+      <c r="DO16" s="132"/>
+      <c r="DP16" s="132"/>
+      <c r="DQ16" s="132"/>
+      <c r="DR16" s="132"/>
+      <c r="DS16" s="132"/>
+      <c r="DT16" s="132"/>
+      <c r="DU16" s="132"/>
+      <c r="DV16" s="132"/>
+      <c r="DW16" s="132"/>
+      <c r="DX16" s="132"/>
+      <c r="DY16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="DZ16" s="117" t="s">
+      <c r="DZ16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EA16" s="117" t="s">
+      <c r="EA16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EB16" s="117" t="s">
+      <c r="EB16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EC16" s="117" t="s">
+      <c r="EC16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="ED16" s="117" t="s">
+      <c r="ED16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EE16" s="117" t="s">
+      <c r="EE16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EF16" s="117" t="s">
+      <c r="EF16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EG16" s="117" t="s">
+      <c r="EG16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EH16" s="117" t="s">
+      <c r="EH16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EI16" s="117" t="s">
+      <c r="EI16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EJ16" s="117" t="s">
+      <c r="EJ16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EK16" s="117" t="s">
+      <c r="EK16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EL16" s="117" t="s">
+      <c r="EL16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EM16" s="117" t="s">
+      <c r="EM16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EN16" s="117" t="s">
+      <c r="EN16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EO16" s="117" t="s">
+      <c r="EO16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EP16" s="117" t="s">
+      <c r="EP16" s="113" t="s">
         <v>1743</v>
       </c>
-      <c r="EQ16" s="140" t="s">
+      <c r="EQ16" s="136" t="s">
         <v>1743</v>
       </c>
-      <c r="ER16" s="141" t="s">
+      <c r="ER16" s="137" t="s">
         <v>1759</v>
       </c>
-      <c r="ES16" s="131" t="s">
+      <c r="ES16" s="127" t="s">
         <v>1743</v>
       </c>
-      <c r="ET16" s="132" t="s">
+      <c r="ET16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EU16" s="132" t="s">
+      <c r="EU16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EV16" s="132" t="s">
+      <c r="EV16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EW16" s="132" t="s">
+      <c r="EW16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EX16" s="132" t="s">
+      <c r="EX16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EY16" s="132" t="s">
+      <c r="EY16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EZ16" s="132" t="s">
+      <c r="EZ16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FA16" s="132" t="s">
+      <c r="FA16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FB16" s="132" t="s">
+      <c r="FB16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FC16" s="132" t="s">
+      <c r="FC16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FD16" s="132" t="s">
+      <c r="FD16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FE16" s="132" t="s">
+      <c r="FE16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FF16" s="132" t="s">
+      <c r="FF16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="FG16" s="137" t="s">
+      <c r="FG16" s="133" t="s">
         <v>1730</v>
       </c>
-      <c r="FH16" s="138"/>
-      <c r="FI16" s="138"/>
-      <c r="FJ16" s="138"/>
-      <c r="FK16" s="138"/>
-      <c r="FL16" s="138"/>
-      <c r="FM16" s="138"/>
-      <c r="FN16" s="138"/>
-      <c r="FO16" s="138"/>
-      <c r="FP16" s="138"/>
-      <c r="FQ16" s="138"/>
-      <c r="FR16" s="138"/>
-      <c r="FS16" s="138"/>
-      <c r="FT16" s="138"/>
-      <c r="FU16" s="138"/>
-      <c r="FV16" s="138"/>
-      <c r="FW16" s="138"/>
+      <c r="FH16" s="134"/>
+      <c r="FI16" s="134"/>
+      <c r="FJ16" s="134"/>
+      <c r="FK16" s="134"/>
+      <c r="FL16" s="134"/>
+      <c r="FM16" s="134"/>
+      <c r="FN16" s="134"/>
+      <c r="FO16" s="134"/>
+      <c r="FP16" s="134"/>
+      <c r="FQ16" s="134"/>
+      <c r="FR16" s="134"/>
+      <c r="FS16" s="134"/>
+      <c r="FT16" s="134"/>
+      <c r="FU16" s="134"/>
+      <c r="FV16" s="134"/>
+      <c r="FW16" s="134"/>
     </row>
     <row r="17" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -38473,101 +38526,101 @@
       <c r="CF17" s="78" t="s">
         <v>1748</v>
       </c>
-      <c r="CG17" s="132"/>
-      <c r="CH17" s="133"/>
-      <c r="CI17" s="133"/>
-      <c r="CJ17" s="133"/>
-      <c r="CK17" s="133"/>
-      <c r="CL17" s="133"/>
-      <c r="CM17" s="133"/>
-      <c r="CN17" s="133"/>
-      <c r="CO17" s="133"/>
-      <c r="CP17" s="133"/>
-      <c r="CQ17" s="133"/>
-      <c r="CR17" s="133"/>
-      <c r="CS17" s="137"/>
-      <c r="CT17" s="136"/>
-      <c r="CU17" s="136"/>
-      <c r="CV17" s="136"/>
-      <c r="CW17" s="136"/>
-      <c r="CX17" s="136"/>
-      <c r="CY17" s="136"/>
-      <c r="CZ17" s="136"/>
-      <c r="DA17" s="136"/>
-      <c r="DB17" s="136"/>
-      <c r="DC17" s="136"/>
-      <c r="DD17" s="136"/>
-      <c r="DE17" s="136"/>
-      <c r="DF17" s="136"/>
-      <c r="DG17" s="136"/>
-      <c r="DH17" s="136"/>
-      <c r="DI17" s="136"/>
-      <c r="DJ17" s="136"/>
-      <c r="DK17" s="136"/>
-      <c r="DL17" s="136"/>
-      <c r="DM17" s="136"/>
-      <c r="DN17" s="136"/>
-      <c r="DO17" s="136"/>
-      <c r="DP17" s="136"/>
-      <c r="DQ17" s="136"/>
-      <c r="DR17" s="136"/>
-      <c r="DS17" s="136"/>
-      <c r="DT17" s="136"/>
-      <c r="DU17" s="136"/>
-      <c r="DV17" s="136"/>
-      <c r="DW17" s="136"/>
-      <c r="DX17" s="136"/>
-      <c r="DY17" s="117"/>
-      <c r="DZ17" s="117"/>
-      <c r="EA17" s="117"/>
-      <c r="EB17" s="117"/>
-      <c r="EC17" s="117"/>
-      <c r="ED17" s="117"/>
-      <c r="EE17" s="117"/>
-      <c r="EF17" s="117"/>
-      <c r="EG17" s="117"/>
-      <c r="EH17" s="117"/>
-      <c r="EI17" s="117"/>
-      <c r="EJ17" s="117"/>
-      <c r="EK17" s="117"/>
-      <c r="EL17" s="117"/>
-      <c r="EM17" s="117"/>
-      <c r="EN17" s="117"/>
-      <c r="EO17" s="117"/>
-      <c r="EP17" s="117"/>
-      <c r="EQ17" s="140"/>
-      <c r="ER17" s="141"/>
-      <c r="ES17" s="131"/>
-      <c r="ET17" s="132"/>
-      <c r="EU17" s="132"/>
-      <c r="EV17" s="132"/>
-      <c r="EW17" s="132"/>
-      <c r="EX17" s="132"/>
-      <c r="EY17" s="132"/>
-      <c r="EZ17" s="132"/>
-      <c r="FA17" s="132"/>
-      <c r="FB17" s="132"/>
-      <c r="FC17" s="132"/>
-      <c r="FD17" s="132"/>
-      <c r="FE17" s="132"/>
-      <c r="FF17" s="132"/>
-      <c r="FG17" s="137"/>
-      <c r="FH17" s="138"/>
-      <c r="FI17" s="138"/>
-      <c r="FJ17" s="138"/>
-      <c r="FK17" s="138"/>
-      <c r="FL17" s="138"/>
-      <c r="FM17" s="138"/>
-      <c r="FN17" s="138"/>
-      <c r="FO17" s="138"/>
-      <c r="FP17" s="138"/>
-      <c r="FQ17" s="138"/>
-      <c r="FR17" s="138"/>
-      <c r="FS17" s="138"/>
-      <c r="FT17" s="138"/>
-      <c r="FU17" s="138"/>
-      <c r="FV17" s="138"/>
-      <c r="FW17" s="138"/>
+      <c r="CG17" s="128"/>
+      <c r="CH17" s="129"/>
+      <c r="CI17" s="129"/>
+      <c r="CJ17" s="129"/>
+      <c r="CK17" s="129"/>
+      <c r="CL17" s="129"/>
+      <c r="CM17" s="129"/>
+      <c r="CN17" s="129"/>
+      <c r="CO17" s="129"/>
+      <c r="CP17" s="129"/>
+      <c r="CQ17" s="129"/>
+      <c r="CR17" s="129"/>
+      <c r="CS17" s="133"/>
+      <c r="CT17" s="132"/>
+      <c r="CU17" s="132"/>
+      <c r="CV17" s="132"/>
+      <c r="CW17" s="132"/>
+      <c r="CX17" s="132"/>
+      <c r="CY17" s="132"/>
+      <c r="CZ17" s="132"/>
+      <c r="DA17" s="132"/>
+      <c r="DB17" s="132"/>
+      <c r="DC17" s="132"/>
+      <c r="DD17" s="132"/>
+      <c r="DE17" s="132"/>
+      <c r="DF17" s="132"/>
+      <c r="DG17" s="132"/>
+      <c r="DH17" s="132"/>
+      <c r="DI17" s="132"/>
+      <c r="DJ17" s="132"/>
+      <c r="DK17" s="132"/>
+      <c r="DL17" s="132"/>
+      <c r="DM17" s="132"/>
+      <c r="DN17" s="132"/>
+      <c r="DO17" s="132"/>
+      <c r="DP17" s="132"/>
+      <c r="DQ17" s="132"/>
+      <c r="DR17" s="132"/>
+      <c r="DS17" s="132"/>
+      <c r="DT17" s="132"/>
+      <c r="DU17" s="132"/>
+      <c r="DV17" s="132"/>
+      <c r="DW17" s="132"/>
+      <c r="DX17" s="132"/>
+      <c r="DY17" s="113"/>
+      <c r="DZ17" s="113"/>
+      <c r="EA17" s="113"/>
+      <c r="EB17" s="113"/>
+      <c r="EC17" s="113"/>
+      <c r="ED17" s="113"/>
+      <c r="EE17" s="113"/>
+      <c r="EF17" s="113"/>
+      <c r="EG17" s="113"/>
+      <c r="EH17" s="113"/>
+      <c r="EI17" s="113"/>
+      <c r="EJ17" s="113"/>
+      <c r="EK17" s="113"/>
+      <c r="EL17" s="113"/>
+      <c r="EM17" s="113"/>
+      <c r="EN17" s="113"/>
+      <c r="EO17" s="113"/>
+      <c r="EP17" s="113"/>
+      <c r="EQ17" s="136"/>
+      <c r="ER17" s="137"/>
+      <c r="ES17" s="127"/>
+      <c r="ET17" s="128"/>
+      <c r="EU17" s="128"/>
+      <c r="EV17" s="128"/>
+      <c r="EW17" s="128"/>
+      <c r="EX17" s="128"/>
+      <c r="EY17" s="128"/>
+      <c r="EZ17" s="128"/>
+      <c r="FA17" s="128"/>
+      <c r="FB17" s="128"/>
+      <c r="FC17" s="128"/>
+      <c r="FD17" s="128"/>
+      <c r="FE17" s="128"/>
+      <c r="FF17" s="128"/>
+      <c r="FG17" s="133"/>
+      <c r="FH17" s="134"/>
+      <c r="FI17" s="134"/>
+      <c r="FJ17" s="134"/>
+      <c r="FK17" s="134"/>
+      <c r="FL17" s="134"/>
+      <c r="FM17" s="134"/>
+      <c r="FN17" s="134"/>
+      <c r="FO17" s="134"/>
+      <c r="FP17" s="134"/>
+      <c r="FQ17" s="134"/>
+      <c r="FR17" s="134"/>
+      <c r="FS17" s="134"/>
+      <c r="FT17" s="134"/>
+      <c r="FU17" s="134"/>
+      <c r="FV17" s="134"/>
+      <c r="FW17" s="134"/>
     </row>
     <row r="18" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
@@ -38672,88 +38725,88 @@
       <c r="CS18" s="68" t="s">
         <v>1756</v>
       </c>
-      <c r="CT18" s="136"/>
-      <c r="CU18" s="136"/>
-      <c r="CV18" s="136"/>
-      <c r="CW18" s="136"/>
-      <c r="CX18" s="136"/>
-      <c r="CY18" s="136"/>
-      <c r="CZ18" s="136"/>
-      <c r="DA18" s="136"/>
-      <c r="DB18" s="136"/>
-      <c r="DC18" s="136"/>
-      <c r="DD18" s="136"/>
-      <c r="DE18" s="136"/>
-      <c r="DF18" s="136"/>
-      <c r="DG18" s="136"/>
-      <c r="DH18" s="136"/>
-      <c r="DI18" s="136"/>
-      <c r="DJ18" s="136"/>
-      <c r="DK18" s="136"/>
-      <c r="DL18" s="136"/>
-      <c r="DM18" s="136"/>
-      <c r="DN18" s="136"/>
-      <c r="DO18" s="136"/>
-      <c r="DP18" s="136"/>
-      <c r="DQ18" s="136"/>
-      <c r="DR18" s="136"/>
-      <c r="DS18" s="136"/>
-      <c r="DT18" s="136"/>
-      <c r="DU18" s="136"/>
-      <c r="DV18" s="136"/>
-      <c r="DW18" s="136"/>
-      <c r="DX18" s="136"/>
-      <c r="DY18" s="117"/>
-      <c r="DZ18" s="117"/>
-      <c r="EA18" s="117"/>
-      <c r="EB18" s="117"/>
-      <c r="EC18" s="117"/>
-      <c r="ED18" s="117"/>
-      <c r="EE18" s="117"/>
-      <c r="EF18" s="117"/>
-      <c r="EG18" s="117"/>
-      <c r="EH18" s="117"/>
-      <c r="EI18" s="117"/>
-      <c r="EJ18" s="117"/>
-      <c r="EK18" s="117"/>
-      <c r="EL18" s="117"/>
-      <c r="EM18" s="117"/>
-      <c r="EN18" s="117"/>
-      <c r="EO18" s="117"/>
-      <c r="EP18" s="117"/>
-      <c r="EQ18" s="140"/>
-      <c r="ER18" s="141"/>
-      <c r="ES18" s="131"/>
-      <c r="ET18" s="132"/>
-      <c r="EU18" s="132"/>
-      <c r="EV18" s="132"/>
-      <c r="EW18" s="132"/>
-      <c r="EX18" s="132"/>
-      <c r="EY18" s="132"/>
-      <c r="EZ18" s="132"/>
-      <c r="FA18" s="132"/>
-      <c r="FB18" s="132"/>
-      <c r="FC18" s="132"/>
-      <c r="FD18" s="132"/>
-      <c r="FE18" s="132"/>
-      <c r="FF18" s="132"/>
-      <c r="FG18" s="137"/>
-      <c r="FH18" s="138"/>
-      <c r="FI18" s="138"/>
-      <c r="FJ18" s="138"/>
-      <c r="FK18" s="138"/>
-      <c r="FL18" s="138"/>
-      <c r="FM18" s="138"/>
-      <c r="FN18" s="138"/>
-      <c r="FO18" s="138"/>
-      <c r="FP18" s="138"/>
-      <c r="FQ18" s="138"/>
-      <c r="FR18" s="138"/>
-      <c r="FS18" s="138"/>
-      <c r="FT18" s="138"/>
-      <c r="FU18" s="138"/>
-      <c r="FV18" s="138"/>
-      <c r="FW18" s="138"/>
+      <c r="CT18" s="132"/>
+      <c r="CU18" s="132"/>
+      <c r="CV18" s="132"/>
+      <c r="CW18" s="132"/>
+      <c r="CX18" s="132"/>
+      <c r="CY18" s="132"/>
+      <c r="CZ18" s="132"/>
+      <c r="DA18" s="132"/>
+      <c r="DB18" s="132"/>
+      <c r="DC18" s="132"/>
+      <c r="DD18" s="132"/>
+      <c r="DE18" s="132"/>
+      <c r="DF18" s="132"/>
+      <c r="DG18" s="132"/>
+      <c r="DH18" s="132"/>
+      <c r="DI18" s="132"/>
+      <c r="DJ18" s="132"/>
+      <c r="DK18" s="132"/>
+      <c r="DL18" s="132"/>
+      <c r="DM18" s="132"/>
+      <c r="DN18" s="132"/>
+      <c r="DO18" s="132"/>
+      <c r="DP18" s="132"/>
+      <c r="DQ18" s="132"/>
+      <c r="DR18" s="132"/>
+      <c r="DS18" s="132"/>
+      <c r="DT18" s="132"/>
+      <c r="DU18" s="132"/>
+      <c r="DV18" s="132"/>
+      <c r="DW18" s="132"/>
+      <c r="DX18" s="132"/>
+      <c r="DY18" s="113"/>
+      <c r="DZ18" s="113"/>
+      <c r="EA18" s="113"/>
+      <c r="EB18" s="113"/>
+      <c r="EC18" s="113"/>
+      <c r="ED18" s="113"/>
+      <c r="EE18" s="113"/>
+      <c r="EF18" s="113"/>
+      <c r="EG18" s="113"/>
+      <c r="EH18" s="113"/>
+      <c r="EI18" s="113"/>
+      <c r="EJ18" s="113"/>
+      <c r="EK18" s="113"/>
+      <c r="EL18" s="113"/>
+      <c r="EM18" s="113"/>
+      <c r="EN18" s="113"/>
+      <c r="EO18" s="113"/>
+      <c r="EP18" s="113"/>
+      <c r="EQ18" s="136"/>
+      <c r="ER18" s="137"/>
+      <c r="ES18" s="127"/>
+      <c r="ET18" s="128"/>
+      <c r="EU18" s="128"/>
+      <c r="EV18" s="128"/>
+      <c r="EW18" s="128"/>
+      <c r="EX18" s="128"/>
+      <c r="EY18" s="128"/>
+      <c r="EZ18" s="128"/>
+      <c r="FA18" s="128"/>
+      <c r="FB18" s="128"/>
+      <c r="FC18" s="128"/>
+      <c r="FD18" s="128"/>
+      <c r="FE18" s="128"/>
+      <c r="FF18" s="128"/>
+      <c r="FG18" s="133"/>
+      <c r="FH18" s="134"/>
+      <c r="FI18" s="134"/>
+      <c r="FJ18" s="134"/>
+      <c r="FK18" s="134"/>
+      <c r="FL18" s="134"/>
+      <c r="FM18" s="134"/>
+      <c r="FN18" s="134"/>
+      <c r="FO18" s="134"/>
+      <c r="FP18" s="134"/>
+      <c r="FQ18" s="134"/>
+      <c r="FR18" s="134"/>
+      <c r="FS18" s="134"/>
+      <c r="FT18" s="134"/>
+      <c r="FU18" s="134"/>
+      <c r="FV18" s="134"/>
+      <c r="FW18" s="134"/>
     </row>
     <row r="19" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -38907,39 +38960,39 @@
       <c r="EP19" s="85" t="s">
         <v>1756</v>
       </c>
-      <c r="EQ19" s="140"/>
-      <c r="ER19" s="141"/>
-      <c r="ES19" s="131"/>
-      <c r="ET19" s="132"/>
-      <c r="EU19" s="132"/>
-      <c r="EV19" s="132"/>
-      <c r="EW19" s="132"/>
-      <c r="EX19" s="132"/>
-      <c r="EY19" s="132"/>
-      <c r="EZ19" s="132"/>
-      <c r="FA19" s="132"/>
-      <c r="FB19" s="132"/>
-      <c r="FC19" s="132"/>
-      <c r="FD19" s="132"/>
-      <c r="FE19" s="132"/>
-      <c r="FF19" s="132"/>
-      <c r="FG19" s="137"/>
-      <c r="FH19" s="138"/>
-      <c r="FI19" s="138"/>
-      <c r="FJ19" s="138"/>
-      <c r="FK19" s="138"/>
-      <c r="FL19" s="138"/>
-      <c r="FM19" s="138"/>
-      <c r="FN19" s="138"/>
-      <c r="FO19" s="138"/>
-      <c r="FP19" s="138"/>
-      <c r="FQ19" s="138"/>
-      <c r="FR19" s="138"/>
-      <c r="FS19" s="138"/>
-      <c r="FT19" s="138"/>
-      <c r="FU19" s="138"/>
-      <c r="FV19" s="138"/>
-      <c r="FW19" s="138"/>
+      <c r="EQ19" s="136"/>
+      <c r="ER19" s="137"/>
+      <c r="ES19" s="127"/>
+      <c r="ET19" s="128"/>
+      <c r="EU19" s="128"/>
+      <c r="EV19" s="128"/>
+      <c r="EW19" s="128"/>
+      <c r="EX19" s="128"/>
+      <c r="EY19" s="128"/>
+      <c r="EZ19" s="128"/>
+      <c r="FA19" s="128"/>
+      <c r="FB19" s="128"/>
+      <c r="FC19" s="128"/>
+      <c r="FD19" s="128"/>
+      <c r="FE19" s="128"/>
+      <c r="FF19" s="128"/>
+      <c r="FG19" s="133"/>
+      <c r="FH19" s="134"/>
+      <c r="FI19" s="134"/>
+      <c r="FJ19" s="134"/>
+      <c r="FK19" s="134"/>
+      <c r="FL19" s="134"/>
+      <c r="FM19" s="134"/>
+      <c r="FN19" s="134"/>
+      <c r="FO19" s="134"/>
+      <c r="FP19" s="134"/>
+      <c r="FQ19" s="134"/>
+      <c r="FR19" s="134"/>
+      <c r="FS19" s="134"/>
+      <c r="FT19" s="134"/>
+      <c r="FU19" s="134"/>
+      <c r="FV19" s="134"/>
+      <c r="FW19" s="134"/>
     </row>
     <row r="20" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
@@ -39030,232 +39083,232 @@
       <c r="CE20" s="66" t="s">
         <v>1755</v>
       </c>
-      <c r="CF20" s="135" t="s">
+      <c r="CF20" s="131" t="s">
         <v>1745</v>
       </c>
-      <c r="CG20" s="134" t="s">
+      <c r="CG20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CH20" s="134" t="s">
+      <c r="CH20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CI20" s="134" t="s">
+      <c r="CI20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CJ20" s="134" t="s">
+      <c r="CJ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CK20" s="134" t="s">
+      <c r="CK20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CL20" s="134" t="s">
+      <c r="CL20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CM20" s="134" t="s">
+      <c r="CM20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CN20" s="134" t="s">
+      <c r="CN20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CO20" s="134" t="s">
+      <c r="CO20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CP20" s="134" t="s">
+      <c r="CP20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CQ20" s="134" t="s">
+      <c r="CQ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CR20" s="134" t="s">
+      <c r="CR20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CS20" s="134" t="s">
+      <c r="CS20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CT20" s="134" t="s">
+      <c r="CT20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CU20" s="134" t="s">
+      <c r="CU20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CV20" s="134" t="s">
+      <c r="CV20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CW20" s="134" t="s">
+      <c r="CW20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CX20" s="134" t="s">
+      <c r="CX20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CY20" s="134" t="s">
+      <c r="CY20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="CZ20" s="134" t="s">
+      <c r="CZ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DA20" s="134" t="s">
+      <c r="DA20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DB20" s="134" t="s">
+      <c r="DB20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DC20" s="134" t="s">
+      <c r="DC20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DD20" s="134" t="s">
+      <c r="DD20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DE20" s="134" t="s">
+      <c r="DE20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DF20" s="134" t="s">
+      <c r="DF20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DG20" s="134" t="s">
+      <c r="DG20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DH20" s="134" t="s">
+      <c r="DH20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DI20" s="134" t="s">
+      <c r="DI20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DJ20" s="134" t="s">
+      <c r="DJ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DK20" s="134" t="s">
+      <c r="DK20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DL20" s="134" t="s">
+      <c r="DL20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DM20" s="134" t="s">
+      <c r="DM20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DN20" s="134" t="s">
+      <c r="DN20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DO20" s="134" t="s">
+      <c r="DO20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DP20" s="134" t="s">
+      <c r="DP20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DQ20" s="134" t="s">
+      <c r="DQ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DR20" s="134" t="s">
+      <c r="DR20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DS20" s="134" t="s">
+      <c r="DS20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DT20" s="134" t="s">
+      <c r="DT20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DU20" s="134" t="s">
+      <c r="DU20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DV20" s="134" t="s">
+      <c r="DV20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DW20" s="134" t="s">
+      <c r="DW20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DX20" s="134" t="s">
+      <c r="DX20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DY20" s="134" t="s">
+      <c r="DY20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="DZ20" s="134" t="s">
+      <c r="DZ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EA20" s="134" t="s">
+      <c r="EA20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EB20" s="134" t="s">
+      <c r="EB20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EC20" s="134" t="s">
+      <c r="EC20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="ED20" s="134" t="s">
+      <c r="ED20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EE20" s="134" t="s">
+      <c r="EE20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EF20" s="134" t="s">
+      <c r="EF20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EG20" s="134" t="s">
+      <c r="EG20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EH20" s="134" t="s">
+      <c r="EH20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EI20" s="134" t="s">
+      <c r="EI20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EJ20" s="134" t="s">
+      <c r="EJ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EK20" s="134" t="s">
+      <c r="EK20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EL20" s="134" t="s">
+      <c r="EL20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EM20" s="134" t="s">
+      <c r="EM20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EN20" s="134" t="s">
+      <c r="EN20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EO20" s="134" t="s">
+      <c r="EO20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EP20" s="134" t="s">
+      <c r="EP20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="EQ20" s="134" t="s">
+      <c r="EQ20" s="130" t="s">
         <v>1745</v>
       </c>
-      <c r="ER20" s="144" t="s">
+      <c r="ER20" s="140" t="s">
         <v>1756</v>
       </c>
-      <c r="ES20" s="131"/>
-      <c r="ET20" s="132"/>
-      <c r="EU20" s="132"/>
-      <c r="EV20" s="132"/>
-      <c r="EW20" s="132"/>
-      <c r="EX20" s="132"/>
-      <c r="EY20" s="132"/>
-      <c r="EZ20" s="132"/>
-      <c r="FA20" s="132"/>
-      <c r="FB20" s="132"/>
-      <c r="FC20" s="132"/>
-      <c r="FD20" s="132"/>
-      <c r="FE20" s="132"/>
-      <c r="FF20" s="132"/>
-      <c r="FG20" s="137"/>
-      <c r="FH20" s="138"/>
-      <c r="FI20" s="138"/>
-      <c r="FJ20" s="138"/>
-      <c r="FK20" s="138"/>
-      <c r="FL20" s="138"/>
-      <c r="FM20" s="138"/>
-      <c r="FN20" s="138"/>
-      <c r="FO20" s="138"/>
-      <c r="FP20" s="138"/>
-      <c r="FQ20" s="138"/>
-      <c r="FR20" s="138"/>
-      <c r="FS20" s="138"/>
-      <c r="FT20" s="138"/>
-      <c r="FU20" s="138"/>
-      <c r="FV20" s="138"/>
-      <c r="FW20" s="138"/>
+      <c r="ES20" s="127"/>
+      <c r="ET20" s="128"/>
+      <c r="EU20" s="128"/>
+      <c r="EV20" s="128"/>
+      <c r="EW20" s="128"/>
+      <c r="EX20" s="128"/>
+      <c r="EY20" s="128"/>
+      <c r="EZ20" s="128"/>
+      <c r="FA20" s="128"/>
+      <c r="FB20" s="128"/>
+      <c r="FC20" s="128"/>
+      <c r="FD20" s="128"/>
+      <c r="FE20" s="128"/>
+      <c r="FF20" s="128"/>
+      <c r="FG20" s="133"/>
+      <c r="FH20" s="134"/>
+      <c r="FI20" s="134"/>
+      <c r="FJ20" s="134"/>
+      <c r="FK20" s="134"/>
+      <c r="FL20" s="134"/>
+      <c r="FM20" s="134"/>
+      <c r="FN20" s="134"/>
+      <c r="FO20" s="134"/>
+      <c r="FP20" s="134"/>
+      <c r="FQ20" s="134"/>
+      <c r="FR20" s="134"/>
+      <c r="FS20" s="134"/>
+      <c r="FT20" s="134"/>
+      <c r="FU20" s="134"/>
+      <c r="FV20" s="134"/>
+      <c r="FW20" s="134"/>
     </row>
     <row r="21" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
@@ -39346,102 +39399,102 @@
       <c r="CE21" s="67" t="s">
         <v>1754</v>
       </c>
-      <c r="CF21" s="135"/>
-      <c r="CG21" s="134"/>
-      <c r="CH21" s="134"/>
-      <c r="CI21" s="134"/>
-      <c r="CJ21" s="134"/>
-      <c r="CK21" s="134"/>
-      <c r="CL21" s="134"/>
-      <c r="CM21" s="134"/>
-      <c r="CN21" s="134"/>
-      <c r="CO21" s="134"/>
-      <c r="CP21" s="134"/>
-      <c r="CQ21" s="134"/>
-      <c r="CR21" s="134"/>
-      <c r="CS21" s="134"/>
-      <c r="CT21" s="134"/>
-      <c r="CU21" s="134"/>
-      <c r="CV21" s="134"/>
-      <c r="CW21" s="134"/>
-      <c r="CX21" s="134"/>
-      <c r="CY21" s="134"/>
-      <c r="CZ21" s="134"/>
-      <c r="DA21" s="134"/>
-      <c r="DB21" s="134"/>
-      <c r="DC21" s="134"/>
-      <c r="DD21" s="134"/>
-      <c r="DE21" s="134"/>
-      <c r="DF21" s="134"/>
-      <c r="DG21" s="134"/>
-      <c r="DH21" s="134"/>
-      <c r="DI21" s="134"/>
-      <c r="DJ21" s="134"/>
-      <c r="DK21" s="134"/>
-      <c r="DL21" s="134"/>
-      <c r="DM21" s="134"/>
-      <c r="DN21" s="134"/>
-      <c r="DO21" s="134"/>
-      <c r="DP21" s="134"/>
-      <c r="DQ21" s="134"/>
-      <c r="DR21" s="134"/>
-      <c r="DS21" s="134"/>
-      <c r="DT21" s="134"/>
-      <c r="DU21" s="134"/>
-      <c r="DV21" s="134"/>
-      <c r="DW21" s="134"/>
-      <c r="DX21" s="134"/>
-      <c r="DY21" s="134"/>
-      <c r="DZ21" s="134"/>
-      <c r="EA21" s="134"/>
-      <c r="EB21" s="134"/>
-      <c r="EC21" s="134"/>
-      <c r="ED21" s="134"/>
-      <c r="EE21" s="134"/>
-      <c r="EF21" s="134"/>
-      <c r="EG21" s="134"/>
-      <c r="EH21" s="134"/>
-      <c r="EI21" s="134"/>
-      <c r="EJ21" s="134"/>
-      <c r="EK21" s="134"/>
-      <c r="EL21" s="134"/>
-      <c r="EM21" s="134"/>
-      <c r="EN21" s="134"/>
-      <c r="EO21" s="134"/>
-      <c r="EP21" s="134"/>
-      <c r="EQ21" s="134"/>
-      <c r="ER21" s="144"/>
-      <c r="ES21" s="131"/>
-      <c r="ET21" s="132"/>
-      <c r="EU21" s="132"/>
-      <c r="EV21" s="132"/>
-      <c r="EW21" s="132"/>
-      <c r="EX21" s="132"/>
-      <c r="EY21" s="132"/>
-      <c r="EZ21" s="132"/>
-      <c r="FA21" s="132"/>
-      <c r="FB21" s="132"/>
-      <c r="FC21" s="132"/>
-      <c r="FD21" s="132"/>
-      <c r="FE21" s="132"/>
-      <c r="FF21" s="132"/>
-      <c r="FG21" s="137"/>
-      <c r="FH21" s="138"/>
-      <c r="FI21" s="138"/>
-      <c r="FJ21" s="138"/>
-      <c r="FK21" s="138"/>
-      <c r="FL21" s="138"/>
-      <c r="FM21" s="138"/>
-      <c r="FN21" s="138"/>
-      <c r="FO21" s="138"/>
-      <c r="FP21" s="138"/>
-      <c r="FQ21" s="138"/>
-      <c r="FR21" s="138"/>
-      <c r="FS21" s="138"/>
-      <c r="FT21" s="138"/>
-      <c r="FU21" s="138"/>
-      <c r="FV21" s="138"/>
-      <c r="FW21" s="138"/>
+      <c r="CF21" s="131"/>
+      <c r="CG21" s="130"/>
+      <c r="CH21" s="130"/>
+      <c r="CI21" s="130"/>
+      <c r="CJ21" s="130"/>
+      <c r="CK21" s="130"/>
+      <c r="CL21" s="130"/>
+      <c r="CM21" s="130"/>
+      <c r="CN21" s="130"/>
+      <c r="CO21" s="130"/>
+      <c r="CP21" s="130"/>
+      <c r="CQ21" s="130"/>
+      <c r="CR21" s="130"/>
+      <c r="CS21" s="130"/>
+      <c r="CT21" s="130"/>
+      <c r="CU21" s="130"/>
+      <c r="CV21" s="130"/>
+      <c r="CW21" s="130"/>
+      <c r="CX21" s="130"/>
+      <c r="CY21" s="130"/>
+      <c r="CZ21" s="130"/>
+      <c r="DA21" s="130"/>
+      <c r="DB21" s="130"/>
+      <c r="DC21" s="130"/>
+      <c r="DD21" s="130"/>
+      <c r="DE21" s="130"/>
+      <c r="DF21" s="130"/>
+      <c r="DG21" s="130"/>
+      <c r="DH21" s="130"/>
+      <c r="DI21" s="130"/>
+      <c r="DJ21" s="130"/>
+      <c r="DK21" s="130"/>
+      <c r="DL21" s="130"/>
+      <c r="DM21" s="130"/>
+      <c r="DN21" s="130"/>
+      <c r="DO21" s="130"/>
+      <c r="DP21" s="130"/>
+      <c r="DQ21" s="130"/>
+      <c r="DR21" s="130"/>
+      <c r="DS21" s="130"/>
+      <c r="DT21" s="130"/>
+      <c r="DU21" s="130"/>
+      <c r="DV21" s="130"/>
+      <c r="DW21" s="130"/>
+      <c r="DX21" s="130"/>
+      <c r="DY21" s="130"/>
+      <c r="DZ21" s="130"/>
+      <c r="EA21" s="130"/>
+      <c r="EB21" s="130"/>
+      <c r="EC21" s="130"/>
+      <c r="ED21" s="130"/>
+      <c r="EE21" s="130"/>
+      <c r="EF21" s="130"/>
+      <c r="EG21" s="130"/>
+      <c r="EH21" s="130"/>
+      <c r="EI21" s="130"/>
+      <c r="EJ21" s="130"/>
+      <c r="EK21" s="130"/>
+      <c r="EL21" s="130"/>
+      <c r="EM21" s="130"/>
+      <c r="EN21" s="130"/>
+      <c r="EO21" s="130"/>
+      <c r="EP21" s="130"/>
+      <c r="EQ21" s="130"/>
+      <c r="ER21" s="140"/>
+      <c r="ES21" s="127"/>
+      <c r="ET21" s="128"/>
+      <c r="EU21" s="128"/>
+      <c r="EV21" s="128"/>
+      <c r="EW21" s="128"/>
+      <c r="EX21" s="128"/>
+      <c r="EY21" s="128"/>
+      <c r="EZ21" s="128"/>
+      <c r="FA21" s="128"/>
+      <c r="FB21" s="128"/>
+      <c r="FC21" s="128"/>
+      <c r="FD21" s="128"/>
+      <c r="FE21" s="128"/>
+      <c r="FF21" s="128"/>
+      <c r="FG21" s="133"/>
+      <c r="FH21" s="134"/>
+      <c r="FI21" s="134"/>
+      <c r="FJ21" s="134"/>
+      <c r="FK21" s="134"/>
+      <c r="FL21" s="134"/>
+      <c r="FM21" s="134"/>
+      <c r="FN21" s="134"/>
+      <c r="FO21" s="134"/>
+      <c r="FP21" s="134"/>
+      <c r="FQ21" s="134"/>
+      <c r="FR21" s="134"/>
+      <c r="FS21" s="134"/>
+      <c r="FT21" s="134"/>
+      <c r="FU21" s="134"/>
+      <c r="FV21" s="134"/>
+      <c r="FW21" s="134"/>
     </row>
     <row r="22" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -39620,22 +39673,22 @@
       <c r="FG22" s="89" t="s">
         <v>1197</v>
       </c>
-      <c r="FH22" s="138"/>
-      <c r="FI22" s="138"/>
-      <c r="FJ22" s="138"/>
-      <c r="FK22" s="138"/>
-      <c r="FL22" s="138"/>
-      <c r="FM22" s="138"/>
-      <c r="FN22" s="138"/>
-      <c r="FO22" s="138"/>
-      <c r="FP22" s="138"/>
-      <c r="FQ22" s="138"/>
-      <c r="FR22" s="138"/>
-      <c r="FS22" s="138"/>
-      <c r="FT22" s="138"/>
-      <c r="FU22" s="138"/>
-      <c r="FV22" s="138"/>
-      <c r="FW22" s="138"/>
+      <c r="FH22" s="134"/>
+      <c r="FI22" s="134"/>
+      <c r="FJ22" s="134"/>
+      <c r="FK22" s="134"/>
+      <c r="FL22" s="134"/>
+      <c r="FM22" s="134"/>
+      <c r="FN22" s="134"/>
+      <c r="FO22" s="134"/>
+      <c r="FP22" s="134"/>
+      <c r="FQ22" s="134"/>
+      <c r="FR22" s="134"/>
+      <c r="FS22" s="134"/>
+      <c r="FT22" s="134"/>
+      <c r="FU22" s="134"/>
+      <c r="FV22" s="134"/>
+      <c r="FW22" s="134"/>
     </row>
     <row r="23" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -39835,15 +39888,15 @@
       <c r="FN23" s="90" t="s">
         <v>1730</v>
       </c>
-      <c r="FO23" s="138"/>
-      <c r="FP23" s="138"/>
-      <c r="FQ23" s="138"/>
-      <c r="FR23" s="138"/>
-      <c r="FS23" s="138"/>
-      <c r="FT23" s="138"/>
-      <c r="FU23" s="138"/>
-      <c r="FV23" s="138"/>
-      <c r="FW23" s="138"/>
+      <c r="FO23" s="134"/>
+      <c r="FP23" s="134"/>
+      <c r="FQ23" s="134"/>
+      <c r="FR23" s="134"/>
+      <c r="FS23" s="134"/>
+      <c r="FT23" s="134"/>
+      <c r="FU23" s="134"/>
+      <c r="FV23" s="134"/>
+      <c r="FW23" s="134"/>
     </row>
     <row r="24" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -40075,9 +40128,9 @@
       <c r="FT24" s="92" t="s">
         <v>1730</v>
       </c>
-      <c r="FU24" s="138"/>
-      <c r="FV24" s="138"/>
-      <c r="FW24" s="138"/>
+      <c r="FU24" s="134"/>
+      <c r="FV24" s="134"/>
+      <c r="FW24" s="134"/>
     </row>
     <row r="25" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -40277,9 +40330,9 @@
       <c r="FT25" s="89" t="s">
         <v>1730</v>
       </c>
-      <c r="FU25" s="138"/>
-      <c r="FV25" s="138"/>
-      <c r="FW25" s="138"/>
+      <c r="FU25" s="134"/>
+      <c r="FV25" s="134"/>
+      <c r="FW25" s="134"/>
     </row>
     <row r="26" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -40514,8 +40567,8 @@
       <c r="FU26" s="82" t="s">
         <v>1730</v>
       </c>
-      <c r="FV26" s="138"/>
-      <c r="FW26" s="138"/>
+      <c r="FV26" s="134"/>
+      <c r="FW26" s="134"/>
     </row>
     <row r="27" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -40824,17 +40877,17 @@
       <c r="DT36" s="63" t="s">
         <v>1698</v>
       </c>
-      <c r="DU36" s="118" t="s">
+      <c r="DU36" s="114" t="s">
         <v>1259</v>
       </c>
-      <c r="DV36" s="119"/>
-      <c r="DW36" s="119"/>
-      <c r="DX36" s="119"/>
-      <c r="DY36" s="119"/>
-      <c r="DZ36" s="119"/>
-      <c r="EA36" s="119"/>
-      <c r="EB36" s="119"/>
-      <c r="EC36" s="119"/>
+      <c r="DV36" s="115"/>
+      <c r="DW36" s="115"/>
+      <c r="DX36" s="115"/>
+      <c r="DY36" s="115"/>
+      <c r="DZ36" s="115"/>
+      <c r="EA36" s="115"/>
+      <c r="EB36" s="115"/>
+      <c r="EC36" s="115"/>
       <c r="ED36" s="64"/>
       <c r="EE36" s="64"/>
       <c r="EF36" s="64"/>
@@ -41012,15 +41065,15 @@
       <c r="DT37" s="64" t="s">
         <v>1701</v>
       </c>
-      <c r="DU37" s="118"/>
-      <c r="DV37" s="119"/>
-      <c r="DW37" s="119"/>
-      <c r="DX37" s="119"/>
-      <c r="DY37" s="119"/>
-      <c r="DZ37" s="119"/>
-      <c r="EA37" s="119"/>
-      <c r="EB37" s="119"/>
-      <c r="EC37" s="119"/>
+      <c r="DU37" s="114"/>
+      <c r="DV37" s="115"/>
+      <c r="DW37" s="115"/>
+      <c r="DX37" s="115"/>
+      <c r="DY37" s="115"/>
+      <c r="DZ37" s="115"/>
+      <c r="EA37" s="115"/>
+      <c r="EB37" s="115"/>
+      <c r="EC37" s="115"/>
       <c r="ED37" s="64"/>
       <c r="EE37" s="64"/>
       <c r="EF37" s="64"/>
@@ -41931,25 +41984,25 @@
       <c r="EM44" s="67" t="s">
         <v>1707</v>
       </c>
-      <c r="EN44" s="123" t="s">
+      <c r="EN44" s="119" t="s">
         <v>1709</v>
       </c>
-      <c r="EO44" s="120"/>
-      <c r="EP44" s="120"/>
-      <c r="EQ44" s="123" t="s">
+      <c r="EO44" s="116"/>
+      <c r="EP44" s="116"/>
+      <c r="EQ44" s="119" t="s">
         <v>1709</v>
       </c>
-      <c r="ER44" s="120"/>
-      <c r="ES44" s="120"/>
-      <c r="ET44" s="120"/>
-      <c r="EU44" s="123" t="s">
+      <c r="ER44" s="116"/>
+      <c r="ES44" s="116"/>
+      <c r="ET44" s="116"/>
+      <c r="EU44" s="119" t="s">
         <v>1709</v>
       </c>
-      <c r="EV44" s="120"/>
-      <c r="EW44" s="120"/>
-      <c r="EX44" s="120"/>
-      <c r="EY44" s="120"/>
-      <c r="EZ44" s="120"/>
+      <c r="EV44" s="116"/>
+      <c r="EW44" s="116"/>
+      <c r="EX44" s="116"/>
+      <c r="EY44" s="116"/>
+      <c r="EZ44" s="116"/>
     </row>
     <row r="45" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -42106,19 +42159,19 @@
       <c r="EM45" s="67" t="s">
         <v>1708</v>
       </c>
-      <c r="EN45" s="123"/>
-      <c r="EO45" s="120"/>
-      <c r="EP45" s="120"/>
-      <c r="EQ45" s="123"/>
-      <c r="ER45" s="120"/>
-      <c r="ES45" s="120"/>
-      <c r="ET45" s="120"/>
-      <c r="EU45" s="123"/>
-      <c r="EV45" s="120"/>
-      <c r="EW45" s="120"/>
-      <c r="EX45" s="120"/>
-      <c r="EY45" s="120"/>
-      <c r="EZ45" s="120"/>
+      <c r="EN45" s="119"/>
+      <c r="EO45" s="116"/>
+      <c r="EP45" s="116"/>
+      <c r="EQ45" s="119"/>
+      <c r="ER45" s="116"/>
+      <c r="ES45" s="116"/>
+      <c r="ET45" s="116"/>
+      <c r="EU45" s="119"/>
+      <c r="EV45" s="116"/>
+      <c r="EW45" s="116"/>
+      <c r="EX45" s="116"/>
+      <c r="EY45" s="116"/>
+      <c r="EZ45" s="116"/>
     </row>
     <row r="46" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -42277,18 +42330,18 @@
       <c r="EU46" s="69"/>
       <c r="EV46" s="69"/>
       <c r="EW46" s="69"/>
-      <c r="EX46" s="124" t="s">
+      <c r="EX46" s="120" t="s">
         <v>1726</v>
       </c>
-      <c r="EY46" s="124"/>
-      <c r="EZ46" s="124" t="s">
+      <c r="EY46" s="120"/>
+      <c r="EZ46" s="120" t="s">
         <v>1726</v>
       </c>
-      <c r="FA46" s="124"/>
-      <c r="FB46" s="124" t="s">
+      <c r="FA46" s="120"/>
+      <c r="FB46" s="120" t="s">
         <v>1726</v>
       </c>
-      <c r="FC46" s="124"/>
+      <c r="FC46" s="120"/>
     </row>
     <row r="47" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -42420,45 +42473,45 @@
       <c r="DT47" s="64" t="s">
         <v>1720</v>
       </c>
-      <c r="DU47" s="121" t="s">
+      <c r="DU47" s="117" t="s">
         <v>1715</v>
       </c>
-      <c r="DV47" s="122"/>
-      <c r="DW47" s="122"/>
-      <c r="DX47" s="122"/>
-      <c r="DY47" s="122"/>
-      <c r="DZ47" s="122"/>
-      <c r="EA47" s="122"/>
-      <c r="EB47" s="122"/>
-      <c r="EC47" s="122"/>
-      <c r="ED47" s="122"/>
-      <c r="EE47" s="122"/>
-      <c r="EF47" s="122"/>
-      <c r="EG47" s="122"/>
-      <c r="EH47" s="122"/>
-      <c r="EI47" s="122"/>
-      <c r="EJ47" s="122"/>
-      <c r="EK47" s="122"/>
-      <c r="EL47" s="122"/>
-      <c r="EM47" s="122"/>
-      <c r="EN47" s="122"/>
-      <c r="EO47" s="122"/>
-      <c r="EP47" s="122"/>
-      <c r="EQ47" s="122"/>
-      <c r="ER47" s="122"/>
-      <c r="ES47" s="122"/>
-      <c r="ET47" s="122"/>
-      <c r="EU47" s="122"/>
-      <c r="EV47" s="122"/>
-      <c r="EW47" s="125" t="s">
+      <c r="DV47" s="118"/>
+      <c r="DW47" s="118"/>
+      <c r="DX47" s="118"/>
+      <c r="DY47" s="118"/>
+      <c r="DZ47" s="118"/>
+      <c r="EA47" s="118"/>
+      <c r="EB47" s="118"/>
+      <c r="EC47" s="118"/>
+      <c r="ED47" s="118"/>
+      <c r="EE47" s="118"/>
+      <c r="EF47" s="118"/>
+      <c r="EG47" s="118"/>
+      <c r="EH47" s="118"/>
+      <c r="EI47" s="118"/>
+      <c r="EJ47" s="118"/>
+      <c r="EK47" s="118"/>
+      <c r="EL47" s="118"/>
+      <c r="EM47" s="118"/>
+      <c r="EN47" s="118"/>
+      <c r="EO47" s="118"/>
+      <c r="EP47" s="118"/>
+      <c r="EQ47" s="118"/>
+      <c r="ER47" s="118"/>
+      <c r="ES47" s="118"/>
+      <c r="ET47" s="118"/>
+      <c r="EU47" s="118"/>
+      <c r="EV47" s="118"/>
+      <c r="EW47" s="121" t="s">
         <v>1722</v>
       </c>
-      <c r="EX47" s="124"/>
-      <c r="EY47" s="124"/>
-      <c r="EZ47" s="124"/>
-      <c r="FA47" s="124"/>
-      <c r="FB47" s="124"/>
-      <c r="FC47" s="124"/>
+      <c r="EX47" s="120"/>
+      <c r="EY47" s="120"/>
+      <c r="EZ47" s="120"/>
+      <c r="FA47" s="120"/>
+      <c r="FB47" s="120"/>
+      <c r="FC47" s="120"/>
     </row>
     <row r="48" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -42590,41 +42643,41 @@
       <c r="DT48" s="68" t="s">
         <v>1721</v>
       </c>
-      <c r="DU48" s="121"/>
-      <c r="DV48" s="122"/>
-      <c r="DW48" s="122"/>
-      <c r="DX48" s="122"/>
-      <c r="DY48" s="122"/>
-      <c r="DZ48" s="122"/>
-      <c r="EA48" s="122"/>
-      <c r="EB48" s="122"/>
-      <c r="EC48" s="122"/>
-      <c r="ED48" s="122"/>
-      <c r="EE48" s="122"/>
-      <c r="EF48" s="122"/>
-      <c r="EG48" s="122"/>
-      <c r="EH48" s="122"/>
-      <c r="EI48" s="122"/>
-      <c r="EJ48" s="122"/>
-      <c r="EK48" s="122"/>
-      <c r="EL48" s="122"/>
-      <c r="EM48" s="122"/>
-      <c r="EN48" s="122"/>
-      <c r="EO48" s="122"/>
-      <c r="EP48" s="122"/>
-      <c r="EQ48" s="122"/>
-      <c r="ER48" s="122"/>
-      <c r="ES48" s="122"/>
-      <c r="ET48" s="122"/>
-      <c r="EU48" s="122"/>
-      <c r="EV48" s="122"/>
-      <c r="EW48" s="125"/>
-      <c r="EX48" s="124"/>
-      <c r="EY48" s="124"/>
-      <c r="EZ48" s="124"/>
-      <c r="FA48" s="124"/>
-      <c r="FB48" s="124"/>
-      <c r="FC48" s="124"/>
+      <c r="DU48" s="117"/>
+      <c r="DV48" s="118"/>
+      <c r="DW48" s="118"/>
+      <c r="DX48" s="118"/>
+      <c r="DY48" s="118"/>
+      <c r="DZ48" s="118"/>
+      <c r="EA48" s="118"/>
+      <c r="EB48" s="118"/>
+      <c r="EC48" s="118"/>
+      <c r="ED48" s="118"/>
+      <c r="EE48" s="118"/>
+      <c r="EF48" s="118"/>
+      <c r="EG48" s="118"/>
+      <c r="EH48" s="118"/>
+      <c r="EI48" s="118"/>
+      <c r="EJ48" s="118"/>
+      <c r="EK48" s="118"/>
+      <c r="EL48" s="118"/>
+      <c r="EM48" s="118"/>
+      <c r="EN48" s="118"/>
+      <c r="EO48" s="118"/>
+      <c r="EP48" s="118"/>
+      <c r="EQ48" s="118"/>
+      <c r="ER48" s="118"/>
+      <c r="ES48" s="118"/>
+      <c r="ET48" s="118"/>
+      <c r="EU48" s="118"/>
+      <c r="EV48" s="118"/>
+      <c r="EW48" s="121"/>
+      <c r="EX48" s="120"/>
+      <c r="EY48" s="120"/>
+      <c r="EZ48" s="120"/>
+      <c r="FA48" s="120"/>
+      <c r="FB48" s="120"/>
+      <c r="FC48" s="120"/>
     </row>
     <row r="49" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B49" t="s">

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E60105-C833-4355-B41F-BA1B24768A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A2B2BB-527E-4D84-BC5F-EA3957BC9B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47670" yWindow="4000" windowWidth="18410" windowHeight="14130" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="42080" yWindow="2230" windowWidth="29670" windowHeight="15810" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,7 @@
     <externalReference r:id="rId211"/>
     <externalReference r:id="rId212"/>
     <externalReference r:id="rId213"/>
+    <externalReference r:id="rId214"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -397,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="1996">
   <si>
     <t>Exarta</t>
   </si>
@@ -6687,7 +6688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6930,76 +6931,11 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7014,21 +6950,84 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7152,9 +7151,9 @@
       <sheetName val="LY2140023"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="J3">
@@ -7190,41 +7189,41 @@
         </row>
         <row r="101">
           <cell r="FY101">
-            <v>929.05463429149597</v>
+            <v>1019.082948225804</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8804,17 +8803,20 @@
       <sheetName val="Papers"/>
       <sheetName val="Literature"/>
       <sheetName val="ASS"/>
+      <sheetName val="neuropilin"/>
+      <sheetName val="sarcoidosis"/>
+      <sheetName val="Math"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>89.004435999999998</v>
+            <v>97.986633999999995</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>76.34899999999999</v>
+            <v>112.38900000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -8823,11 +8825,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11688,6 +11693,40 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink202.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="sonelokimab"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>63.501401999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>425.08299999999997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>73.381</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -14392,7 +14431,7 @@
       <sheetName val="Zolinza"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
@@ -14432,33 +14471,33 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15674,10 +15713,10 @@
   <dimension ref="A1:AF553"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="M249" sqref="M249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15709,12 +15748,12 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
-        <f ca="1">RANDBETWEEN(1,D257)</f>
-        <v>169</v>
+        <f ca="1">RANDBETWEEN(1,D258)</f>
+        <v>241</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(H5:H419)-H10-H8-H13-H19-H23-H26-H52-H57</f>
-        <v>4704489.8912811782</v>
+        <v>4749366.167240358</v>
       </c>
       <c r="M2" s="9">
         <f>MIN(M5:M87)</f>
@@ -15722,24 +15761,24 @@
       </c>
       <c r="O2" s="10">
         <f>AVERAGE(O5:O25)</f>
-        <v>6.9210709202229534E-2</v>
-      </c>
-      <c r="S2" s="112" t="s">
+        <v>7.4822666914358599E-2</v>
+      </c>
+      <c r="S2" s="113" t="s">
         <v>311</v>
       </c>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112" t="s">
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -15834,7 +15873,6 @@
       </c>
     </row>
     <row r="4" spans="1:32" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="E4" s="144"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -15848,24 +15886,24 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
       <c r="S4" s="105">
-        <f t="shared" ref="S4:X4" si="0">TRIMMEAN(S5:S301,10%)</f>
-        <v>39.229342689246025</v>
+        <f t="shared" ref="S4:X4" si="0">TRIMMEAN(S5:S302,10%)</f>
+        <v>39.673787133690467</v>
       </c>
       <c r="T4" s="105">
         <f t="shared" si="0"/>
-        <v>85.398913651356921</v>
+        <v>85.927649283540831</v>
       </c>
       <c r="U4" s="105">
         <f t="shared" si="0"/>
-        <v>50.025710978890672</v>
+        <v>50.271227631324493</v>
       </c>
       <c r="V4" s="105">
         <f t="shared" si="0"/>
-        <v>17.311966559937673</v>
+        <v>17.436089603650572</v>
       </c>
       <c r="W4" s="105">
         <f t="shared" si="0"/>
-        <v>15.537076444172135</v>
+        <v>15.628306462814791</v>
       </c>
       <c r="X4" s="105">
         <f t="shared" si="0"/>
@@ -15908,11 +15946,11 @@
         <v>20</v>
       </c>
       <c r="G5" s="7">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="H5" s="6">
         <f>+G5*L5</f>
-        <v>636724.20000000007</v>
+        <v>678151.8</v>
       </c>
       <c r="I5" s="6">
         <f>+[1]Main!$J$5-[1]Main!$J$6</f>
@@ -15920,7 +15958,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" ref="J5:J25" si="1">H5-I5</f>
-        <v>668797.20000000007</v>
+        <v>710224.8</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>1842</v>
@@ -15930,15 +15968,15 @@
         <v>900.6</v>
       </c>
       <c r="M5" s="9">
-        <v>45873</v>
+        <v>45916</v>
       </c>
       <c r="N5" s="7">
         <f>[1]Model!$FY$101</f>
-        <v>929.05463429149597</v>
+        <v>1019.082948225804</v>
       </c>
       <c r="O5" s="10">
         <f>+N5/G5-1</f>
-        <v>0.31408010507990936</v>
+        <v>0.35336380906481279</v>
       </c>
       <c r="P5" s="10">
         <f>[1]Model!$FY$97</f>
@@ -15954,23 +15992,23 @@
       </c>
       <c r="S5" s="11">
         <f t="shared" ref="S5:W8" si="2">($J5/$L5)/Y5</f>
-        <v>107.62506155316746</v>
+        <v>114.29172821983411</v>
       </c>
       <c r="T5" s="11">
         <f t="shared" si="2"/>
-        <v>128.03671115807853</v>
+        <v>135.96774564083714</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="2"/>
-        <v>63.416987593241281</v>
+        <v>67.345254032182353</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="2"/>
-        <v>34.064813060406209</v>
+        <v>36.174904803525479</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="2"/>
-        <v>25.037522748376784</v>
+        <v>26.588433065301938</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>1680</v>
@@ -16972,7 +17010,7 @@
         <f>+D15+1</f>
         <v>9</v>
       </c>
-      <c r="E16" s="145" t="s">
+      <c r="E16" s="112" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -18483,7 +18521,7 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="E40" s="146" t="s">
+      <c r="E40" s="1" t="s">
         <v>1826</v>
       </c>
       <c r="F40" t="s">
@@ -25145,7 +25183,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="87" t="s">
         <v>333</v>
       </c>
@@ -25163,7 +25201,7 @@
       </c>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="87" t="s">
         <v>333</v>
       </c>
@@ -25183,7 +25221,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="87" t="s">
         <v>333</v>
       </c>
@@ -25206,7 +25244,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="87" t="s">
         <v>333</v>
       </c>
@@ -25229,7 +25267,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="87" t="s">
         <v>333</v>
       </c>
@@ -25252,7 +25290,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="87" t="s">
         <v>333</v>
       </c>
@@ -25273,7 +25311,7 @@
       </c>
       <c r="H246" s="6"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="87" t="s">
         <v>333</v>
       </c>
@@ -25293,7 +25331,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="87" t="s">
         <v>333</v>
       </c>
@@ -25316,14 +25354,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="87" t="s">
         <v>333</v>
       </c>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249">
-        <f t="shared" ref="D249:D313" si="21">+D248+1</f>
+        <f t="shared" ref="D249:D314" si="21">+D248+1</f>
         <v>238</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -25339,7 +25377,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="87" t="s">
         <v>333</v>
       </c>
@@ -25357,91 +25395,92 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="87" t="s">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A251" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="B251"/>
-      <c r="C251"/>
       <c r="D251">
-        <f t="shared" si="21"/>
-        <v>240</v>
+        <f>+D340+1</f>
+        <v>253</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>819</v>
+        <v>674</v>
       </c>
       <c r="F251" t="s">
-        <v>820</v>
+        <v>675</v>
       </c>
       <c r="G251" s="7">
-        <v>89</v>
+        <v>53.6</v>
       </c>
       <c r="H251" s="6">
         <f>+G251*L251</f>
-        <v>1930.300708</v>
+        <v>3403.6751472000001</v>
       </c>
       <c r="I251" s="6">
-        <f>+[129]Main!$L$5-[129]Main!$L$6</f>
-        <v>-403.76499999999999</v>
+        <f>+[202]Main!$J$5-[202]Main!$J$6</f>
+        <v>351.702</v>
       </c>
       <c r="J251" s="6">
-        <f t="shared" ref="J251:J256" si="22">+H251-I251</f>
-        <v>2334.0657080000001</v>
+        <f>+H251-I251</f>
+        <v>3051.9731472000003</v>
       </c>
       <c r="K251" s="3" t="s">
         <v>1995</v>
       </c>
       <c r="L251" s="6">
-        <f>+[129]Main!$L$3</f>
-        <v>21.688772</v>
+        <f>[202]Main!$J$3</f>
+        <v>63.501401999999999</v>
       </c>
       <c r="M251" s="9">
-        <v>45887</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45916</v>
+      </c>
+      <c r="AE251" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="87" t="s">
         <v>333</v>
       </c>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252">
-        <f t="shared" si="21"/>
-        <v>241</v>
+        <f>+D250+1</f>
+        <v>240</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>1822</v>
+        <v>819</v>
       </c>
       <c r="F252" t="s">
-        <v>1823</v>
+        <v>820</v>
       </c>
       <c r="G252" s="7">
-        <v>37.75</v>
+        <v>89</v>
       </c>
       <c r="H252" s="6">
         <f>+G252*L252</f>
-        <v>2249.7644397499998</v>
+        <v>1930.300708</v>
       </c>
       <c r="I252" s="6">
-        <f>+[130]Main!$L$5-[130]Main!$L$6</f>
-        <v>621.18900000000008</v>
+        <f>+[129]Main!$L$5-[129]Main!$L$6</f>
+        <v>-403.76499999999999</v>
       </c>
       <c r="J252" s="6">
-        <f t="shared" si="22"/>
-        <v>1628.5754397499998</v>
+        <f t="shared" ref="J252:J257" si="22">+H252-I252</f>
+        <v>2334.0657080000001</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>1276</v>
+        <v>1995</v>
       </c>
       <c r="L252" s="6">
-        <f>+[130]Main!$L$3</f>
-        <v>59.596409000000001</v>
+        <f>+[129]Main!$L$3</f>
+        <v>21.688772</v>
       </c>
       <c r="M252" s="9">
-        <v>45733</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="87" t="s">
         <v>333</v>
       </c>
@@ -25449,157 +25488,166 @@
       <c r="C253"/>
       <c r="D253">
         <f t="shared" si="21"/>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>869</v>
+        <v>1822</v>
       </c>
       <c r="F253" t="s">
-        <v>870</v>
+        <v>1823</v>
       </c>
       <c r="G253" s="7">
-        <v>5.56</v>
+        <v>37.75</v>
       </c>
       <c r="H253" s="6">
         <f>+G253*L253</f>
+        <v>2249.7644397499998</v>
+      </c>
+      <c r="I253" s="6">
+        <f>+[130]Main!$L$5-[130]Main!$L$6</f>
+        <v>621.18900000000008</v>
+      </c>
+      <c r="J253" s="6">
+        <f t="shared" si="22"/>
+        <v>1628.5754397499998</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L253" s="6">
+        <f>+[130]Main!$L$3</f>
+        <v>59.596409000000001</v>
+      </c>
+      <c r="M253" s="9">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A254" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B254"/>
+      <c r="C254"/>
+      <c r="D254">
+        <f t="shared" si="21"/>
+        <v>242</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="F254" t="s">
+        <v>870</v>
+      </c>
+      <c r="G254" s="7">
+        <v>5.56</v>
+      </c>
+      <c r="H254" s="6">
+        <f>+G254*L254</f>
         <v>855.90715059999991</v>
       </c>
-      <c r="I253" s="6">
+      <c r="I254" s="6">
         <f>+[131]Main!$L$5-[131]Main!$L$6</f>
         <v>-160.48700000000002</v>
       </c>
-      <c r="J253" s="6">
+      <c r="J254" s="6">
         <f t="shared" si="22"/>
         <v>1016.3941505999999</v>
       </c>
-      <c r="K253" s="3" t="s">
+      <c r="K254" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="L253" s="6">
+      <c r="L254" s="6">
         <f>+[131]Main!$L$3</f>
         <v>153.940135</v>
       </c>
-      <c r="M253" s="9">
+      <c r="M254" s="9">
         <v>45743</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="87" t="s">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A255" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="D254">
+      <c r="D255">
         <f t="shared" si="21"/>
         <v>243</v>
       </c>
-      <c r="E254" s="5" t="s">
+      <c r="E255" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F255" t="s">
         <v>423</v>
       </c>
-      <c r="G254" s="3">
+      <c r="G255" s="3">
         <v>17.02</v>
       </c>
-      <c r="H254" s="6">
-        <f>+G254*L254</f>
+      <c r="H255" s="6">
+        <f>+G255*L255</f>
         <v>1348.2009539399999</v>
       </c>
-      <c r="I254" s="6">
+      <c r="I255" s="6">
         <f>+[132]Main!$N$5-[132]Main!$N$6</f>
         <v>732.71699999999998</v>
       </c>
-      <c r="J254" s="6">
+      <c r="J255" s="6">
         <f t="shared" si="22"/>
         <v>615.48395393999988</v>
       </c>
-      <c r="K254" s="3" t="s">
+      <c r="K255" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="L254" s="6">
+      <c r="L255" s="6">
         <f>+[132]Main!$N$3</f>
         <v>79.212746999999993</v>
       </c>
-      <c r="M254" s="9">
+      <c r="M255" s="9">
         <v>45636</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="87" t="s">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A256" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B256" s="1">
         <v>7</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C256" s="1">
         <v>4</v>
       </c>
-      <c r="D255">
+      <c r="D256">
         <f t="shared" si="21"/>
         <v>244</v>
       </c>
-      <c r="E255" s="5" t="s">
+      <c r="E256" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F256" t="s">
         <v>1807</v>
       </c>
-      <c r="G255" s="3">
+      <c r="G256" s="3">
         <v>12.13</v>
       </c>
-      <c r="H255" s="6">
-        <f>+G255*L255/10</f>
+      <c r="H256" s="6">
+        <f>+G256*L256/10</f>
         <v>952.82484299999999</v>
       </c>
-      <c r="I255" s="6">
+      <c r="I256" s="6">
         <f>+[133]Main!$M$5-[133]Main!$M$6</f>
         <v>87</v>
       </c>
-      <c r="J255" s="6">
+      <c r="J256" s="6">
         <f t="shared" si="22"/>
         <v>865.82484299999999</v>
       </c>
-      <c r="K255" s="3" t="s">
+      <c r="K256" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="L255" s="6">
+      <c r="L256" s="6">
         <f>+[133]Main!$M$3</f>
         <v>785.51099999999997</v>
       </c>
-      <c r="M255" s="9">
+      <c r="M256" s="9">
         <v>45749</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256">
-        <f t="shared" si="21"/>
-        <v>245</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G256" s="3">
-        <v>21.99</v>
-      </c>
-      <c r="H256" s="6">
-        <v>725.62786605999997</v>
-      </c>
-      <c r="I256" s="6">
-        <v>197.79600000000002</v>
-      </c>
-      <c r="J256" s="8">
-        <f t="shared" si="22"/>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.25">
@@ -25610,118 +25658,111 @@
       <c r="C257"/>
       <c r="D257">
         <f t="shared" si="21"/>
+        <v>245</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G257" s="3">
+        <v>21.99</v>
+      </c>
+      <c r="H257" s="6">
+        <v>725.62786605999997</v>
+      </c>
+      <c r="I257" s="6">
+        <v>197.79600000000002</v>
+      </c>
+      <c r="J257" s="8">
+        <f t="shared" si="22"/>
+        <v>527.83186605999992</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A258" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258">
+        <f t="shared" si="21"/>
         <v>246</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="E258" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="F258" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G257" s="7">
+      <c r="G258" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H257" s="6">
-        <f>+G257*L257</f>
+      <c r="H258" s="6">
+        <f>+G258*L258</f>
         <v>227.00171872000001</v>
       </c>
-      <c r="I257" s="6">
+      <c r="I258" s="6">
         <f>+[134]Main!$K$5-[134]Main!$K$6</f>
         <v>-37.984000000000002</v>
       </c>
-      <c r="J257" s="8">
-        <f t="shared" ref="J257" si="23">+H257-I257</f>
+      <c r="J258" s="8">
+        <f t="shared" ref="J258" si="23">+H258-I258</f>
         <v>264.98571872000002</v>
       </c>
-      <c r="K257" s="3" t="s">
+      <c r="K258" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L257" s="6">
+      <c r="L258" s="6">
         <f>+[134]Main!$K$3</f>
         <v>810.72042399999998</v>
       </c>
-      <c r="M257" s="9">
+      <c r="M258" s="9">
         <v>44816</v>
       </c>
-      <c r="AE257" s="1">
+      <c r="AE258" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A258" s="100" t="s">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A259" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="D258">
+      <c r="D259">
         <f t="shared" si="21"/>
         <v>247</v>
       </c>
-      <c r="E258" s="5" t="s">
+      <c r="E259" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>1185</v>
       </c>
-      <c r="G258" s="7">
+      <c r="G259" s="7">
         <v>2.39</v>
       </c>
-      <c r="H258" s="6">
-        <f>+G258*L258</f>
+      <c r="H259" s="6">
+        <f>+G259*L259</f>
         <v>305.54221270000005</v>
       </c>
-      <c r="I258" s="6">
+      <c r="I259" s="6">
         <f>+[135]Main!$J$5-[135]Main!$J$6</f>
         <v>115.78</v>
       </c>
-      <c r="J258" s="8">
-        <f t="shared" ref="J258" si="24">+H258-I258</f>
+      <c r="J259" s="8">
+        <f t="shared" ref="J259" si="24">+H259-I259</f>
         <v>189.76221270000005</v>
       </c>
-      <c r="K258" s="3" t="s">
+      <c r="K259" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="L258" s="6">
+      <c r="L259" s="6">
         <f>+[135]Main!$J$3</f>
         <v>127.84193</v>
-      </c>
-    </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A259" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="D259">
-        <f t="shared" si="21"/>
-        <v>248</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G259" s="3">
-        <v>5.01</v>
-      </c>
-      <c r="H259" s="6">
-        <f>+G259*L259</f>
-        <v>445.91222435999998</v>
-      </c>
-      <c r="I259" s="6">
-        <f>+[136]Main!$K$5-[136]Main!$K$6</f>
-        <v>76.34899999999999</v>
-      </c>
-      <c r="J259" s="6">
-        <f>+H259-I259</f>
-        <v>369.56322435999999</v>
-      </c>
-      <c r="K259" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="L259" s="6">
-        <f>+[136]Main!$K$3</f>
-        <v>89.004435999999998</v>
-      </c>
-      <c r="M259" s="9">
-        <v>45857</v>
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
@@ -25730,80 +25771,78 @@
       </c>
       <c r="D260">
         <f t="shared" si="21"/>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>560</v>
+        <v>992</v>
       </c>
       <c r="F260" t="s">
-        <v>561</v>
+        <v>1983</v>
       </c>
       <c r="G260" s="3">
-        <v>20.239999999999998</v>
+        <v>5.01</v>
       </c>
       <c r="H260" s="6">
         <f>+G260*L260</f>
-        <v>854.11613935999992</v>
+        <v>490.91303633999996</v>
       </c>
       <c r="I260" s="6">
-        <f>+[137]Main!$J$5-[137]Main!$J$6</f>
-        <v>127.87499999999999</v>
+        <f>+[136]Main!$K$5-[136]Main!$K$6</f>
+        <v>112.38900000000001</v>
       </c>
       <c r="J260" s="6">
         <f>+H260-I260</f>
-        <v>726.24113935999992</v>
+        <v>378.52403633999995</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>1275</v>
+        <v>1842</v>
       </c>
       <c r="L260" s="6">
-        <f>+[137]Main!$J$3</f>
-        <v>42.199413999999997</v>
+        <f>+[136]Main!$K$3</f>
+        <v>97.986633999999995</v>
       </c>
       <c r="M260" s="9">
-        <v>45631</v>
+        <v>45857</v>
       </c>
     </row>
     <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B261"/>
-      <c r="C261"/>
       <c r="D261">
         <f t="shared" si="21"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G261" s="7">
-        <v>7.84</v>
+        <v>560</v>
+      </c>
+      <c r="F261" t="s">
+        <v>561</v>
+      </c>
+      <c r="G261" s="3">
+        <v>20.239999999999998</v>
       </c>
       <c r="H261" s="6">
         <f>+G261*L261</f>
-        <v>619.61355344000003</v>
+        <v>854.11613935999992</v>
       </c>
       <c r="I261" s="6">
-        <f>+[138]Main!$J$5-[138]Main!$J$6</f>
-        <v>191.5</v>
-      </c>
-      <c r="J261" s="8">
+        <f>+[137]Main!$J$5-[137]Main!$J$6</f>
+        <v>127.87499999999999</v>
+      </c>
+      <c r="J261" s="6">
         <f>+H261-I261</f>
-        <v>428.11355344000003</v>
+        <v>726.24113935999992</v>
       </c>
       <c r="K261" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="L261" s="6">
-        <f>[138]Main!$J$3</f>
-        <v>79.032341000000002</v>
+        <f>+[137]Main!$J$3</f>
+        <v>42.199413999999997</v>
       </c>
       <c r="M261" s="9">
-        <v>45659</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="262" spans="1:31" x14ac:dyDescent="0.25">
@@ -25814,91 +25853,112 @@
       <c r="C262"/>
       <c r="D262">
         <f t="shared" si="21"/>
+        <v>250</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G262" s="7">
+        <v>7.84</v>
+      </c>
+      <c r="H262" s="6">
+        <f>+G262*L262</f>
+        <v>619.61355344000003</v>
+      </c>
+      <c r="I262" s="6">
+        <f>+[138]Main!$J$5-[138]Main!$J$6</f>
+        <v>191.5</v>
+      </c>
+      <c r="J262" s="8">
+        <f>+H262-I262</f>
+        <v>428.11355344000003</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L262" s="6">
+        <f>[138]Main!$J$3</f>
+        <v>79.032341000000002</v>
+      </c>
+      <c r="M262" s="9">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A263" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263">
+        <f t="shared" si="21"/>
         <v>251</v>
       </c>
-      <c r="E262" s="5" t="s">
+      <c r="E263" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="F263" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G262" s="7">
+      <c r="G263" s="7">
         <v>19.600000000000001</v>
       </c>
-      <c r="H262" s="6">
-        <f>G262*[139]Main!$J$3</f>
+      <c r="H263" s="6">
+        <f>G263*[139]Main!$J$3</f>
         <v>1261.1517296000002</v>
       </c>
-      <c r="I262" s="8">
+      <c r="I263" s="8">
         <f>+[139]Main!$J$5-[139]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="J262" s="8">
-        <f>+H262-I262</f>
+      <c r="J263" s="8">
+        <f>+H263-I263</f>
         <v>1168.8337296000002</v>
       </c>
-      <c r="K262" s="3" t="s">
+      <c r="K263" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A263" s="100" t="s">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A264" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="D263">
+      <c r="D264">
         <f t="shared" si="21"/>
         <v>252</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F264" t="s">
         <v>332</v>
       </c>
-      <c r="G263" s="7">
+      <c r="G264" s="7">
         <v>3</v>
       </c>
-      <c r="H263" s="3">
+      <c r="H264" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="264" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A264" s="100" t="s">
+    <row r="265" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A265" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="D264">
+      <c r="D265">
         <f t="shared" si="21"/>
         <v>253</v>
       </c>
-      <c r="E264" s="24" t="s">
+      <c r="E265" s="24" t="s">
         <v>1350</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F265" t="s">
         <v>1351</v>
       </c>
-      <c r="G264" s="3">
+      <c r="G265" s="3">
         <v>33.409999999999997</v>
-      </c>
-    </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A265" s="100" t="s">
-        <v>333</v>
-      </c>
-      <c r="D265">
-        <f t="shared" si="21"/>
-        <v>254</v>
-      </c>
-      <c r="E265" t="s">
-        <v>428</v>
-      </c>
-      <c r="F265" t="s">
-        <v>429</v>
-      </c>
-      <c r="G265" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="H265" s="3">
-        <v>593</v>
       </c>
     </row>
     <row r="266" spans="1:31" x14ac:dyDescent="0.25">
@@ -25907,41 +25967,39 @@
       </c>
       <c r="D266">
         <f t="shared" si="21"/>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E266" t="s">
-        <v>740</v>
+        <v>428</v>
       </c>
       <c r="F266" t="s">
-        <v>741</v>
+        <v>429</v>
       </c>
       <c r="G266" s="7">
-        <v>24.91</v>
+        <v>5.8</v>
       </c>
       <c r="H266" s="3">
-        <v>1800</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="B267"/>
-      <c r="C267"/>
       <c r="D267">
         <f t="shared" si="21"/>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E267" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F267" t="s">
-        <v>750</v>
-      </c>
-      <c r="G267" s="3">
-        <v>3.96</v>
-      </c>
-      <c r="H267" s="6">
+        <v>741</v>
+      </c>
+      <c r="G267" s="7">
+        <v>24.91</v>
+      </c>
+      <c r="H267" s="3">
         <v>1800</v>
       </c>
     </row>
@@ -25949,18 +26007,23 @@
       <c r="A268" s="100" t="s">
         <v>333</v>
       </c>
+      <c r="B268"/>
+      <c r="C268"/>
       <c r="D268">
         <f t="shared" si="21"/>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E268" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="F268" t="s">
-        <v>743</v>
-      </c>
-      <c r="G268" s="20">
-        <v>55.9</v>
+        <v>750</v>
+      </c>
+      <c r="G268" s="3">
+        <v>3.96</v>
+      </c>
+      <c r="H268" s="6">
+        <v>1800</v>
       </c>
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.25">
@@ -25969,16 +26032,16 @@
       </c>
       <c r="D269">
         <f t="shared" si="21"/>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E269" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="F269" t="s">
-        <v>733</v>
-      </c>
-      <c r="G269" s="3">
-        <v>22.03</v>
+        <v>743</v>
+      </c>
+      <c r="G269" s="20">
+        <v>55.9</v>
       </c>
     </row>
     <row r="270" spans="1:31" x14ac:dyDescent="0.25">
@@ -25987,16 +26050,16 @@
       </c>
       <c r="D270">
         <f t="shared" si="21"/>
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E270" t="s">
-        <v>1848</v>
+        <v>732</v>
       </c>
       <c r="F270" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G270" s="17">
-        <v>2628.9</v>
+        <v>733</v>
+      </c>
+      <c r="G270" s="3">
+        <v>22.03</v>
       </c>
     </row>
     <row r="271" spans="1:31" x14ac:dyDescent="0.25">
@@ -26005,16 +26068,16 @@
       </c>
       <c r="D271">
         <f t="shared" si="21"/>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E271" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F271" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G271" s="18">
-        <v>404.2</v>
+        <v>1849</v>
+      </c>
+      <c r="G271" s="17">
+        <v>2628.9</v>
       </c>
     </row>
     <row r="272" spans="1:31" x14ac:dyDescent="0.25">
@@ -26023,16 +26086,16 @@
       </c>
       <c r="D272">
         <f t="shared" si="21"/>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E272" t="s">
-        <v>728</v>
+        <v>1850</v>
       </c>
       <c r="F272" t="s">
-        <v>729</v>
-      </c>
-      <c r="G272" s="3">
-        <v>9.44</v>
+        <v>1851</v>
+      </c>
+      <c r="G272" s="18">
+        <v>404.2</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -26041,16 +26104,16 @@
       </c>
       <c r="D273">
         <f t="shared" si="21"/>
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E273" t="s">
-        <v>1879</v>
+        <v>728</v>
       </c>
       <c r="F273" t="s">
-        <v>1880</v>
+        <v>729</v>
       </c>
       <c r="G273" s="3">
-        <v>11.73</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -26059,16 +26122,16 @@
       </c>
       <c r="D274">
         <f t="shared" si="21"/>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>1879</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
-      </c>
-      <c r="G274" s="7">
-        <v>18.79</v>
+        <v>1880</v>
+      </c>
+      <c r="G274" s="3">
+        <v>11.73</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -26077,16 +26140,16 @@
       </c>
       <c r="D275">
         <f t="shared" si="21"/>
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E275" t="s">
-        <v>1881</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>1882</v>
+        <v>524</v>
       </c>
       <c r="G275" s="7">
-        <v>8.5399999999999991</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -26095,16 +26158,16 @@
       </c>
       <c r="D276">
         <f t="shared" si="21"/>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E276" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="F276" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="G276" s="7">
-        <v>17.62</v>
+        <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -26113,34 +26176,34 @@
       </c>
       <c r="D277">
         <f t="shared" si="21"/>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E277" t="s">
-        <v>786</v>
+        <v>1889</v>
       </c>
       <c r="F277" t="s">
-        <v>787</v>
-      </c>
-      <c r="G277" s="18">
-        <v>73.349999999999994</v>
+        <v>1890</v>
+      </c>
+      <c r="G277" s="7">
+        <v>17.62</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="87" t="s">
+      <c r="A278" s="100" t="s">
         <v>333</v>
       </c>
       <c r="D278">
         <f t="shared" si="21"/>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E278" t="s">
-        <v>1887</v>
+        <v>786</v>
       </c>
       <c r="F278" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G278" s="3">
-        <v>11.38</v>
+        <v>787</v>
+      </c>
+      <c r="G278" s="18">
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -26149,16 +26212,16 @@
       </c>
       <c r="D279">
         <f t="shared" si="21"/>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E279" t="s">
-        <v>536</v>
+        <v>1887</v>
       </c>
       <c r="F279" t="s">
-        <v>537</v>
+        <v>1888</v>
       </c>
       <c r="G279" s="3">
-        <v>51.01</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -26167,54 +26230,54 @@
       </c>
       <c r="D280">
         <f t="shared" si="21"/>
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E280" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="F280" t="s">
-        <v>553</v>
-      </c>
-      <c r="G280" s="7">
-        <v>5.49</v>
+        <v>537</v>
+      </c>
+      <c r="G280" s="3">
+        <v>51.01</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B281"/>
-      <c r="C281"/>
       <c r="D281">
         <f t="shared" si="21"/>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E281" t="s">
-        <v>1427</v>
+        <v>552</v>
       </c>
       <c r="F281" t="s">
-        <v>1845</v>
+        <v>553</v>
       </c>
       <c r="G281" s="7">
-        <v>21.16</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="87" t="s">
         <v>333</v>
       </c>
+      <c r="B282"/>
+      <c r="C282"/>
       <c r="D282">
         <f t="shared" si="21"/>
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E282" t="s">
-        <v>554</v>
+        <v>1427</v>
       </c>
       <c r="F282" t="s">
-        <v>555</v>
-      </c>
-      <c r="G282" s="3">
-        <v>2.38</v>
+        <v>1845</v>
+      </c>
+      <c r="G282" s="7">
+        <v>21.16</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -26223,139 +26286,139 @@
       </c>
       <c r="D283">
         <f t="shared" si="21"/>
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E283" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G283" s="3">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B284" s="1">
-        <v>-9</v>
-      </c>
-      <c r="C284" s="1">
-        <v>7</v>
-      </c>
       <c r="D284">
         <f t="shared" si="21"/>
+        <v>272</v>
+      </c>
+      <c r="E284" t="s">
+        <v>558</v>
+      </c>
+      <c r="F284" t="s">
+        <v>559</v>
+      </c>
+      <c r="G284" s="3">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B285" s="1">
+        <v>-9</v>
+      </c>
+      <c r="C285" s="1">
+        <v>7</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="21"/>
         <v>273</v>
       </c>
-      <c r="E284" s="5" t="s">
+      <c r="E285" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F285" t="s">
         <v>568</v>
       </c>
-      <c r="G284" s="3">
+      <c r="G285" s="3">
         <v>2.58</v>
       </c>
-      <c r="H284" s="6">
-        <f>+G284*L284</f>
+      <c r="H285" s="6">
+        <f>+G285*L285</f>
         <v>59.882772660000008</v>
       </c>
-      <c r="I284" s="6">
+      <c r="I285" s="6">
         <f>+[140]Main!$M$5-[140]Main!$M$6</f>
         <v>19.337</v>
       </c>
-      <c r="J284" s="6">
-        <f>+H284-I284</f>
+      <c r="J285" s="6">
+        <f>+H285-I285</f>
         <v>40.545772660000011</v>
       </c>
-      <c r="K284" s="3" t="s">
+      <c r="K285" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="L284" s="6">
+      <c r="L285" s="6">
         <f>+[140]Main!$M$3</f>
         <v>23.210377000000001</v>
       </c>
-      <c r="M284" s="9">
+      <c r="M285" s="9">
         <v>45684</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D285">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D286">
         <f t="shared" si="21"/>
         <v>274</v>
       </c>
-      <c r="E285" s="5" t="s">
+      <c r="E286" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F286" t="s">
         <v>1978</v>
       </c>
-      <c r="G285" s="3">
+      <c r="G286" s="3">
         <v>9.15</v>
       </c>
-      <c r="H285" s="6">
-        <f>+G285*L285</f>
+      <c r="H286" s="6">
+        <f>+G286*L286</f>
         <v>294.58740675000001</v>
       </c>
-      <c r="I285" s="6">
+      <c r="I286" s="6">
         <f>+[141]Main!$K$5-[141]Main!$K$6</f>
         <v>144.56900000000002</v>
       </c>
-      <c r="J285" s="6">
-        <f>+H285-I285</f>
+      <c r="J286" s="6">
+        <f>+H286-I286</f>
         <v>150.01840675</v>
       </c>
-      <c r="K285" s="3" t="s">
+      <c r="K286" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="L285" s="6">
+      <c r="L286" s="6">
         <f>+[141]Main!$K$3</f>
         <v>32.195345000000003</v>
       </c>
-      <c r="M285" s="9">
+      <c r="M286" s="9">
         <v>45824</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="C286"/>
-      <c r="D286">
-        <f t="shared" si="21"/>
-        <v>275</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G286" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="H286" s="6">
-        <v>1880</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="87" t="s">
         <v>333</v>
       </c>
+      <c r="C287"/>
       <c r="D287">
         <f t="shared" si="21"/>
-        <v>276</v>
-      </c>
-      <c r="E287" t="s">
-        <v>800</v>
-      </c>
-      <c r="F287" t="s">
-        <v>801</v>
-      </c>
-      <c r="G287" s="3">
-        <v>6.56</v>
+        <v>275</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G287" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="H287" s="6">
+        <v>1880</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -26364,16 +26427,16 @@
       </c>
       <c r="D288">
         <f t="shared" si="21"/>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E288" t="s">
-        <v>1956</v>
+        <v>800</v>
       </c>
       <c r="F288" t="s">
-        <v>1957</v>
+        <v>801</v>
       </c>
       <c r="G288" s="3">
-        <v>3.19</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.25">
@@ -26382,16 +26445,16 @@
       </c>
       <c r="D289">
         <f t="shared" si="21"/>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E289" t="s">
-        <v>1904</v>
+        <v>1956</v>
       </c>
       <c r="F289" t="s">
-        <v>1905</v>
+        <v>1957</v>
       </c>
       <c r="G289" s="3">
-        <v>9.7799999999999994</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
@@ -26400,16 +26463,16 @@
       </c>
       <c r="D290">
         <f t="shared" si="21"/>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E290" t="s">
-        <v>977</v>
+        <v>1904</v>
       </c>
       <c r="F290" t="s">
-        <v>978</v>
+        <v>1905</v>
       </c>
       <c r="G290" s="3">
-        <v>2.76</v>
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.25">
@@ -26418,16 +26481,16 @@
       </c>
       <c r="D291">
         <f t="shared" si="21"/>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E291" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F291" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G291" s="3">
-        <v>0.98</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
@@ -26436,16 +26499,16 @@
       </c>
       <c r="D292">
         <f t="shared" si="21"/>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E292" t="s">
-        <v>1938</v>
+        <v>975</v>
       </c>
       <c r="F292" t="s">
-        <v>1939</v>
+        <v>976</v>
       </c>
       <c r="G292" s="3">
-        <v>6.77</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.25">
@@ -26454,36 +26517,34 @@
       </c>
       <c r="D293">
         <f t="shared" si="21"/>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E293" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F293" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="G293" s="3">
-        <v>6.99</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A294" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B294"/>
-      <c r="C294"/>
       <c r="D294">
         <f t="shared" si="21"/>
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E294" t="s">
-        <v>985</v>
+        <v>1940</v>
       </c>
       <c r="F294" t="s">
-        <v>986</v>
+        <v>1941</v>
       </c>
       <c r="G294" s="3">
-        <v>0.88</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
@@ -26494,16 +26555,16 @@
       <c r="C295"/>
       <c r="D295">
         <f t="shared" si="21"/>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E295" t="s">
-        <v>1970</v>
+        <v>985</v>
       </c>
       <c r="F295" t="s">
-        <v>1971</v>
+        <v>986</v>
       </c>
       <c r="G295" s="3">
-        <v>3.15</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.25">
@@ -26514,111 +26575,113 @@
       <c r="C296"/>
       <c r="D296">
         <f t="shared" si="21"/>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E296" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="F296" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="G296" s="3">
-        <v>5.48</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="87" t="s">
         <v>333</v>
       </c>
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297">
         <f t="shared" si="21"/>
+        <v>285</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G297" s="3">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>333</v>
+      </c>
+      <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298">
+        <f t="shared" si="21"/>
         <v>286</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E298" t="s">
         <v>987</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F298" t="s">
         <v>988</v>
       </c>
-      <c r="G297" s="3">
+      <c r="G298" s="3">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="298" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A298" s="33" t="s">
+    <row r="299" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A299" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D298" s="33">
+      <c r="D299" s="33">
         <f t="shared" si="21"/>
         <v>287</v>
       </c>
-      <c r="E298" s="33" t="s">
+      <c r="E299" s="33" t="s">
         <v>973</v>
       </c>
-      <c r="F298" s="33" t="s">
+      <c r="F299" s="33" t="s">
         <v>974</v>
       </c>
-      <c r="G298" s="58"/>
-      <c r="H298" s="58"/>
-      <c r="I298" s="58"/>
-      <c r="J298" s="58"/>
-      <c r="K298" s="58"/>
-      <c r="L298" s="58"/>
-      <c r="M298" s="58"/>
-      <c r="N298" s="58"/>
-      <c r="O298" s="58"/>
-      <c r="P298" s="58"/>
-      <c r="Q298" s="58"/>
-      <c r="R298" s="58"/>
-      <c r="S298" s="60"/>
-      <c r="T298" s="60"/>
-      <c r="U298" s="60"/>
-      <c r="V298" s="60"/>
-      <c r="W298" s="60"/>
-      <c r="X298" s="60"/>
-      <c r="Y298" s="108"/>
-      <c r="Z298" s="108"/>
-      <c r="AA298" s="108"/>
-      <c r="AB298" s="108"/>
-      <c r="AC298" s="108"/>
-      <c r="AD298" s="108"/>
-    </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="G299" s="58"/>
+      <c r="H299" s="58"/>
+      <c r="I299" s="58"/>
+      <c r="J299" s="58"/>
+      <c r="K299" s="58"/>
+      <c r="L299" s="58"/>
+      <c r="M299" s="58"/>
+      <c r="N299" s="58"/>
+      <c r="O299" s="58"/>
+      <c r="P299" s="58"/>
+      <c r="Q299" s="58"/>
+      <c r="R299" s="58"/>
+      <c r="S299" s="60"/>
+      <c r="T299" s="60"/>
+      <c r="U299" s="60"/>
+      <c r="V299" s="60"/>
+      <c r="W299" s="60"/>
+      <c r="X299" s="60"/>
+      <c r="Y299" s="108"/>
+      <c r="Z299" s="108"/>
+      <c r="AA299" s="108"/>
+      <c r="AB299" s="108"/>
+      <c r="AC299" s="108"/>
+      <c r="AD299" s="108"/>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D299">
+      <c r="D300">
         <f t="shared" si="21"/>
         <v>288</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E300" t="s">
         <v>572</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F300" t="s">
         <v>573</v>
       </c>
-      <c r="G299" s="7">
+      <c r="G300" s="7">
         <v>1.35</v>
-      </c>
-    </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A300" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="D300">
-        <f t="shared" si="21"/>
-        <v>289</v>
-      </c>
-      <c r="E300" t="s">
-        <v>576</v>
-      </c>
-      <c r="F300" t="s">
-        <v>577</v>
-      </c>
-      <c r="G300" s="3">
-        <v>3.17</v>
       </c>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.25">
@@ -26627,76 +26690,52 @@
       </c>
       <c r="D301">
         <f t="shared" si="21"/>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E301" t="s">
-        <v>1974</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
-        <v>1975</v>
+        <v>577</v>
       </c>
       <c r="G301" s="3">
-        <v>8.0500000000000007</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A302" s="100" t="s">
+      <c r="A302" s="87" t="s">
         <v>333</v>
       </c>
       <c r="D302">
         <f t="shared" si="21"/>
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E302" t="s">
-        <v>580</v>
+        <v>1974</v>
       </c>
       <c r="F302" t="s">
-        <v>581</v>
+        <v>1975</v>
       </c>
       <c r="G302" s="3">
-        <v>3.69</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="B303"/>
-      <c r="C303"/>
       <c r="D303">
         <f t="shared" si="21"/>
-        <v>292</v>
-      </c>
-      <c r="E303" s="5" t="s">
-        <v>883</v>
+        <v>291</v>
+      </c>
+      <c r="E303" t="s">
+        <v>580</v>
       </c>
       <c r="F303" t="s">
-        <v>884</v>
-      </c>
-      <c r="G303" s="7">
-        <v>8.52</v>
-      </c>
-      <c r="H303" s="6">
-        <f>+G303*L303</f>
-        <v>379.71368568000003</v>
-      </c>
-      <c r="I303" s="6">
-        <f>+[142]Main!$M$5-[142]Main!$M$6</f>
-        <v>99.997</v>
-      </c>
-      <c r="J303" s="6">
-        <f>+H303-I303</f>
-        <v>279.71668568000001</v>
-      </c>
-      <c r="K303" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L303" s="6">
-        <f>+[142]Main!$M$3</f>
-        <v>44.567334000000002</v>
-      </c>
-      <c r="M303" s="9">
-        <v>45568</v>
+        <v>581</v>
+      </c>
+      <c r="G303" s="3">
+        <v>3.69</v>
       </c>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
@@ -26707,200 +26746,202 @@
       <c r="C304"/>
       <c r="D304">
         <f t="shared" si="21"/>
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="F304" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="G304" s="7">
-        <v>13.04</v>
+        <v>8.52</v>
       </c>
       <c r="H304" s="6">
         <f>+G304*L304</f>
-        <v>563.52975487999993</v>
+        <v>379.71368568000003</v>
       </c>
       <c r="I304" s="6">
-        <f>+[143]Main!$K$5-[143]Main!$K$6</f>
-        <v>174.27199999999999</v>
+        <f>+[142]Main!$M$5-[142]Main!$M$6</f>
+        <v>99.997</v>
       </c>
       <c r="J304" s="6">
         <f>+H304-I304</f>
-        <v>389.25775487999994</v>
+        <v>279.71668568000001</v>
       </c>
       <c r="K304" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="L304" s="6">
-        <f>+[143]Main!$K$3</f>
-        <v>43.215471999999998</v>
+        <f>+[142]Main!$M$3</f>
+        <v>44.567334000000002</v>
       </c>
       <c r="M304" s="9">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="305" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A305" s="100" t="s">
         <v>333</v>
       </c>
+      <c r="B305"/>
+      <c r="C305"/>
       <c r="D305">
         <f t="shared" si="21"/>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>584</v>
+        <v>867</v>
       </c>
       <c r="F305" t="s">
-        <v>585</v>
+        <v>868</v>
       </c>
       <c r="G305" s="7">
-        <v>60.31</v>
+        <v>13.04</v>
       </c>
       <c r="H305" s="6">
-        <f>G305*L305</f>
-        <v>1194.09922067</v>
+        <f>+G305*L305</f>
+        <v>563.52975487999993</v>
       </c>
       <c r="I305" s="6">
-        <f>[144]Main!$M$5-[144]Main!$M$6</f>
-        <v>236.422</v>
+        <f>+[143]Main!$K$5-[143]Main!$K$6</f>
+        <v>174.27199999999999</v>
       </c>
       <c r="J305" s="6">
-        <f>H305-I305</f>
-        <v>957.67722067</v>
+        <f>+H305-I305</f>
+        <v>389.25775487999994</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>1069</v>
       </c>
       <c r="L305" s="6">
-        <f>[144]Main!$M$3</f>
-        <v>19.799357000000001</v>
+        <f>+[143]Main!$K$3</f>
+        <v>43.215471999999998</v>
       </c>
       <c r="M305" s="9">
-        <v>45063</v>
-      </c>
-      <c r="AE305" s="1">
-        <v>2017</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="306" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A306" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="B306"/>
-      <c r="C306"/>
       <c r="D306">
         <f t="shared" si="21"/>
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>937</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>938</v>
-      </c>
-      <c r="G306" s="3">
-        <v>10.35</v>
+        <v>585</v>
+      </c>
+      <c r="G306" s="7">
+        <v>60.31</v>
       </c>
       <c r="H306" s="6">
-        <f>+G306*L306</f>
-        <v>553.91347350000001</v>
+        <f>G306*L306</f>
+        <v>1194.09922067</v>
       </c>
       <c r="I306" s="6">
-        <f>+[145]Main!$K$5-[145]Main!$K$6</f>
-        <v>280.24800000000005</v>
+        <f>[144]Main!$M$5-[144]Main!$M$6</f>
+        <v>236.422</v>
       </c>
       <c r="J306" s="6">
-        <f>+H306-I306</f>
-        <v>273.66547349999996</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>1069</v>
+        <f>H306-I306</f>
+        <v>957.67722067</v>
       </c>
       <c r="L306" s="6">
-        <f>+[145]Main!$K$3</f>
-        <v>53.518210000000003</v>
+        <f>[144]Main!$M$3</f>
+        <v>19.799357000000001</v>
       </c>
       <c r="M306" s="9">
-        <v>45557</v>
+        <v>45063</v>
+      </c>
+      <c r="AE306" s="1">
+        <v>2017</v>
       </c>
     </row>
     <row r="307" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A307" s="100" t="s">
         <v>333</v>
       </c>
+      <c r="B307"/>
+      <c r="C307"/>
       <c r="D307">
         <f t="shared" si="21"/>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>574</v>
+        <v>937</v>
       </c>
       <c r="F307" t="s">
-        <v>575</v>
+        <v>938</v>
       </c>
       <c r="G307" s="3">
-        <v>7.43</v>
+        <v>10.35</v>
       </c>
       <c r="H307" s="6">
         <f>+G307*L307</f>
+        <v>553.91347350000001</v>
+      </c>
+      <c r="I307" s="6">
+        <f>+[145]Main!$K$5-[145]Main!$K$6</f>
+        <v>280.24800000000005</v>
+      </c>
+      <c r="J307" s="6">
+        <f>+H307-I307</f>
+        <v>273.66547349999996</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L307" s="6">
+        <f>+[145]Main!$K$3</f>
+        <v>53.518210000000003</v>
+      </c>
+      <c r="M307" s="9">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A308" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="21"/>
+        <v>296</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F308" t="s">
+        <v>575</v>
+      </c>
+      <c r="G308" s="3">
+        <v>7.43</v>
+      </c>
+      <c r="H308" s="6">
+        <f>+G308*L308</f>
         <v>539.35794331</v>
       </c>
-      <c r="I307" s="6">
+      <c r="I308" s="6">
         <f>+[146]Main!$J$5-[146]Main!$J$6</f>
         <v>69.49499999999999</v>
       </c>
-      <c r="J307" s="6">
-        <f>+H307-I307</f>
+      <c r="J308" s="6">
+        <f>+H308-I308</f>
         <v>469.86294330999999</v>
       </c>
-      <c r="K307" s="3" t="s">
+      <c r="K308" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="L307" s="6">
+      <c r="L308" s="6">
         <f>+[146]Main!$J$3</f>
         <v>72.591916999999995</v>
       </c>
-      <c r="M307" s="9">
+      <c r="M308" s="9">
         <v>45548</v>
-      </c>
-    </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A308"/>
-      <c r="B308"/>
-      <c r="C308"/>
-      <c r="D308">
-        <f t="shared" si="21"/>
-        <v>297</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F308" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G308" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="H308" s="6">
-        <f>+G308*L308</f>
-        <v>31.393140239999997</v>
-      </c>
-      <c r="I308" s="6">
-        <f>+[147]Main!$K$5-[147]Main!$K$6</f>
-        <v>29.36</v>
-      </c>
-      <c r="J308" s="6">
-        <f>+H308-I308</f>
-        <v>2.033140239999998</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L308" s="6">
-        <f>+[147]Main!$K$3</f>
-        <v>74.745571999999996</v>
-      </c>
-      <c r="M308" s="9">
-        <v>45554</v>
       </c>
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.25">
@@ -26909,228 +26950,229 @@
       <c r="C309"/>
       <c r="D309">
         <f t="shared" si="21"/>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="F309" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G309" s="3">
-        <v>0.53</v>
+        <v>1167</v>
+      </c>
+      <c r="G309" s="7">
+        <v>0.42</v>
       </c>
       <c r="H309" s="6">
         <f>+G309*L309</f>
+        <v>31.393140239999997</v>
+      </c>
+      <c r="I309" s="6">
+        <f>+[147]Main!$K$5-[147]Main!$K$6</f>
+        <v>29.36</v>
+      </c>
+      <c r="J309" s="6">
+        <f>+H309-I309</f>
+        <v>2.033140239999998</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L309" s="6">
+        <f>+[147]Main!$K$3</f>
+        <v>74.745571999999996</v>
+      </c>
+      <c r="M309" s="9">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310">
+        <f t="shared" si="21"/>
+        <v>298</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G310" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="H310" s="6">
+        <f>+G310*L310</f>
         <v>46.809238010000001</v>
       </c>
-      <c r="I309" s="6">
+      <c r="I310" s="6">
         <f>+[148]Main!$L$5-[148]Main!$L$6</f>
         <v>14.502000000000001</v>
       </c>
-      <c r="J309" s="6">
-        <f>+H309-I309</f>
+      <c r="J310" s="6">
+        <f>+H310-I310</f>
         <v>32.307238009999999</v>
       </c>
-      <c r="K309" s="3" t="s">
+      <c r="K310" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="L309" s="6">
+      <c r="L310" s="6">
         <f>+[148]Main!$L$3</f>
         <v>88.319316999999998</v>
       </c>
-      <c r="M309" s="9">
+      <c r="M310" s="9">
         <v>45558</v>
       </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D310">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D311">
         <f t="shared" si="21"/>
         <v>299</v>
       </c>
-      <c r="E310" s="5" t="s">
+      <c r="E311" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F311" t="s">
         <v>587</v>
       </c>
-      <c r="G310" s="3">
+      <c r="G311" s="3">
         <v>0.33</v>
       </c>
-      <c r="H310" s="6">
-        <f>G310*L310</f>
+      <c r="H311" s="6">
+        <f>G311*L311</f>
         <v>11.798145480000001</v>
       </c>
-      <c r="I310" s="6">
+      <c r="I311" s="6">
         <f>[149]Main!$K$5-[149]Main!$K$6</f>
         <v>54.983000000000004</v>
       </c>
-      <c r="J310" s="6">
-        <f>H310-I310</f>
+      <c r="J311" s="6">
+        <f>H311-I311</f>
         <v>-43.184854520000002</v>
       </c>
-      <c r="L310" s="6">
+      <c r="L311" s="6">
         <f>[149]Main!$K$3</f>
         <v>35.751956</v>
       </c>
-      <c r="M310" s="9">
+      <c r="M311" s="9">
         <v>45063</v>
       </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A311" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="B311"/>
-      <c r="C311"/>
-      <c r="D311">
-        <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="F311" t="s">
-        <v>980</v>
-      </c>
-      <c r="G311" s="7">
-        <v>22.62</v>
-      </c>
-      <c r="H311" s="6">
-        <f>+G311*L311</f>
-        <v>280.64416546399997</v>
-      </c>
-      <c r="I311" s="6">
-        <f>[150]Main!$I$5-[150]Main!$I$6</f>
-        <v>220.65100000000001</v>
-      </c>
-      <c r="J311" s="6">
-        <f>+H311-I311</f>
-        <v>59.993165463999958</v>
-      </c>
-      <c r="K311" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="L311" s="6">
-        <f>+[150]Main!$I$3</f>
-        <v>12.406903866666665</v>
-      </c>
-      <c r="M311" s="9">
-        <v>45810</v>
-      </c>
-    </row>
     <row r="312" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A312" s="100" t="s">
+      <c r="A312" s="87" t="s">
         <v>333</v>
       </c>
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312">
         <f t="shared" si="21"/>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>933</v>
+        <v>979</v>
       </c>
       <c r="F312" t="s">
-        <v>934</v>
+        <v>980</v>
       </c>
       <c r="G312" s="7">
-        <v>2.06</v>
+        <v>22.62</v>
       </c>
       <c r="H312" s="6">
         <f>+G312*L312</f>
+        <v>280.64416546399997</v>
+      </c>
+      <c r="I312" s="6">
+        <f>[150]Main!$I$5-[150]Main!$I$6</f>
+        <v>220.65100000000001</v>
+      </c>
+      <c r="J312" s="6">
+        <f>+H312-I312</f>
+        <v>59.993165463999958</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L312" s="6">
+        <f>+[150]Main!$I$3</f>
+        <v>12.406903866666665</v>
+      </c>
+      <c r="M312" s="9">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A313" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313">
+        <f t="shared" si="21"/>
+        <v>301</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F313" t="s">
+        <v>934</v>
+      </c>
+      <c r="G313" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="H313" s="6">
+        <f>+G313*L313</f>
         <v>145.35103323999999</v>
       </c>
-      <c r="I312" s="6">
+      <c r="I313" s="6">
         <f>+[151]Main!$K$5-[151]Main!$K$6</f>
         <v>426.65000000000003</v>
       </c>
-      <c r="J312" s="6">
-        <f>+H312-I312</f>
+      <c r="J313" s="6">
+        <f>+H313-I313</f>
         <v>-281.29896676000004</v>
       </c>
-      <c r="K312" s="3" t="s">
+      <c r="K313" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="L312" s="6">
+      <c r="L313" s="6">
         <f>+[151]Main!$K$3</f>
         <v>70.558753999999993</v>
       </c>
-      <c r="M312" s="9">
+      <c r="M313" s="9">
         <v>45564</v>
       </c>
-      <c r="AE312" s="1">
+      <c r="AE313" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D313">
+      <c r="D314">
         <f t="shared" si="21"/>
         <v>302</v>
       </c>
-      <c r="E313" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F313" s="1" t="s">
+      <c r="F314" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G313" s="109">
+      <c r="G314" s="109">
         <v>30.45</v>
       </c>
     </row>
-    <row r="314" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D314" s="33">
-        <f t="shared" ref="D314:D379" si="25">+D313+1</f>
+    <row r="315" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D315" s="33">
+        <f t="shared" ref="D315:D379" si="25">+D314+1</f>
         <v>303</v>
       </c>
-      <c r="E314" s="33" t="s">
+      <c r="E315" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="F314" s="33" t="s">
+      <c r="F315" s="33" t="s">
         <v>591</v>
-      </c>
-      <c r="G314" s="58"/>
-      <c r="H314" s="58"/>
-      <c r="I314" s="58"/>
-      <c r="J314" s="58"/>
-      <c r="K314" s="58"/>
-      <c r="L314" s="58"/>
-      <c r="M314" s="58"/>
-      <c r="N314" s="58"/>
-      <c r="O314" s="58"/>
-      <c r="P314" s="58"/>
-      <c r="Q314" s="58"/>
-      <c r="R314" s="58"/>
-      <c r="S314" s="60"/>
-      <c r="T314" s="60"/>
-      <c r="U314" s="60"/>
-      <c r="V314" s="60"/>
-      <c r="W314" s="60"/>
-      <c r="X314" s="60"/>
-      <c r="Y314" s="108"/>
-      <c r="Z314" s="108"/>
-      <c r="AA314" s="108"/>
-      <c r="AB314" s="108"/>
-      <c r="AC314" s="108"/>
-      <c r="AD314" s="108"/>
-    </row>
-    <row r="315" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A315" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D315" s="33">
-        <f t="shared" si="25"/>
-        <v>304</v>
-      </c>
-      <c r="E315" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="F315" s="33" t="s">
-        <v>593</v>
       </c>
       <c r="G315" s="58"/>
       <c r="H315" s="58"/>
@@ -27158,18 +27200,18 @@
       <c r="AD315" s="108"/>
     </row>
     <row r="316" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A316" s="107" t="s">
+      <c r="A316" s="33" t="s">
         <v>333</v>
       </c>
       <c r="D316" s="33">
         <f t="shared" si="25"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E316" s="33" t="s">
-        <v>448</v>
+        <v>592</v>
       </c>
       <c r="F316" s="33" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
       <c r="G316" s="58"/>
       <c r="H316" s="58"/>
@@ -27196,209 +27238,228 @@
       <c r="AC316" s="108"/>
       <c r="AD316" s="108"/>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D317">
+    <row r="317" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A317" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="D317" s="33">
+        <f t="shared" si="25"/>
+        <v>305</v>
+      </c>
+      <c r="E317" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="F317" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="G317" s="58"/>
+      <c r="H317" s="58"/>
+      <c r="I317" s="58"/>
+      <c r="J317" s="58"/>
+      <c r="K317" s="58"/>
+      <c r="L317" s="58"/>
+      <c r="M317" s="58"/>
+      <c r="N317" s="58"/>
+      <c r="O317" s="58"/>
+      <c r="P317" s="58"/>
+      <c r="Q317" s="58"/>
+      <c r="R317" s="58"/>
+      <c r="S317" s="60"/>
+      <c r="T317" s="60"/>
+      <c r="U317" s="60"/>
+      <c r="V317" s="60"/>
+      <c r="W317" s="60"/>
+      <c r="X317" s="60"/>
+      <c r="Y317" s="108"/>
+      <c r="Z317" s="108"/>
+      <c r="AA317" s="108"/>
+      <c r="AB317" s="108"/>
+      <c r="AC317" s="108"/>
+      <c r="AD317" s="108"/>
+    </row>
+    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D318">
         <f t="shared" si="25"/>
         <v>306</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E318" t="s">
         <v>1168</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F318" t="s">
         <v>1169</v>
       </c>
-      <c r="G317" s="3">
+      <c r="G318" s="3">
         <v>1.34</v>
       </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D318">
+      <c r="D319">
         <f t="shared" si="25"/>
         <v>307</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E319" t="s">
         <v>774</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F319" t="s">
         <v>775</v>
       </c>
-      <c r="G318" s="14">
+      <c r="G319" s="14">
         <v>3.22</v>
       </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
-      <c r="D319">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320">
         <f t="shared" si="25"/>
         <v>308</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E320" t="s">
         <v>1267</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F320" t="s">
         <v>1268</v>
       </c>
-      <c r="G319" s="7">
+      <c r="G320" s="7">
         <v>0.61</v>
       </c>
-      <c r="H319" s="6"/>
-    </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A320" s="100" t="s">
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A321" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="D320">
+      <c r="D321">
         <f t="shared" si="25"/>
         <v>309</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E321" t="s">
         <v>664</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F321" t="s">
         <v>665</v>
       </c>
-      <c r="G320" s="3">
+      <c r="G321" s="3">
         <v>13.15</v>
       </c>
     </row>
-    <row r="321" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A321" s="107" t="s">
+    <row r="322" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A322" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="D321" s="33">
+      <c r="D322" s="33">
         <f t="shared" si="25"/>
         <v>310</v>
       </c>
-      <c r="E321" s="33" t="s">
+      <c r="E322" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="F321" s="33" t="s">
+      <c r="F322" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="G321" s="58"/>
-      <c r="H321" s="58"/>
-      <c r="I321" s="58"/>
-      <c r="J321" s="58"/>
-      <c r="K321" s="58"/>
-      <c r="L321" s="58"/>
-      <c r="M321" s="58"/>
-      <c r="N321" s="58"/>
-      <c r="O321" s="58"/>
-      <c r="P321" s="58"/>
-      <c r="Q321" s="58"/>
-      <c r="R321" s="58"/>
-      <c r="S321" s="60"/>
-      <c r="T321" s="60"/>
-      <c r="U321" s="60"/>
-      <c r="V321" s="60"/>
-      <c r="W321" s="60"/>
-      <c r="X321" s="60"/>
-      <c r="Y321" s="108"/>
-      <c r="Z321" s="108"/>
-      <c r="AA321" s="108"/>
-      <c r="AB321" s="108"/>
-      <c r="AC321" s="108"/>
-      <c r="AD321" s="108"/>
-    </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A322" s="100"/>
-      <c r="B322"/>
-      <c r="C322"/>
-      <c r="D322">
+      <c r="G322" s="58"/>
+      <c r="H322" s="58"/>
+      <c r="I322" s="58"/>
+      <c r="J322" s="58"/>
+      <c r="K322" s="58"/>
+      <c r="L322" s="58"/>
+      <c r="M322" s="58"/>
+      <c r="N322" s="58"/>
+      <c r="O322" s="58"/>
+      <c r="P322" s="58"/>
+      <c r="Q322" s="58"/>
+      <c r="R322" s="58"/>
+      <c r="S322" s="60"/>
+      <c r="T322" s="60"/>
+      <c r="U322" s="60"/>
+      <c r="V322" s="60"/>
+      <c r="W322" s="60"/>
+      <c r="X322" s="60"/>
+      <c r="Y322" s="108"/>
+      <c r="Z322" s="108"/>
+      <c r="AA322" s="108"/>
+      <c r="AB322" s="108"/>
+      <c r="AC322" s="108"/>
+      <c r="AD322" s="108"/>
+    </row>
+    <row r="323" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A323" s="100"/>
+      <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323">
         <f t="shared" si="25"/>
         <v>311</v>
       </c>
-      <c r="E322" s="5" t="s">
+      <c r="E323" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F323" t="s">
         <v>1982</v>
       </c>
-      <c r="G322" s="3">
+      <c r="G323" s="3">
         <v>7.73</v>
       </c>
-      <c r="H322" s="6">
-        <f>+G322*L322</f>
+      <c r="H323" s="6">
+        <f>+G323*L323</f>
         <v>49.877036539999999</v>
       </c>
-      <c r="I322" s="6">
+      <c r="I323" s="6">
         <f>+[152]Main!$J$5-[152]Main!$J$6</f>
         <v>26.719000000000001</v>
       </c>
-      <c r="J322" s="6">
-        <f>+H322-I322</f>
+      <c r="J323" s="6">
+        <f>+H323-I323</f>
         <v>23.158036539999998</v>
       </c>
-      <c r="K322" s="3" t="s">
+      <c r="K323" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="L322" s="6">
+      <c r="L323" s="6">
         <f>[152]Main!$J$3</f>
         <v>6.4523979999999996</v>
       </c>
-      <c r="M322" s="9">
+      <c r="M323" s="9">
         <v>45847</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D323">
+      <c r="D324">
         <f t="shared" si="25"/>
         <v>312</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E324" t="s">
         <v>809</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F324" t="s">
         <v>810</v>
       </c>
-      <c r="G323" s="16">
+      <c r="G324" s="16">
         <v>3340</v>
-      </c>
-    </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A324" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="D324">
-        <f t="shared" si="25"/>
-        <v>313</v>
-      </c>
-      <c r="E324" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F324" t="s">
-        <v>1909</v>
-      </c>
-      <c r="G324" s="110">
-        <v>6.25</v>
       </c>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A325" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B325"/>
-      <c r="C325"/>
       <c r="D325">
         <f t="shared" si="25"/>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E325" t="s">
-        <v>815</v>
+        <v>1908</v>
       </c>
       <c r="F325" t="s">
-        <v>816</v>
-      </c>
-      <c r="G325" s="3">
-        <v>11.18</v>
+        <v>1909</v>
+      </c>
+      <c r="G325" s="110">
+        <v>6.25</v>
       </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.25">
@@ -27409,16 +27470,16 @@
       <c r="C326"/>
       <c r="D326">
         <f t="shared" si="25"/>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E326" t="s">
-        <v>1959</v>
+        <v>815</v>
       </c>
       <c r="F326" t="s">
-        <v>1958</v>
+        <v>816</v>
       </c>
       <c r="G326" s="3">
-        <v>2.62</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.25">
@@ -27428,17 +27489,17 @@
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327">
-        <f>+D251+1</f>
-        <v>241</v>
+        <f t="shared" si="25"/>
+        <v>315</v>
       </c>
       <c r="E327" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F327" t="s">
-        <v>1961</v>
-      </c>
-      <c r="G327" s="7">
-        <v>3.85</v>
+        <v>1958</v>
+      </c>
+      <c r="G327" s="3">
+        <v>2.62</v>
       </c>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.25">
@@ -27448,17 +27509,17 @@
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328">
-        <f t="shared" si="25"/>
-        <v>242</v>
+        <f>+D252+1</f>
+        <v>241</v>
       </c>
       <c r="E328" t="s">
-        <v>1910</v>
+        <v>1960</v>
       </c>
       <c r="F328" t="s">
-        <v>1911</v>
+        <v>1961</v>
       </c>
       <c r="G328" s="7">
-        <v>14.6</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.25">
@@ -27469,16 +27530,16 @@
       <c r="C329"/>
       <c r="D329">
         <f t="shared" si="25"/>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E329" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="F329" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G329" s="7">
-        <v>10.1</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.25">
@@ -27489,16 +27550,16 @@
       <c r="C330"/>
       <c r="D330">
         <f t="shared" si="25"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E330" t="s">
-        <v>817</v>
+        <v>1912</v>
       </c>
       <c r="F330" t="s">
-        <v>818</v>
-      </c>
-      <c r="G330" s="3">
-        <v>5.83</v>
+        <v>1913</v>
+      </c>
+      <c r="G330" s="7">
+        <v>10.1</v>
       </c>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.25">
@@ -27509,54 +27570,54 @@
       <c r="C331"/>
       <c r="D331">
         <f t="shared" si="25"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E331" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F331" t="s">
-        <v>814</v>
-      </c>
-      <c r="G331" s="14">
-        <v>61.2</v>
+        <v>818</v>
+      </c>
+      <c r="G331" s="3">
+        <v>5.83</v>
       </c>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A332" s="87"/>
+      <c r="A332" s="87" t="s">
+        <v>333</v>
+      </c>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332">
-        <f>D331</f>
+        <f t="shared" si="25"/>
         <v>245</v>
       </c>
       <c r="E332" t="s">
         <v>813</v>
       </c>
       <c r="F332" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G332" s="3">
-        <v>69.33</v>
+        <v>814</v>
+      </c>
+      <c r="G332" s="14">
+        <v>61.2</v>
       </c>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A333" s="87" t="s">
-        <v>333</v>
-      </c>
+      <c r="A333" s="87"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333">
-        <f t="shared" si="25"/>
-        <v>246</v>
+        <f>D332</f>
+        <v>245</v>
       </c>
       <c r="E333" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F333" t="s">
-        <v>812</v>
+        <v>1992</v>
       </c>
       <c r="G333" s="3">
-        <v>12.06</v>
+        <v>69.33</v>
       </c>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.25">
@@ -27567,92 +27628,94 @@
       <c r="C334"/>
       <c r="D334">
         <f t="shared" si="25"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E334" t="s">
-        <v>1925</v>
+        <v>811</v>
       </c>
       <c r="F334" t="s">
-        <v>1926</v>
+        <v>812</v>
       </c>
       <c r="G334" s="3">
-        <v>37.26</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A335" s="87" t="s">
         <v>333</v>
       </c>
+      <c r="B335"/>
+      <c r="C335"/>
       <c r="D335">
         <f t="shared" si="25"/>
+        <v>247</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G335" s="3">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A336" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="25"/>
         <v>248</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E336" t="s">
         <v>807</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F336" t="s">
         <v>808</v>
       </c>
-      <c r="G335" s="3">
+      <c r="G336" s="3">
         <v>7.38</v>
       </c>
     </row>
-    <row r="336" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A336" s="33" t="s">
+    <row r="337" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A337" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D336" s="33">
+      <c r="D337" s="33">
         <f t="shared" si="25"/>
         <v>249</v>
       </c>
-      <c r="E336" s="33" t="s">
+      <c r="E337" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="F336" s="33" t="s">
+      <c r="F337" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="G336" s="58"/>
-      <c r="H336" s="58"/>
-      <c r="I336" s="58"/>
-      <c r="J336" s="58"/>
-      <c r="K336" s="58"/>
-      <c r="L336" s="58"/>
-      <c r="M336" s="58"/>
-      <c r="N336" s="58"/>
-      <c r="O336" s="58"/>
-      <c r="P336" s="58"/>
-      <c r="Q336" s="58"/>
-      <c r="R336" s="58"/>
-      <c r="S336" s="60"/>
-      <c r="T336" s="60"/>
-      <c r="U336" s="60"/>
-      <c r="V336" s="60"/>
-      <c r="W336" s="60"/>
-      <c r="X336" s="60"/>
-      <c r="Y336" s="108"/>
-      <c r="Z336" s="108"/>
-      <c r="AA336" s="108"/>
-      <c r="AB336" s="108"/>
-      <c r="AC336" s="108"/>
-      <c r="AD336" s="108"/>
-    </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A337" s="100" t="s">
-        <v>333</v>
-      </c>
-      <c r="D337">
-        <f t="shared" si="25"/>
-        <v>250</v>
-      </c>
-      <c r="E337" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F337" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G337" s="3">
-        <v>31.31</v>
-      </c>
+      <c r="G337" s="58"/>
+      <c r="H337" s="58"/>
+      <c r="I337" s="58"/>
+      <c r="J337" s="58"/>
+      <c r="K337" s="58"/>
+      <c r="L337" s="58"/>
+      <c r="M337" s="58"/>
+      <c r="N337" s="58"/>
+      <c r="O337" s="58"/>
+      <c r="P337" s="58"/>
+      <c r="Q337" s="58"/>
+      <c r="R337" s="58"/>
+      <c r="S337" s="60"/>
+      <c r="T337" s="60"/>
+      <c r="U337" s="60"/>
+      <c r="V337" s="60"/>
+      <c r="W337" s="60"/>
+      <c r="X337" s="60"/>
+      <c r="Y337" s="108"/>
+      <c r="Z337" s="108"/>
+      <c r="AA337" s="108"/>
+      <c r="AB337" s="108"/>
+      <c r="AC337" s="108"/>
+      <c r="AD337" s="108"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A338" s="100" t="s">
@@ -27660,52 +27723,52 @@
       </c>
       <c r="D338">
         <f t="shared" si="25"/>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E338" t="s">
-        <v>736</v>
+        <v>1885</v>
       </c>
       <c r="F338" t="s">
-        <v>737</v>
+        <v>1886</v>
       </c>
       <c r="G338" s="3">
-        <v>11.26</v>
+        <v>31.31</v>
       </c>
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="100" t="s">
         <v>333</v>
       </c>
       <c r="D339">
         <f t="shared" si="25"/>
-        <v>252</v>
-      </c>
-      <c r="E339" s="5" t="s">
-        <v>734</v>
+        <v>251</v>
+      </c>
+      <c r="E339" t="s">
+        <v>736</v>
       </c>
       <c r="F339" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G339" s="3">
-        <v>1.61</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="340" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A340" s="100" t="s">
+      <c r="A340" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D340">
         <f t="shared" si="25"/>
-        <v>253</v>
-      </c>
-      <c r="E340" t="s">
-        <v>674</v>
+        <v>252</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="F340" t="s">
-        <v>675</v>
-      </c>
-      <c r="G340" s="7">
-        <v>53.6</v>
+        <v>735</v>
+      </c>
+      <c r="G340" s="3">
+        <v>1.61</v>
       </c>
     </row>
     <row r="341" spans="1:30" x14ac:dyDescent="0.25">
@@ -27715,7 +27778,7 @@
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341">
-        <f t="shared" si="25"/>
+        <f>+D251+1</f>
         <v>254</v>
       </c>
       <c r="E341" t="s">
@@ -33304,13 +33367,13 @@
     <hyperlink ref="E59" r:id="rId14" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="E31" r:id="rId15" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="E26" r:id="rId16" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="E262" r:id="rId17" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="E263" r:id="rId17" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
     <hyperlink ref="E500" r:id="rId18" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
     <hyperlink ref="E498" r:id="rId19" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
     <hyperlink ref="E501" r:id="rId20" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="E261" r:id="rId21" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="E262" r:id="rId21" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
     <hyperlink ref="E503" r:id="rId22" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="E256" r:id="rId23" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="E257" r:id="rId23" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
     <hyperlink ref="E502" r:id="rId24" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
     <hyperlink ref="E553" r:id="rId25" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="E55" r:id="rId26" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
@@ -33326,7 +33389,7 @@
     <hyperlink ref="E103" r:id="rId36" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
     <hyperlink ref="E64" r:id="rId37" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
     <hyperlink ref="E90" r:id="rId38" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
-    <hyperlink ref="E257" r:id="rId39" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
+    <hyperlink ref="E258" r:id="rId39" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
     <hyperlink ref="E160" r:id="rId40" xr:uid="{51C9506E-5D60-43F8-BADA-7F72A25DAFF6}"/>
     <hyperlink ref="E118" r:id="rId41" xr:uid="{9E4325F2-98CF-4735-96D0-66A9DC5A8E86}"/>
     <hyperlink ref="E546" r:id="rId42" xr:uid="{6D062383-838D-42C7-BFCD-E5C9DC258548}"/>
@@ -33365,8 +33428,8 @@
     <hyperlink ref="E107" r:id="rId75" xr:uid="{ED810682-5208-4265-9E0E-6746A399EA34}"/>
     <hyperlink ref="E166" r:id="rId76" xr:uid="{44DEB74A-F098-4876-A279-D1E6237DF8DB}"/>
     <hyperlink ref="E71" r:id="rId77" xr:uid="{ADF59BEC-B8D8-4144-ADEB-041425B69409}"/>
-    <hyperlink ref="E310" r:id="rId78" xr:uid="{69AB4316-2FED-44FC-B108-3CD00D6F57B9}"/>
-    <hyperlink ref="E305" r:id="rId79" xr:uid="{172C358D-5501-4447-9FDE-DA046F6FED55}"/>
+    <hyperlink ref="E311" r:id="rId78" xr:uid="{69AB4316-2FED-44FC-B108-3CD00D6F57B9}"/>
+    <hyperlink ref="E306" r:id="rId79" xr:uid="{172C358D-5501-4447-9FDE-DA046F6FED55}"/>
     <hyperlink ref="E115" r:id="rId80" xr:uid="{D181F941-FF02-423B-9F90-890B434046DD}"/>
     <hyperlink ref="E163" r:id="rId81" xr:uid="{1924D31B-B6B9-4CB2-936E-0F68E40FA2F5}"/>
     <hyperlink ref="E164" r:id="rId82" xr:uid="{8E97DA51-E6CD-4B11-B6F8-BD0A3CC93541}"/>
@@ -33391,18 +33454,18 @@
     <hyperlink ref="E47" r:id="rId101" xr:uid="{A9CCEE93-948C-4958-9273-229E876026E5}"/>
     <hyperlink ref="E62" r:id="rId102" xr:uid="{8A039020-76D6-4648-8559-2E66BD4069E8}"/>
     <hyperlink ref="E94" r:id="rId103" xr:uid="{7DEB18EF-0653-42AE-848B-1CD34B6185B1}"/>
-    <hyperlink ref="E307" r:id="rId104" xr:uid="{500E1EB4-5BFA-41DA-B498-9CADDCBC3BD8}"/>
+    <hyperlink ref="E308" r:id="rId104" xr:uid="{500E1EB4-5BFA-41DA-B498-9CADDCBC3BD8}"/>
     <hyperlink ref="E523" r:id="rId105" xr:uid="{DA843767-B487-45EC-B6B6-4CAF3C575C50}"/>
     <hyperlink ref="E504" r:id="rId106" xr:uid="{91A036B5-0E03-4930-B738-BF1C076ACF18}"/>
     <hyperlink ref="E109" r:id="rId107" xr:uid="{8068ED1A-3B17-4C79-9022-B1BEE306CC58}"/>
     <hyperlink ref="E98" r:id="rId108" xr:uid="{DEB94AB7-6F89-44AE-9C77-B3E2D1E51B70}"/>
-    <hyperlink ref="E308" r:id="rId109" xr:uid="{C5AE6E9D-13C3-40F4-80F9-EB86590BF332}"/>
+    <hyperlink ref="E309" r:id="rId109" xr:uid="{C5AE6E9D-13C3-40F4-80F9-EB86590BF332}"/>
     <hyperlink ref="E227" r:id="rId110" xr:uid="{47C928EF-242B-4B5F-9296-FA878004232C}"/>
     <hyperlink ref="E362" r:id="rId111" xr:uid="{B0C9190D-D136-462D-B004-BE374B10A4F0}"/>
     <hyperlink ref="E79" r:id="rId112" xr:uid="{1C0EAF20-C59C-4E14-90E0-E67EED291627}"/>
-    <hyperlink ref="E306" r:id="rId113" xr:uid="{820E74E5-32AF-43AF-A75C-37305E58D952}"/>
+    <hyperlink ref="E307" r:id="rId113" xr:uid="{820E74E5-32AF-43AF-A75C-37305E58D952}"/>
     <hyperlink ref="E100" r:id="rId114" xr:uid="{4A53B476-D8D4-4433-B5B3-B626DD5ECAA5}"/>
-    <hyperlink ref="E309" r:id="rId115" xr:uid="{0E69FC1D-F608-42EA-B683-C53C409C70F7}"/>
+    <hyperlink ref="E310" r:id="rId115" xr:uid="{0E69FC1D-F608-42EA-B683-C53C409C70F7}"/>
     <hyperlink ref="E167" r:id="rId116" xr:uid="{058DC54B-6F58-47B5-B00D-CB85499F0661}"/>
     <hyperlink ref="E168" r:id="rId117" xr:uid="{E3F91124-A68C-481A-9F88-5F0B403E12FC}"/>
     <hyperlink ref="E231" r:id="rId118" xr:uid="{879666A1-6AD0-495B-B29D-1523E9F3BF37}"/>
@@ -33410,17 +33473,17 @@
     <hyperlink ref="E125" r:id="rId120" xr:uid="{CEEF1ECE-36B3-482E-AA72-8B9DAE4D2730}"/>
     <hyperlink ref="E123" r:id="rId121" xr:uid="{80739158-DB58-4D0E-8015-4407904D5E4C}"/>
     <hyperlink ref="E63" r:id="rId122" xr:uid="{FAC64BC1-A38C-4704-8DED-7AC1F6D784BD}"/>
-    <hyperlink ref="E312" r:id="rId123" xr:uid="{B8FF6BDF-ECF2-42BA-996C-B33320BF3BB8}"/>
+    <hyperlink ref="E313" r:id="rId123" xr:uid="{B8FF6BDF-ECF2-42BA-996C-B33320BF3BB8}"/>
     <hyperlink ref="E124" r:id="rId124" xr:uid="{3C9F7D37-C376-486A-BD65-0A06F1A1BA4E}"/>
     <hyperlink ref="E76" r:id="rId125" xr:uid="{A739B306-7AF4-4BC1-B603-405E1AD42DA9}"/>
     <hyperlink ref="E70" r:id="rId126" xr:uid="{D16D1630-A1AE-4CF8-B35B-01F574ECC4EC}"/>
     <hyperlink ref="E83" r:id="rId127" xr:uid="{A96FF32D-8546-4297-AE3C-E279BBEB2988}"/>
     <hyperlink ref="E75" r:id="rId128" xr:uid="{B2C89E35-9AED-4A34-8767-FB6CD96F1DF7}"/>
     <hyperlink ref="E114" r:id="rId129" xr:uid="{7A0C9405-40F2-4CD9-999B-9032EC028C8E}"/>
-    <hyperlink ref="E304" r:id="rId130" xr:uid="{F79A5FA4-445D-4428-8347-8E6CA8EBA325}"/>
+    <hyperlink ref="E305" r:id="rId130" xr:uid="{F79A5FA4-445D-4428-8347-8E6CA8EBA325}"/>
     <hyperlink ref="E458" r:id="rId131" xr:uid="{C5162717-DEF1-45A6-BAF5-F5909C72945C}"/>
     <hyperlink ref="E545" r:id="rId132" xr:uid="{DCA25E80-5EA2-4E2F-B5AD-7E00734C912A}"/>
-    <hyperlink ref="E303" r:id="rId133" xr:uid="{6E543356-A92B-4C40-A4D8-0039FD9CF30E}"/>
+    <hyperlink ref="E304" r:id="rId133" xr:uid="{6E543356-A92B-4C40-A4D8-0039FD9CF30E}"/>
     <hyperlink ref="E230" r:id="rId134" xr:uid="{18B5F0EF-CE16-458F-B2EC-C055E9592268}"/>
     <hyperlink ref="E228" r:id="rId135" xr:uid="{8452EEB1-E3C6-4709-93A8-E45683AE4BD4}"/>
     <hyperlink ref="E77" r:id="rId136" xr:uid="{8515586A-C9D5-4B3A-AB81-567CAF8711D8}"/>
@@ -33430,11 +33493,11 @@
     <hyperlink ref="E92" r:id="rId140" xr:uid="{4455E1D2-0A06-49CD-B578-A39396AB2276}"/>
     <hyperlink ref="E95" r:id="rId141" xr:uid="{9DBA9CB6-4FFE-4633-8913-39BE132E7E63}"/>
     <hyperlink ref="E16" r:id="rId142" xr:uid="{60368EA6-8CB5-4BF4-AD11-2511F2B2CC10}"/>
-    <hyperlink ref="E259" r:id="rId143" xr:uid="{909F79D0-EDBD-44C4-8C45-548124C5C81A}"/>
+    <hyperlink ref="E260" r:id="rId143" xr:uid="{909F79D0-EDBD-44C4-8C45-548124C5C81A}"/>
     <hyperlink ref="E162" r:id="rId144" xr:uid="{0A7AB162-5181-4ECD-BE39-067356A9A255}"/>
     <hyperlink ref="E97" r:id="rId145" xr:uid="{A780315D-7EE1-43B1-808B-CA1A9B40DACC}"/>
     <hyperlink ref="E435" r:id="rId146" xr:uid="{6EE007AF-F0B0-4EED-9CDD-3FC2319822A5}"/>
-    <hyperlink ref="E258" r:id="rId147" xr:uid="{ED761473-51F4-41BF-8401-76685055518C}"/>
+    <hyperlink ref="E259" r:id="rId147" xr:uid="{ED761473-51F4-41BF-8401-76685055518C}"/>
     <hyperlink ref="E78" r:id="rId148" xr:uid="{7F559409-F96D-4010-8F92-37C722C2B828}"/>
     <hyperlink ref="E89" r:id="rId149" xr:uid="{C48A4FCA-0630-EF43-9EEC-B6CAB37EFE4F}"/>
     <hyperlink ref="E80" r:id="rId150" xr:uid="{96899701-8AB6-4B30-9017-19357666F340}"/>
@@ -33460,15 +33523,15 @@
     <hyperlink ref="E412" r:id="rId170" xr:uid="{778D749F-0610-418A-A963-ADCD5A226677}"/>
     <hyperlink ref="E451" r:id="rId171" xr:uid="{8E820BFC-E26B-4A27-A962-89FF7A10589B}"/>
     <hyperlink ref="E406" r:id="rId172" xr:uid="{3DD5CDF4-E650-429E-97DF-ABC116C3584D}"/>
-    <hyperlink ref="E339" r:id="rId173" xr:uid="{1292FD9E-BA4F-4B20-AD44-4B752114EEEF}"/>
+    <hyperlink ref="E340" r:id="rId173" xr:uid="{1292FD9E-BA4F-4B20-AD44-4B752114EEEF}"/>
     <hyperlink ref="E408" r:id="rId174" xr:uid="{35FB9AE4-5A31-48BA-9D76-BF10058F42EC}"/>
     <hyperlink ref="E365" r:id="rId175" xr:uid="{4C62C768-C471-4E03-BD75-AF60DDF17283}"/>
     <hyperlink ref="E85" r:id="rId176" xr:uid="{FCC7525B-426F-4D18-B356-CF6486A50A0F}"/>
     <hyperlink ref="E366" r:id="rId177" xr:uid="{3714C986-B632-4E2F-8857-1DCA6DFD79FD}"/>
-    <hyperlink ref="E260" r:id="rId178" xr:uid="{CE44BEA4-012D-4699-8F08-C58713DDB2BE}"/>
+    <hyperlink ref="E261" r:id="rId178" xr:uid="{CE44BEA4-012D-4699-8F08-C58713DDB2BE}"/>
     <hyperlink ref="E212" r:id="rId179" xr:uid="{0E4C0ACB-35E3-43D4-B0E1-F865F7ED59B8}"/>
     <hyperlink ref="E363" r:id="rId180" xr:uid="{5127CACD-341C-4DCA-B244-83466075BEBF}"/>
-    <hyperlink ref="E254" r:id="rId181" xr:uid="{3573C1AD-06BF-427D-B677-BD1F3CB3985C}"/>
+    <hyperlink ref="E255" r:id="rId181" xr:uid="{3573C1AD-06BF-427D-B677-BD1F3CB3985C}"/>
     <hyperlink ref="E20" r:id="rId182" xr:uid="{2A05959C-B3A5-4B78-ADA7-E471C7CE2630}"/>
     <hyperlink ref="E11" r:id="rId183" xr:uid="{3E3C29B0-B6B6-4941-A344-5D4A8066AA33}"/>
     <hyperlink ref="E14" r:id="rId184" xr:uid="{FE407E2D-0513-4C01-8F65-0FACC1AB5B97}"/>
@@ -33479,18 +33542,18 @@
     <hyperlink ref="E462" r:id="rId189" xr:uid="{FD546B4F-FF4A-4365-A9F1-25C43D119A98}"/>
     <hyperlink ref="E463" r:id="rId190" xr:uid="{FA2E0702-7573-4035-93EA-A0CE71143105}"/>
     <hyperlink ref="E99" r:id="rId191" xr:uid="{19D04C6A-EB12-4779-9BF1-8615419B9493}"/>
-    <hyperlink ref="E284" r:id="rId192" xr:uid="{F54AFBD3-3040-4478-815C-CC270DBC110E}"/>
+    <hyperlink ref="E285" r:id="rId192" xr:uid="{F54AFBD3-3040-4478-815C-CC270DBC110E}"/>
     <hyperlink ref="E165" r:id="rId193" xr:uid="{5741E758-F26D-41A7-976D-943D0B4BBA8C}"/>
     <hyperlink ref="E232" r:id="rId194" xr:uid="{46E08616-E182-4770-A0EC-E67C429D363A}"/>
     <hyperlink ref="E405" r:id="rId195" xr:uid="{25A8908D-5EB4-416E-B88A-983D1FDD66C7}"/>
     <hyperlink ref="E421" r:id="rId196" xr:uid="{63936724-7806-4858-BC51-BF317429A4D3}"/>
     <hyperlink ref="E430" r:id="rId197" xr:uid="{F7B60A92-FEBA-4956-8C32-3DAD1956FCBE}"/>
-    <hyperlink ref="E255" r:id="rId198" xr:uid="{BB2D6CB0-9710-43BE-9C9C-96D4CB00CC27}"/>
+    <hyperlink ref="E256" r:id="rId198" xr:uid="{BB2D6CB0-9710-43BE-9C9C-96D4CB00CC27}"/>
     <hyperlink ref="E374" r:id="rId199" xr:uid="{7EF10422-26D7-4738-A7D3-E7994A8DAA2B}"/>
     <hyperlink ref="E161" r:id="rId200" xr:uid="{F19BA876-8355-426C-9961-985F5221658A}"/>
     <hyperlink ref="E429" r:id="rId201" xr:uid="{C5D06361-EB49-48E0-A1D9-AF4AC610A623}"/>
-    <hyperlink ref="E252" r:id="rId202" xr:uid="{3EBF05D2-CB49-4743-B497-44F343FEF925}"/>
-    <hyperlink ref="E253" r:id="rId203" xr:uid="{9F744E11-79B1-41BF-84C3-9DB6AA9D6A0A}"/>
+    <hyperlink ref="E253" r:id="rId202" xr:uid="{3EBF05D2-CB49-4743-B497-44F343FEF925}"/>
+    <hyperlink ref="E254" r:id="rId203" xr:uid="{9F744E11-79B1-41BF-84C3-9DB6AA9D6A0A}"/>
     <hyperlink ref="E229" r:id="rId204" xr:uid="{89A3EC98-D13D-4CF4-A6D0-7CE019243966}"/>
     <hyperlink ref="E88" r:id="rId205" xr:uid="{64B386A5-32AA-479A-BF21-CAB85694C43C}"/>
     <hyperlink ref="E381" r:id="rId206" xr:uid="{C7EC599F-1BEA-45A7-9110-61C63AADB6EA}"/>
@@ -33500,19 +33563,20 @@
     <hyperlink ref="E108" r:id="rId210" xr:uid="{9F4AE380-FC68-48E0-95DA-205160A3646B}"/>
     <hyperlink ref="E170" r:id="rId211" xr:uid="{60CEAB5A-AEFD-4A1A-AE36-6388775884A6}"/>
     <hyperlink ref="E200" r:id="rId212" xr:uid="{D2FE86B3-4852-4B36-A676-E4C0EAECF9DF}"/>
-    <hyperlink ref="E311" r:id="rId213" xr:uid="{27C76475-566F-4D32-9C1A-13CA8106D463}"/>
-    <hyperlink ref="E285" r:id="rId214" xr:uid="{8FE86324-F4E0-40F3-A28B-942FDEC7D6E4}"/>
+    <hyperlink ref="E312" r:id="rId213" xr:uid="{27C76475-566F-4D32-9C1A-13CA8106D463}"/>
+    <hyperlink ref="E286" r:id="rId214" xr:uid="{8FE86324-F4E0-40F3-A28B-942FDEC7D6E4}"/>
     <hyperlink ref="E211" r:id="rId215" xr:uid="{B0DE8762-012E-4A0E-8BF3-E6C9446E18BD}"/>
-    <hyperlink ref="E322" r:id="rId216" xr:uid="{44177C56-7D67-4FF8-B936-0EF935FF1B5F}"/>
+    <hyperlink ref="E323" r:id="rId216" xr:uid="{44177C56-7D67-4FF8-B936-0EF935FF1B5F}"/>
     <hyperlink ref="E10" r:id="rId217" xr:uid="{CCC45DFB-BF73-4A15-8527-F4C3C617F472}"/>
     <hyperlink ref="E350" r:id="rId218" xr:uid="{CF64233D-5E27-4237-93F7-72F94CEED779}"/>
     <hyperlink ref="E373" r:id="rId219" xr:uid="{68F64B22-6B3E-4183-AD03-FDDABA17AC2B}"/>
-    <hyperlink ref="E251" r:id="rId220" xr:uid="{261A7145-1FA7-4DCC-A3A0-431B0C38DA5F}"/>
+    <hyperlink ref="E252" r:id="rId220" xr:uid="{261A7145-1FA7-4DCC-A3A0-431B0C38DA5F}"/>
     <hyperlink ref="E383" r:id="rId221" xr:uid="{0F5C85DD-60FC-4904-9B31-0E2B75B65546}"/>
+    <hyperlink ref="E251" r:id="rId222" xr:uid="{DDC7D031-978A-4A1F-9AD9-E06AB196A0CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId222"/>
-  <legacyDrawing r:id="rId223"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId223"/>
+  <legacyDrawing r:id="rId224"/>
 </worksheet>
 </file>
 
@@ -36427,94 +36491,94 @@
       <c r="ES7" s="73" t="s">
         <v>1734</v>
       </c>
-      <c r="ET7" s="127" t="s">
+      <c r="ET7" s="120" t="s">
         <v>1736</v>
       </c>
-      <c r="EU7" s="127" t="s">
+      <c r="EU7" s="120" t="s">
         <v>1736</v>
       </c>
-      <c r="EV7" s="127" t="s">
+      <c r="EV7" s="120" t="s">
         <v>1736</v>
       </c>
-      <c r="EW7" s="127" t="s">
+      <c r="EW7" s="120" t="s">
         <v>1736</v>
       </c>
-      <c r="EX7" s="138" t="s">
+      <c r="EX7" s="117" t="s">
         <v>1204</v>
       </c>
-      <c r="EY7" s="138" t="s">
+      <c r="EY7" s="117" t="s">
         <v>1204</v>
       </c>
-      <c r="EZ7" s="138" t="s">
+      <c r="EZ7" s="117" t="s">
         <v>1204</v>
       </c>
-      <c r="FA7" s="139" t="s">
+      <c r="FA7" s="118" t="s">
         <v>1730</v>
       </c>
-      <c r="FB7" s="135" t="s">
+      <c r="FB7" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="FC7" s="135" t="s">
+      <c r="FC7" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="FD7" s="135" t="s">
+      <c r="FD7" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="FE7" s="135" t="s">
+      <c r="FE7" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="FF7" s="135" t="s">
+      <c r="FF7" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="FG7" s="143" t="s">
+      <c r="FG7" s="127" t="s">
         <v>1760</v>
       </c>
-      <c r="FH7" s="134" t="s">
+      <c r="FH7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FI7" s="134" t="s">
+      <c r="FI7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FJ7" s="134" t="s">
+      <c r="FJ7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FK7" s="134" t="s">
+      <c r="FK7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FL7" s="134" t="s">
+      <c r="FL7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FM7" s="134" t="s">
+      <c r="FM7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FN7" s="134" t="s">
+      <c r="FN7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FO7" s="134" t="s">
+      <c r="FO7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FP7" s="134" t="s">
+      <c r="FP7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FQ7" s="134" t="s">
+      <c r="FQ7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FR7" s="134" t="s">
+      <c r="FR7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FS7" s="134" t="s">
+      <c r="FS7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FT7" s="134" t="s">
+      <c r="FT7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FU7" s="134" t="s">
+      <c r="FU7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FV7" s="134" t="s">
+      <c r="FV7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FW7" s="134" t="s">
+      <c r="FW7" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -36697,36 +36761,36 @@
       <c r="ES8" s="74" t="s">
         <v>1735</v>
       </c>
-      <c r="ET8" s="127"/>
-      <c r="EU8" s="127"/>
-      <c r="EV8" s="127"/>
-      <c r="EW8" s="127"/>
-      <c r="EX8" s="138"/>
-      <c r="EY8" s="138"/>
-      <c r="EZ8" s="138"/>
-      <c r="FA8" s="139"/>
-      <c r="FB8" s="135"/>
-      <c r="FC8" s="135"/>
-      <c r="FD8" s="135"/>
-      <c r="FE8" s="135"/>
-      <c r="FF8" s="135"/>
-      <c r="FG8" s="143"/>
-      <c r="FH8" s="134"/>
-      <c r="FI8" s="134"/>
-      <c r="FJ8" s="134"/>
-      <c r="FK8" s="134"/>
-      <c r="FL8" s="134"/>
-      <c r="FM8" s="134"/>
-      <c r="FN8" s="134"/>
-      <c r="FO8" s="134"/>
-      <c r="FP8" s="134"/>
-      <c r="FQ8" s="134"/>
-      <c r="FR8" s="134"/>
-      <c r="FS8" s="134"/>
-      <c r="FT8" s="134"/>
-      <c r="FU8" s="134"/>
-      <c r="FV8" s="134"/>
-      <c r="FW8" s="134"/>
+      <c r="ET8" s="120"/>
+      <c r="EU8" s="120"/>
+      <c r="EV8" s="120"/>
+      <c r="EW8" s="120"/>
+      <c r="EX8" s="117"/>
+      <c r="EY8" s="117"/>
+      <c r="EZ8" s="117"/>
+      <c r="FA8" s="118"/>
+      <c r="FB8" s="122"/>
+      <c r="FC8" s="122"/>
+      <c r="FD8" s="122"/>
+      <c r="FE8" s="122"/>
+      <c r="FF8" s="122"/>
+      <c r="FG8" s="127"/>
+      <c r="FH8" s="114"/>
+      <c r="FI8" s="114"/>
+      <c r="FJ8" s="114"/>
+      <c r="FK8" s="114"/>
+      <c r="FL8" s="114"/>
+      <c r="FM8" s="114"/>
+      <c r="FN8" s="114"/>
+      <c r="FO8" s="114"/>
+      <c r="FP8" s="114"/>
+      <c r="FQ8" s="114"/>
+      <c r="FR8" s="114"/>
+      <c r="FS8" s="114"/>
+      <c r="FT8" s="114"/>
+      <c r="FU8" s="114"/>
+      <c r="FV8" s="114"/>
+      <c r="FW8" s="114"/>
     </row>
     <row r="9" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -36877,74 +36941,74 @@
       <c r="EI9" s="76" t="s">
         <v>1740</v>
       </c>
-      <c r="EJ9" s="124" t="s">
+      <c r="EJ9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EK9" s="124" t="s">
+      <c r="EK9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EL9" s="124" t="s">
+      <c r="EL9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EM9" s="124" t="s">
+      <c r="EM9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EN9" s="124" t="s">
+      <c r="EN9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EO9" s="124" t="s">
+      <c r="EO9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EP9" s="124" t="s">
+      <c r="EP9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EQ9" s="124" t="s">
+      <c r="EQ9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="ER9" s="124" t="s">
+      <c r="ER9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="ES9" s="124" t="s">
+      <c r="ES9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="ET9" s="124" t="s">
+      <c r="ET9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EU9" s="124" t="s">
+      <c r="EU9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EV9" s="124" t="s">
+      <c r="EV9" s="129" t="s">
         <v>1255</v>
       </c>
-      <c r="EW9" s="141" t="s">
+      <c r="EW9" s="123" t="s">
         <v>1739</v>
       </c>
-      <c r="EX9" s="138"/>
-      <c r="EY9" s="138"/>
-      <c r="EZ9" s="138"/>
-      <c r="FA9" s="139"/>
-      <c r="FB9" s="135"/>
-      <c r="FC9" s="135"/>
-      <c r="FD9" s="135"/>
-      <c r="FE9" s="135"/>
-      <c r="FF9" s="135"/>
-      <c r="FG9" s="143"/>
-      <c r="FH9" s="134"/>
-      <c r="FI9" s="134"/>
-      <c r="FJ9" s="134"/>
-      <c r="FK9" s="134"/>
-      <c r="FL9" s="134"/>
-      <c r="FM9" s="134"/>
-      <c r="FN9" s="134"/>
-      <c r="FO9" s="134"/>
-      <c r="FP9" s="134"/>
-      <c r="FQ9" s="134"/>
-      <c r="FR9" s="134"/>
-      <c r="FS9" s="134"/>
-      <c r="FT9" s="134"/>
-      <c r="FU9" s="134"/>
-      <c r="FV9" s="134"/>
-      <c r="FW9" s="134"/>
+      <c r="EX9" s="117"/>
+      <c r="EY9" s="117"/>
+      <c r="EZ9" s="117"/>
+      <c r="FA9" s="118"/>
+      <c r="FB9" s="122"/>
+      <c r="FC9" s="122"/>
+      <c r="FD9" s="122"/>
+      <c r="FE9" s="122"/>
+      <c r="FF9" s="122"/>
+      <c r="FG9" s="127"/>
+      <c r="FH9" s="114"/>
+      <c r="FI9" s="114"/>
+      <c r="FJ9" s="114"/>
+      <c r="FK9" s="114"/>
+      <c r="FL9" s="114"/>
+      <c r="FM9" s="114"/>
+      <c r="FN9" s="114"/>
+      <c r="FO9" s="114"/>
+      <c r="FP9" s="114"/>
+      <c r="FQ9" s="114"/>
+      <c r="FR9" s="114"/>
+      <c r="FS9" s="114"/>
+      <c r="FT9" s="114"/>
+      <c r="FU9" s="114"/>
+      <c r="FV9" s="114"/>
+      <c r="FW9" s="114"/>
     </row>
     <row r="10" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -37095,46 +37159,46 @@
       <c r="EI10" s="73" t="s">
         <v>1741</v>
       </c>
-      <c r="EJ10" s="124"/>
-      <c r="EK10" s="124"/>
-      <c r="EL10" s="124"/>
-      <c r="EM10" s="124"/>
-      <c r="EN10" s="124"/>
-      <c r="EO10" s="124"/>
-      <c r="EP10" s="124"/>
-      <c r="EQ10" s="124"/>
-      <c r="ER10" s="124"/>
-      <c r="ES10" s="124"/>
-      <c r="ET10" s="124"/>
-      <c r="EU10" s="124"/>
-      <c r="EV10" s="124"/>
-      <c r="EW10" s="141"/>
-      <c r="EX10" s="138"/>
-      <c r="EY10" s="138"/>
-      <c r="EZ10" s="138"/>
-      <c r="FA10" s="139"/>
-      <c r="FB10" s="135"/>
-      <c r="FC10" s="135"/>
-      <c r="FD10" s="135"/>
-      <c r="FE10" s="135"/>
-      <c r="FF10" s="135"/>
-      <c r="FG10" s="143"/>
-      <c r="FH10" s="134"/>
-      <c r="FI10" s="134"/>
-      <c r="FJ10" s="134"/>
-      <c r="FK10" s="134"/>
-      <c r="FL10" s="134"/>
-      <c r="FM10" s="134"/>
-      <c r="FN10" s="134"/>
-      <c r="FO10" s="134"/>
-      <c r="FP10" s="134"/>
-      <c r="FQ10" s="134"/>
-      <c r="FR10" s="134"/>
-      <c r="FS10" s="134"/>
-      <c r="FT10" s="134"/>
-      <c r="FU10" s="134"/>
-      <c r="FV10" s="134"/>
-      <c r="FW10" s="134"/>
+      <c r="EJ10" s="129"/>
+      <c r="EK10" s="129"/>
+      <c r="EL10" s="129"/>
+      <c r="EM10" s="129"/>
+      <c r="EN10" s="129"/>
+      <c r="EO10" s="129"/>
+      <c r="EP10" s="129"/>
+      <c r="EQ10" s="129"/>
+      <c r="ER10" s="129"/>
+      <c r="ES10" s="129"/>
+      <c r="ET10" s="129"/>
+      <c r="EU10" s="129"/>
+      <c r="EV10" s="129"/>
+      <c r="EW10" s="123"/>
+      <c r="EX10" s="117"/>
+      <c r="EY10" s="117"/>
+      <c r="EZ10" s="117"/>
+      <c r="FA10" s="118"/>
+      <c r="FB10" s="122"/>
+      <c r="FC10" s="122"/>
+      <c r="FD10" s="122"/>
+      <c r="FE10" s="122"/>
+      <c r="FF10" s="122"/>
+      <c r="FG10" s="127"/>
+      <c r="FH10" s="114"/>
+      <c r="FI10" s="114"/>
+      <c r="FJ10" s="114"/>
+      <c r="FK10" s="114"/>
+      <c r="FL10" s="114"/>
+      <c r="FM10" s="114"/>
+      <c r="FN10" s="114"/>
+      <c r="FO10" s="114"/>
+      <c r="FP10" s="114"/>
+      <c r="FQ10" s="114"/>
+      <c r="FR10" s="114"/>
+      <c r="FS10" s="114"/>
+      <c r="FT10" s="114"/>
+      <c r="FU10" s="114"/>
+      <c r="FV10" s="114"/>
+      <c r="FW10" s="114"/>
     </row>
     <row r="11" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -37309,32 +37373,32 @@
       <c r="EW11" s="86" t="s">
         <v>1771</v>
       </c>
-      <c r="EX11" s="138"/>
-      <c r="EY11" s="138"/>
-      <c r="EZ11" s="138"/>
-      <c r="FA11" s="139"/>
-      <c r="FB11" s="135"/>
-      <c r="FC11" s="135"/>
-      <c r="FD11" s="135"/>
-      <c r="FE11" s="135"/>
-      <c r="FF11" s="135"/>
-      <c r="FG11" s="143"/>
-      <c r="FH11" s="134"/>
-      <c r="FI11" s="134"/>
-      <c r="FJ11" s="134"/>
-      <c r="FK11" s="134"/>
-      <c r="FL11" s="134"/>
-      <c r="FM11" s="134"/>
-      <c r="FN11" s="134"/>
-      <c r="FO11" s="134"/>
-      <c r="FP11" s="134"/>
-      <c r="FQ11" s="134"/>
-      <c r="FR11" s="134"/>
-      <c r="FS11" s="134"/>
-      <c r="FT11" s="134"/>
-      <c r="FU11" s="134"/>
-      <c r="FV11" s="134"/>
-      <c r="FW11" s="134"/>
+      <c r="EX11" s="117"/>
+      <c r="EY11" s="117"/>
+      <c r="EZ11" s="117"/>
+      <c r="FA11" s="118"/>
+      <c r="FB11" s="122"/>
+      <c r="FC11" s="122"/>
+      <c r="FD11" s="122"/>
+      <c r="FE11" s="122"/>
+      <c r="FF11" s="122"/>
+      <c r="FG11" s="127"/>
+      <c r="FH11" s="114"/>
+      <c r="FI11" s="114"/>
+      <c r="FJ11" s="114"/>
+      <c r="FK11" s="114"/>
+      <c r="FL11" s="114"/>
+      <c r="FM11" s="114"/>
+      <c r="FN11" s="114"/>
+      <c r="FO11" s="114"/>
+      <c r="FP11" s="114"/>
+      <c r="FQ11" s="114"/>
+      <c r="FR11" s="114"/>
+      <c r="FS11" s="114"/>
+      <c r="FT11" s="114"/>
+      <c r="FU11" s="114"/>
+      <c r="FV11" s="114"/>
+      <c r="FW11" s="114"/>
     </row>
     <row r="12" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -37537,40 +37601,40 @@
       <c r="EW12" s="65" t="s">
         <v>1731</v>
       </c>
-      <c r="EX12" s="126" t="s">
+      <c r="EX12" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="EY12" s="126" t="s">
+      <c r="EY12" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="EZ12" s="126" t="s">
+      <c r="EZ12" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="FA12" s="142" t="s">
+      <c r="FA12" s="125" t="s">
         <v>1742</v>
       </c>
-      <c r="FB12" s="135"/>
-      <c r="FC12" s="135"/>
-      <c r="FD12" s="135"/>
-      <c r="FE12" s="135"/>
-      <c r="FF12" s="135"/>
-      <c r="FG12" s="143"/>
-      <c r="FH12" s="134"/>
-      <c r="FI12" s="134"/>
-      <c r="FJ12" s="134"/>
-      <c r="FK12" s="134"/>
-      <c r="FL12" s="134"/>
-      <c r="FM12" s="134"/>
-      <c r="FN12" s="134"/>
-      <c r="FO12" s="134"/>
-      <c r="FP12" s="134"/>
-      <c r="FQ12" s="134"/>
-      <c r="FR12" s="134"/>
-      <c r="FS12" s="134"/>
-      <c r="FT12" s="134"/>
-      <c r="FU12" s="134"/>
-      <c r="FV12" s="134"/>
-      <c r="FW12" s="134"/>
+      <c r="FB12" s="122"/>
+      <c r="FC12" s="122"/>
+      <c r="FD12" s="122"/>
+      <c r="FE12" s="122"/>
+      <c r="FF12" s="122"/>
+      <c r="FG12" s="127"/>
+      <c r="FH12" s="114"/>
+      <c r="FI12" s="114"/>
+      <c r="FJ12" s="114"/>
+      <c r="FK12" s="114"/>
+      <c r="FL12" s="114"/>
+      <c r="FM12" s="114"/>
+      <c r="FN12" s="114"/>
+      <c r="FO12" s="114"/>
+      <c r="FP12" s="114"/>
+      <c r="FQ12" s="114"/>
+      <c r="FR12" s="114"/>
+      <c r="FS12" s="114"/>
+      <c r="FT12" s="114"/>
+      <c r="FU12" s="114"/>
+      <c r="FV12" s="114"/>
+      <c r="FW12" s="114"/>
     </row>
     <row r="13" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -37689,116 +37753,116 @@
       <c r="DE13" s="70" t="s">
         <v>1763</v>
       </c>
-      <c r="DF13" s="122" t="s">
+      <c r="DF13" s="130" t="s">
         <v>1710</v>
       </c>
-      <c r="DG13" s="122"/>
-      <c r="DH13" s="122"/>
-      <c r="DI13" s="122"/>
-      <c r="DJ13" s="122"/>
-      <c r="DK13" s="122"/>
-      <c r="DL13" s="122"/>
-      <c r="DM13" s="122"/>
-      <c r="DN13" s="122"/>
-      <c r="DO13" s="122"/>
-      <c r="DP13" s="122"/>
-      <c r="DQ13" s="122"/>
-      <c r="DR13" s="122"/>
-      <c r="DS13" s="122"/>
-      <c r="DT13" s="123" t="s">
+      <c r="DG13" s="130"/>
+      <c r="DH13" s="130"/>
+      <c r="DI13" s="130"/>
+      <c r="DJ13" s="130"/>
+      <c r="DK13" s="130"/>
+      <c r="DL13" s="130"/>
+      <c r="DM13" s="130"/>
+      <c r="DN13" s="130"/>
+      <c r="DO13" s="130"/>
+      <c r="DP13" s="130"/>
+      <c r="DQ13" s="130"/>
+      <c r="DR13" s="130"/>
+      <c r="DS13" s="130"/>
+      <c r="DT13" s="137" t="s">
         <v>1765</v>
       </c>
-      <c r="DU13" s="114" t="s">
+      <c r="DU13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="DV13" s="114"/>
-      <c r="DW13" s="114"/>
-      <c r="DX13" s="114"/>
-      <c r="DY13" s="114" t="s">
+      <c r="DV13" s="126"/>
+      <c r="DW13" s="126"/>
+      <c r="DX13" s="126"/>
+      <c r="DY13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="DZ13" s="114"/>
-      <c r="EA13" s="114"/>
-      <c r="EB13" s="114"/>
-      <c r="EC13" s="114"/>
-      <c r="ED13" s="114" t="s">
+      <c r="DZ13" s="126"/>
+      <c r="EA13" s="126"/>
+      <c r="EB13" s="126"/>
+      <c r="EC13" s="126"/>
+      <c r="ED13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EE13" s="114"/>
-      <c r="EF13" s="114"/>
-      <c r="EG13" s="114"/>
-      <c r="EH13" s="114"/>
-      <c r="EI13" s="114" t="s">
+      <c r="EE13" s="126"/>
+      <c r="EF13" s="126"/>
+      <c r="EG13" s="126"/>
+      <c r="EH13" s="126"/>
+      <c r="EI13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EJ13" s="114" t="s">
+      <c r="EJ13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EK13" s="114" t="s">
+      <c r="EK13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EL13" s="114" t="s">
+      <c r="EL13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EM13" s="114" t="s">
+      <c r="EM13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EN13" s="114" t="s">
+      <c r="EN13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EO13" s="114" t="s">
+      <c r="EO13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EP13" s="114" t="s">
+      <c r="EP13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EQ13" s="114" t="s">
+      <c r="EQ13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="ER13" s="114" t="s">
+      <c r="ER13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="ES13" s="114" t="s">
+      <c r="ES13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="ET13" s="114" t="s">
+      <c r="ET13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EU13" s="114" t="s">
+      <c r="EU13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EV13" s="114" t="s">
+      <c r="EV13" s="126" t="s">
         <v>1710</v>
       </c>
-      <c r="EW13" s="125" t="s">
+      <c r="EW13" s="136" t="s">
         <v>1730</v>
       </c>
-      <c r="EX13" s="126"/>
-      <c r="EY13" s="126"/>
-      <c r="EZ13" s="126"/>
-      <c r="FA13" s="142"/>
-      <c r="FB13" s="135"/>
-      <c r="FC13" s="135"/>
-      <c r="FD13" s="135"/>
-      <c r="FE13" s="135"/>
-      <c r="FF13" s="135"/>
-      <c r="FG13" s="143"/>
-      <c r="FH13" s="134"/>
-      <c r="FI13" s="134"/>
-      <c r="FJ13" s="134"/>
-      <c r="FK13" s="134"/>
-      <c r="FL13" s="134"/>
-      <c r="FM13" s="134"/>
-      <c r="FN13" s="134"/>
-      <c r="FO13" s="134"/>
-      <c r="FP13" s="134"/>
-      <c r="FQ13" s="134"/>
-      <c r="FR13" s="134"/>
-      <c r="FS13" s="134"/>
-      <c r="FT13" s="134"/>
-      <c r="FU13" s="134"/>
-      <c r="FV13" s="134"/>
-      <c r="FW13" s="134"/>
+      <c r="EX13" s="124"/>
+      <c r="EY13" s="124"/>
+      <c r="EZ13" s="124"/>
+      <c r="FA13" s="125"/>
+      <c r="FB13" s="122"/>
+      <c r="FC13" s="122"/>
+      <c r="FD13" s="122"/>
+      <c r="FE13" s="122"/>
+      <c r="FF13" s="122"/>
+      <c r="FG13" s="127"/>
+      <c r="FH13" s="114"/>
+      <c r="FI13" s="114"/>
+      <c r="FJ13" s="114"/>
+      <c r="FK13" s="114"/>
+      <c r="FL13" s="114"/>
+      <c r="FM13" s="114"/>
+      <c r="FN13" s="114"/>
+      <c r="FO13" s="114"/>
+      <c r="FP13" s="114"/>
+      <c r="FQ13" s="114"/>
+      <c r="FR13" s="114"/>
+      <c r="FS13" s="114"/>
+      <c r="FT13" s="114"/>
+      <c r="FU13" s="114"/>
+      <c r="FV13" s="114"/>
+      <c r="FW13" s="114"/>
     </row>
     <row r="14" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -37915,76 +37979,76 @@
       <c r="DE14" s="65" t="s">
         <v>1762</v>
       </c>
-      <c r="DF14" s="122"/>
-      <c r="DG14" s="122"/>
-      <c r="DH14" s="122"/>
-      <c r="DI14" s="122"/>
-      <c r="DJ14" s="122"/>
-      <c r="DK14" s="122"/>
-      <c r="DL14" s="122"/>
-      <c r="DM14" s="122"/>
-      <c r="DN14" s="122"/>
-      <c r="DO14" s="122"/>
-      <c r="DP14" s="122"/>
-      <c r="DQ14" s="122"/>
-      <c r="DR14" s="122"/>
-      <c r="DS14" s="122"/>
-      <c r="DT14" s="123"/>
-      <c r="DU14" s="114"/>
-      <c r="DV14" s="114"/>
-      <c r="DW14" s="114"/>
-      <c r="DX14" s="114"/>
-      <c r="DY14" s="114"/>
-      <c r="DZ14" s="114"/>
-      <c r="EA14" s="114"/>
-      <c r="EB14" s="114"/>
-      <c r="EC14" s="114"/>
-      <c r="ED14" s="114"/>
-      <c r="EE14" s="114"/>
-      <c r="EF14" s="114"/>
-      <c r="EG14" s="114"/>
-      <c r="EH14" s="114"/>
-      <c r="EI14" s="114"/>
-      <c r="EJ14" s="114"/>
-      <c r="EK14" s="114"/>
-      <c r="EL14" s="114"/>
-      <c r="EM14" s="114"/>
-      <c r="EN14" s="114"/>
-      <c r="EO14" s="114"/>
-      <c r="EP14" s="114"/>
-      <c r="EQ14" s="114"/>
-      <c r="ER14" s="114"/>
-      <c r="ES14" s="114"/>
-      <c r="ET14" s="114"/>
-      <c r="EU14" s="114"/>
-      <c r="EV14" s="114"/>
-      <c r="EW14" s="125"/>
-      <c r="EX14" s="126"/>
-      <c r="EY14" s="126"/>
-      <c r="EZ14" s="126"/>
-      <c r="FA14" s="142"/>
-      <c r="FB14" s="135"/>
-      <c r="FC14" s="135"/>
-      <c r="FD14" s="135"/>
-      <c r="FE14" s="135"/>
-      <c r="FF14" s="135"/>
-      <c r="FG14" s="143"/>
-      <c r="FH14" s="134"/>
-      <c r="FI14" s="134"/>
-      <c r="FJ14" s="134"/>
-      <c r="FK14" s="134"/>
-      <c r="FL14" s="134"/>
-      <c r="FM14" s="134"/>
-      <c r="FN14" s="134"/>
-      <c r="FO14" s="134"/>
-      <c r="FP14" s="134"/>
-      <c r="FQ14" s="134"/>
-      <c r="FR14" s="134"/>
-      <c r="FS14" s="134"/>
-      <c r="FT14" s="134"/>
-      <c r="FU14" s="134"/>
-      <c r="FV14" s="134"/>
-      <c r="FW14" s="134"/>
+      <c r="DF14" s="130"/>
+      <c r="DG14" s="130"/>
+      <c r="DH14" s="130"/>
+      <c r="DI14" s="130"/>
+      <c r="DJ14" s="130"/>
+      <c r="DK14" s="130"/>
+      <c r="DL14" s="130"/>
+      <c r="DM14" s="130"/>
+      <c r="DN14" s="130"/>
+      <c r="DO14" s="130"/>
+      <c r="DP14" s="130"/>
+      <c r="DQ14" s="130"/>
+      <c r="DR14" s="130"/>
+      <c r="DS14" s="130"/>
+      <c r="DT14" s="137"/>
+      <c r="DU14" s="126"/>
+      <c r="DV14" s="126"/>
+      <c r="DW14" s="126"/>
+      <c r="DX14" s="126"/>
+      <c r="DY14" s="126"/>
+      <c r="DZ14" s="126"/>
+      <c r="EA14" s="126"/>
+      <c r="EB14" s="126"/>
+      <c r="EC14" s="126"/>
+      <c r="ED14" s="126"/>
+      <c r="EE14" s="126"/>
+      <c r="EF14" s="126"/>
+      <c r="EG14" s="126"/>
+      <c r="EH14" s="126"/>
+      <c r="EI14" s="126"/>
+      <c r="EJ14" s="126"/>
+      <c r="EK14" s="126"/>
+      <c r="EL14" s="126"/>
+      <c r="EM14" s="126"/>
+      <c r="EN14" s="126"/>
+      <c r="EO14" s="126"/>
+      <c r="EP14" s="126"/>
+      <c r="EQ14" s="126"/>
+      <c r="ER14" s="126"/>
+      <c r="ES14" s="126"/>
+      <c r="ET14" s="126"/>
+      <c r="EU14" s="126"/>
+      <c r="EV14" s="126"/>
+      <c r="EW14" s="136"/>
+      <c r="EX14" s="124"/>
+      <c r="EY14" s="124"/>
+      <c r="EZ14" s="124"/>
+      <c r="FA14" s="125"/>
+      <c r="FB14" s="122"/>
+      <c r="FC14" s="122"/>
+      <c r="FD14" s="122"/>
+      <c r="FE14" s="122"/>
+      <c r="FF14" s="122"/>
+      <c r="FG14" s="127"/>
+      <c r="FH14" s="114"/>
+      <c r="FI14" s="114"/>
+      <c r="FJ14" s="114"/>
+      <c r="FK14" s="114"/>
+      <c r="FL14" s="114"/>
+      <c r="FM14" s="114"/>
+      <c r="FN14" s="114"/>
+      <c r="FO14" s="114"/>
+      <c r="FP14" s="114"/>
+      <c r="FQ14" s="114"/>
+      <c r="FR14" s="114"/>
+      <c r="FS14" s="114"/>
+      <c r="FT14" s="114"/>
+      <c r="FU14" s="114"/>
+      <c r="FV14" s="114"/>
+      <c r="FW14" s="114"/>
     </row>
     <row r="15" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
@@ -38116,61 +38180,61 @@
       <c r="DT15" s="80" t="s">
         <v>1764</v>
       </c>
-      <c r="DU15" s="114"/>
-      <c r="DV15" s="114"/>
-      <c r="DW15" s="114"/>
-      <c r="DX15" s="114"/>
-      <c r="DY15" s="114"/>
-      <c r="DZ15" s="114"/>
-      <c r="EA15" s="114"/>
-      <c r="EB15" s="114"/>
-      <c r="EC15" s="114"/>
-      <c r="ED15" s="114"/>
-      <c r="EE15" s="114"/>
-      <c r="EF15" s="114"/>
-      <c r="EG15" s="114"/>
-      <c r="EH15" s="114"/>
-      <c r="EI15" s="114"/>
-      <c r="EJ15" s="114"/>
-      <c r="EK15" s="114"/>
-      <c r="EL15" s="114"/>
-      <c r="EM15" s="114"/>
-      <c r="EN15" s="114"/>
-      <c r="EO15" s="114"/>
-      <c r="EP15" s="114"/>
-      <c r="EQ15" s="114"/>
-      <c r="ER15" s="114"/>
-      <c r="ES15" s="114"/>
-      <c r="ET15" s="114"/>
-      <c r="EU15" s="114"/>
-      <c r="EV15" s="114"/>
-      <c r="EW15" s="125"/>
-      <c r="EX15" s="126"/>
-      <c r="EY15" s="126"/>
-      <c r="EZ15" s="126"/>
-      <c r="FA15" s="142"/>
-      <c r="FB15" s="135"/>
-      <c r="FC15" s="135"/>
-      <c r="FD15" s="135"/>
-      <c r="FE15" s="135"/>
-      <c r="FF15" s="135"/>
-      <c r="FG15" s="143"/>
-      <c r="FH15" s="134"/>
-      <c r="FI15" s="134"/>
-      <c r="FJ15" s="134"/>
-      <c r="FK15" s="134"/>
-      <c r="FL15" s="134"/>
-      <c r="FM15" s="134"/>
-      <c r="FN15" s="134"/>
-      <c r="FO15" s="134"/>
-      <c r="FP15" s="134"/>
-      <c r="FQ15" s="134"/>
-      <c r="FR15" s="134"/>
-      <c r="FS15" s="134"/>
-      <c r="FT15" s="134"/>
-      <c r="FU15" s="134"/>
-      <c r="FV15" s="134"/>
-      <c r="FW15" s="134"/>
+      <c r="DU15" s="126"/>
+      <c r="DV15" s="126"/>
+      <c r="DW15" s="126"/>
+      <c r="DX15" s="126"/>
+      <c r="DY15" s="126"/>
+      <c r="DZ15" s="126"/>
+      <c r="EA15" s="126"/>
+      <c r="EB15" s="126"/>
+      <c r="EC15" s="126"/>
+      <c r="ED15" s="126"/>
+      <c r="EE15" s="126"/>
+      <c r="EF15" s="126"/>
+      <c r="EG15" s="126"/>
+      <c r="EH15" s="126"/>
+      <c r="EI15" s="126"/>
+      <c r="EJ15" s="126"/>
+      <c r="EK15" s="126"/>
+      <c r="EL15" s="126"/>
+      <c r="EM15" s="126"/>
+      <c r="EN15" s="126"/>
+      <c r="EO15" s="126"/>
+      <c r="EP15" s="126"/>
+      <c r="EQ15" s="126"/>
+      <c r="ER15" s="126"/>
+      <c r="ES15" s="126"/>
+      <c r="ET15" s="126"/>
+      <c r="EU15" s="126"/>
+      <c r="EV15" s="126"/>
+      <c r="EW15" s="136"/>
+      <c r="EX15" s="124"/>
+      <c r="EY15" s="124"/>
+      <c r="EZ15" s="124"/>
+      <c r="FA15" s="125"/>
+      <c r="FB15" s="122"/>
+      <c r="FC15" s="122"/>
+      <c r="FD15" s="122"/>
+      <c r="FE15" s="122"/>
+      <c r="FF15" s="122"/>
+      <c r="FG15" s="127"/>
+      <c r="FH15" s="114"/>
+      <c r="FI15" s="114"/>
+      <c r="FJ15" s="114"/>
+      <c r="FK15" s="114"/>
+      <c r="FL15" s="114"/>
+      <c r="FM15" s="114"/>
+      <c r="FN15" s="114"/>
+      <c r="FO15" s="114"/>
+      <c r="FP15" s="114"/>
+      <c r="FQ15" s="114"/>
+      <c r="FR15" s="114"/>
+      <c r="FS15" s="114"/>
+      <c r="FT15" s="114"/>
+      <c r="FU15" s="114"/>
+      <c r="FV15" s="114"/>
+      <c r="FW15" s="114"/>
     </row>
     <row r="16" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -38262,21 +38326,21 @@
       <c r="CF16" s="79" t="s">
         <v>1749</v>
       </c>
-      <c r="CG16" s="128" t="s">
+      <c r="CG16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="CH16" s="129"/>
-      <c r="CI16" s="129"/>
-      <c r="CJ16" s="129"/>
-      <c r="CK16" s="129"/>
-      <c r="CL16" s="129"/>
-      <c r="CM16" s="129"/>
-      <c r="CN16" s="129"/>
-      <c r="CO16" s="129"/>
-      <c r="CP16" s="129"/>
-      <c r="CQ16" s="129"/>
-      <c r="CR16" s="129"/>
-      <c r="CS16" s="133" t="s">
+      <c r="CH16" s="134"/>
+      <c r="CI16" s="134"/>
+      <c r="CJ16" s="134"/>
+      <c r="CK16" s="134"/>
+      <c r="CL16" s="134"/>
+      <c r="CM16" s="134"/>
+      <c r="CN16" s="134"/>
+      <c r="CO16" s="134"/>
+      <c r="CP16" s="134"/>
+      <c r="CQ16" s="134"/>
+      <c r="CR16" s="134"/>
+      <c r="CS16" s="131" t="s">
         <v>1758</v>
       </c>
       <c r="CT16" s="132" t="s">
@@ -38312,127 +38376,127 @@
       <c r="DV16" s="132"/>
       <c r="DW16" s="132"/>
       <c r="DX16" s="132"/>
-      <c r="DY16" s="113" t="s">
+      <c r="DY16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="DZ16" s="113" t="s">
+      <c r="DZ16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EA16" s="113" t="s">
+      <c r="EA16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EB16" s="113" t="s">
+      <c r="EB16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EC16" s="113" t="s">
+      <c r="EC16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="ED16" s="113" t="s">
+      <c r="ED16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EE16" s="113" t="s">
+      <c r="EE16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EF16" s="113" t="s">
+      <c r="EF16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EG16" s="113" t="s">
+      <c r="EG16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EH16" s="113" t="s">
+      <c r="EH16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EI16" s="113" t="s">
+      <c r="EI16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EJ16" s="113" t="s">
+      <c r="EJ16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EK16" s="113" t="s">
+      <c r="EK16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EL16" s="113" t="s">
+      <c r="EL16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EM16" s="113" t="s">
+      <c r="EM16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EN16" s="113" t="s">
+      <c r="EN16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EO16" s="113" t="s">
+      <c r="EO16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EP16" s="113" t="s">
+      <c r="EP16" s="128" t="s">
         <v>1743</v>
       </c>
-      <c r="EQ16" s="136" t="s">
+      <c r="EQ16" s="115" t="s">
         <v>1743</v>
       </c>
-      <c r="ER16" s="137" t="s">
+      <c r="ER16" s="116" t="s">
         <v>1759</v>
       </c>
-      <c r="ES16" s="127" t="s">
+      <c r="ES16" s="120" t="s">
         <v>1743</v>
       </c>
-      <c r="ET16" s="128" t="s">
+      <c r="ET16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="EU16" s="128" t="s">
+      <c r="EU16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="EV16" s="128" t="s">
+      <c r="EV16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="EW16" s="128" t="s">
+      <c r="EW16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="EX16" s="128" t="s">
+      <c r="EX16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="EY16" s="128" t="s">
+      <c r="EY16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="EZ16" s="128" t="s">
+      <c r="EZ16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FA16" s="128" t="s">
+      <c r="FA16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FB16" s="128" t="s">
+      <c r="FB16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FC16" s="128" t="s">
+      <c r="FC16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FD16" s="128" t="s">
+      <c r="FD16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FE16" s="128" t="s">
+      <c r="FE16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FF16" s="128" t="s">
+      <c r="FF16" s="119" t="s">
         <v>1743</v>
       </c>
-      <c r="FG16" s="133" t="s">
+      <c r="FG16" s="131" t="s">
         <v>1730</v>
       </c>
-      <c r="FH16" s="134"/>
-      <c r="FI16" s="134"/>
-      <c r="FJ16" s="134"/>
-      <c r="FK16" s="134"/>
-      <c r="FL16" s="134"/>
-      <c r="FM16" s="134"/>
-      <c r="FN16" s="134"/>
-      <c r="FO16" s="134"/>
-      <c r="FP16" s="134"/>
-      <c r="FQ16" s="134"/>
-      <c r="FR16" s="134"/>
-      <c r="FS16" s="134"/>
-      <c r="FT16" s="134"/>
-      <c r="FU16" s="134"/>
-      <c r="FV16" s="134"/>
-      <c r="FW16" s="134"/>
+      <c r="FH16" s="114"/>
+      <c r="FI16" s="114"/>
+      <c r="FJ16" s="114"/>
+      <c r="FK16" s="114"/>
+      <c r="FL16" s="114"/>
+      <c r="FM16" s="114"/>
+      <c r="FN16" s="114"/>
+      <c r="FO16" s="114"/>
+      <c r="FP16" s="114"/>
+      <c r="FQ16" s="114"/>
+      <c r="FR16" s="114"/>
+      <c r="FS16" s="114"/>
+      <c r="FT16" s="114"/>
+      <c r="FU16" s="114"/>
+      <c r="FV16" s="114"/>
+      <c r="FW16" s="114"/>
     </row>
     <row r="17" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -38526,19 +38590,19 @@
       <c r="CF17" s="78" t="s">
         <v>1748</v>
       </c>
-      <c r="CG17" s="128"/>
-      <c r="CH17" s="129"/>
-      <c r="CI17" s="129"/>
-      <c r="CJ17" s="129"/>
-      <c r="CK17" s="129"/>
-      <c r="CL17" s="129"/>
-      <c r="CM17" s="129"/>
-      <c r="CN17" s="129"/>
-      <c r="CO17" s="129"/>
-      <c r="CP17" s="129"/>
-      <c r="CQ17" s="129"/>
-      <c r="CR17" s="129"/>
-      <c r="CS17" s="133"/>
+      <c r="CG17" s="119"/>
+      <c r="CH17" s="134"/>
+      <c r="CI17" s="134"/>
+      <c r="CJ17" s="134"/>
+      <c r="CK17" s="134"/>
+      <c r="CL17" s="134"/>
+      <c r="CM17" s="134"/>
+      <c r="CN17" s="134"/>
+      <c r="CO17" s="134"/>
+      <c r="CP17" s="134"/>
+      <c r="CQ17" s="134"/>
+      <c r="CR17" s="134"/>
+      <c r="CS17" s="131"/>
       <c r="CT17" s="132"/>
       <c r="CU17" s="132"/>
       <c r="CV17" s="132"/>
@@ -38570,57 +38634,57 @@
       <c r="DV17" s="132"/>
       <c r="DW17" s="132"/>
       <c r="DX17" s="132"/>
-      <c r="DY17" s="113"/>
-      <c r="DZ17" s="113"/>
-      <c r="EA17" s="113"/>
-      <c r="EB17" s="113"/>
-      <c r="EC17" s="113"/>
-      <c r="ED17" s="113"/>
-      <c r="EE17" s="113"/>
-      <c r="EF17" s="113"/>
-      <c r="EG17" s="113"/>
-      <c r="EH17" s="113"/>
-      <c r="EI17" s="113"/>
-      <c r="EJ17" s="113"/>
-      <c r="EK17" s="113"/>
-      <c r="EL17" s="113"/>
-      <c r="EM17" s="113"/>
-      <c r="EN17" s="113"/>
-      <c r="EO17" s="113"/>
-      <c r="EP17" s="113"/>
-      <c r="EQ17" s="136"/>
-      <c r="ER17" s="137"/>
-      <c r="ES17" s="127"/>
-      <c r="ET17" s="128"/>
-      <c r="EU17" s="128"/>
-      <c r="EV17" s="128"/>
-      <c r="EW17" s="128"/>
-      <c r="EX17" s="128"/>
-      <c r="EY17" s="128"/>
-      <c r="EZ17" s="128"/>
-      <c r="FA17" s="128"/>
-      <c r="FB17" s="128"/>
-      <c r="FC17" s="128"/>
-      <c r="FD17" s="128"/>
-      <c r="FE17" s="128"/>
-      <c r="FF17" s="128"/>
-      <c r="FG17" s="133"/>
-      <c r="FH17" s="134"/>
-      <c r="FI17" s="134"/>
-      <c r="FJ17" s="134"/>
-      <c r="FK17" s="134"/>
-      <c r="FL17" s="134"/>
-      <c r="FM17" s="134"/>
-      <c r="FN17" s="134"/>
-      <c r="FO17" s="134"/>
-      <c r="FP17" s="134"/>
-      <c r="FQ17" s="134"/>
-      <c r="FR17" s="134"/>
-      <c r="FS17" s="134"/>
-      <c r="FT17" s="134"/>
-      <c r="FU17" s="134"/>
-      <c r="FV17" s="134"/>
-      <c r="FW17" s="134"/>
+      <c r="DY17" s="128"/>
+      <c r="DZ17" s="128"/>
+      <c r="EA17" s="128"/>
+      <c r="EB17" s="128"/>
+      <c r="EC17" s="128"/>
+      <c r="ED17" s="128"/>
+      <c r="EE17" s="128"/>
+      <c r="EF17" s="128"/>
+      <c r="EG17" s="128"/>
+      <c r="EH17" s="128"/>
+      <c r="EI17" s="128"/>
+      <c r="EJ17" s="128"/>
+      <c r="EK17" s="128"/>
+      <c r="EL17" s="128"/>
+      <c r="EM17" s="128"/>
+      <c r="EN17" s="128"/>
+      <c r="EO17" s="128"/>
+      <c r="EP17" s="128"/>
+      <c r="EQ17" s="115"/>
+      <c r="ER17" s="116"/>
+      <c r="ES17" s="120"/>
+      <c r="ET17" s="119"/>
+      <c r="EU17" s="119"/>
+      <c r="EV17" s="119"/>
+      <c r="EW17" s="119"/>
+      <c r="EX17" s="119"/>
+      <c r="EY17" s="119"/>
+      <c r="EZ17" s="119"/>
+      <c r="FA17" s="119"/>
+      <c r="FB17" s="119"/>
+      <c r="FC17" s="119"/>
+      <c r="FD17" s="119"/>
+      <c r="FE17" s="119"/>
+      <c r="FF17" s="119"/>
+      <c r="FG17" s="131"/>
+      <c r="FH17" s="114"/>
+      <c r="FI17" s="114"/>
+      <c r="FJ17" s="114"/>
+      <c r="FK17" s="114"/>
+      <c r="FL17" s="114"/>
+      <c r="FM17" s="114"/>
+      <c r="FN17" s="114"/>
+      <c r="FO17" s="114"/>
+      <c r="FP17" s="114"/>
+      <c r="FQ17" s="114"/>
+      <c r="FR17" s="114"/>
+      <c r="FS17" s="114"/>
+      <c r="FT17" s="114"/>
+      <c r="FU17" s="114"/>
+      <c r="FV17" s="114"/>
+      <c r="FW17" s="114"/>
     </row>
     <row r="18" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
@@ -38756,57 +38820,57 @@
       <c r="DV18" s="132"/>
       <c r="DW18" s="132"/>
       <c r="DX18" s="132"/>
-      <c r="DY18" s="113"/>
-      <c r="DZ18" s="113"/>
-      <c r="EA18" s="113"/>
-      <c r="EB18" s="113"/>
-      <c r="EC18" s="113"/>
-      <c r="ED18" s="113"/>
-      <c r="EE18" s="113"/>
-      <c r="EF18" s="113"/>
-      <c r="EG18" s="113"/>
-      <c r="EH18" s="113"/>
-      <c r="EI18" s="113"/>
-      <c r="EJ18" s="113"/>
-      <c r="EK18" s="113"/>
-      <c r="EL18" s="113"/>
-      <c r="EM18" s="113"/>
-      <c r="EN18" s="113"/>
-      <c r="EO18" s="113"/>
-      <c r="EP18" s="113"/>
-      <c r="EQ18" s="136"/>
-      <c r="ER18" s="137"/>
-      <c r="ES18" s="127"/>
-      <c r="ET18" s="128"/>
-      <c r="EU18" s="128"/>
-      <c r="EV18" s="128"/>
-      <c r="EW18" s="128"/>
-      <c r="EX18" s="128"/>
-      <c r="EY18" s="128"/>
-      <c r="EZ18" s="128"/>
-      <c r="FA18" s="128"/>
-      <c r="FB18" s="128"/>
-      <c r="FC18" s="128"/>
-      <c r="FD18" s="128"/>
-      <c r="FE18" s="128"/>
-      <c r="FF18" s="128"/>
-      <c r="FG18" s="133"/>
-      <c r="FH18" s="134"/>
-      <c r="FI18" s="134"/>
-      <c r="FJ18" s="134"/>
-      <c r="FK18" s="134"/>
-      <c r="FL18" s="134"/>
-      <c r="FM18" s="134"/>
-      <c r="FN18" s="134"/>
-      <c r="FO18" s="134"/>
-      <c r="FP18" s="134"/>
-      <c r="FQ18" s="134"/>
-      <c r="FR18" s="134"/>
-      <c r="FS18" s="134"/>
-      <c r="FT18" s="134"/>
-      <c r="FU18" s="134"/>
-      <c r="FV18" s="134"/>
-      <c r="FW18" s="134"/>
+      <c r="DY18" s="128"/>
+      <c r="DZ18" s="128"/>
+      <c r="EA18" s="128"/>
+      <c r="EB18" s="128"/>
+      <c r="EC18" s="128"/>
+      <c r="ED18" s="128"/>
+      <c r="EE18" s="128"/>
+      <c r="EF18" s="128"/>
+      <c r="EG18" s="128"/>
+      <c r="EH18" s="128"/>
+      <c r="EI18" s="128"/>
+      <c r="EJ18" s="128"/>
+      <c r="EK18" s="128"/>
+      <c r="EL18" s="128"/>
+      <c r="EM18" s="128"/>
+      <c r="EN18" s="128"/>
+      <c r="EO18" s="128"/>
+      <c r="EP18" s="128"/>
+      <c r="EQ18" s="115"/>
+      <c r="ER18" s="116"/>
+      <c r="ES18" s="120"/>
+      <c r="ET18" s="119"/>
+      <c r="EU18" s="119"/>
+      <c r="EV18" s="119"/>
+      <c r="EW18" s="119"/>
+      <c r="EX18" s="119"/>
+      <c r="EY18" s="119"/>
+      <c r="EZ18" s="119"/>
+      <c r="FA18" s="119"/>
+      <c r="FB18" s="119"/>
+      <c r="FC18" s="119"/>
+      <c r="FD18" s="119"/>
+      <c r="FE18" s="119"/>
+      <c r="FF18" s="119"/>
+      <c r="FG18" s="131"/>
+      <c r="FH18" s="114"/>
+      <c r="FI18" s="114"/>
+      <c r="FJ18" s="114"/>
+      <c r="FK18" s="114"/>
+      <c r="FL18" s="114"/>
+      <c r="FM18" s="114"/>
+      <c r="FN18" s="114"/>
+      <c r="FO18" s="114"/>
+      <c r="FP18" s="114"/>
+      <c r="FQ18" s="114"/>
+      <c r="FR18" s="114"/>
+      <c r="FS18" s="114"/>
+      <c r="FT18" s="114"/>
+      <c r="FU18" s="114"/>
+      <c r="FV18" s="114"/>
+      <c r="FW18" s="114"/>
     </row>
     <row r="19" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -38960,39 +39024,39 @@
       <c r="EP19" s="85" t="s">
         <v>1756</v>
       </c>
-      <c r="EQ19" s="136"/>
-      <c r="ER19" s="137"/>
-      <c r="ES19" s="127"/>
-      <c r="ET19" s="128"/>
-      <c r="EU19" s="128"/>
-      <c r="EV19" s="128"/>
-      <c r="EW19" s="128"/>
-      <c r="EX19" s="128"/>
-      <c r="EY19" s="128"/>
-      <c r="EZ19" s="128"/>
-      <c r="FA19" s="128"/>
-      <c r="FB19" s="128"/>
-      <c r="FC19" s="128"/>
-      <c r="FD19" s="128"/>
-      <c r="FE19" s="128"/>
-      <c r="FF19" s="128"/>
-      <c r="FG19" s="133"/>
-      <c r="FH19" s="134"/>
-      <c r="FI19" s="134"/>
-      <c r="FJ19" s="134"/>
-      <c r="FK19" s="134"/>
-      <c r="FL19" s="134"/>
-      <c r="FM19" s="134"/>
-      <c r="FN19" s="134"/>
-      <c r="FO19" s="134"/>
-      <c r="FP19" s="134"/>
-      <c r="FQ19" s="134"/>
-      <c r="FR19" s="134"/>
-      <c r="FS19" s="134"/>
-      <c r="FT19" s="134"/>
-      <c r="FU19" s="134"/>
-      <c r="FV19" s="134"/>
-      <c r="FW19" s="134"/>
+      <c r="EQ19" s="115"/>
+      <c r="ER19" s="116"/>
+      <c r="ES19" s="120"/>
+      <c r="ET19" s="119"/>
+      <c r="EU19" s="119"/>
+      <c r="EV19" s="119"/>
+      <c r="EW19" s="119"/>
+      <c r="EX19" s="119"/>
+      <c r="EY19" s="119"/>
+      <c r="EZ19" s="119"/>
+      <c r="FA19" s="119"/>
+      <c r="FB19" s="119"/>
+      <c r="FC19" s="119"/>
+      <c r="FD19" s="119"/>
+      <c r="FE19" s="119"/>
+      <c r="FF19" s="119"/>
+      <c r="FG19" s="131"/>
+      <c r="FH19" s="114"/>
+      <c r="FI19" s="114"/>
+      <c r="FJ19" s="114"/>
+      <c r="FK19" s="114"/>
+      <c r="FL19" s="114"/>
+      <c r="FM19" s="114"/>
+      <c r="FN19" s="114"/>
+      <c r="FO19" s="114"/>
+      <c r="FP19" s="114"/>
+      <c r="FQ19" s="114"/>
+      <c r="FR19" s="114"/>
+      <c r="FS19" s="114"/>
+      <c r="FT19" s="114"/>
+      <c r="FU19" s="114"/>
+      <c r="FV19" s="114"/>
+      <c r="FW19" s="114"/>
     </row>
     <row r="20" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
@@ -39083,232 +39147,232 @@
       <c r="CE20" s="66" t="s">
         <v>1755</v>
       </c>
-      <c r="CF20" s="131" t="s">
+      <c r="CF20" s="135" t="s">
         <v>1745</v>
       </c>
-      <c r="CG20" s="130" t="s">
+      <c r="CG20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CH20" s="130" t="s">
+      <c r="CH20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CI20" s="130" t="s">
+      <c r="CI20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CJ20" s="130" t="s">
+      <c r="CJ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CK20" s="130" t="s">
+      <c r="CK20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CL20" s="130" t="s">
+      <c r="CL20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CM20" s="130" t="s">
+      <c r="CM20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CN20" s="130" t="s">
+      <c r="CN20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CO20" s="130" t="s">
+      <c r="CO20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CP20" s="130" t="s">
+      <c r="CP20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CQ20" s="130" t="s">
+      <c r="CQ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CR20" s="130" t="s">
+      <c r="CR20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CS20" s="130" t="s">
+      <c r="CS20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CT20" s="130" t="s">
+      <c r="CT20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CU20" s="130" t="s">
+      <c r="CU20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CV20" s="130" t="s">
+      <c r="CV20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CW20" s="130" t="s">
+      <c r="CW20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CX20" s="130" t="s">
+      <c r="CX20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CY20" s="130" t="s">
+      <c r="CY20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="CZ20" s="130" t="s">
+      <c r="CZ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DA20" s="130" t="s">
+      <c r="DA20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DB20" s="130" t="s">
+      <c r="DB20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DC20" s="130" t="s">
+      <c r="DC20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DD20" s="130" t="s">
+      <c r="DD20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DE20" s="130" t="s">
+      <c r="DE20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DF20" s="130" t="s">
+      <c r="DF20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DG20" s="130" t="s">
+      <c r="DG20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DH20" s="130" t="s">
+      <c r="DH20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DI20" s="130" t="s">
+      <c r="DI20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DJ20" s="130" t="s">
+      <c r="DJ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DK20" s="130" t="s">
+      <c r="DK20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DL20" s="130" t="s">
+      <c r="DL20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DM20" s="130" t="s">
+      <c r="DM20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DN20" s="130" t="s">
+      <c r="DN20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DO20" s="130" t="s">
+      <c r="DO20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DP20" s="130" t="s">
+      <c r="DP20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DQ20" s="130" t="s">
+      <c r="DQ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DR20" s="130" t="s">
+      <c r="DR20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DS20" s="130" t="s">
+      <c r="DS20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DT20" s="130" t="s">
+      <c r="DT20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DU20" s="130" t="s">
+      <c r="DU20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DV20" s="130" t="s">
+      <c r="DV20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DW20" s="130" t="s">
+      <c r="DW20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DX20" s="130" t="s">
+      <c r="DX20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DY20" s="130" t="s">
+      <c r="DY20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="DZ20" s="130" t="s">
+      <c r="DZ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EA20" s="130" t="s">
+      <c r="EA20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EB20" s="130" t="s">
+      <c r="EB20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EC20" s="130" t="s">
+      <c r="EC20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="ED20" s="130" t="s">
+      <c r="ED20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EE20" s="130" t="s">
+      <c r="EE20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EF20" s="130" t="s">
+      <c r="EF20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EG20" s="130" t="s">
+      <c r="EG20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EH20" s="130" t="s">
+      <c r="EH20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EI20" s="130" t="s">
+      <c r="EI20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EJ20" s="130" t="s">
+      <c r="EJ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EK20" s="130" t="s">
+      <c r="EK20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EL20" s="130" t="s">
+      <c r="EL20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EM20" s="130" t="s">
+      <c r="EM20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EN20" s="130" t="s">
+      <c r="EN20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EO20" s="130" t="s">
+      <c r="EO20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EP20" s="130" t="s">
+      <c r="EP20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="EQ20" s="130" t="s">
+      <c r="EQ20" s="133" t="s">
         <v>1745</v>
       </c>
-      <c r="ER20" s="140" t="s">
+      <c r="ER20" s="121" t="s">
         <v>1756</v>
       </c>
-      <c r="ES20" s="127"/>
-      <c r="ET20" s="128"/>
-      <c r="EU20" s="128"/>
-      <c r="EV20" s="128"/>
-      <c r="EW20" s="128"/>
-      <c r="EX20" s="128"/>
-      <c r="EY20" s="128"/>
-      <c r="EZ20" s="128"/>
-      <c r="FA20" s="128"/>
-      <c r="FB20" s="128"/>
-      <c r="FC20" s="128"/>
-      <c r="FD20" s="128"/>
-      <c r="FE20" s="128"/>
-      <c r="FF20" s="128"/>
-      <c r="FG20" s="133"/>
-      <c r="FH20" s="134"/>
-      <c r="FI20" s="134"/>
-      <c r="FJ20" s="134"/>
-      <c r="FK20" s="134"/>
-      <c r="FL20" s="134"/>
-      <c r="FM20" s="134"/>
-      <c r="FN20" s="134"/>
-      <c r="FO20" s="134"/>
-      <c r="FP20" s="134"/>
-      <c r="FQ20" s="134"/>
-      <c r="FR20" s="134"/>
-      <c r="FS20" s="134"/>
-      <c r="FT20" s="134"/>
-      <c r="FU20" s="134"/>
-      <c r="FV20" s="134"/>
-      <c r="FW20" s="134"/>
+      <c r="ES20" s="120"/>
+      <c r="ET20" s="119"/>
+      <c r="EU20" s="119"/>
+      <c r="EV20" s="119"/>
+      <c r="EW20" s="119"/>
+      <c r="EX20" s="119"/>
+      <c r="EY20" s="119"/>
+      <c r="EZ20" s="119"/>
+      <c r="FA20" s="119"/>
+      <c r="FB20" s="119"/>
+      <c r="FC20" s="119"/>
+      <c r="FD20" s="119"/>
+      <c r="FE20" s="119"/>
+      <c r="FF20" s="119"/>
+      <c r="FG20" s="131"/>
+      <c r="FH20" s="114"/>
+      <c r="FI20" s="114"/>
+      <c r="FJ20" s="114"/>
+      <c r="FK20" s="114"/>
+      <c r="FL20" s="114"/>
+      <c r="FM20" s="114"/>
+      <c r="FN20" s="114"/>
+      <c r="FO20" s="114"/>
+      <c r="FP20" s="114"/>
+      <c r="FQ20" s="114"/>
+      <c r="FR20" s="114"/>
+      <c r="FS20" s="114"/>
+      <c r="FT20" s="114"/>
+      <c r="FU20" s="114"/>
+      <c r="FV20" s="114"/>
+      <c r="FW20" s="114"/>
     </row>
     <row r="21" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
@@ -39399,102 +39463,102 @@
       <c r="CE21" s="67" t="s">
         <v>1754</v>
       </c>
-      <c r="CF21" s="131"/>
-      <c r="CG21" s="130"/>
-      <c r="CH21" s="130"/>
-      <c r="CI21" s="130"/>
-      <c r="CJ21" s="130"/>
-      <c r="CK21" s="130"/>
-      <c r="CL21" s="130"/>
-      <c r="CM21" s="130"/>
-      <c r="CN21" s="130"/>
-      <c r="CO21" s="130"/>
-      <c r="CP21" s="130"/>
-      <c r="CQ21" s="130"/>
-      <c r="CR21" s="130"/>
-      <c r="CS21" s="130"/>
-      <c r="CT21" s="130"/>
-      <c r="CU21" s="130"/>
-      <c r="CV21" s="130"/>
-      <c r="CW21" s="130"/>
-      <c r="CX21" s="130"/>
-      <c r="CY21" s="130"/>
-      <c r="CZ21" s="130"/>
-      <c r="DA21" s="130"/>
-      <c r="DB21" s="130"/>
-      <c r="DC21" s="130"/>
-      <c r="DD21" s="130"/>
-      <c r="DE21" s="130"/>
-      <c r="DF21" s="130"/>
-      <c r="DG21" s="130"/>
-      <c r="DH21" s="130"/>
-      <c r="DI21" s="130"/>
-      <c r="DJ21" s="130"/>
-      <c r="DK21" s="130"/>
-      <c r="DL21" s="130"/>
-      <c r="DM21" s="130"/>
-      <c r="DN21" s="130"/>
-      <c r="DO21" s="130"/>
-      <c r="DP21" s="130"/>
-      <c r="DQ21" s="130"/>
-      <c r="DR21" s="130"/>
-      <c r="DS21" s="130"/>
-      <c r="DT21" s="130"/>
-      <c r="DU21" s="130"/>
-      <c r="DV21" s="130"/>
-      <c r="DW21" s="130"/>
-      <c r="DX21" s="130"/>
-      <c r="DY21" s="130"/>
-      <c r="DZ21" s="130"/>
-      <c r="EA21" s="130"/>
-      <c r="EB21" s="130"/>
-      <c r="EC21" s="130"/>
-      <c r="ED21" s="130"/>
-      <c r="EE21" s="130"/>
-      <c r="EF21" s="130"/>
-      <c r="EG21" s="130"/>
-      <c r="EH21" s="130"/>
-      <c r="EI21" s="130"/>
-      <c r="EJ21" s="130"/>
-      <c r="EK21" s="130"/>
-      <c r="EL21" s="130"/>
-      <c r="EM21" s="130"/>
-      <c r="EN21" s="130"/>
-      <c r="EO21" s="130"/>
-      <c r="EP21" s="130"/>
-      <c r="EQ21" s="130"/>
-      <c r="ER21" s="140"/>
-      <c r="ES21" s="127"/>
-      <c r="ET21" s="128"/>
-      <c r="EU21" s="128"/>
-      <c r="EV21" s="128"/>
-      <c r="EW21" s="128"/>
-      <c r="EX21" s="128"/>
-      <c r="EY21" s="128"/>
-      <c r="EZ21" s="128"/>
-      <c r="FA21" s="128"/>
-      <c r="FB21" s="128"/>
-      <c r="FC21" s="128"/>
-      <c r="FD21" s="128"/>
-      <c r="FE21" s="128"/>
-      <c r="FF21" s="128"/>
-      <c r="FG21" s="133"/>
-      <c r="FH21" s="134"/>
-      <c r="FI21" s="134"/>
-      <c r="FJ21" s="134"/>
-      <c r="FK21" s="134"/>
-      <c r="FL21" s="134"/>
-      <c r="FM21" s="134"/>
-      <c r="FN21" s="134"/>
-      <c r="FO21" s="134"/>
-      <c r="FP21" s="134"/>
-      <c r="FQ21" s="134"/>
-      <c r="FR21" s="134"/>
-      <c r="FS21" s="134"/>
-      <c r="FT21" s="134"/>
-      <c r="FU21" s="134"/>
-      <c r="FV21" s="134"/>
-      <c r="FW21" s="134"/>
+      <c r="CF21" s="135"/>
+      <c r="CG21" s="133"/>
+      <c r="CH21" s="133"/>
+      <c r="CI21" s="133"/>
+      <c r="CJ21" s="133"/>
+      <c r="CK21" s="133"/>
+      <c r="CL21" s="133"/>
+      <c r="CM21" s="133"/>
+      <c r="CN21" s="133"/>
+      <c r="CO21" s="133"/>
+      <c r="CP21" s="133"/>
+      <c r="CQ21" s="133"/>
+      <c r="CR21" s="133"/>
+      <c r="CS21" s="133"/>
+      <c r="CT21" s="133"/>
+      <c r="CU21" s="133"/>
+      <c r="CV21" s="133"/>
+      <c r="CW21" s="133"/>
+      <c r="CX21" s="133"/>
+      <c r="CY21" s="133"/>
+      <c r="CZ21" s="133"/>
+      <c r="DA21" s="133"/>
+      <c r="DB21" s="133"/>
+      <c r="DC21" s="133"/>
+      <c r="DD21" s="133"/>
+      <c r="DE21" s="133"/>
+      <c r="DF21" s="133"/>
+      <c r="DG21" s="133"/>
+      <c r="DH21" s="133"/>
+      <c r="DI21" s="133"/>
+      <c r="DJ21" s="133"/>
+      <c r="DK21" s="133"/>
+      <c r="DL21" s="133"/>
+      <c r="DM21" s="133"/>
+      <c r="DN21" s="133"/>
+      <c r="DO21" s="133"/>
+      <c r="DP21" s="133"/>
+      <c r="DQ21" s="133"/>
+      <c r="DR21" s="133"/>
+      <c r="DS21" s="133"/>
+      <c r="DT21" s="133"/>
+      <c r="DU21" s="133"/>
+      <c r="DV21" s="133"/>
+      <c r="DW21" s="133"/>
+      <c r="DX21" s="133"/>
+      <c r="DY21" s="133"/>
+      <c r="DZ21" s="133"/>
+      <c r="EA21" s="133"/>
+      <c r="EB21" s="133"/>
+      <c r="EC21" s="133"/>
+      <c r="ED21" s="133"/>
+      <c r="EE21" s="133"/>
+      <c r="EF21" s="133"/>
+      <c r="EG21" s="133"/>
+      <c r="EH21" s="133"/>
+      <c r="EI21" s="133"/>
+      <c r="EJ21" s="133"/>
+      <c r="EK21" s="133"/>
+      <c r="EL21" s="133"/>
+      <c r="EM21" s="133"/>
+      <c r="EN21" s="133"/>
+      <c r="EO21" s="133"/>
+      <c r="EP21" s="133"/>
+      <c r="EQ21" s="133"/>
+      <c r="ER21" s="121"/>
+      <c r="ES21" s="120"/>
+      <c r="ET21" s="119"/>
+      <c r="EU21" s="119"/>
+      <c r="EV21" s="119"/>
+      <c r="EW21" s="119"/>
+      <c r="EX21" s="119"/>
+      <c r="EY21" s="119"/>
+      <c r="EZ21" s="119"/>
+      <c r="FA21" s="119"/>
+      <c r="FB21" s="119"/>
+      <c r="FC21" s="119"/>
+      <c r="FD21" s="119"/>
+      <c r="FE21" s="119"/>
+      <c r="FF21" s="119"/>
+      <c r="FG21" s="131"/>
+      <c r="FH21" s="114"/>
+      <c r="FI21" s="114"/>
+      <c r="FJ21" s="114"/>
+      <c r="FK21" s="114"/>
+      <c r="FL21" s="114"/>
+      <c r="FM21" s="114"/>
+      <c r="FN21" s="114"/>
+      <c r="FO21" s="114"/>
+      <c r="FP21" s="114"/>
+      <c r="FQ21" s="114"/>
+      <c r="FR21" s="114"/>
+      <c r="FS21" s="114"/>
+      <c r="FT21" s="114"/>
+      <c r="FU21" s="114"/>
+      <c r="FV21" s="114"/>
+      <c r="FW21" s="114"/>
     </row>
     <row r="22" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -39673,22 +39737,22 @@
       <c r="FG22" s="89" t="s">
         <v>1197</v>
       </c>
-      <c r="FH22" s="134"/>
-      <c r="FI22" s="134"/>
-      <c r="FJ22" s="134"/>
-      <c r="FK22" s="134"/>
-      <c r="FL22" s="134"/>
-      <c r="FM22" s="134"/>
-      <c r="FN22" s="134"/>
-      <c r="FO22" s="134"/>
-      <c r="FP22" s="134"/>
-      <c r="FQ22" s="134"/>
-      <c r="FR22" s="134"/>
-      <c r="FS22" s="134"/>
-      <c r="FT22" s="134"/>
-      <c r="FU22" s="134"/>
-      <c r="FV22" s="134"/>
-      <c r="FW22" s="134"/>
+      <c r="FH22" s="114"/>
+      <c r="FI22" s="114"/>
+      <c r="FJ22" s="114"/>
+      <c r="FK22" s="114"/>
+      <c r="FL22" s="114"/>
+      <c r="FM22" s="114"/>
+      <c r="FN22" s="114"/>
+      <c r="FO22" s="114"/>
+      <c r="FP22" s="114"/>
+      <c r="FQ22" s="114"/>
+      <c r="FR22" s="114"/>
+      <c r="FS22" s="114"/>
+      <c r="FT22" s="114"/>
+      <c r="FU22" s="114"/>
+      <c r="FV22" s="114"/>
+      <c r="FW22" s="114"/>
     </row>
     <row r="23" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -39888,15 +39952,15 @@
       <c r="FN23" s="90" t="s">
         <v>1730</v>
       </c>
-      <c r="FO23" s="134"/>
-      <c r="FP23" s="134"/>
-      <c r="FQ23" s="134"/>
-      <c r="FR23" s="134"/>
-      <c r="FS23" s="134"/>
-      <c r="FT23" s="134"/>
-      <c r="FU23" s="134"/>
-      <c r="FV23" s="134"/>
-      <c r="FW23" s="134"/>
+      <c r="FO23" s="114"/>
+      <c r="FP23" s="114"/>
+      <c r="FQ23" s="114"/>
+      <c r="FR23" s="114"/>
+      <c r="FS23" s="114"/>
+      <c r="FT23" s="114"/>
+      <c r="FU23" s="114"/>
+      <c r="FV23" s="114"/>
+      <c r="FW23" s="114"/>
     </row>
     <row r="24" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -40128,9 +40192,9 @@
       <c r="FT24" s="92" t="s">
         <v>1730</v>
       </c>
-      <c r="FU24" s="134"/>
-      <c r="FV24" s="134"/>
-      <c r="FW24" s="134"/>
+      <c r="FU24" s="114"/>
+      <c r="FV24" s="114"/>
+      <c r="FW24" s="114"/>
     </row>
     <row r="25" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -40330,9 +40394,9 @@
       <c r="FT25" s="89" t="s">
         <v>1730</v>
       </c>
-      <c r="FU25" s="134"/>
-      <c r="FV25" s="134"/>
-      <c r="FW25" s="134"/>
+      <c r="FU25" s="114"/>
+      <c r="FV25" s="114"/>
+      <c r="FW25" s="114"/>
     </row>
     <row r="26" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -40567,8 +40631,8 @@
       <c r="FU26" s="82" t="s">
         <v>1730</v>
       </c>
-      <c r="FV26" s="134"/>
-      <c r="FW26" s="134"/>
+      <c r="FV26" s="114"/>
+      <c r="FW26" s="114"/>
     </row>
     <row r="27" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -40877,17 +40941,17 @@
       <c r="DT36" s="63" t="s">
         <v>1698</v>
       </c>
-      <c r="DU36" s="114" t="s">
+      <c r="DU36" s="126" t="s">
         <v>1259</v>
       </c>
-      <c r="DV36" s="115"/>
-      <c r="DW36" s="115"/>
-      <c r="DX36" s="115"/>
-      <c r="DY36" s="115"/>
-      <c r="DZ36" s="115"/>
-      <c r="EA36" s="115"/>
-      <c r="EB36" s="115"/>
-      <c r="EC36" s="115"/>
+      <c r="DV36" s="144"/>
+      <c r="DW36" s="144"/>
+      <c r="DX36" s="144"/>
+      <c r="DY36" s="144"/>
+      <c r="DZ36" s="144"/>
+      <c r="EA36" s="144"/>
+      <c r="EB36" s="144"/>
+      <c r="EC36" s="144"/>
       <c r="ED36" s="64"/>
       <c r="EE36" s="64"/>
       <c r="EF36" s="64"/>
@@ -41065,15 +41129,15 @@
       <c r="DT37" s="64" t="s">
         <v>1701</v>
       </c>
-      <c r="DU37" s="114"/>
-      <c r="DV37" s="115"/>
-      <c r="DW37" s="115"/>
-      <c r="DX37" s="115"/>
-      <c r="DY37" s="115"/>
-      <c r="DZ37" s="115"/>
-      <c r="EA37" s="115"/>
-      <c r="EB37" s="115"/>
-      <c r="EC37" s="115"/>
+      <c r="DU37" s="126"/>
+      <c r="DV37" s="144"/>
+      <c r="DW37" s="144"/>
+      <c r="DX37" s="144"/>
+      <c r="DY37" s="144"/>
+      <c r="DZ37" s="144"/>
+      <c r="EA37" s="144"/>
+      <c r="EB37" s="144"/>
+      <c r="EC37" s="144"/>
       <c r="ED37" s="64"/>
       <c r="EE37" s="64"/>
       <c r="EF37" s="64"/>
@@ -41984,25 +42048,25 @@
       <c r="EM44" s="67" t="s">
         <v>1707</v>
       </c>
-      <c r="EN44" s="119" t="s">
+      <c r="EN44" s="143" t="s">
         <v>1709</v>
       </c>
-      <c r="EO44" s="116"/>
-      <c r="EP44" s="116"/>
-      <c r="EQ44" s="119" t="s">
+      <c r="EO44" s="141"/>
+      <c r="EP44" s="141"/>
+      <c r="EQ44" s="143" t="s">
         <v>1709</v>
       </c>
-      <c r="ER44" s="116"/>
-      <c r="ES44" s="116"/>
-      <c r="ET44" s="116"/>
-      <c r="EU44" s="119" t="s">
+      <c r="ER44" s="141"/>
+      <c r="ES44" s="141"/>
+      <c r="ET44" s="141"/>
+      <c r="EU44" s="143" t="s">
         <v>1709</v>
       </c>
-      <c r="EV44" s="116"/>
-      <c r="EW44" s="116"/>
-      <c r="EX44" s="116"/>
-      <c r="EY44" s="116"/>
-      <c r="EZ44" s="116"/>
+      <c r="EV44" s="141"/>
+      <c r="EW44" s="141"/>
+      <c r="EX44" s="141"/>
+      <c r="EY44" s="141"/>
+      <c r="EZ44" s="141"/>
     </row>
     <row r="45" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -42159,19 +42223,19 @@
       <c r="EM45" s="67" t="s">
         <v>1708</v>
       </c>
-      <c r="EN45" s="119"/>
-      <c r="EO45" s="116"/>
-      <c r="EP45" s="116"/>
-      <c r="EQ45" s="119"/>
-      <c r="ER45" s="116"/>
-      <c r="ES45" s="116"/>
-      <c r="ET45" s="116"/>
-      <c r="EU45" s="119"/>
-      <c r="EV45" s="116"/>
-      <c r="EW45" s="116"/>
-      <c r="EX45" s="116"/>
-      <c r="EY45" s="116"/>
-      <c r="EZ45" s="116"/>
+      <c r="EN45" s="143"/>
+      <c r="EO45" s="141"/>
+      <c r="EP45" s="141"/>
+      <c r="EQ45" s="143"/>
+      <c r="ER45" s="141"/>
+      <c r="ES45" s="141"/>
+      <c r="ET45" s="141"/>
+      <c r="EU45" s="143"/>
+      <c r="EV45" s="141"/>
+      <c r="EW45" s="141"/>
+      <c r="EX45" s="141"/>
+      <c r="EY45" s="141"/>
+      <c r="EZ45" s="141"/>
     </row>
     <row r="46" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -42330,18 +42394,18 @@
       <c r="EU46" s="69"/>
       <c r="EV46" s="69"/>
       <c r="EW46" s="69"/>
-      <c r="EX46" s="120" t="s">
+      <c r="EX46" s="139" t="s">
         <v>1726</v>
       </c>
-      <c r="EY46" s="120"/>
-      <c r="EZ46" s="120" t="s">
+      <c r="EY46" s="139"/>
+      <c r="EZ46" s="139" t="s">
         <v>1726</v>
       </c>
-      <c r="FA46" s="120"/>
-      <c r="FB46" s="120" t="s">
+      <c r="FA46" s="139"/>
+      <c r="FB46" s="139" t="s">
         <v>1726</v>
       </c>
-      <c r="FC46" s="120"/>
+      <c r="FC46" s="139"/>
     </row>
     <row r="47" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -42473,45 +42537,45 @@
       <c r="DT47" s="64" t="s">
         <v>1720</v>
       </c>
-      <c r="DU47" s="117" t="s">
+      <c r="DU47" s="142" t="s">
         <v>1715</v>
       </c>
-      <c r="DV47" s="118"/>
-      <c r="DW47" s="118"/>
-      <c r="DX47" s="118"/>
-      <c r="DY47" s="118"/>
-      <c r="DZ47" s="118"/>
-      <c r="EA47" s="118"/>
-      <c r="EB47" s="118"/>
-      <c r="EC47" s="118"/>
-      <c r="ED47" s="118"/>
-      <c r="EE47" s="118"/>
-      <c r="EF47" s="118"/>
-      <c r="EG47" s="118"/>
-      <c r="EH47" s="118"/>
-      <c r="EI47" s="118"/>
-      <c r="EJ47" s="118"/>
-      <c r="EK47" s="118"/>
-      <c r="EL47" s="118"/>
-      <c r="EM47" s="118"/>
-      <c r="EN47" s="118"/>
-      <c r="EO47" s="118"/>
-      <c r="EP47" s="118"/>
-      <c r="EQ47" s="118"/>
-      <c r="ER47" s="118"/>
-      <c r="ES47" s="118"/>
-      <c r="ET47" s="118"/>
-      <c r="EU47" s="118"/>
-      <c r="EV47" s="118"/>
-      <c r="EW47" s="121" t="s">
+      <c r="DV47" s="138"/>
+      <c r="DW47" s="138"/>
+      <c r="DX47" s="138"/>
+      <c r="DY47" s="138"/>
+      <c r="DZ47" s="138"/>
+      <c r="EA47" s="138"/>
+      <c r="EB47" s="138"/>
+      <c r="EC47" s="138"/>
+      <c r="ED47" s="138"/>
+      <c r="EE47" s="138"/>
+      <c r="EF47" s="138"/>
+      <c r="EG47" s="138"/>
+      <c r="EH47" s="138"/>
+      <c r="EI47" s="138"/>
+      <c r="EJ47" s="138"/>
+      <c r="EK47" s="138"/>
+      <c r="EL47" s="138"/>
+      <c r="EM47" s="138"/>
+      <c r="EN47" s="138"/>
+      <c r="EO47" s="138"/>
+      <c r="EP47" s="138"/>
+      <c r="EQ47" s="138"/>
+      <c r="ER47" s="138"/>
+      <c r="ES47" s="138"/>
+      <c r="ET47" s="138"/>
+      <c r="EU47" s="138"/>
+      <c r="EV47" s="138"/>
+      <c r="EW47" s="140" t="s">
         <v>1722</v>
       </c>
-      <c r="EX47" s="120"/>
-      <c r="EY47" s="120"/>
-      <c r="EZ47" s="120"/>
-      <c r="FA47" s="120"/>
-      <c r="FB47" s="120"/>
-      <c r="FC47" s="120"/>
+      <c r="EX47" s="139"/>
+      <c r="EY47" s="139"/>
+      <c r="EZ47" s="139"/>
+      <c r="FA47" s="139"/>
+      <c r="FB47" s="139"/>
+      <c r="FC47" s="139"/>
     </row>
     <row r="48" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -42643,41 +42707,41 @@
       <c r="DT48" s="68" t="s">
         <v>1721</v>
       </c>
-      <c r="DU48" s="117"/>
-      <c r="DV48" s="118"/>
-      <c r="DW48" s="118"/>
-      <c r="DX48" s="118"/>
-      <c r="DY48" s="118"/>
-      <c r="DZ48" s="118"/>
-      <c r="EA48" s="118"/>
-      <c r="EB48" s="118"/>
-      <c r="EC48" s="118"/>
-      <c r="ED48" s="118"/>
-      <c r="EE48" s="118"/>
-      <c r="EF48" s="118"/>
-      <c r="EG48" s="118"/>
-      <c r="EH48" s="118"/>
-      <c r="EI48" s="118"/>
-      <c r="EJ48" s="118"/>
-      <c r="EK48" s="118"/>
-      <c r="EL48" s="118"/>
-      <c r="EM48" s="118"/>
-      <c r="EN48" s="118"/>
-      <c r="EO48" s="118"/>
-      <c r="EP48" s="118"/>
-      <c r="EQ48" s="118"/>
-      <c r="ER48" s="118"/>
-      <c r="ES48" s="118"/>
-      <c r="ET48" s="118"/>
-      <c r="EU48" s="118"/>
-      <c r="EV48" s="118"/>
-      <c r="EW48" s="121"/>
-      <c r="EX48" s="120"/>
-      <c r="EY48" s="120"/>
-      <c r="EZ48" s="120"/>
-      <c r="FA48" s="120"/>
-      <c r="FB48" s="120"/>
-      <c r="FC48" s="120"/>
+      <c r="DU48" s="142"/>
+      <c r="DV48" s="138"/>
+      <c r="DW48" s="138"/>
+      <c r="DX48" s="138"/>
+      <c r="DY48" s="138"/>
+      <c r="DZ48" s="138"/>
+      <c r="EA48" s="138"/>
+      <c r="EB48" s="138"/>
+      <c r="EC48" s="138"/>
+      <c r="ED48" s="138"/>
+      <c r="EE48" s="138"/>
+      <c r="EF48" s="138"/>
+      <c r="EG48" s="138"/>
+      <c r="EH48" s="138"/>
+      <c r="EI48" s="138"/>
+      <c r="EJ48" s="138"/>
+      <c r="EK48" s="138"/>
+      <c r="EL48" s="138"/>
+      <c r="EM48" s="138"/>
+      <c r="EN48" s="138"/>
+      <c r="EO48" s="138"/>
+      <c r="EP48" s="138"/>
+      <c r="EQ48" s="138"/>
+      <c r="ER48" s="138"/>
+      <c r="ES48" s="138"/>
+      <c r="ET48" s="138"/>
+      <c r="EU48" s="138"/>
+      <c r="EV48" s="138"/>
+      <c r="EW48" s="140"/>
+      <c r="EX48" s="139"/>
+      <c r="EY48" s="139"/>
+      <c r="EZ48" s="139"/>
+      <c r="FA48" s="139"/>
+      <c r="FB48" s="139"/>
+      <c r="FC48" s="139"/>
     </row>
     <row r="49" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -43270,15 +43334,266 @@
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="FU7:FU25"/>
-    <mergeCell ref="FV7:FV26"/>
-    <mergeCell ref="FW7:FW26"/>
-    <mergeCell ref="FO7:FO23"/>
-    <mergeCell ref="FP7:FP23"/>
-    <mergeCell ref="FQ7:FQ23"/>
-    <mergeCell ref="FR7:FR23"/>
-    <mergeCell ref="FS7:FS23"/>
-    <mergeCell ref="FT7:FT23"/>
+    <mergeCell ref="EK16:EK18"/>
+    <mergeCell ref="EL16:EL18"/>
+    <mergeCell ref="EM16:EM18"/>
+    <mergeCell ref="EN16:EN18"/>
+    <mergeCell ref="EO16:EO18"/>
+    <mergeCell ref="DU36:DU37"/>
+    <mergeCell ref="DV36:DV37"/>
+    <mergeCell ref="DW36:DW37"/>
+    <mergeCell ref="DX36:DX37"/>
+    <mergeCell ref="DY36:DY37"/>
+    <mergeCell ref="DZ36:DZ37"/>
+    <mergeCell ref="EA36:EA37"/>
+    <mergeCell ref="EB36:EB37"/>
+    <mergeCell ref="EC36:EC37"/>
+    <mergeCell ref="EV44:EV45"/>
+    <mergeCell ref="EW44:EW45"/>
+    <mergeCell ref="EX44:EX45"/>
+    <mergeCell ref="EY44:EY45"/>
+    <mergeCell ref="EZ44:EZ45"/>
+    <mergeCell ref="DU47:DU48"/>
+    <mergeCell ref="DV47:DV48"/>
+    <mergeCell ref="DW47:DW48"/>
+    <mergeCell ref="DX47:DX48"/>
+    <mergeCell ref="DY47:DY48"/>
+    <mergeCell ref="EP44:EP45"/>
+    <mergeCell ref="EQ44:EQ45"/>
+    <mergeCell ref="ER44:ER45"/>
+    <mergeCell ref="ES44:ES45"/>
+    <mergeCell ref="ET44:ET45"/>
+    <mergeCell ref="EU44:EU45"/>
+    <mergeCell ref="EZ46:EZ48"/>
+    <mergeCell ref="EN44:EN45"/>
+    <mergeCell ref="EO44:EO45"/>
+    <mergeCell ref="EC47:EC48"/>
+    <mergeCell ref="ED47:ED48"/>
+    <mergeCell ref="EE47:EE48"/>
+    <mergeCell ref="DZ47:DZ48"/>
+    <mergeCell ref="EA47:EA48"/>
+    <mergeCell ref="EB47:EB48"/>
+    <mergeCell ref="FA46:FA48"/>
+    <mergeCell ref="FB46:FB48"/>
+    <mergeCell ref="FC46:FC48"/>
+    <mergeCell ref="ER47:ER48"/>
+    <mergeCell ref="ES47:ES48"/>
+    <mergeCell ref="ET47:ET48"/>
+    <mergeCell ref="EU47:EU48"/>
+    <mergeCell ref="EV47:EV48"/>
+    <mergeCell ref="EW47:EW48"/>
+    <mergeCell ref="EX46:EX48"/>
+    <mergeCell ref="EY46:EY48"/>
+    <mergeCell ref="EL47:EL48"/>
+    <mergeCell ref="EM47:EM48"/>
+    <mergeCell ref="EN47:EN48"/>
+    <mergeCell ref="EO47:EO48"/>
+    <mergeCell ref="EP47:EP48"/>
+    <mergeCell ref="EQ47:EQ48"/>
+    <mergeCell ref="EF47:EF48"/>
+    <mergeCell ref="EG47:EG48"/>
+    <mergeCell ref="EH47:EH48"/>
+    <mergeCell ref="EI47:EI48"/>
+    <mergeCell ref="EJ47:EJ48"/>
+    <mergeCell ref="EK47:EK48"/>
+    <mergeCell ref="DU13:DU15"/>
+    <mergeCell ref="DV13:DV15"/>
+    <mergeCell ref="DW13:DW15"/>
+    <mergeCell ref="DR13:DR14"/>
+    <mergeCell ref="DS13:DS14"/>
+    <mergeCell ref="DT13:DT14"/>
+    <mergeCell ref="DN13:DN14"/>
+    <mergeCell ref="DO13:DO14"/>
+    <mergeCell ref="DP13:DP14"/>
+    <mergeCell ref="DQ13:DQ14"/>
+    <mergeCell ref="EH13:EH15"/>
+    <mergeCell ref="EI13:EI15"/>
+    <mergeCell ref="EJ13:EJ15"/>
+    <mergeCell ref="EK13:EK15"/>
+    <mergeCell ref="EL13:EL15"/>
+    <mergeCell ref="EM13:EM15"/>
+    <mergeCell ref="DX13:DX15"/>
+    <mergeCell ref="DY13:DY15"/>
+    <mergeCell ref="DZ13:DZ15"/>
+    <mergeCell ref="EA13:EA15"/>
+    <mergeCell ref="EB13:EB15"/>
+    <mergeCell ref="EC13:EC15"/>
+    <mergeCell ref="ED13:ED15"/>
+    <mergeCell ref="EE13:EE15"/>
+    <mergeCell ref="EF13:EF15"/>
+    <mergeCell ref="EG13:EG15"/>
+    <mergeCell ref="EN9:EN10"/>
+    <mergeCell ref="EO9:EO10"/>
+    <mergeCell ref="EU13:EU15"/>
+    <mergeCell ref="EV13:EV15"/>
+    <mergeCell ref="EW13:EW15"/>
+    <mergeCell ref="EX12:EX15"/>
+    <mergeCell ref="ET7:ET8"/>
+    <mergeCell ref="EU7:EU8"/>
+    <mergeCell ref="EV7:EV8"/>
+    <mergeCell ref="EW7:EW8"/>
+    <mergeCell ref="EV9:EV10"/>
+    <mergeCell ref="EP13:EP15"/>
+    <mergeCell ref="EQ13:EQ15"/>
+    <mergeCell ref="ER13:ER15"/>
+    <mergeCell ref="ES13:ES15"/>
+    <mergeCell ref="EN13:EN15"/>
+    <mergeCell ref="EO13:EO15"/>
+    <mergeCell ref="CG16:CG17"/>
+    <mergeCell ref="CH16:CH17"/>
+    <mergeCell ref="CG20:CG21"/>
+    <mergeCell ref="CF20:CF21"/>
+    <mergeCell ref="CH20:CH21"/>
+    <mergeCell ref="CI20:CI21"/>
+    <mergeCell ref="CJ20:CJ21"/>
+    <mergeCell ref="CK20:CK21"/>
+    <mergeCell ref="CL20:CL21"/>
+    <mergeCell ref="CI16:CI17"/>
+    <mergeCell ref="CJ16:CJ17"/>
+    <mergeCell ref="CK16:CK17"/>
+    <mergeCell ref="CL16:CL17"/>
+    <mergeCell ref="CS20:CS21"/>
+    <mergeCell ref="CT20:CT21"/>
+    <mergeCell ref="CU20:CU21"/>
+    <mergeCell ref="CV20:CV21"/>
+    <mergeCell ref="CW20:CW21"/>
+    <mergeCell ref="CX20:CX21"/>
+    <mergeCell ref="CM20:CM21"/>
+    <mergeCell ref="CN20:CN21"/>
+    <mergeCell ref="CO20:CO21"/>
+    <mergeCell ref="CP20:CP21"/>
+    <mergeCell ref="CQ20:CQ21"/>
+    <mergeCell ref="CR20:CR21"/>
+    <mergeCell ref="DH20:DH21"/>
+    <mergeCell ref="DI20:DI21"/>
+    <mergeCell ref="DJ20:DJ21"/>
+    <mergeCell ref="CY20:CY21"/>
+    <mergeCell ref="CZ20:CZ21"/>
+    <mergeCell ref="DA20:DA21"/>
+    <mergeCell ref="DB20:DB21"/>
+    <mergeCell ref="DC20:DC21"/>
+    <mergeCell ref="DD20:DD21"/>
+    <mergeCell ref="CM16:CM17"/>
+    <mergeCell ref="CN16:CN17"/>
+    <mergeCell ref="EI20:EI21"/>
+    <mergeCell ref="EJ20:EJ21"/>
+    <mergeCell ref="EK20:EK21"/>
+    <mergeCell ref="EC20:EC21"/>
+    <mergeCell ref="ED20:ED21"/>
+    <mergeCell ref="EE20:EE21"/>
+    <mergeCell ref="EF20:EF21"/>
+    <mergeCell ref="EG20:EG21"/>
+    <mergeCell ref="EH20:EH21"/>
+    <mergeCell ref="DW20:DW21"/>
+    <mergeCell ref="DX20:DX21"/>
+    <mergeCell ref="DY20:DY21"/>
+    <mergeCell ref="DZ20:DZ21"/>
+    <mergeCell ref="EA20:EA21"/>
+    <mergeCell ref="EB20:EB21"/>
+    <mergeCell ref="DQ20:DQ21"/>
+    <mergeCell ref="DR20:DR21"/>
+    <mergeCell ref="DS20:DS21"/>
+    <mergeCell ref="CO16:CO17"/>
+    <mergeCell ref="CP16:CP17"/>
+    <mergeCell ref="CQ16:CQ17"/>
+    <mergeCell ref="CR16:CR17"/>
+    <mergeCell ref="DM16:DM18"/>
+    <mergeCell ref="CS16:CS17"/>
+    <mergeCell ref="CT16:CT18"/>
+    <mergeCell ref="EO20:EO21"/>
+    <mergeCell ref="EP20:EP21"/>
+    <mergeCell ref="EQ20:EQ21"/>
+    <mergeCell ref="EL20:EL21"/>
+    <mergeCell ref="EM20:EM21"/>
+    <mergeCell ref="EN20:EN21"/>
+    <mergeCell ref="DT20:DT21"/>
+    <mergeCell ref="DU20:DU21"/>
+    <mergeCell ref="DV20:DV21"/>
+    <mergeCell ref="DK20:DK21"/>
+    <mergeCell ref="DL20:DL21"/>
+    <mergeCell ref="DM20:DM21"/>
+    <mergeCell ref="DN20:DN21"/>
+    <mergeCell ref="DO20:DO21"/>
+    <mergeCell ref="DP20:DP21"/>
+    <mergeCell ref="DE20:DE21"/>
+    <mergeCell ref="DF20:DF21"/>
+    <mergeCell ref="DG20:DG21"/>
+    <mergeCell ref="DA16:DA18"/>
+    <mergeCell ref="DB16:DB18"/>
+    <mergeCell ref="DC16:DC18"/>
+    <mergeCell ref="DG16:DG18"/>
+    <mergeCell ref="DH16:DH18"/>
+    <mergeCell ref="DI16:DI18"/>
+    <mergeCell ref="DJ16:DJ18"/>
+    <mergeCell ref="DK16:DK18"/>
+    <mergeCell ref="DL16:DL18"/>
+    <mergeCell ref="DE16:DE18"/>
+    <mergeCell ref="DF16:DF18"/>
+    <mergeCell ref="CU16:CU18"/>
+    <mergeCell ref="CV16:CV18"/>
+    <mergeCell ref="CW16:CW18"/>
+    <mergeCell ref="CX16:CX18"/>
+    <mergeCell ref="CY16:CY18"/>
+    <mergeCell ref="CZ16:CZ18"/>
+    <mergeCell ref="DD16:DD18"/>
+    <mergeCell ref="DT16:DT18"/>
+    <mergeCell ref="DU16:DU18"/>
+    <mergeCell ref="DV16:DV18"/>
+    <mergeCell ref="DW16:DW18"/>
+    <mergeCell ref="DX16:DX18"/>
+    <mergeCell ref="DN16:DN18"/>
+    <mergeCell ref="DO16:DO18"/>
+    <mergeCell ref="DP16:DP18"/>
+    <mergeCell ref="DQ16:DQ18"/>
+    <mergeCell ref="DR16:DR18"/>
+    <mergeCell ref="FN7:FN22"/>
+    <mergeCell ref="DF13:DF14"/>
+    <mergeCell ref="DG13:DG14"/>
+    <mergeCell ref="DH13:DH14"/>
+    <mergeCell ref="DI13:DI14"/>
+    <mergeCell ref="DJ13:DJ14"/>
+    <mergeCell ref="DK13:DK14"/>
+    <mergeCell ref="DL13:DL14"/>
+    <mergeCell ref="DM13:DM14"/>
+    <mergeCell ref="FC16:FC21"/>
+    <mergeCell ref="FD16:FD21"/>
+    <mergeCell ref="FE16:FE21"/>
+    <mergeCell ref="FF16:FF21"/>
+    <mergeCell ref="FG16:FG21"/>
+    <mergeCell ref="FC7:FC15"/>
+    <mergeCell ref="FD7:FD15"/>
+    <mergeCell ref="FE7:FE15"/>
+    <mergeCell ref="DY16:DY18"/>
+    <mergeCell ref="DZ16:DZ18"/>
+    <mergeCell ref="EA16:EA18"/>
+    <mergeCell ref="EB16:EB18"/>
+    <mergeCell ref="EC16:EC18"/>
+    <mergeCell ref="ED16:ED18"/>
+    <mergeCell ref="DS16:DS18"/>
+    <mergeCell ref="EW16:EW21"/>
+    <mergeCell ref="EX16:EX21"/>
+    <mergeCell ref="EY16:EY21"/>
+    <mergeCell ref="EZ16:EZ21"/>
+    <mergeCell ref="FA16:FA21"/>
+    <mergeCell ref="FH7:FH22"/>
+    <mergeCell ref="FI7:FI22"/>
+    <mergeCell ref="EP16:EP18"/>
+    <mergeCell ref="EE16:EE18"/>
+    <mergeCell ref="EF16:EF18"/>
+    <mergeCell ref="EG16:EG18"/>
+    <mergeCell ref="EH16:EH18"/>
+    <mergeCell ref="EI16:EI18"/>
+    <mergeCell ref="EJ16:EJ18"/>
+    <mergeCell ref="EP9:EP10"/>
+    <mergeCell ref="EQ9:EQ10"/>
+    <mergeCell ref="ER9:ER10"/>
+    <mergeCell ref="ES9:ES10"/>
+    <mergeCell ref="ET9:ET10"/>
+    <mergeCell ref="EU9:EU10"/>
+    <mergeCell ref="EJ9:EJ10"/>
+    <mergeCell ref="EK9:EK10"/>
+    <mergeCell ref="EL9:EL10"/>
+    <mergeCell ref="EM9:EM10"/>
     <mergeCell ref="FJ7:FJ22"/>
     <mergeCell ref="FK7:FK22"/>
     <mergeCell ref="FL7:FL22"/>
@@ -43303,266 +43618,15 @@
     <mergeCell ref="ET13:ET15"/>
     <mergeCell ref="FF7:FF15"/>
     <mergeCell ref="FG7:FG15"/>
-    <mergeCell ref="EW16:EW21"/>
-    <mergeCell ref="EX16:EX21"/>
-    <mergeCell ref="EY16:EY21"/>
-    <mergeCell ref="EZ16:EZ21"/>
-    <mergeCell ref="FA16:FA21"/>
-    <mergeCell ref="FH7:FH22"/>
-    <mergeCell ref="FI7:FI22"/>
-    <mergeCell ref="EP16:EP18"/>
-    <mergeCell ref="EE16:EE18"/>
-    <mergeCell ref="EF16:EF18"/>
-    <mergeCell ref="EG16:EG18"/>
-    <mergeCell ref="EH16:EH18"/>
-    <mergeCell ref="EI16:EI18"/>
-    <mergeCell ref="EJ16:EJ18"/>
-    <mergeCell ref="EP9:EP10"/>
-    <mergeCell ref="EQ9:EQ10"/>
-    <mergeCell ref="ER9:ER10"/>
-    <mergeCell ref="ES9:ES10"/>
-    <mergeCell ref="ET9:ET10"/>
-    <mergeCell ref="EU9:EU10"/>
-    <mergeCell ref="EJ9:EJ10"/>
-    <mergeCell ref="EK9:EK10"/>
-    <mergeCell ref="EL9:EL10"/>
-    <mergeCell ref="EM9:EM10"/>
-    <mergeCell ref="FN7:FN22"/>
-    <mergeCell ref="DF13:DF14"/>
-    <mergeCell ref="DG13:DG14"/>
-    <mergeCell ref="DH13:DH14"/>
-    <mergeCell ref="DI13:DI14"/>
-    <mergeCell ref="DJ13:DJ14"/>
-    <mergeCell ref="DK13:DK14"/>
-    <mergeCell ref="DL13:DL14"/>
-    <mergeCell ref="DM13:DM14"/>
-    <mergeCell ref="FC16:FC21"/>
-    <mergeCell ref="FD16:FD21"/>
-    <mergeCell ref="FE16:FE21"/>
-    <mergeCell ref="FF16:FF21"/>
-    <mergeCell ref="FG16:FG21"/>
-    <mergeCell ref="FC7:FC15"/>
-    <mergeCell ref="FD7:FD15"/>
-    <mergeCell ref="FE7:FE15"/>
-    <mergeCell ref="DY16:DY18"/>
-    <mergeCell ref="DZ16:DZ18"/>
-    <mergeCell ref="EA16:EA18"/>
-    <mergeCell ref="EB16:EB18"/>
-    <mergeCell ref="EC16:EC18"/>
-    <mergeCell ref="ED16:ED18"/>
-    <mergeCell ref="DS16:DS18"/>
-    <mergeCell ref="DT16:DT18"/>
-    <mergeCell ref="DU16:DU18"/>
-    <mergeCell ref="DV16:DV18"/>
-    <mergeCell ref="DW16:DW18"/>
-    <mergeCell ref="DX16:DX18"/>
-    <mergeCell ref="DN16:DN18"/>
-    <mergeCell ref="DO16:DO18"/>
-    <mergeCell ref="DP16:DP18"/>
-    <mergeCell ref="DQ16:DQ18"/>
-    <mergeCell ref="DR16:DR18"/>
-    <mergeCell ref="DG16:DG18"/>
-    <mergeCell ref="DH16:DH18"/>
-    <mergeCell ref="DI16:DI18"/>
-    <mergeCell ref="DJ16:DJ18"/>
-    <mergeCell ref="DK16:DK18"/>
-    <mergeCell ref="DL16:DL18"/>
-    <mergeCell ref="DE16:DE18"/>
-    <mergeCell ref="DF16:DF18"/>
-    <mergeCell ref="CU16:CU18"/>
-    <mergeCell ref="CV16:CV18"/>
-    <mergeCell ref="CW16:CW18"/>
-    <mergeCell ref="CX16:CX18"/>
-    <mergeCell ref="CY16:CY18"/>
-    <mergeCell ref="CZ16:CZ18"/>
-    <mergeCell ref="DD16:DD18"/>
-    <mergeCell ref="DM16:DM18"/>
-    <mergeCell ref="CS16:CS17"/>
-    <mergeCell ref="CT16:CT18"/>
-    <mergeCell ref="EO20:EO21"/>
-    <mergeCell ref="EP20:EP21"/>
-    <mergeCell ref="EQ20:EQ21"/>
-    <mergeCell ref="EL20:EL21"/>
-    <mergeCell ref="EM20:EM21"/>
-    <mergeCell ref="EN20:EN21"/>
-    <mergeCell ref="DT20:DT21"/>
-    <mergeCell ref="DU20:DU21"/>
-    <mergeCell ref="DV20:DV21"/>
-    <mergeCell ref="DK20:DK21"/>
-    <mergeCell ref="DL20:DL21"/>
-    <mergeCell ref="DM20:DM21"/>
-    <mergeCell ref="DN20:DN21"/>
-    <mergeCell ref="DO20:DO21"/>
-    <mergeCell ref="DP20:DP21"/>
-    <mergeCell ref="DE20:DE21"/>
-    <mergeCell ref="DF20:DF21"/>
-    <mergeCell ref="DG20:DG21"/>
-    <mergeCell ref="DA16:DA18"/>
-    <mergeCell ref="DB16:DB18"/>
-    <mergeCell ref="DC16:DC18"/>
-    <mergeCell ref="CM16:CM17"/>
-    <mergeCell ref="CN16:CN17"/>
-    <mergeCell ref="EI20:EI21"/>
-    <mergeCell ref="EJ20:EJ21"/>
-    <mergeCell ref="EK20:EK21"/>
-    <mergeCell ref="EC20:EC21"/>
-    <mergeCell ref="ED20:ED21"/>
-    <mergeCell ref="EE20:EE21"/>
-    <mergeCell ref="EF20:EF21"/>
-    <mergeCell ref="EG20:EG21"/>
-    <mergeCell ref="EH20:EH21"/>
-    <mergeCell ref="DW20:DW21"/>
-    <mergeCell ref="DX20:DX21"/>
-    <mergeCell ref="DY20:DY21"/>
-    <mergeCell ref="DZ20:DZ21"/>
-    <mergeCell ref="EA20:EA21"/>
-    <mergeCell ref="EB20:EB21"/>
-    <mergeCell ref="DQ20:DQ21"/>
-    <mergeCell ref="DR20:DR21"/>
-    <mergeCell ref="DS20:DS21"/>
-    <mergeCell ref="CO16:CO17"/>
-    <mergeCell ref="CP16:CP17"/>
-    <mergeCell ref="CQ16:CQ17"/>
-    <mergeCell ref="CR16:CR17"/>
-    <mergeCell ref="DH20:DH21"/>
-    <mergeCell ref="DI20:DI21"/>
-    <mergeCell ref="DJ20:DJ21"/>
-    <mergeCell ref="CY20:CY21"/>
-    <mergeCell ref="CZ20:CZ21"/>
-    <mergeCell ref="DA20:DA21"/>
-    <mergeCell ref="DB20:DB21"/>
-    <mergeCell ref="DC20:DC21"/>
-    <mergeCell ref="DD20:DD21"/>
-    <mergeCell ref="CS20:CS21"/>
-    <mergeCell ref="CT20:CT21"/>
-    <mergeCell ref="CU20:CU21"/>
-    <mergeCell ref="CV20:CV21"/>
-    <mergeCell ref="CW20:CW21"/>
-    <mergeCell ref="CX20:CX21"/>
-    <mergeCell ref="CM20:CM21"/>
-    <mergeCell ref="CN20:CN21"/>
-    <mergeCell ref="CO20:CO21"/>
-    <mergeCell ref="CP20:CP21"/>
-    <mergeCell ref="CQ20:CQ21"/>
-    <mergeCell ref="CR20:CR21"/>
-    <mergeCell ref="CG16:CG17"/>
-    <mergeCell ref="CH16:CH17"/>
-    <mergeCell ref="CG20:CG21"/>
-    <mergeCell ref="CF20:CF21"/>
-    <mergeCell ref="CH20:CH21"/>
-    <mergeCell ref="CI20:CI21"/>
-    <mergeCell ref="CJ20:CJ21"/>
-    <mergeCell ref="CK20:CK21"/>
-    <mergeCell ref="CL20:CL21"/>
-    <mergeCell ref="CI16:CI17"/>
-    <mergeCell ref="CJ16:CJ17"/>
-    <mergeCell ref="CK16:CK17"/>
-    <mergeCell ref="CL16:CL17"/>
-    <mergeCell ref="EN9:EN10"/>
-    <mergeCell ref="EO9:EO10"/>
-    <mergeCell ref="EU13:EU15"/>
-    <mergeCell ref="EV13:EV15"/>
-    <mergeCell ref="EW13:EW15"/>
-    <mergeCell ref="EX12:EX15"/>
-    <mergeCell ref="ET7:ET8"/>
-    <mergeCell ref="EU7:EU8"/>
-    <mergeCell ref="EV7:EV8"/>
-    <mergeCell ref="EW7:EW8"/>
-    <mergeCell ref="EV9:EV10"/>
-    <mergeCell ref="EP13:EP15"/>
-    <mergeCell ref="EQ13:EQ15"/>
-    <mergeCell ref="ER13:ER15"/>
-    <mergeCell ref="ES13:ES15"/>
-    <mergeCell ref="EN13:EN15"/>
-    <mergeCell ref="EO13:EO15"/>
-    <mergeCell ref="EH13:EH15"/>
-    <mergeCell ref="EI13:EI15"/>
-    <mergeCell ref="EJ13:EJ15"/>
-    <mergeCell ref="EK13:EK15"/>
-    <mergeCell ref="EL13:EL15"/>
-    <mergeCell ref="EM13:EM15"/>
-    <mergeCell ref="DX13:DX15"/>
-    <mergeCell ref="DY13:DY15"/>
-    <mergeCell ref="DZ13:DZ15"/>
-    <mergeCell ref="EA13:EA15"/>
-    <mergeCell ref="EB13:EB15"/>
-    <mergeCell ref="EC13:EC15"/>
-    <mergeCell ref="ED13:ED15"/>
-    <mergeCell ref="EE13:EE15"/>
-    <mergeCell ref="EF13:EF15"/>
-    <mergeCell ref="EG13:EG15"/>
-    <mergeCell ref="DU13:DU15"/>
-    <mergeCell ref="DV13:DV15"/>
-    <mergeCell ref="DW13:DW15"/>
-    <mergeCell ref="DR13:DR14"/>
-    <mergeCell ref="DS13:DS14"/>
-    <mergeCell ref="DT13:DT14"/>
-    <mergeCell ref="DN13:DN14"/>
-    <mergeCell ref="DO13:DO14"/>
-    <mergeCell ref="DP13:DP14"/>
-    <mergeCell ref="DQ13:DQ14"/>
-    <mergeCell ref="EB47:EB48"/>
-    <mergeCell ref="FA46:FA48"/>
-    <mergeCell ref="FB46:FB48"/>
-    <mergeCell ref="FC46:FC48"/>
-    <mergeCell ref="ER47:ER48"/>
-    <mergeCell ref="ES47:ES48"/>
-    <mergeCell ref="ET47:ET48"/>
-    <mergeCell ref="EU47:EU48"/>
-    <mergeCell ref="EV47:EV48"/>
-    <mergeCell ref="EW47:EW48"/>
-    <mergeCell ref="EX46:EX48"/>
-    <mergeCell ref="EY46:EY48"/>
-    <mergeCell ref="EL47:EL48"/>
-    <mergeCell ref="EM47:EM48"/>
-    <mergeCell ref="EN47:EN48"/>
-    <mergeCell ref="EO47:EO48"/>
-    <mergeCell ref="EP47:EP48"/>
-    <mergeCell ref="EQ47:EQ48"/>
-    <mergeCell ref="EF47:EF48"/>
-    <mergeCell ref="EG47:EG48"/>
-    <mergeCell ref="EH47:EH48"/>
-    <mergeCell ref="EI47:EI48"/>
-    <mergeCell ref="EJ47:EJ48"/>
-    <mergeCell ref="EK47:EK48"/>
-    <mergeCell ref="EV44:EV45"/>
-    <mergeCell ref="EW44:EW45"/>
-    <mergeCell ref="EX44:EX45"/>
-    <mergeCell ref="EY44:EY45"/>
-    <mergeCell ref="EZ44:EZ45"/>
-    <mergeCell ref="DU47:DU48"/>
-    <mergeCell ref="DV47:DV48"/>
-    <mergeCell ref="DW47:DW48"/>
-    <mergeCell ref="DX47:DX48"/>
-    <mergeCell ref="DY47:DY48"/>
-    <mergeCell ref="EP44:EP45"/>
-    <mergeCell ref="EQ44:EQ45"/>
-    <mergeCell ref="ER44:ER45"/>
-    <mergeCell ref="ES44:ES45"/>
-    <mergeCell ref="ET44:ET45"/>
-    <mergeCell ref="EU44:EU45"/>
-    <mergeCell ref="EZ46:EZ48"/>
-    <mergeCell ref="EN44:EN45"/>
-    <mergeCell ref="EO44:EO45"/>
-    <mergeCell ref="EC47:EC48"/>
-    <mergeCell ref="ED47:ED48"/>
-    <mergeCell ref="EE47:EE48"/>
-    <mergeCell ref="DZ47:DZ48"/>
-    <mergeCell ref="EA47:EA48"/>
-    <mergeCell ref="EK16:EK18"/>
-    <mergeCell ref="EL16:EL18"/>
-    <mergeCell ref="EM16:EM18"/>
-    <mergeCell ref="EN16:EN18"/>
-    <mergeCell ref="EO16:EO18"/>
-    <mergeCell ref="DU36:DU37"/>
-    <mergeCell ref="DV36:DV37"/>
-    <mergeCell ref="DW36:DW37"/>
-    <mergeCell ref="DX36:DX37"/>
-    <mergeCell ref="DY36:DY37"/>
-    <mergeCell ref="DZ36:DZ37"/>
-    <mergeCell ref="EA36:EA37"/>
-    <mergeCell ref="EB36:EB37"/>
-    <mergeCell ref="EC36:EC37"/>
+    <mergeCell ref="FU7:FU25"/>
+    <mergeCell ref="FV7:FV26"/>
+    <mergeCell ref="FW7:FW26"/>
+    <mergeCell ref="FO7:FO23"/>
+    <mergeCell ref="FP7:FP23"/>
+    <mergeCell ref="FQ7:FQ23"/>
+    <mergeCell ref="FR7:FR23"/>
+    <mergeCell ref="FS7:FS23"/>
+    <mergeCell ref="FT7:FT23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED5C4B-3825-46D3-9EF2-0D266A6C6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3740056-3407-4045-88D3-B54362E008C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50900" yWindow="1510" windowWidth="24340" windowHeight="15680" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="45120" yWindow="4320" windowWidth="23470" windowHeight="16810" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -6961,7 +6961,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6976,83 +7042,17 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7215,7 +7215,7 @@
         </row>
         <row r="101">
           <cell r="GC101">
-            <v>991.00191962966642</v>
+            <v>1036.3443392573975</v>
           </cell>
         </row>
       </sheetData>
@@ -9432,18 +9432,18 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="30">
-          <cell r="BK30">
+          <cell r="BO30">
             <v>-0.05</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="BK32">
+          <cell r="BO32">
             <v>0.03</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="BK34">
-            <v>624.89045682268738</v>
+          <cell r="BO34">
+            <v>542.7637847181486</v>
           </cell>
         </row>
       </sheetData>
@@ -9641,12 +9641,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>85.064199000000002</v>
+            <v>85.893833999999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>120.77500000000001</v>
+            <v>101.164</v>
           </cell>
         </row>
         <row r="6">
@@ -9655,9 +9655,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9985,23 +9985,13 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>45.716974999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>122.800681</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="K3" t="str">
+            <v>Q325</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12282,17 +12272,17 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="L3">
-            <v>2406</v>
+            <v>2409.295102</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>38781</v>
+            <v>18562</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>52252</v>
+            <v>39408</v>
           </cell>
         </row>
       </sheetData>
@@ -14278,17 +14268,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>242</v>
+            <v>244.66426300000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>88</v>
+            <v>61.384999999999998</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>131</v>
+            <v>72.427999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -15154,7 +15144,7 @@
         </row>
         <row r="60">
           <cell r="EM60">
-            <v>296.41443389296603</v>
+            <v>333.46596489693002</v>
           </cell>
         </row>
       </sheetData>
@@ -15235,8 +15225,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15916,11 +15906,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F358" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomRight" activeCell="E376" sqref="E376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15953,11 +15943,11 @@
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,D259)</f>
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(H5:H420)-H10-H8-H13-H19-H23-H26-H53-H57</f>
-        <v>4900937.1254496602</v>
+        <v>4904406.35217869</v>
       </c>
       <c r="M2" s="9">
         <f>MIN(M5:M87)</f>
@@ -15965,7 +15955,7 @@
       </c>
       <c r="O2" s="10">
         <f>AVERAGE(O5:O25)</f>
-        <v>2.8178620879866414E-2</v>
+        <v>1.8750368632817427E-2</v>
       </c>
       <c r="S2" s="114" t="s">
         <v>310</v>
@@ -16091,27 +16081,27 @@
       <c r="R4" s="25"/>
       <c r="S4" s="105">
         <f t="shared" ref="S4:X4" si="0">TRIMMEAN(S5:S303,10%)</f>
-        <v>40.891334887149817</v>
+        <v>40.983984078351071</v>
       </c>
       <c r="T4" s="105">
         <f t="shared" si="0"/>
-        <v>87.713562467555548</v>
+        <v>87.807968033166915</v>
       </c>
       <c r="U4" s="105">
         <f t="shared" si="0"/>
-        <v>52.025003528732583</v>
+        <v>52.121308009666635</v>
       </c>
       <c r="V4" s="105">
         <f t="shared" si="0"/>
-        <v>17.874583469112075</v>
+        <v>17.930749511235437</v>
       </c>
       <c r="W4" s="105">
         <f t="shared" si="0"/>
-        <v>15.989413762736277</v>
+        <v>16.039515367037346</v>
       </c>
       <c r="X4" s="105">
         <f t="shared" si="0"/>
-        <v>15.072987699374714</v>
+        <v>15.206479986479966</v>
       </c>
       <c r="Y4" s="43" t="s">
         <v>1679</v>
@@ -16176,11 +16166,11 @@
       </c>
       <c r="N5" s="7">
         <f>[1]Model!$GC$101</f>
-        <v>991.00191962966642</v>
+        <v>1036.3443392573975</v>
       </c>
       <c r="O5" s="10">
         <f>+N5/G5-1</f>
-        <v>0.19397821642128488</v>
+        <v>0.24860763765951499</v>
       </c>
       <c r="P5" s="10">
         <f>[1]Model!$GC$97</f>
@@ -16362,22 +16352,22 @@
       </c>
       <c r="H7" s="6">
         <f>+G7*L7</f>
-        <v>454734</v>
+        <v>455356.774278</v>
       </c>
       <c r="I7" s="6">
         <f>+[3]Main!$L$5-[3]Main!$L$6</f>
-        <v>-13471</v>
+        <v>-20846</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>468205</v>
+        <v>476202.774278</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1841</v>
       </c>
       <c r="L7" s="6">
         <f>+[3]Main!$L$3</f>
-        <v>2406</v>
+        <v>2409.295102</v>
       </c>
       <c r="M7" s="9">
         <v>45875</v>
@@ -16404,27 +16394,27 @@
       </c>
       <c r="S7" s="11">
         <f t="shared" si="2"/>
-        <v>28.915144036886485</v>
+        <v>29.368844463407566</v>
       </c>
       <c r="T7" s="11">
         <f t="shared" si="2"/>
-        <v>35.18967800510778</v>
+        <v>35.741830603749172</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" si="2"/>
-        <v>33.60948521040519</v>
+        <v>34.136843391836429</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="2"/>
-        <v>18.341085708600005</v>
+        <v>18.628871181784444</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="2"/>
-        <v>17.531434177319465</v>
+        <v>17.806515607093058</v>
       </c>
       <c r="X7" s="11">
         <f>($J7/$L7)/AD7</f>
-        <v>17.015407012329298</v>
+        <v>17.282391586539802</v>
       </c>
       <c r="Y7" s="61">
         <v>6.73</v>
@@ -17247,11 +17237,11 @@
       </c>
       <c r="N16" s="7">
         <f>+[9]Model!$EM$60</f>
-        <v>296.41443389296603</v>
+        <v>333.46596489693002</v>
       </c>
       <c r="O16" s="10">
         <f>N16/G16-1</f>
-        <v>-1.1951887023446517E-2</v>
+        <v>0.11155321632310011</v>
       </c>
       <c r="P16" s="10">
         <f>+[9]Model!$EM$56</f>
@@ -17759,11 +17749,11 @@
         <v>47</v>
       </c>
       <c r="G22" s="7">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H22" s="6">
         <f>+G22*[15]Main!$M$3</f>
-        <v>102975.67198700001</v>
+        <v>106057.23823100001</v>
       </c>
       <c r="I22" s="6">
         <f>+[15]Main!$M$5-[15]Main!$M$6</f>
@@ -17771,7 +17761,7 @@
       </c>
       <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>91617.671987000009</v>
+        <v>94699.23823100001</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>1841</v>
@@ -17784,44 +17774,44 @@
         <v>45789</v>
       </c>
       <c r="N22" s="7">
-        <f>+[15]Model!$BK$34</f>
-        <v>624.89045682268738</v>
+        <f>+[15]Model!$BO$34</f>
+        <v>542.7637847181486</v>
       </c>
       <c r="O22" s="10">
         <f>N22/G22-1</f>
-        <v>0.55833031626605334</v>
+        <v>0.31419802595193369</v>
       </c>
       <c r="P22" s="10">
-        <f>+[15]Model!$BK$32</f>
+        <f>+[15]Model!$BO$32</f>
         <v>0.03</v>
       </c>
       <c r="Q22" s="10">
-        <f>+[15]Model!$BK$30</f>
+        <f>+[15]Model!$BO$30</f>
         <v>-0.05</v>
       </c>
       <c r="R22" s="10">
-        <f>[15]Model!$BK$30</f>
+        <f>[15]Model!$BO$30</f>
         <v>-0.05</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" si="4"/>
-        <v>27.829215565188189</v>
+        <v>28.76525300668585</v>
       </c>
       <c r="T22" s="11">
         <f t="shared" si="4"/>
-        <v>25.685424301347197</v>
+        <v>26.549355186876355</v>
       </c>
       <c r="U22" s="11">
         <f t="shared" si="4"/>
-        <v>30.132647258928429</v>
+        <v>31.146160772441942</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="4"/>
-        <v>19.831603309934</v>
+        <v>20.498640552846727</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="4"/>
-        <v>17.144187580284125</v>
+        <v>17.720833423628669</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>1679</v>
@@ -20593,22 +20583,22 @@
       </c>
       <c r="H83" s="6">
         <f t="shared" si="9"/>
-        <v>4806.12</v>
+        <v>4859.03226318</v>
       </c>
       <c r="I83" s="6">
         <f>+[71]Main!$L$5-[71]Main!$L$6</f>
-        <v>-43</v>
+        <v>-11.042999999999999</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="8"/>
-        <v>4849.12</v>
+        <v>4870.0752631799996</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>1068</v>
       </c>
       <c r="L83" s="6">
         <f>+[71]Main!$L$3</f>
-        <v>242</v>
+        <v>244.66426300000001</v>
       </c>
       <c r="M83" s="9">
         <v>45566</v>
@@ -21310,7 +21300,7 @@
         <v>332</v>
       </c>
       <c r="D100">
-        <f>+D99+1</f>
+        <f t="shared" ref="D100:D108" si="12">+D99+1</f>
         <v>89</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -21350,7 +21340,7 @@
         <v>332</v>
       </c>
       <c r="D101">
-        <f>+D100+1</f>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -21392,7 +21382,7 @@
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102">
-        <f>+D101+1</f>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -21434,7 +21424,7 @@
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103">
-        <f>+D102+1</f>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="E103" s="13" t="s">
@@ -21479,7 +21469,7 @@
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104">
-        <f>+D103+1</f>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -21500,7 +21490,7 @@
         <v>1053.77</v>
       </c>
       <c r="J104" s="6">
-        <f t="shared" ref="J104:J110" si="12">+H104-I104</f>
+        <f t="shared" ref="J104:J110" si="13">+H104-I104</f>
         <v>1372.4461650999997</v>
       </c>
       <c r="K104" s="3" t="s">
@@ -21521,7 +21511,7 @@
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105">
-        <f>+D104+1</f>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -21542,7 +21532,7 @@
         <v>501</v>
       </c>
       <c r="J105" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3495.4847000000004</v>
       </c>
       <c r="K105" s="3" t="s">
@@ -21563,7 +21553,7 @@
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106">
-        <f>+D105+1</f>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -21584,7 +21574,7 @@
         <v>436.77100000000002</v>
       </c>
       <c r="J106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1616.9173264799999</v>
       </c>
       <c r="K106" s="3" t="s">
@@ -21605,7 +21595,7 @@
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107">
-        <f>+D106+1</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -21626,7 +21616,7 @@
         <v>2012.8349999999998</v>
       </c>
       <c r="J107" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2846.0084139000001</v>
       </c>
       <c r="K107" s="3" t="s">
@@ -21651,7 +21641,7 @@
         <v>3</v>
       </c>
       <c r="D108">
-        <f>+D107+1</f>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="E108" s="41" t="s">
@@ -21671,7 +21661,7 @@
         <v>1274.124</v>
       </c>
       <c r="J108" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1376.0868776999998</v>
       </c>
       <c r="K108" s="25" t="s">
@@ -21708,7 +21698,7 @@
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109">
-        <f t="shared" ref="D103:D134" si="13">+D108+1</f>
+        <f t="shared" ref="D109:D134" si="14">+D108+1</f>
         <v>98</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -21729,7 +21719,7 @@
         <v>595.44399999999996</v>
       </c>
       <c r="J109" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2540.0470595499996</v>
       </c>
       <c r="K109" s="3" t="s">
@@ -21750,7 +21740,7 @@
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -21771,7 +21761,7 @@
         <v>792.45638520586181</v>
       </c>
       <c r="J110" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1595.9894277739008</v>
       </c>
       <c r="K110" s="3" t="s">
@@ -21792,7 +21782,7 @@
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E111" s="102" t="s">
@@ -21817,7 +21807,7 @@
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>101</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -21860,7 +21850,7 @@
         <v>332</v>
       </c>
       <c r="D113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -21919,7 +21909,7 @@
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -21961,7 +21951,7 @@
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -22001,7 +21991,7 @@
         <v>332</v>
       </c>
       <c r="D116" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
       <c r="E116" s="41" t="s">
@@ -22058,7 +22048,7 @@
         <v>332</v>
       </c>
       <c r="D117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>106</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -22100,7 +22090,7 @@
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>107</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -22142,7 +22132,7 @@
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -22184,7 +22174,7 @@
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -22229,7 +22219,7 @@
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -22257,7 +22247,7 @@
         <v>332</v>
       </c>
       <c r="D122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>111</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -22297,7 +22287,7 @@
         <v>332</v>
       </c>
       <c r="D123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -22339,7 +22329,7 @@
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>113</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -22383,7 +22373,7 @@
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>114</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -22428,7 +22418,7 @@
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -22470,7 +22460,7 @@
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>116</v>
       </c>
       <c r="E127" t="s">
@@ -22493,7 +22483,7 @@
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>117</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -22516,7 +22506,7 @@
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>118</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -22539,7 +22529,7 @@
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>119</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -22560,7 +22550,7 @@
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -22581,7 +22571,7 @@
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>121</v>
       </c>
       <c r="E132" t="s">
@@ -22602,7 +22592,7 @@
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>122</v>
       </c>
       <c r="E133" t="s">
@@ -22625,7 +22615,7 @@
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>123</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -22648,7 +22638,7 @@
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135">
-        <f t="shared" ref="D135:D159" si="14">+D134+1</f>
+        <f t="shared" ref="D135:D159" si="15">+D134+1</f>
         <v>124</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -22671,7 +22661,7 @@
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -22694,7 +22684,7 @@
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>126</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -22717,7 +22707,7 @@
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>127</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -22740,7 +22730,7 @@
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>128</v>
       </c>
       <c r="E139" s="24" t="s">
@@ -22763,7 +22753,7 @@
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="E140" t="s">
@@ -22783,7 +22773,7 @@
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="E141" t="s">
@@ -22803,7 +22793,7 @@
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>131</v>
       </c>
       <c r="E142" t="s">
@@ -22821,7 +22811,7 @@
         <v>332</v>
       </c>
       <c r="D143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="E143" t="s">
@@ -22836,7 +22826,7 @@
         <v>332</v>
       </c>
       <c r="D144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>133</v>
       </c>
       <c r="E144" t="s">
@@ -22854,7 +22844,7 @@
         <v>332</v>
       </c>
       <c r="D145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>134</v>
       </c>
       <c r="E145" t="s">
@@ -22874,7 +22864,7 @@
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>135</v>
       </c>
       <c r="E146" t="s">
@@ -22894,7 +22884,7 @@
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>136</v>
       </c>
       <c r="E147" t="s">
@@ -22912,7 +22902,7 @@
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>137</v>
       </c>
       <c r="E148" t="s">
@@ -22927,7 +22917,7 @@
         <v>332</v>
       </c>
       <c r="D149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>138</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -22947,7 +22937,7 @@
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>139</v>
       </c>
       <c r="E150" t="s">
@@ -22968,7 +22958,7 @@
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
       <c r="E151" t="s">
@@ -22989,7 +22979,7 @@
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>141</v>
       </c>
       <c r="E152" t="s">
@@ -23010,7 +23000,7 @@
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="E153" t="s">
@@ -23031,7 +23021,7 @@
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>143</v>
       </c>
       <c r="E154" t="s">
@@ -23052,7 +23042,7 @@
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>144</v>
       </c>
       <c r="E155" t="s">
@@ -23073,7 +23063,7 @@
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>145</v>
       </c>
       <c r="E156" t="s">
@@ -23094,7 +23084,7 @@
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>146</v>
       </c>
       <c r="E157" t="s">
@@ -23114,7 +23104,7 @@
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>147</v>
       </c>
       <c r="E158" t="s">
@@ -23136,7 +23126,7 @@
         <v>332</v>
       </c>
       <c r="D159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>148</v>
       </c>
       <c r="E159" s="41" t="s">
@@ -23157,7 +23147,7 @@
         <v>2137.1709999999998</v>
       </c>
       <c r="J159" s="26">
-        <f t="shared" ref="J159:J165" si="15">+H159-I159</f>
+        <f t="shared" ref="J159:J165" si="16">+H159-I159</f>
         <v>8076.4998780799997</v>
       </c>
       <c r="K159" s="25" t="s">
@@ -23216,7 +23206,7 @@
         <v>206.554</v>
       </c>
       <c r="J160" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6919.0508639999998</v>
       </c>
       <c r="K160" s="3" t="s">
@@ -23258,7 +23248,7 @@
         <v>219.55499999999998</v>
       </c>
       <c r="J161" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1386.1461275200002</v>
       </c>
       <c r="K161" s="3" t="s">
@@ -23300,7 +23290,7 @@
         <v>748.42</v>
       </c>
       <c r="J162" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1720.4121872299997</v>
       </c>
       <c r="K162" s="3" t="s">
@@ -23342,7 +23332,7 @@
         <v>578</v>
       </c>
       <c r="J163" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-249.59588528</v>
       </c>
       <c r="K163" s="3" t="s">
@@ -23363,7 +23353,7 @@
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164">
-        <f t="shared" ref="D164:D173" si="16">+D163+1</f>
+        <f t="shared" ref="D164:D173" si="17">+D163+1</f>
         <v>152</v>
       </c>
       <c r="E164" s="5" t="s">
@@ -23384,7 +23374,7 @@
         <v>345.67399999999998</v>
       </c>
       <c r="J164" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>189.04749332000006</v>
       </c>
       <c r="K164" s="3" t="s">
@@ -23409,7 +23399,7 @@
         <v>3</v>
       </c>
       <c r="D165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>153</v>
       </c>
       <c r="E165" s="5" t="s">
@@ -23430,7 +23420,7 @@
         <v>953.8</v>
       </c>
       <c r="J165" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-393.22612479999998</v>
       </c>
       <c r="K165" s="3" t="s">
@@ -23449,7 +23439,7 @@
         <v>332</v>
       </c>
       <c r="D166" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>154</v>
       </c>
       <c r="E166" s="57" t="s">
@@ -23506,7 +23496,7 @@
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>155</v>
       </c>
       <c r="E167" s="5" t="s">
@@ -23525,7 +23515,7 @@
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156</v>
       </c>
       <c r="E168" s="5" t="s">
@@ -23546,7 +23536,7 @@
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>157</v>
       </c>
       <c r="E169" t="s">
@@ -23567,7 +23557,7 @@
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>158</v>
       </c>
       <c r="E170" s="5" t="s">
@@ -23588,7 +23578,7 @@
         <v>332</v>
       </c>
       <c r="D171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>159</v>
       </c>
       <c r="E171" t="s">
@@ -23608,7 +23598,7 @@
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>160</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -23631,7 +23621,7 @@
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>161</v>
       </c>
       <c r="E173" t="s">
@@ -23672,7 +23662,7 @@
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175">
-        <f t="shared" ref="D175:D184" si="17">+D174+1</f>
+        <f t="shared" ref="D175:D184" si="18">+D174+1</f>
         <v>164</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -23693,7 +23683,7 @@
         <v>332</v>
       </c>
       <c r="D176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>165</v>
       </c>
       <c r="E176" s="24" t="s">
@@ -23714,7 +23704,7 @@
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>166</v>
       </c>
       <c r="E177" t="s">
@@ -23733,7 +23723,7 @@
         <v>332</v>
       </c>
       <c r="D178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>167</v>
       </c>
       <c r="E178" t="s">
@@ -23751,7 +23741,7 @@
         <v>332</v>
       </c>
       <c r="D179">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>168</v>
       </c>
       <c r="E179" t="s">
@@ -23771,7 +23761,7 @@
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>169</v>
       </c>
       <c r="E180" t="s">
@@ -23792,7 +23782,7 @@
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>170</v>
       </c>
       <c r="E181" t="s">
@@ -23813,7 +23803,7 @@
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>171</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -23836,7 +23826,7 @@
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>172</v>
       </c>
       <c r="E183" t="s">
@@ -23857,7 +23847,7 @@
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>173</v>
       </c>
       <c r="E184" t="s">
@@ -23878,7 +23868,7 @@
         <v>332</v>
       </c>
       <c r="D185">
-        <f t="shared" ref="D185:D248" si="18">+D184+1</f>
+        <f t="shared" ref="D185:D248" si="19">+D184+1</f>
         <v>174</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -23898,7 +23888,7 @@
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>175</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -23918,7 +23908,7 @@
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>176</v>
       </c>
       <c r="E187" t="s">
@@ -23937,7 +23927,7 @@
         <v>332</v>
       </c>
       <c r="D188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>177</v>
       </c>
       <c r="E188" s="24" t="s">
@@ -23982,7 +23972,7 @@
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>178</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -24005,7 +23995,7 @@
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>179</v>
       </c>
       <c r="E190" t="s">
@@ -24026,7 +24016,7 @@
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="E191" t="s">
@@ -24039,7 +24029,7 @@
     </row>
     <row r="192" spans="1:30" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D192">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>181</v>
       </c>
       <c r="E192" s="24" t="s">
@@ -24082,7 +24072,7 @@
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>182</v>
       </c>
       <c r="E193" t="s">
@@ -24103,7 +24093,7 @@
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>183</v>
       </c>
       <c r="E194" t="s">
@@ -24124,7 +24114,7 @@
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>184</v>
       </c>
       <c r="E195" t="s">
@@ -24145,7 +24135,7 @@
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>185</v>
       </c>
       <c r="E196" t="s">
@@ -24166,7 +24156,7 @@
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>186</v>
       </c>
       <c r="E197" t="s">
@@ -24187,7 +24177,7 @@
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>187</v>
       </c>
       <c r="E198" t="s">
@@ -24208,7 +24198,7 @@
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>188</v>
       </c>
       <c r="E199" t="s">
@@ -24252,7 +24242,7 @@
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>191</v>
       </c>
       <c r="E201" t="s">
@@ -24275,7 +24265,7 @@
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>192</v>
       </c>
       <c r="E202" t="s">
@@ -24296,7 +24286,7 @@
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>193</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -24319,7 +24309,7 @@
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>194</v>
       </c>
       <c r="E204" t="s">
@@ -24343,7 +24333,7 @@
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>195</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -24368,7 +24358,7 @@
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>196</v>
       </c>
       <c r="E206" t="s">
@@ -24393,7 +24383,7 @@
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>197</v>
       </c>
       <c r="E207" t="s">
@@ -24416,7 +24406,7 @@
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>198</v>
       </c>
       <c r="E208" t="s">
@@ -24441,7 +24431,7 @@
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>199</v>
       </c>
       <c r="E209" t="s">
@@ -24464,7 +24454,7 @@
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -24485,7 +24475,7 @@
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>201</v>
       </c>
       <c r="E211" s="5" t="s">
@@ -24527,7 +24517,7 @@
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>202</v>
       </c>
       <c r="E212" s="5" t="s">
@@ -24569,7 +24559,7 @@
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>203</v>
       </c>
       <c r="E213" s="5" t="s">
@@ -24612,7 +24602,7 @@
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>204</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -24637,7 +24627,7 @@
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205</v>
       </c>
       <c r="E215" t="s">
@@ -24662,7 +24652,7 @@
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>206</v>
       </c>
       <c r="E216" t="s">
@@ -24687,7 +24677,7 @@
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>207</v>
       </c>
       <c r="E217" t="s">
@@ -24712,7 +24702,7 @@
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>208</v>
       </c>
       <c r="E218" t="s">
@@ -24737,7 +24727,7 @@
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>209</v>
       </c>
       <c r="E219" t="s">
@@ -24762,7 +24752,7 @@
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>210</v>
       </c>
       <c r="E220" t="s">
@@ -24787,7 +24777,7 @@
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>211</v>
       </c>
       <c r="E221" t="s">
@@ -24812,7 +24802,7 @@
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>212</v>
       </c>
       <c r="E222" t="s">
@@ -24837,7 +24827,7 @@
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>213</v>
       </c>
       <c r="E223" t="s">
@@ -24862,7 +24852,7 @@
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>214</v>
       </c>
       <c r="E224" t="s">
@@ -24885,7 +24875,7 @@
         <v>332</v>
       </c>
       <c r="D225">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>215</v>
       </c>
       <c r="E225" t="s">
@@ -24904,7 +24894,7 @@
         <v>332</v>
       </c>
       <c r="D226">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>216</v>
       </c>
       <c r="E226" t="s">
@@ -24925,7 +24915,7 @@
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>217</v>
       </c>
       <c r="E227" s="5" t="s">
@@ -24967,7 +24957,7 @@
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>218</v>
       </c>
       <c r="E228" s="5" t="s">
@@ -24980,7 +24970,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="H228" s="6">
-        <f t="shared" ref="H228:H231" si="19">+G228*L228</f>
+        <f t="shared" ref="H228:H231" si="20">+G228*L228</f>
         <v>264.59191863000007</v>
       </c>
       <c r="I228" s="6">
@@ -24988,7 +24978,7 @@
         <v>62.650000000000006</v>
       </c>
       <c r="J228" s="6">
-        <f t="shared" ref="J228:J231" si="20">+H228-I228</f>
+        <f t="shared" ref="J228:J231" si="21">+H228-I228</f>
         <v>201.94191863000006</v>
       </c>
       <c r="K228" s="3" t="s">
@@ -25016,7 +25006,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>219</v>
       </c>
       <c r="E229" s="5" t="s">
@@ -25029,7 +25019,7 @@
         <v>10.33</v>
       </c>
       <c r="H229" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1168.5436178100001</v>
       </c>
       <c r="I229" s="6">
@@ -25037,7 +25027,7 @@
         <v>642.26800000000003</v>
       </c>
       <c r="J229" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>526.27561781000009</v>
       </c>
       <c r="K229" s="3" t="s">
@@ -25058,7 +25048,7 @@
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>220</v>
       </c>
       <c r="E230" s="5" t="s">
@@ -25071,7 +25061,7 @@
         <v>2.14</v>
       </c>
       <c r="H230" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>484.12633426000002</v>
       </c>
       <c r="I230" s="6">
@@ -25079,7 +25069,7 @@
         <v>157.43700000000001</v>
       </c>
       <c r="J230" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>326.68933426000001</v>
       </c>
       <c r="K230" s="3" t="s">
@@ -25100,7 +25090,7 @@
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>221</v>
       </c>
       <c r="E231" s="5" t="s">
@@ -25113,7 +25103,7 @@
         <v>1.66</v>
       </c>
       <c r="H231" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>116.83408514</v>
       </c>
       <c r="I231" s="6">
@@ -25121,7 +25111,7 @@
         <v>10.994</v>
       </c>
       <c r="J231" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>105.84008514</v>
       </c>
       <c r="K231" s="3" t="s">
@@ -25142,7 +25132,7 @@
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>222</v>
       </c>
       <c r="E232" s="5" t="s">
@@ -25182,7 +25172,7 @@
         <v>332</v>
       </c>
       <c r="D233">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>223</v>
       </c>
       <c r="E233" s="24" t="s">
@@ -25227,7 +25217,7 @@
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>224</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -25250,7 +25240,7 @@
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>225</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -25270,7 +25260,7 @@
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>226</v>
       </c>
       <c r="E236" t="s">
@@ -25290,7 +25280,7 @@
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>227</v>
       </c>
       <c r="E237" t="s">
@@ -25308,7 +25298,7 @@
         <v>332</v>
       </c>
       <c r="D238" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>228</v>
       </c>
       <c r="E238" s="33" t="s">
@@ -25349,7 +25339,7 @@
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>229</v>
       </c>
       <c r="E239" t="s">
@@ -25369,7 +25359,7 @@
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="E240" t="s">
@@ -25389,7 +25379,7 @@
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>231</v>
       </c>
       <c r="E241" t="s">
@@ -25407,7 +25397,7 @@
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>232</v>
       </c>
       <c r="E242" t="s">
@@ -25427,7 +25417,7 @@
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>233</v>
       </c>
       <c r="E243" t="s">
@@ -25450,7 +25440,7 @@
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>234</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -25473,7 +25463,7 @@
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>235</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -25496,7 +25486,7 @@
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>236</v>
       </c>
       <c r="E246" t="s">
@@ -25517,7 +25507,7 @@
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>237</v>
       </c>
       <c r="E247" t="s">
@@ -25537,7 +25527,7 @@
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>238</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -25560,7 +25550,7 @@
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249">
-        <f t="shared" ref="D249:D315" si="21">+D248+1</f>
+        <f t="shared" ref="D249:D315" si="22">+D248+1</f>
         <v>239</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -25581,7 +25571,7 @@
         <v>332</v>
       </c>
       <c r="D250">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>240</v>
       </c>
       <c r="E250" s="5" t="s">
@@ -25622,7 +25612,7 @@
         <v>-403.76499999999999</v>
       </c>
       <c r="J251" s="6">
-        <f t="shared" ref="J251:J258" si="22">+H251-I251</f>
+        <f t="shared" ref="J251:J258" si="23">+H251-I251</f>
         <v>2334.0657080000001</v>
       </c>
       <c r="K251" s="3" t="s">
@@ -25643,7 +25633,7 @@
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>242</v>
       </c>
       <c r="E252" s="5" t="s">
@@ -25664,7 +25654,7 @@
         <v>621.18900000000008</v>
       </c>
       <c r="J252" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1628.5754397499998</v>
       </c>
       <c r="K252" s="3" t="s">
@@ -25787,7 +25777,7 @@
         <v>-160.48700000000002</v>
       </c>
       <c r="J255" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1016.3941505999999</v>
       </c>
       <c r="K255" s="3" t="s">
@@ -25806,7 +25796,7 @@
         <v>332</v>
       </c>
       <c r="D256">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>244</v>
       </c>
       <c r="E256" s="5" t="s">
@@ -25827,7 +25817,7 @@
         <v>732.71699999999998</v>
       </c>
       <c r="J256" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>615.48395393999988</v>
       </c>
       <c r="K256" s="3" t="s">
@@ -25852,7 +25842,7 @@
         <v>4</v>
       </c>
       <c r="D257">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>245</v>
       </c>
       <c r="E257" s="5" t="s">
@@ -25873,7 +25863,7 @@
         <v>87</v>
       </c>
       <c r="J257" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>865.82484299999999</v>
       </c>
       <c r="K257" s="3" t="s">
@@ -25894,7 +25884,7 @@
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>246</v>
       </c>
       <c r="E258" s="5" t="s">
@@ -25913,7 +25903,7 @@
         <v>197.79600000000002</v>
       </c>
       <c r="J258" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>527.83186605999992</v>
       </c>
       <c r="K258" s="3" t="s">
@@ -25927,7 +25917,7 @@
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>247</v>
       </c>
       <c r="E259" s="5" t="s">
@@ -25940,7 +25930,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H259" s="6">
-        <f t="shared" ref="H259:H264" si="23">+G259*L259</f>
+        <f t="shared" ref="H259:H264" si="24">+G259*L259</f>
         <v>227.00171872000001</v>
       </c>
       <c r="I259" s="6">
@@ -25948,7 +25938,7 @@
         <v>-37.984000000000002</v>
       </c>
       <c r="J259" s="8">
-        <f t="shared" ref="J259" si="24">+H259-I259</f>
+        <f t="shared" ref="J259" si="25">+H259-I259</f>
         <v>264.98571872000002</v>
       </c>
       <c r="K259" s="3" t="s">
@@ -25970,7 +25960,7 @@
         <v>332</v>
       </c>
       <c r="D260">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>248</v>
       </c>
       <c r="E260" s="5" t="s">
@@ -25983,7 +25973,7 @@
         <v>2.39</v>
       </c>
       <c r="H260" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>305.54221270000005</v>
       </c>
       <c r="I260" s="6">
@@ -25991,7 +25981,7 @@
         <v>115.78</v>
       </c>
       <c r="J260" s="8">
-        <f t="shared" ref="J260" si="25">+H260-I260</f>
+        <f t="shared" ref="J260" si="26">+H260-I260</f>
         <v>189.76221270000005</v>
       </c>
       <c r="K260" s="3" t="s">
@@ -26007,7 +25997,7 @@
         <v>332</v>
       </c>
       <c r="D261">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>249</v>
       </c>
       <c r="E261" s="5" t="s">
@@ -26020,7 +26010,7 @@
         <v>5.01</v>
       </c>
       <c r="H261" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>490.91303633999996</v>
       </c>
       <c r="I261" s="6">
@@ -26047,7 +26037,7 @@
         <v>332</v>
       </c>
       <c r="D262">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>250</v>
       </c>
       <c r="E262" s="5" t="s">
@@ -26060,7 +26050,7 @@
         <v>20.239999999999998</v>
       </c>
       <c r="H262" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>854.11613935999992</v>
       </c>
       <c r="I262" s="6">
@@ -26089,7 +26079,7 @@
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>251</v>
       </c>
       <c r="E263" s="5" t="s">
@@ -26102,7 +26092,7 @@
         <v>7.84</v>
       </c>
       <c r="H263" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>619.61355344000003</v>
       </c>
       <c r="I263" s="6">
@@ -26142,7 +26132,7 @@
         <v>9.94</v>
       </c>
       <c r="H264" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>631.2039358799999</v>
       </c>
       <c r="I264" s="6">
@@ -26193,7 +26183,7 @@
         <v>332</v>
       </c>
       <c r="D266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>254</v>
       </c>
       <c r="E266" s="24" t="s">
@@ -26211,7 +26201,7 @@
         <v>332</v>
       </c>
       <c r="D267">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>255</v>
       </c>
       <c r="E267" t="s">
@@ -26255,7 +26245,7 @@
         <v>332</v>
       </c>
       <c r="D269">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>258</v>
       </c>
       <c r="E269" t="s">
@@ -26273,7 +26263,7 @@
         <v>332</v>
       </c>
       <c r="D270">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>259</v>
       </c>
       <c r="E270" t="s">
@@ -26291,7 +26281,7 @@
         <v>332</v>
       </c>
       <c r="D271">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>260</v>
       </c>
       <c r="E271" t="s">
@@ -26309,7 +26299,7 @@
         <v>332</v>
       </c>
       <c r="D272">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>261</v>
       </c>
       <c r="E272" t="s">
@@ -26327,7 +26317,7 @@
         <v>332</v>
       </c>
       <c r="D273">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>262</v>
       </c>
       <c r="E273" t="s">
@@ -26345,7 +26335,7 @@
         <v>332</v>
       </c>
       <c r="D274">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>263</v>
       </c>
       <c r="E274" t="s">
@@ -26363,7 +26353,7 @@
         <v>332</v>
       </c>
       <c r="D275">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>264</v>
       </c>
       <c r="E275" t="s">
@@ -26381,7 +26371,7 @@
         <v>332</v>
       </c>
       <c r="D276">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>265</v>
       </c>
       <c r="E276" t="s">
@@ -26399,7 +26389,7 @@
         <v>332</v>
       </c>
       <c r="D277">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>266</v>
       </c>
       <c r="E277" t="s">
@@ -26417,7 +26407,7 @@
         <v>332</v>
       </c>
       <c r="D278">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>267</v>
       </c>
       <c r="E278" t="s">
@@ -26435,7 +26425,7 @@
         <v>332</v>
       </c>
       <c r="D279">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>268</v>
       </c>
       <c r="E279" t="s">
@@ -26453,7 +26443,7 @@
         <v>332</v>
       </c>
       <c r="D280">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>269</v>
       </c>
       <c r="E280" t="s">
@@ -26471,7 +26461,7 @@
         <v>332</v>
       </c>
       <c r="D281">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>270</v>
       </c>
       <c r="E281" t="s">
@@ -26486,7 +26476,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D282">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>271</v>
       </c>
       <c r="E282" t="s">
@@ -26506,7 +26496,7 @@
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>272</v>
       </c>
       <c r="E283" t="s">
@@ -26524,7 +26514,7 @@
         <v>332</v>
       </c>
       <c r="D284">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>273</v>
       </c>
       <c r="E284" t="s">
@@ -26542,7 +26532,7 @@
         <v>332</v>
       </c>
       <c r="D285">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>274</v>
       </c>
       <c r="E285" t="s">
@@ -26566,7 +26556,7 @@
         <v>7</v>
       </c>
       <c r="D286">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>275</v>
       </c>
       <c r="E286" s="5" t="s">
@@ -26603,7 +26593,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D287">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>276</v>
       </c>
       <c r="E287" s="5" t="s">
@@ -26644,7 +26634,7 @@
       </c>
       <c r="C288"/>
       <c r="D288">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>277</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -26665,7 +26655,7 @@
         <v>332</v>
       </c>
       <c r="D289">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>278</v>
       </c>
       <c r="E289" t="s">
@@ -26683,7 +26673,7 @@
         <v>332</v>
       </c>
       <c r="D290">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>279</v>
       </c>
       <c r="E290" t="s">
@@ -26701,7 +26691,7 @@
         <v>332</v>
       </c>
       <c r="D291">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>280</v>
       </c>
       <c r="E291" t="s">
@@ -26719,7 +26709,7 @@
         <v>332</v>
       </c>
       <c r="D292">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>281</v>
       </c>
       <c r="E292" t="s">
@@ -26737,7 +26727,7 @@
         <v>332</v>
       </c>
       <c r="D293">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>282</v>
       </c>
       <c r="E293" t="s">
@@ -26755,7 +26745,7 @@
         <v>332</v>
       </c>
       <c r="D294">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>283</v>
       </c>
       <c r="E294" t="s">
@@ -26773,7 +26763,7 @@
         <v>332</v>
       </c>
       <c r="D295">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>284</v>
       </c>
       <c r="E295" t="s">
@@ -26793,7 +26783,7 @@
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>285</v>
       </c>
       <c r="E296" t="s">
@@ -26813,7 +26803,7 @@
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>286</v>
       </c>
       <c r="E297" t="s">
@@ -26833,7 +26823,7 @@
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>287</v>
       </c>
       <c r="E298" t="s">
@@ -26853,7 +26843,7 @@
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>288</v>
       </c>
       <c r="E299" t="s">
@@ -26871,7 +26861,7 @@
         <v>332</v>
       </c>
       <c r="D300" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>289</v>
       </c>
       <c r="E300" s="33" t="s">
@@ -26910,7 +26900,7 @@
         <v>332</v>
       </c>
       <c r="D301">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>290</v>
       </c>
       <c r="E301" t="s">
@@ -26928,7 +26918,7 @@
         <v>332</v>
       </c>
       <c r="D302">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>291</v>
       </c>
       <c r="E302" t="s">
@@ -26946,7 +26936,7 @@
         <v>332</v>
       </c>
       <c r="D303">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>292</v>
       </c>
       <c r="E303" t="s">
@@ -26964,7 +26954,7 @@
         <v>332</v>
       </c>
       <c r="D304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>293</v>
       </c>
       <c r="E304" t="s">
@@ -26984,7 +26974,7 @@
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>294</v>
       </c>
       <c r="E305" s="5" t="s">
@@ -27026,7 +27016,7 @@
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>295</v>
       </c>
       <c r="E306" s="5" t="s">
@@ -27066,7 +27056,7 @@
         <v>332</v>
       </c>
       <c r="D307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>296</v>
       </c>
       <c r="E307" s="5" t="s">
@@ -27108,7 +27098,7 @@
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>297</v>
       </c>
       <c r="E308" s="5" t="s">
@@ -27148,7 +27138,7 @@
         <v>332</v>
       </c>
       <c r="D309">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>298</v>
       </c>
       <c r="E309" s="5" t="s">
@@ -27188,7 +27178,7 @@
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>299</v>
       </c>
       <c r="E310" s="5" t="s">
@@ -27228,7 +27218,7 @@
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="E311" s="5" t="s">
@@ -27265,7 +27255,7 @@
     </row>
     <row r="312" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D312">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>301</v>
       </c>
       <c r="E312" s="5" t="s">
@@ -27304,7 +27294,7 @@
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>302</v>
       </c>
       <c r="E313" s="5" t="s">
@@ -27346,7 +27336,7 @@
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>303</v>
       </c>
       <c r="E314" s="5" t="s">
@@ -27389,7 +27379,7 @@
         <v>332</v>
       </c>
       <c r="D315">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="E315" s="1" t="s">
@@ -27404,7 +27394,7 @@
     </row>
     <row r="316" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D316" s="33">
-        <f t="shared" ref="D316:D380" si="26">+D315+1</f>
+        <f t="shared" ref="D316:D380" si="27">+D315+1</f>
         <v>305</v>
       </c>
       <c r="E316" s="33" t="s">
@@ -27443,7 +27433,7 @@
         <v>332</v>
       </c>
       <c r="D317" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>306</v>
       </c>
       <c r="E317" s="33" t="s">
@@ -27482,7 +27472,7 @@
         <v>332</v>
       </c>
       <c r="D318" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>307</v>
       </c>
       <c r="E318" s="33" t="s">
@@ -27518,7 +27508,7 @@
     </row>
     <row r="319" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D319">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>308</v>
       </c>
       <c r="E319" t="s">
@@ -27536,7 +27526,7 @@
         <v>332</v>
       </c>
       <c r="D320">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>309</v>
       </c>
       <c r="E320" t="s">
@@ -27554,7 +27544,7 @@
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>310</v>
       </c>
       <c r="E321" t="s">
@@ -27573,7 +27563,7 @@
         <v>332</v>
       </c>
       <c r="D322">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>311</v>
       </c>
       <c r="E322" t="s">
@@ -27591,7 +27581,7 @@
         <v>332</v>
       </c>
       <c r="D323" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>312</v>
       </c>
       <c r="E323" s="33" t="s">
@@ -27630,7 +27620,7 @@
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>313</v>
       </c>
       <c r="E324" s="5" t="s">
@@ -27670,7 +27660,7 @@
         <v>332</v>
       </c>
       <c r="D325">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>314</v>
       </c>
       <c r="E325" t="s">
@@ -27688,7 +27678,7 @@
         <v>332</v>
       </c>
       <c r="D326">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>315</v>
       </c>
       <c r="E326" t="s">
@@ -27708,7 +27698,7 @@
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>316</v>
       </c>
       <c r="E327" t="s">
@@ -27728,7 +27718,7 @@
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>317</v>
       </c>
       <c r="E328" t="s">
@@ -27768,7 +27758,7 @@
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>243</v>
       </c>
       <c r="E330" t="s">
@@ -27788,7 +27778,7 @@
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>244</v>
       </c>
       <c r="E331" t="s">
@@ -27808,7 +27798,7 @@
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>245</v>
       </c>
       <c r="E332" t="s">
@@ -27828,7 +27818,7 @@
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>246</v>
       </c>
       <c r="E333" s="5" t="s">
@@ -27866,7 +27856,7 @@
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>247</v>
       </c>
       <c r="E335" t="s">
@@ -27886,7 +27876,7 @@
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>248</v>
       </c>
       <c r="E336" t="s">
@@ -27904,7 +27894,7 @@
         <v>332</v>
       </c>
       <c r="D337">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>249</v>
       </c>
       <c r="E337" t="s">
@@ -27922,7 +27912,7 @@
         <v>332</v>
       </c>
       <c r="D338" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>250</v>
       </c>
       <c r="E338" s="33" t="s">
@@ -27961,7 +27951,7 @@
         <v>332</v>
       </c>
       <c r="D339">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>251</v>
       </c>
       <c r="E339" t="s">
@@ -27979,7 +27969,7 @@
         <v>332</v>
       </c>
       <c r="D340">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>252</v>
       </c>
       <c r="E340" t="s">
@@ -27997,7 +27987,7 @@
         <v>332</v>
       </c>
       <c r="D341">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>253</v>
       </c>
       <c r="E341" s="5" t="s">
@@ -28035,7 +28025,7 @@
         <v>332</v>
       </c>
       <c r="D343">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>256</v>
       </c>
       <c r="E343" t="s">
@@ -28053,7 +28043,7 @@
         <v>332</v>
       </c>
       <c r="D344" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>257</v>
       </c>
       <c r="E344" s="24" t="s">
@@ -28096,7 +28086,7 @@
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="E345" t="s">
@@ -28116,7 +28106,7 @@
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>259</v>
       </c>
       <c r="E346" t="s">
@@ -28136,7 +28126,7 @@
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>260</v>
       </c>
       <c r="E347" t="s">
@@ -28156,7 +28146,7 @@
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>261</v>
       </c>
       <c r="E348" t="s">
@@ -28176,7 +28166,7 @@
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>262</v>
       </c>
       <c r="E349" t="s">
@@ -28196,7 +28186,7 @@
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>263</v>
       </c>
       <c r="E350" s="5" t="s">
@@ -28210,22 +28200,22 @@
       </c>
       <c r="H350" s="6">
         <f>G350*L350</f>
-        <v>936.55683098999998</v>
+        <v>945.69111234000002</v>
       </c>
       <c r="I350" s="6">
         <f>[155]Main!$I$5-[155]Main!$I$6</f>
-        <v>120.77500000000001</v>
+        <v>101.164</v>
       </c>
       <c r="J350" s="6">
         <f>H350-I350</f>
-        <v>815.78183099</v>
+        <v>844.52711234000003</v>
       </c>
       <c r="K350" s="9" t="s">
         <v>1613</v>
       </c>
       <c r="L350" s="6">
         <f>[155]Main!$I$3</f>
-        <v>85.064199000000002</v>
+        <v>85.893833999999998</v>
       </c>
       <c r="M350" s="9">
         <v>45622</v>
@@ -28311,7 +28301,7 @@
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>265</v>
       </c>
       <c r="E353" s="5" t="s">
@@ -28334,7 +28324,7 @@
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>266</v>
       </c>
       <c r="E354" t="s">
@@ -28357,7 +28347,7 @@
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>267</v>
       </c>
       <c r="E355" t="s">
@@ -28377,7 +28367,7 @@
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>268</v>
       </c>
       <c r="E356" t="s">
@@ -28395,7 +28385,7 @@
     </row>
     <row r="357" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D357" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>269</v>
       </c>
       <c r="E357" s="107" t="s">
@@ -28431,7 +28421,7 @@
     </row>
     <row r="358" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D358" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>270</v>
       </c>
       <c r="E358" s="107" t="s">
@@ -28470,7 +28460,7 @@
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>271</v>
       </c>
       <c r="E359" t="s">
@@ -28493,7 +28483,7 @@
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>272</v>
       </c>
       <c r="E360" t="s">
@@ -28513,7 +28503,7 @@
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>273</v>
       </c>
       <c r="E361" t="s">
@@ -28536,7 +28526,7 @@
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>274</v>
       </c>
       <c r="E362" t="s">
@@ -28559,7 +28549,7 @@
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>275</v>
       </c>
       <c r="E363" s="5" t="s">
@@ -28579,7 +28569,7 @@
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>276</v>
       </c>
       <c r="E364" s="5" t="s">
@@ -28597,7 +28587,7 @@
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>277</v>
       </c>
       <c r="E365" t="s">
@@ -28617,7 +28607,7 @@
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>278</v>
       </c>
       <c r="E366" s="5" t="s">
@@ -28659,7 +28649,7 @@
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>279</v>
       </c>
       <c r="E367" s="5" t="s">
@@ -28701,7 +28691,7 @@
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>280</v>
       </c>
       <c r="E368" t="s">
@@ -28719,7 +28709,7 @@
         <v>332</v>
       </c>
       <c r="D369" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>281</v>
       </c>
       <c r="E369" s="33" t="s">
@@ -28760,7 +28750,7 @@
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>282</v>
       </c>
       <c r="E370" t="s">
@@ -28780,7 +28770,7 @@
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>283</v>
       </c>
       <c r="E371" t="s">
@@ -28800,7 +28790,7 @@
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>284</v>
       </c>
       <c r="E372" t="s">
@@ -28820,7 +28810,7 @@
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>285</v>
       </c>
       <c r="E373" t="s">
@@ -28924,7 +28914,7 @@
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>287</v>
       </c>
       <c r="E376" s="5" t="s">
@@ -28936,24 +28926,18 @@
       <c r="G376" s="7">
         <v>6.5</v>
       </c>
-      <c r="H376" s="6">
-        <f>+G376*L376</f>
-        <v>297.16033749999997</v>
-      </c>
-      <c r="I376" s="6">
-        <f>+[161]Main!$K$5-[161]Main!$K$6</f>
-        <v>122.800681</v>
-      </c>
+      <c r="H376" s="6"/>
+      <c r="I376" s="6"/>
       <c r="J376" s="6">
         <f>+H376-I376</f>
-        <v>174.35965649999997</v>
+        <v>0</v>
       </c>
       <c r="K376" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="L376" s="6">
+      <c r="L376" s="6" t="str">
         <f>+[161]Main!$K$3</f>
-        <v>45.716974999999998</v>
+        <v>Q325</v>
       </c>
       <c r="M376" s="9">
         <v>45845</v>
@@ -28989,7 +28973,7 @@
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>290</v>
       </c>
       <c r="E378" t="s">
@@ -29012,7 +28996,7 @@
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>291</v>
       </c>
       <c r="E379" t="s">
@@ -29035,7 +29019,7 @@
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>292</v>
       </c>
       <c r="E380" t="s">
@@ -29058,7 +29042,7 @@
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381">
-        <f t="shared" ref="D381:D444" si="27">+D380+1</f>
+        <f t="shared" ref="D381:D444" si="28">+D380+1</f>
         <v>293</v>
       </c>
       <c r="E381" t="s">
@@ -29081,7 +29065,7 @@
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>294</v>
       </c>
       <c r="E382" s="5" t="s">
@@ -29123,7 +29107,7 @@
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>295</v>
       </c>
       <c r="E383" t="s">
@@ -29146,7 +29130,7 @@
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>296</v>
       </c>
       <c r="E384" s="5" t="s">
@@ -29188,7 +29172,7 @@
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>297</v>
       </c>
       <c r="E385" t="s">
@@ -29208,7 +29192,7 @@
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>298</v>
       </c>
       <c r="E386" t="s">
@@ -29228,7 +29212,7 @@
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>299</v>
       </c>
       <c r="E387" t="s">
@@ -29248,7 +29232,7 @@
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>300</v>
       </c>
       <c r="E388" t="s">
@@ -29268,7 +29252,7 @@
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>301</v>
       </c>
       <c r="E389" t="s">
@@ -29288,7 +29272,7 @@
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>302</v>
       </c>
       <c r="E390" t="s">
@@ -29308,7 +29292,7 @@
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>303</v>
       </c>
       <c r="E391" t="s">
@@ -29328,7 +29312,7 @@
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>304</v>
       </c>
       <c r="E392" t="s">
@@ -29348,7 +29332,7 @@
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>305</v>
       </c>
       <c r="E393" t="s">
@@ -29368,7 +29352,7 @@
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>306</v>
       </c>
       <c r="E394" t="s">
@@ -29388,7 +29372,7 @@
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>307</v>
       </c>
       <c r="E395" t="s">
@@ -29408,7 +29392,7 @@
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>308</v>
       </c>
       <c r="E396" t="s">
@@ -29428,7 +29412,7 @@
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>309</v>
       </c>
       <c r="E397" t="s">
@@ -29448,7 +29432,7 @@
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>310</v>
       </c>
       <c r="E398" t="s">
@@ -29468,7 +29452,7 @@
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>311</v>
       </c>
       <c r="E399" t="s">
@@ -29488,7 +29472,7 @@
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>312</v>
       </c>
       <c r="E400" t="s">
@@ -29508,7 +29492,7 @@
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>313</v>
       </c>
       <c r="E401" t="s">
@@ -29528,7 +29512,7 @@
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>314</v>
       </c>
       <c r="E402" t="s">
@@ -29548,7 +29532,7 @@
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>315</v>
       </c>
       <c r="E403" t="s">
@@ -29568,7 +29552,7 @@
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>316</v>
       </c>
       <c r="E404" t="s">
@@ -29588,7 +29572,7 @@
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>317</v>
       </c>
       <c r="E405" t="s">
@@ -29606,7 +29590,7 @@
         <v>332</v>
       </c>
       <c r="D406">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>318</v>
       </c>
       <c r="E406" s="5" t="s">
@@ -29652,7 +29636,7 @@
         <v>2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>319</v>
       </c>
       <c r="E407" s="5" t="s">
@@ -29692,7 +29676,7 @@
         <v>332</v>
       </c>
       <c r="D408">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>320</v>
       </c>
       <c r="E408" s="5" t="s">
@@ -29732,7 +29716,7 @@
         <v>332</v>
       </c>
       <c r="D409">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>321</v>
       </c>
       <c r="E409" s="5" t="s">
@@ -29772,7 +29756,7 @@
         <v>332</v>
       </c>
       <c r="D410">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>322</v>
       </c>
       <c r="E410" s="5" t="s">
@@ -29785,7 +29769,7 @@
         <v>0.83</v>
       </c>
       <c r="H410" s="6">
-        <f t="shared" ref="H410:H412" si="28">+G410*L410</f>
+        <f t="shared" ref="H410:H412" si="29">+G410*L410</f>
         <v>107.21110332000001</v>
       </c>
       <c r="I410" s="6">
@@ -29793,7 +29777,7 @@
         <v>65.116</v>
       </c>
       <c r="J410" s="6">
-        <f t="shared" ref="J410:J412" si="29">+H410-I410</f>
+        <f t="shared" ref="J410:J412" si="30">+H410-I410</f>
         <v>42.095103320000007</v>
       </c>
       <c r="K410" s="3" t="s">
@@ -29812,7 +29796,7 @@
         <v>332</v>
       </c>
       <c r="D411">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>323</v>
       </c>
       <c r="E411" s="5" t="s">
@@ -29825,7 +29809,7 @@
         <v>6.49</v>
       </c>
       <c r="H411" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>281.11043653000002</v>
       </c>
       <c r="I411" s="6">
@@ -29833,7 +29817,7 @@
         <v>104.35299999999999</v>
       </c>
       <c r="J411" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>176.75743653000001</v>
       </c>
       <c r="K411" s="3" t="s">
@@ -29852,7 +29836,7 @@
         <v>332</v>
       </c>
       <c r="D412">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>324</v>
       </c>
       <c r="E412" s="5" t="s">
@@ -29865,7 +29849,7 @@
         <v>44.74</v>
       </c>
       <c r="H412" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>984.46607366000012</v>
       </c>
       <c r="I412" s="6">
@@ -29873,7 +29857,7 @@
         <v>-4.3319999999999999</v>
       </c>
       <c r="J412" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>988.79807366000011</v>
       </c>
       <c r="K412" s="3" t="s">
@@ -29892,7 +29876,7 @@
         <v>332</v>
       </c>
       <c r="D413">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>325</v>
       </c>
       <c r="E413" s="5" t="s">
@@ -29932,7 +29916,7 @@
         <v>332</v>
       </c>
       <c r="D414">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>326</v>
       </c>
       <c r="E414" t="s">
@@ -29950,7 +29934,7 @@
         <v>332</v>
       </c>
       <c r="D415">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>327</v>
       </c>
       <c r="E415" s="5" t="s">
@@ -29990,7 +29974,7 @@
         <v>332</v>
       </c>
       <c r="D416">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>328</v>
       </c>
       <c r="E416" s="1" t="s">
@@ -30008,7 +29992,7 @@
         <v>332</v>
       </c>
       <c r="D417">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>329</v>
       </c>
       <c r="E417" t="s">
@@ -30026,7 +30010,7 @@
         <v>332</v>
       </c>
       <c r="D418">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>330</v>
       </c>
       <c r="E418" t="s">
@@ -30044,7 +30028,7 @@
         <v>332</v>
       </c>
       <c r="D419">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>331</v>
       </c>
       <c r="E419" t="s">
@@ -30062,7 +30046,7 @@
         <v>332</v>
       </c>
       <c r="D420" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>332</v>
       </c>
       <c r="E420" s="33" t="s">
@@ -30101,7 +30085,7 @@
         <v>332</v>
       </c>
       <c r="D421">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>333</v>
       </c>
       <c r="E421" s="1" t="s">
@@ -30125,7 +30109,7 @@
         <v>2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>334</v>
       </c>
       <c r="E422" s="5" t="s">
@@ -30165,7 +30149,7 @@
         <v>332</v>
       </c>
       <c r="D423">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>335</v>
       </c>
       <c r="E423" s="1" t="s">
@@ -30186,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="D424">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>336</v>
       </c>
       <c r="E424" t="s">
@@ -30207,7 +30191,7 @@
         <v>332</v>
       </c>
       <c r="D425">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>337</v>
       </c>
       <c r="E425" t="s">
@@ -30228,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="D426">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>338</v>
       </c>
       <c r="E426" t="s">
@@ -30249,7 +30233,7 @@
         <v>332</v>
       </c>
       <c r="D427">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>339</v>
       </c>
       <c r="E427" s="1" t="s">
@@ -30270,7 +30254,7 @@
         <v>332</v>
       </c>
       <c r="D428">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>340</v>
       </c>
       <c r="E428" s="5" t="s">
@@ -30310,7 +30294,7 @@
         <v>332</v>
       </c>
       <c r="D429">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>341</v>
       </c>
       <c r="E429" t="s">
@@ -30334,7 +30318,7 @@
         <v>3</v>
       </c>
       <c r="D430">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>342</v>
       </c>
       <c r="E430" s="5" t="s">
@@ -30377,7 +30361,7 @@
         <v>3</v>
       </c>
       <c r="D431">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>343</v>
       </c>
       <c r="E431" s="5" t="s">
@@ -30414,7 +30398,7 @@
     </row>
     <row r="432" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D432">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>344</v>
       </c>
       <c r="E432" s="1" t="s">
@@ -30429,7 +30413,7 @@
     </row>
     <row r="433" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D433">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>345</v>
       </c>
       <c r="E433" t="s">
@@ -30444,7 +30428,7 @@
     </row>
     <row r="434" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D434">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>346</v>
       </c>
       <c r="E434" s="1" t="s">
@@ -30465,7 +30449,7 @@
         <v>4</v>
       </c>
       <c r="D435" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>347</v>
       </c>
       <c r="E435" s="57" t="s">
@@ -30519,7 +30503,7 @@
     </row>
     <row r="436" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D436">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>348</v>
       </c>
       <c r="E436" s="5" t="s">
@@ -30556,7 +30540,7 @@
     </row>
     <row r="437" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D437">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>349</v>
       </c>
       <c r="E437" t="s">
@@ -30571,7 +30555,7 @@
     </row>
     <row r="438" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D438">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>350</v>
       </c>
       <c r="E438" s="1" t="s">
@@ -30586,7 +30570,7 @@
     </row>
     <row r="439" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D439">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>351</v>
       </c>
       <c r="E439" t="s">
@@ -30604,7 +30588,7 @@
         <v>332</v>
       </c>
       <c r="D440">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>352</v>
       </c>
       <c r="E440" s="5" t="s">
@@ -30658,7 +30642,7 @@
     </row>
     <row r="441" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D441">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>353</v>
       </c>
       <c r="E441" s="1" t="s">
@@ -30673,7 +30657,7 @@
     </row>
     <row r="442" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D442">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>354</v>
       </c>
       <c r="E442" t="s">
@@ -30688,7 +30672,7 @@
     </row>
     <row r="443" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D443">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>355</v>
       </c>
       <c r="E443" s="1" t="s">
@@ -30703,7 +30687,7 @@
     </row>
     <row r="444" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D444">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>356</v>
       </c>
       <c r="E444" t="s">
@@ -30718,7 +30702,7 @@
     </row>
     <row r="445" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D445">
-        <f t="shared" ref="D445:D509" si="30">+D444+1</f>
+        <f t="shared" ref="D445:D509" si="31">+D444+1</f>
         <v>357</v>
       </c>
       <c r="E445" t="s">
@@ -30733,7 +30717,7 @@
     </row>
     <row r="446" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D446">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>358</v>
       </c>
       <c r="E446" s="5" t="s">
@@ -30770,7 +30754,7 @@
     </row>
     <row r="447" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D447">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>359</v>
       </c>
       <c r="E447" t="s">
@@ -30785,7 +30769,7 @@
     </row>
     <row r="448" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D448">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>360</v>
       </c>
       <c r="E448" t="s">
@@ -30800,7 +30784,7 @@
     </row>
     <row r="449" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D449">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>361</v>
       </c>
       <c r="E449" s="1" t="s">
@@ -30815,7 +30799,7 @@
     </row>
     <row r="450" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D450">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>362</v>
       </c>
       <c r="E450" t="s">
@@ -30830,7 +30814,7 @@
     </row>
     <row r="451" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D451">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>363</v>
       </c>
       <c r="E451" t="s">
@@ -30845,7 +30829,7 @@
     </row>
     <row r="452" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D452">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="E452" t="s">
@@ -30860,7 +30844,7 @@
     </row>
     <row r="453" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D453">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>365</v>
       </c>
       <c r="E453" s="5" t="s">
@@ -30875,7 +30859,7 @@
     </row>
     <row r="454" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D454">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>366</v>
       </c>
       <c r="E454" t="s">
@@ -30890,7 +30874,7 @@
     </row>
     <row r="455" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D455">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>367</v>
       </c>
       <c r="E455" s="1" t="s">
@@ -30905,7 +30889,7 @@
     </row>
     <row r="456" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D456">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>368</v>
       </c>
       <c r="E456" s="1" t="s">
@@ -30920,7 +30904,7 @@
     </row>
     <row r="457" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D457">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>369</v>
       </c>
       <c r="E457" s="1" t="s">
@@ -30935,7 +30919,7 @@
     </row>
     <row r="458" spans="4:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D458" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>370</v>
       </c>
       <c r="E458" s="33" t="s">
@@ -30971,7 +30955,7 @@
     </row>
     <row r="459" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D459">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>371</v>
       </c>
       <c r="E459" s="38" t="s">
@@ -30984,7 +30968,7 @@
         <v>1.54</v>
       </c>
       <c r="H459" s="6">
-        <f t="shared" ref="H459:H468" si="31">+G459*L459</f>
+        <f t="shared" ref="H459:H468" si="32">+G459*L459</f>
         <v>75.270832560000002</v>
       </c>
       <c r="I459" s="6">
@@ -30992,7 +30976,7 @@
         <v>183.012</v>
       </c>
       <c r="J459" s="6">
-        <f t="shared" ref="J459:J468" si="32">+H459-I459</f>
+        <f t="shared" ref="J459:J468" si="33">+H459-I459</f>
         <v>-107.74116744</v>
       </c>
       <c r="K459" s="3" t="s">
@@ -31008,7 +30992,7 @@
     </row>
     <row r="460" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D460">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>372</v>
       </c>
       <c r="E460" s="5" t="s">
@@ -31021,7 +31005,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H460" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>42.342781499999994</v>
       </c>
       <c r="I460" s="6">
@@ -31029,7 +31013,7 @@
         <v>33.507724000000003</v>
       </c>
       <c r="J460" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8.8350574999999907</v>
       </c>
       <c r="K460" s="3" t="s">
@@ -31045,7 +31029,7 @@
     </row>
     <row r="461" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D461">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>373</v>
       </c>
       <c r="E461" s="5" t="s">
@@ -31058,7 +31042,7 @@
         <v>3.02</v>
       </c>
       <c r="H461" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>73.353770560000001</v>
       </c>
       <c r="I461" s="6">
@@ -31066,7 +31050,7 @@
         <v>199.59700000000001</v>
       </c>
       <c r="J461" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-126.24322944000001</v>
       </c>
       <c r="K461" s="3" t="s">
@@ -31082,7 +31066,7 @@
     </row>
     <row r="462" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D462">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>374</v>
       </c>
       <c r="E462" s="5" t="s">
@@ -31095,7 +31079,7 @@
         <v>0.32</v>
       </c>
       <c r="H462" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12.26172704</v>
       </c>
       <c r="I462" s="6">
@@ -31103,7 +31087,7 @@
         <v>62.823</v>
       </c>
       <c r="J462" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-50.561272959999997</v>
       </c>
       <c r="K462" s="3" t="s">
@@ -31119,7 +31103,7 @@
     </row>
     <row r="463" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D463">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>375</v>
       </c>
       <c r="E463" s="5" t="s">
@@ -31132,7 +31116,7 @@
         <v>0.46</v>
       </c>
       <c r="H463" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15.382951539999999</v>
       </c>
       <c r="I463" s="6">
@@ -31140,7 +31124,7 @@
         <v>5.4758170000000002</v>
       </c>
       <c r="J463" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>9.9071345399999977</v>
       </c>
       <c r="K463" s="3" t="s">
@@ -31156,7 +31140,7 @@
     </row>
     <row r="464" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D464">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>376</v>
       </c>
       <c r="E464" s="5" t="s">
@@ -31169,7 +31153,7 @@
         <v>0.99</v>
       </c>
       <c r="H464" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>100.25985420000001</v>
       </c>
       <c r="I464" s="6">
@@ -31177,7 +31161,7 @@
         <v>59.1</v>
       </c>
       <c r="J464" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>41.159854200000005</v>
       </c>
       <c r="K464" s="3" t="s">
@@ -31193,7 +31177,7 @@
     </row>
     <row r="465" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D465">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>377</v>
       </c>
       <c r="E465" s="5" t="s">
@@ -31206,7 +31190,7 @@
         <v>5.95</v>
       </c>
       <c r="H465" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>209.98488314999997</v>
       </c>
       <c r="I465" s="6">
@@ -31214,7 +31198,7 @@
         <v>98.310918000000001</v>
       </c>
       <c r="J465" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>111.67396514999997</v>
       </c>
       <c r="K465" s="3" t="s">
@@ -31230,7 +31214,7 @@
     </row>
     <row r="466" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D466">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>378</v>
       </c>
       <c r="E466" s="5" t="s">
@@ -31243,7 +31227,7 @@
         <v>1.93</v>
       </c>
       <c r="H466" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.307475159999999</v>
       </c>
       <c r="I466" s="6">
@@ -31251,7 +31235,7 @@
         <v>89.078000000000003</v>
       </c>
       <c r="J466" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-65.770524840000007</v>
       </c>
       <c r="K466" s="3" t="s">
@@ -31267,7 +31251,7 @@
     </row>
     <row r="467" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D467">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>379</v>
       </c>
       <c r="E467" s="38" t="s">
@@ -31280,7 +31264,7 @@
         <v>11.12</v>
       </c>
       <c r="H467" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>311.35468463999996</v>
       </c>
       <c r="I467" s="6">
@@ -31288,7 +31272,7 @@
         <v>15.414999999999999</v>
       </c>
       <c r="J467" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>295.93968463999994</v>
       </c>
       <c r="K467" s="3" t="s">
@@ -31304,7 +31288,7 @@
     </row>
     <row r="468" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D468">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>380</v>
       </c>
       <c r="E468" s="5" t="s">
@@ -31317,7 +31301,7 @@
         <v>3.59</v>
       </c>
       <c r="H468" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>225.31495175000001</v>
       </c>
       <c r="I468" s="6">
@@ -31325,7 +31309,7 @@
         <v>-77.494</v>
       </c>
       <c r="J468" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>302.80895175000001</v>
       </c>
       <c r="K468" s="3" t="s">
@@ -31344,7 +31328,7 @@
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>381</v>
       </c>
       <c r="E469" t="s">
@@ -31359,7 +31343,7 @@
     </row>
     <row r="470" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D470">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>382</v>
       </c>
       <c r="E470" s="1" t="s">
@@ -31380,7 +31364,7 @@
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>383</v>
       </c>
       <c r="E471" t="s">
@@ -31398,7 +31382,7 @@
     </row>
     <row r="472" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D472" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>384</v>
       </c>
       <c r="E472" s="33" t="s">
@@ -31437,7 +31421,7 @@
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>385</v>
       </c>
       <c r="E473" t="s">
@@ -31455,7 +31439,7 @@
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>386</v>
       </c>
       <c r="E474" t="s">
@@ -31473,7 +31457,7 @@
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>387</v>
       </c>
       <c r="E475" t="s">
@@ -31491,7 +31475,7 @@
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>388</v>
       </c>
       <c r="E476" t="s">
@@ -31509,7 +31493,7 @@
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>389</v>
       </c>
       <c r="E477" s="24" t="s">
@@ -31530,7 +31514,7 @@
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>390</v>
       </c>
       <c r="E478" t="s">
@@ -31548,7 +31532,7 @@
     </row>
     <row r="479" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D479" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>391</v>
       </c>
       <c r="E479" s="33" t="s">
@@ -31584,7 +31568,7 @@
     </row>
     <row r="480" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D480" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>392</v>
       </c>
       <c r="E480" s="33" t="s">
@@ -31623,7 +31607,7 @@
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>393</v>
       </c>
       <c r="E481" t="s">
@@ -31641,7 +31625,7 @@
       <c r="B482"/>
       <c r="C482"/>
       <c r="D482">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>394</v>
       </c>
       <c r="E482" t="s">
@@ -31656,7 +31640,7 @@
     </row>
     <row r="483" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D483" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>395</v>
       </c>
       <c r="E483" s="33" t="s">
@@ -31695,7 +31679,7 @@
       <c r="B484"/>
       <c r="C484"/>
       <c r="D484">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>396</v>
       </c>
       <c r="E484" s="5" t="s">
@@ -31713,7 +31697,7 @@
       <c r="B485"/>
       <c r="C485"/>
       <c r="D485">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>397</v>
       </c>
       <c r="E485" t="s">
@@ -31728,7 +31712,7 @@
     </row>
     <row r="486" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D486" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>398</v>
       </c>
       <c r="E486" s="33" t="s">
@@ -31767,7 +31751,7 @@
       <c r="B487"/>
       <c r="C487"/>
       <c r="D487">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>399</v>
       </c>
       <c r="E487" t="s">
@@ -31785,7 +31769,7 @@
       <c r="B488"/>
       <c r="C488"/>
       <c r="D488">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="E488" t="s">
@@ -31805,7 +31789,7 @@
       <c r="B489"/>
       <c r="C489"/>
       <c r="D489">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>401</v>
       </c>
       <c r="E489" t="s">
@@ -31828,7 +31812,7 @@
       <c r="B490"/>
       <c r="C490"/>
       <c r="D490">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>402</v>
       </c>
       <c r="E490" t="s">
@@ -31851,7 +31835,7 @@
       <c r="B491"/>
       <c r="C491"/>
       <c r="D491">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>403</v>
       </c>
       <c r="E491" t="s">
@@ -31874,7 +31858,7 @@
       <c r="B492"/>
       <c r="C492"/>
       <c r="D492">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>404</v>
       </c>
       <c r="E492" t="s">
@@ -31897,7 +31881,7 @@
       <c r="B493"/>
       <c r="C493"/>
       <c r="D493">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>405</v>
       </c>
       <c r="E493" t="s">
@@ -31918,7 +31902,7 @@
         <v>332</v>
       </c>
       <c r="D494" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>406</v>
       </c>
       <c r="E494" s="33" t="s">
@@ -31963,7 +31947,7 @@
       <c r="B495"/>
       <c r="C495"/>
       <c r="D495">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>407</v>
       </c>
       <c r="E495" t="s">
@@ -31986,7 +31970,7 @@
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>408</v>
       </c>
       <c r="E496" t="s">
@@ -32009,7 +31993,7 @@
       <c r="B497"/>
       <c r="C497"/>
       <c r="D497">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>409</v>
       </c>
       <c r="E497" t="s">
@@ -32029,7 +32013,7 @@
       <c r="B498"/>
       <c r="C498"/>
       <c r="D498">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>410</v>
       </c>
       <c r="E498" t="s">
@@ -32047,7 +32031,7 @@
         <v>332</v>
       </c>
       <c r="D499" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>411</v>
       </c>
       <c r="E499" s="33" t="s">
@@ -32092,7 +32076,7 @@
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>412</v>
       </c>
       <c r="E500" s="5" t="s">
@@ -32113,7 +32097,7 @@
         <v>277.88299999999998</v>
       </c>
       <c r="J500" s="8">
-        <f t="shared" ref="J500:J506" si="33">+H500-I500</f>
+        <f t="shared" ref="J500:J506" si="34">+H500-I500</f>
         <v>-248.67981938999998</v>
       </c>
       <c r="K500" s="3" t="s">
@@ -32127,7 +32111,7 @@
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>413</v>
       </c>
       <c r="E501" s="5" t="s">
@@ -32148,7 +32132,7 @@
         <v>-7.4640000000000004</v>
       </c>
       <c r="J501" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>87.483892499999996</v>
       </c>
       <c r="K501" s="3" t="s">
@@ -32167,7 +32151,7 @@
         <v>332</v>
       </c>
       <c r="D502" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>414</v>
       </c>
       <c r="E502" s="57" t="s">
@@ -32188,7 +32172,7 @@
         <v>15.942</v>
       </c>
       <c r="J502" s="111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.815463459999997</v>
       </c>
       <c r="K502" s="58" t="s">
@@ -32216,7 +32200,7 @@
     </row>
     <row r="503" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D503" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>415</v>
       </c>
       <c r="E503" s="57" t="s">
@@ -32237,7 +32221,7 @@
         <v>13.262999999999998</v>
       </c>
       <c r="J503" s="111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>16.925165800000002</v>
       </c>
       <c r="K503" s="58" t="s">
@@ -32265,7 +32249,7 @@
     </row>
     <row r="504" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D504">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>416</v>
       </c>
       <c r="E504" s="5" t="s">
@@ -32284,7 +32268,7 @@
         <v>131.17699999999999</v>
       </c>
       <c r="J504" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-5.7159167599999847</v>
       </c>
       <c r="K504" s="3" t="s">
@@ -32293,7 +32277,7 @@
     </row>
     <row r="505" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D505" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>417</v>
       </c>
       <c r="E505" s="57" t="s">
@@ -32312,7 +32296,7 @@
         <v>55.28</v>
       </c>
       <c r="J505" s="111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-34.344482460000002</v>
       </c>
       <c r="K505" s="58" t="s">
@@ -32340,7 +32324,7 @@
     </row>
     <row r="506" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D506" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>418</v>
       </c>
       <c r="E506" s="57" t="s">
@@ -32361,7 +32345,7 @@
         <v>136.64599999999999</v>
       </c>
       <c r="J506" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-79.969639999999998</v>
       </c>
       <c r="K506" s="58" t="s">
@@ -32400,7 +32384,7 @@
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>419</v>
       </c>
       <c r="E507" t="s">
@@ -32416,7 +32400,7 @@
     </row>
     <row r="508" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D508" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>420</v>
       </c>
       <c r="E508" s="33" t="s">
@@ -32454,7 +32438,7 @@
     </row>
     <row r="509" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D509" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>421</v>
       </c>
       <c r="E509" s="33" t="s">
@@ -32494,7 +32478,7 @@
     </row>
     <row r="510" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D510">
-        <f t="shared" ref="D510:D555" si="34">+D509+1</f>
+        <f t="shared" ref="D510:D555" si="35">+D509+1</f>
         <v>422</v>
       </c>
       <c r="E510" s="1" t="s">
@@ -32512,7 +32496,7 @@
     </row>
     <row r="511" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D511" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>423</v>
       </c>
       <c r="E511" s="33" t="s">
@@ -32552,7 +32536,7 @@
     </row>
     <row r="512" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D512" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>424</v>
       </c>
       <c r="E512" s="33" t="s">
@@ -32590,7 +32574,7 @@
     </row>
     <row r="513" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D513">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>425</v>
       </c>
       <c r="E513" t="s">
@@ -32608,7 +32592,7 @@
     </row>
     <row r="514" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D514">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>426</v>
       </c>
       <c r="E514" s="1" t="s">
@@ -32626,7 +32610,7 @@
     </row>
     <row r="515" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D515">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>427</v>
       </c>
       <c r="E515" t="s">
@@ -32641,7 +32625,7 @@
     </row>
     <row r="516" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D516">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>428</v>
       </c>
       <c r="E516" t="s">
@@ -32656,7 +32640,7 @@
     </row>
     <row r="517" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D517" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>429</v>
       </c>
       <c r="E517" s="33" t="s">
@@ -32692,7 +32676,7 @@
     </row>
     <row r="518" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D518">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>430</v>
       </c>
       <c r="E518" s="1" t="s">
@@ -32722,7 +32706,7 @@
     </row>
     <row r="520" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D520">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>433</v>
       </c>
       <c r="E520" t="s">
@@ -32737,7 +32721,7 @@
     </row>
     <row r="521" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D521">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>434</v>
       </c>
       <c r="E521" t="s">
@@ -32755,7 +32739,7 @@
         <v>332</v>
       </c>
       <c r="D522">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>435</v>
       </c>
       <c r="E522" t="s">
@@ -32770,7 +32754,7 @@
     </row>
     <row r="523" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D523" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>436</v>
       </c>
       <c r="E523" s="33" t="s">
@@ -32808,7 +32792,7 @@
     </row>
     <row r="524" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D524">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>437</v>
       </c>
       <c r="E524" t="s">
@@ -32828,7 +32812,7 @@
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>438</v>
       </c>
       <c r="E525" s="5" t="s">
@@ -32873,7 +32857,7 @@
       <c r="B526"/>
       <c r="C526"/>
       <c r="D526">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>439</v>
       </c>
       <c r="E526" t="s">
@@ -32896,7 +32880,7 @@
       <c r="B527"/>
       <c r="C527"/>
       <c r="D527">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>440</v>
       </c>
       <c r="E527" t="s">
@@ -32911,7 +32895,7 @@
     </row>
     <row r="528" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D528" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>441</v>
       </c>
       <c r="E528" s="33" t="s">
@@ -32950,7 +32934,7 @@
         <v>332</v>
       </c>
       <c r="D529">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>442</v>
       </c>
       <c r="E529" t="s">
@@ -32965,7 +32949,7 @@
     </row>
     <row r="530" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D530">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>443</v>
       </c>
       <c r="E530" s="1" t="s">
@@ -32984,7 +32968,7 @@
         <v>332</v>
       </c>
       <c r="D531" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>444</v>
       </c>
       <c r="E531" s="33" t="s">
@@ -33025,7 +33009,7 @@
         <v>332</v>
       </c>
       <c r="D532">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>445</v>
       </c>
       <c r="E532" s="5" t="s">
@@ -33062,7 +33046,7 @@
     </row>
     <row r="533" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D533">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>446</v>
       </c>
       <c r="E533" t="s">
@@ -33077,7 +33061,7 @@
     </row>
     <row r="534" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D534" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>447</v>
       </c>
       <c r="E534" s="33" t="s">
@@ -33115,7 +33099,7 @@
     </row>
     <row r="535" spans="1:30" ht="13" x14ac:dyDescent="0.3">
       <c r="D535">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>448</v>
       </c>
       <c r="E535" s="33" t="s">
@@ -33128,7 +33112,7 @@
     </row>
     <row r="536" spans="1:30" ht="13" x14ac:dyDescent="0.3">
       <c r="D536">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>449</v>
       </c>
       <c r="E536" s="33" t="s">
@@ -33140,7 +33124,7 @@
     </row>
     <row r="537" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D537">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>450</v>
       </c>
       <c r="E537" t="s">
@@ -33155,7 +33139,7 @@
     </row>
     <row r="538" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D538">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>451</v>
       </c>
       <c r="E538" t="s">
@@ -33170,7 +33154,7 @@
     </row>
     <row r="539" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D539" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>452</v>
       </c>
       <c r="E539" s="33" t="s">
@@ -33206,7 +33190,7 @@
     </row>
     <row r="540" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D540">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>453</v>
       </c>
       <c r="E540" t="s">
@@ -33221,7 +33205,7 @@
     </row>
     <row r="541" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D541">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>454</v>
       </c>
       <c r="E541" t="s">
@@ -33236,7 +33220,7 @@
     </row>
     <row r="542" spans="1:30" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D542" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>455</v>
       </c>
       <c r="E542" s="33" t="s">
@@ -33272,7 +33256,7 @@
     </row>
     <row r="543" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D543">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>456</v>
       </c>
       <c r="E543" t="s">
@@ -33287,7 +33271,7 @@
     </row>
     <row r="544" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D544">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>457</v>
       </c>
       <c r="E544" t="s">
@@ -33307,7 +33291,7 @@
       <c r="B545"/>
       <c r="C545"/>
       <c r="D545">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>458</v>
       </c>
       <c r="E545" t="s">
@@ -33322,7 +33306,7 @@
     </row>
     <row r="546" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D546" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>459</v>
       </c>
       <c r="E546" s="33" t="s">
@@ -33358,7 +33342,7 @@
     </row>
     <row r="547" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D547">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>460</v>
       </c>
       <c r="E547" s="5" t="s">
@@ -33398,7 +33382,7 @@
         <v>332</v>
       </c>
       <c r="D548" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>461</v>
       </c>
       <c r="E548" s="57" t="s">
@@ -33457,7 +33441,7 @@
       <c r="B549"/>
       <c r="C549"/>
       <c r="D549">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>462</v>
       </c>
       <c r="E549" s="5" t="s">
@@ -33499,7 +33483,7 @@
       <c r="B550"/>
       <c r="C550"/>
       <c r="D550">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>463</v>
       </c>
       <c r="E550" s="5" t="s">
@@ -33544,7 +33528,7 @@
       <c r="B551"/>
       <c r="C551"/>
       <c r="D551">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>464</v>
       </c>
       <c r="E551" t="s">
@@ -33560,7 +33544,7 @@
     </row>
     <row r="552" spans="1:31" s="33" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D552" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>465</v>
       </c>
       <c r="E552" s="33" t="s">
@@ -33601,7 +33585,7 @@
       <c r="B553"/>
       <c r="C553"/>
       <c r="D553">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>466</v>
       </c>
       <c r="E553" s="1" t="s">
@@ -33616,7 +33600,7 @@
     </row>
     <row r="554" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D554">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>467</v>
       </c>
       <c r="E554" s="1" t="s">
@@ -33634,7 +33618,7 @@
     </row>
     <row r="555" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D555">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>468</v>
       </c>
       <c r="E555" s="5" t="s">
@@ -36875,94 +36859,94 @@
       <c r="ES7" s="73" t="s">
         <v>1733</v>
       </c>
-      <c r="ET7" s="121" t="s">
+      <c r="ET7" s="129" t="s">
         <v>1735</v>
       </c>
-      <c r="EU7" s="121" t="s">
+      <c r="EU7" s="129" t="s">
         <v>1735</v>
       </c>
-      <c r="EV7" s="121" t="s">
+      <c r="EV7" s="129" t="s">
         <v>1735</v>
       </c>
-      <c r="EW7" s="121" t="s">
+      <c r="EW7" s="129" t="s">
         <v>1735</v>
       </c>
-      <c r="EX7" s="118" t="s">
+      <c r="EX7" s="140" t="s">
         <v>1203</v>
       </c>
-      <c r="EY7" s="118" t="s">
+      <c r="EY7" s="140" t="s">
         <v>1203</v>
       </c>
-      <c r="EZ7" s="118" t="s">
+      <c r="EZ7" s="140" t="s">
         <v>1203</v>
       </c>
-      <c r="FA7" s="119" t="s">
+      <c r="FA7" s="141" t="s">
         <v>1729</v>
       </c>
-      <c r="FB7" s="123" t="s">
+      <c r="FB7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="FC7" s="123" t="s">
+      <c r="FC7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="FD7" s="123" t="s">
+      <c r="FD7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="FE7" s="123" t="s">
+      <c r="FE7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="FF7" s="123" t="s">
+      <c r="FF7" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="FG7" s="128" t="s">
+      <c r="FG7" s="145" t="s">
         <v>1759</v>
       </c>
-      <c r="FH7" s="115" t="s">
+      <c r="FH7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FI7" s="115" t="s">
+      <c r="FI7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FJ7" s="115" t="s">
+      <c r="FJ7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FK7" s="115" t="s">
+      <c r="FK7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FL7" s="115" t="s">
+      <c r="FL7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FM7" s="115" t="s">
+      <c r="FM7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FN7" s="115" t="s">
+      <c r="FN7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FO7" s="115" t="s">
+      <c r="FO7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FP7" s="115" t="s">
+      <c r="FP7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FQ7" s="115" t="s">
+      <c r="FQ7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FR7" s="115" t="s">
+      <c r="FR7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FS7" s="115" t="s">
+      <c r="FS7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FT7" s="115" t="s">
+      <c r="FT7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FU7" s="115" t="s">
+      <c r="FU7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FV7" s="115" t="s">
+      <c r="FV7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="FW7" s="115" t="s">
+      <c r="FW7" s="136" t="s">
         <v>22</v>
       </c>
     </row>
@@ -37145,36 +37129,36 @@
       <c r="ES8" s="74" t="s">
         <v>1734</v>
       </c>
-      <c r="ET8" s="121"/>
-      <c r="EU8" s="121"/>
-      <c r="EV8" s="121"/>
-      <c r="EW8" s="121"/>
-      <c r="EX8" s="118"/>
-      <c r="EY8" s="118"/>
-      <c r="EZ8" s="118"/>
-      <c r="FA8" s="119"/>
-      <c r="FB8" s="123"/>
-      <c r="FC8" s="123"/>
-      <c r="FD8" s="123"/>
-      <c r="FE8" s="123"/>
-      <c r="FF8" s="123"/>
-      <c r="FG8" s="128"/>
-      <c r="FH8" s="115"/>
-      <c r="FI8" s="115"/>
-      <c r="FJ8" s="115"/>
-      <c r="FK8" s="115"/>
-      <c r="FL8" s="115"/>
-      <c r="FM8" s="115"/>
-      <c r="FN8" s="115"/>
-      <c r="FO8" s="115"/>
-      <c r="FP8" s="115"/>
-      <c r="FQ8" s="115"/>
-      <c r="FR8" s="115"/>
-      <c r="FS8" s="115"/>
-      <c r="FT8" s="115"/>
-      <c r="FU8" s="115"/>
-      <c r="FV8" s="115"/>
-      <c r="FW8" s="115"/>
+      <c r="ET8" s="129"/>
+      <c r="EU8" s="129"/>
+      <c r="EV8" s="129"/>
+      <c r="EW8" s="129"/>
+      <c r="EX8" s="140"/>
+      <c r="EY8" s="140"/>
+      <c r="EZ8" s="140"/>
+      <c r="FA8" s="141"/>
+      <c r="FB8" s="137"/>
+      <c r="FC8" s="137"/>
+      <c r="FD8" s="137"/>
+      <c r="FE8" s="137"/>
+      <c r="FF8" s="137"/>
+      <c r="FG8" s="145"/>
+      <c r="FH8" s="136"/>
+      <c r="FI8" s="136"/>
+      <c r="FJ8" s="136"/>
+      <c r="FK8" s="136"/>
+      <c r="FL8" s="136"/>
+      <c r="FM8" s="136"/>
+      <c r="FN8" s="136"/>
+      <c r="FO8" s="136"/>
+      <c r="FP8" s="136"/>
+      <c r="FQ8" s="136"/>
+      <c r="FR8" s="136"/>
+      <c r="FS8" s="136"/>
+      <c r="FT8" s="136"/>
+      <c r="FU8" s="136"/>
+      <c r="FV8" s="136"/>
+      <c r="FW8" s="136"/>
     </row>
     <row r="9" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -37325,74 +37309,74 @@
       <c r="EI9" s="76" t="s">
         <v>1739</v>
       </c>
-      <c r="EJ9" s="130" t="s">
+      <c r="EJ9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EK9" s="130" t="s">
+      <c r="EK9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EL9" s="130" t="s">
+      <c r="EL9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EM9" s="130" t="s">
+      <c r="EM9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EN9" s="130" t="s">
+      <c r="EN9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EO9" s="130" t="s">
+      <c r="EO9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EP9" s="130" t="s">
+      <c r="EP9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EQ9" s="130" t="s">
+      <c r="EQ9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="ER9" s="130" t="s">
+      <c r="ER9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="ES9" s="130" t="s">
+      <c r="ES9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="ET9" s="130" t="s">
+      <c r="ET9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EU9" s="130" t="s">
+      <c r="EU9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EV9" s="130" t="s">
+      <c r="EV9" s="126" t="s">
         <v>1254</v>
       </c>
-      <c r="EW9" s="124" t="s">
+      <c r="EW9" s="143" t="s">
         <v>1738</v>
       </c>
-      <c r="EX9" s="118"/>
-      <c r="EY9" s="118"/>
-      <c r="EZ9" s="118"/>
-      <c r="FA9" s="119"/>
-      <c r="FB9" s="123"/>
-      <c r="FC9" s="123"/>
-      <c r="FD9" s="123"/>
-      <c r="FE9" s="123"/>
-      <c r="FF9" s="123"/>
-      <c r="FG9" s="128"/>
-      <c r="FH9" s="115"/>
-      <c r="FI9" s="115"/>
-      <c r="FJ9" s="115"/>
-      <c r="FK9" s="115"/>
-      <c r="FL9" s="115"/>
-      <c r="FM9" s="115"/>
-      <c r="FN9" s="115"/>
-      <c r="FO9" s="115"/>
-      <c r="FP9" s="115"/>
-      <c r="FQ9" s="115"/>
-      <c r="FR9" s="115"/>
-      <c r="FS9" s="115"/>
-      <c r="FT9" s="115"/>
-      <c r="FU9" s="115"/>
-      <c r="FV9" s="115"/>
-      <c r="FW9" s="115"/>
+      <c r="EX9" s="140"/>
+      <c r="EY9" s="140"/>
+      <c r="EZ9" s="140"/>
+      <c r="FA9" s="141"/>
+      <c r="FB9" s="137"/>
+      <c r="FC9" s="137"/>
+      <c r="FD9" s="137"/>
+      <c r="FE9" s="137"/>
+      <c r="FF9" s="137"/>
+      <c r="FG9" s="145"/>
+      <c r="FH9" s="136"/>
+      <c r="FI9" s="136"/>
+      <c r="FJ9" s="136"/>
+      <c r="FK9" s="136"/>
+      <c r="FL9" s="136"/>
+      <c r="FM9" s="136"/>
+      <c r="FN9" s="136"/>
+      <c r="FO9" s="136"/>
+      <c r="FP9" s="136"/>
+      <c r="FQ9" s="136"/>
+      <c r="FR9" s="136"/>
+      <c r="FS9" s="136"/>
+      <c r="FT9" s="136"/>
+      <c r="FU9" s="136"/>
+      <c r="FV9" s="136"/>
+      <c r="FW9" s="136"/>
     </row>
     <row r="10" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -37543,46 +37527,46 @@
       <c r="EI10" s="73" t="s">
         <v>1740</v>
       </c>
-      <c r="EJ10" s="130"/>
-      <c r="EK10" s="130"/>
-      <c r="EL10" s="130"/>
-      <c r="EM10" s="130"/>
-      <c r="EN10" s="130"/>
-      <c r="EO10" s="130"/>
-      <c r="EP10" s="130"/>
-      <c r="EQ10" s="130"/>
-      <c r="ER10" s="130"/>
-      <c r="ES10" s="130"/>
-      <c r="ET10" s="130"/>
-      <c r="EU10" s="130"/>
-      <c r="EV10" s="130"/>
-      <c r="EW10" s="124"/>
-      <c r="EX10" s="118"/>
-      <c r="EY10" s="118"/>
-      <c r="EZ10" s="118"/>
-      <c r="FA10" s="119"/>
-      <c r="FB10" s="123"/>
-      <c r="FC10" s="123"/>
-      <c r="FD10" s="123"/>
-      <c r="FE10" s="123"/>
-      <c r="FF10" s="123"/>
-      <c r="FG10" s="128"/>
-      <c r="FH10" s="115"/>
-      <c r="FI10" s="115"/>
-      <c r="FJ10" s="115"/>
-      <c r="FK10" s="115"/>
-      <c r="FL10" s="115"/>
-      <c r="FM10" s="115"/>
-      <c r="FN10" s="115"/>
-      <c r="FO10" s="115"/>
-      <c r="FP10" s="115"/>
-      <c r="FQ10" s="115"/>
-      <c r="FR10" s="115"/>
-      <c r="FS10" s="115"/>
-      <c r="FT10" s="115"/>
-      <c r="FU10" s="115"/>
-      <c r="FV10" s="115"/>
-      <c r="FW10" s="115"/>
+      <c r="EJ10" s="126"/>
+      <c r="EK10" s="126"/>
+      <c r="EL10" s="126"/>
+      <c r="EM10" s="126"/>
+      <c r="EN10" s="126"/>
+      <c r="EO10" s="126"/>
+      <c r="EP10" s="126"/>
+      <c r="EQ10" s="126"/>
+      <c r="ER10" s="126"/>
+      <c r="ES10" s="126"/>
+      <c r="ET10" s="126"/>
+      <c r="EU10" s="126"/>
+      <c r="EV10" s="126"/>
+      <c r="EW10" s="143"/>
+      <c r="EX10" s="140"/>
+      <c r="EY10" s="140"/>
+      <c r="EZ10" s="140"/>
+      <c r="FA10" s="141"/>
+      <c r="FB10" s="137"/>
+      <c r="FC10" s="137"/>
+      <c r="FD10" s="137"/>
+      <c r="FE10" s="137"/>
+      <c r="FF10" s="137"/>
+      <c r="FG10" s="145"/>
+      <c r="FH10" s="136"/>
+      <c r="FI10" s="136"/>
+      <c r="FJ10" s="136"/>
+      <c r="FK10" s="136"/>
+      <c r="FL10" s="136"/>
+      <c r="FM10" s="136"/>
+      <c r="FN10" s="136"/>
+      <c r="FO10" s="136"/>
+      <c r="FP10" s="136"/>
+      <c r="FQ10" s="136"/>
+      <c r="FR10" s="136"/>
+      <c r="FS10" s="136"/>
+      <c r="FT10" s="136"/>
+      <c r="FU10" s="136"/>
+      <c r="FV10" s="136"/>
+      <c r="FW10" s="136"/>
     </row>
     <row r="11" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -37757,32 +37741,32 @@
       <c r="EW11" s="86" t="s">
         <v>1770</v>
       </c>
-      <c r="EX11" s="118"/>
-      <c r="EY11" s="118"/>
-      <c r="EZ11" s="118"/>
-      <c r="FA11" s="119"/>
-      <c r="FB11" s="123"/>
-      <c r="FC11" s="123"/>
-      <c r="FD11" s="123"/>
-      <c r="FE11" s="123"/>
-      <c r="FF11" s="123"/>
-      <c r="FG11" s="128"/>
-      <c r="FH11" s="115"/>
-      <c r="FI11" s="115"/>
-      <c r="FJ11" s="115"/>
-      <c r="FK11" s="115"/>
-      <c r="FL11" s="115"/>
-      <c r="FM11" s="115"/>
-      <c r="FN11" s="115"/>
-      <c r="FO11" s="115"/>
-      <c r="FP11" s="115"/>
-      <c r="FQ11" s="115"/>
-      <c r="FR11" s="115"/>
-      <c r="FS11" s="115"/>
-      <c r="FT11" s="115"/>
-      <c r="FU11" s="115"/>
-      <c r="FV11" s="115"/>
-      <c r="FW11" s="115"/>
+      <c r="EX11" s="140"/>
+      <c r="EY11" s="140"/>
+      <c r="EZ11" s="140"/>
+      <c r="FA11" s="141"/>
+      <c r="FB11" s="137"/>
+      <c r="FC11" s="137"/>
+      <c r="FD11" s="137"/>
+      <c r="FE11" s="137"/>
+      <c r="FF11" s="137"/>
+      <c r="FG11" s="145"/>
+      <c r="FH11" s="136"/>
+      <c r="FI11" s="136"/>
+      <c r="FJ11" s="136"/>
+      <c r="FK11" s="136"/>
+      <c r="FL11" s="136"/>
+      <c r="FM11" s="136"/>
+      <c r="FN11" s="136"/>
+      <c r="FO11" s="136"/>
+      <c r="FP11" s="136"/>
+      <c r="FQ11" s="136"/>
+      <c r="FR11" s="136"/>
+      <c r="FS11" s="136"/>
+      <c r="FT11" s="136"/>
+      <c r="FU11" s="136"/>
+      <c r="FV11" s="136"/>
+      <c r="FW11" s="136"/>
     </row>
     <row r="12" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -37985,40 +37969,40 @@
       <c r="EW12" s="65" t="s">
         <v>1730</v>
       </c>
-      <c r="EX12" s="125" t="s">
+      <c r="EX12" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="EY12" s="125" t="s">
+      <c r="EY12" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="EZ12" s="125" t="s">
+      <c r="EZ12" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="FA12" s="126" t="s">
+      <c r="FA12" s="144" t="s">
         <v>1741</v>
       </c>
-      <c r="FB12" s="123"/>
-      <c r="FC12" s="123"/>
-      <c r="FD12" s="123"/>
-      <c r="FE12" s="123"/>
-      <c r="FF12" s="123"/>
-      <c r="FG12" s="128"/>
-      <c r="FH12" s="115"/>
-      <c r="FI12" s="115"/>
-      <c r="FJ12" s="115"/>
-      <c r="FK12" s="115"/>
-      <c r="FL12" s="115"/>
-      <c r="FM12" s="115"/>
-      <c r="FN12" s="115"/>
-      <c r="FO12" s="115"/>
-      <c r="FP12" s="115"/>
-      <c r="FQ12" s="115"/>
-      <c r="FR12" s="115"/>
-      <c r="FS12" s="115"/>
-      <c r="FT12" s="115"/>
-      <c r="FU12" s="115"/>
-      <c r="FV12" s="115"/>
-      <c r="FW12" s="115"/>
+      <c r="FB12" s="137"/>
+      <c r="FC12" s="137"/>
+      <c r="FD12" s="137"/>
+      <c r="FE12" s="137"/>
+      <c r="FF12" s="137"/>
+      <c r="FG12" s="145"/>
+      <c r="FH12" s="136"/>
+      <c r="FI12" s="136"/>
+      <c r="FJ12" s="136"/>
+      <c r="FK12" s="136"/>
+      <c r="FL12" s="136"/>
+      <c r="FM12" s="136"/>
+      <c r="FN12" s="136"/>
+      <c r="FO12" s="136"/>
+      <c r="FP12" s="136"/>
+      <c r="FQ12" s="136"/>
+      <c r="FR12" s="136"/>
+      <c r="FS12" s="136"/>
+      <c r="FT12" s="136"/>
+      <c r="FU12" s="136"/>
+      <c r="FV12" s="136"/>
+      <c r="FW12" s="136"/>
     </row>
     <row r="13" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -38137,116 +38121,116 @@
       <c r="DE13" s="70" t="s">
         <v>1762</v>
       </c>
-      <c r="DF13" s="131" t="s">
+      <c r="DF13" s="124" t="s">
         <v>1709</v>
       </c>
-      <c r="DG13" s="131"/>
-      <c r="DH13" s="131"/>
-      <c r="DI13" s="131"/>
-      <c r="DJ13" s="131"/>
-      <c r="DK13" s="131"/>
-      <c r="DL13" s="131"/>
-      <c r="DM13" s="131"/>
-      <c r="DN13" s="131"/>
-      <c r="DO13" s="131"/>
-      <c r="DP13" s="131"/>
-      <c r="DQ13" s="131"/>
-      <c r="DR13" s="131"/>
-      <c r="DS13" s="131"/>
-      <c r="DT13" s="138" t="s">
+      <c r="DG13" s="124"/>
+      <c r="DH13" s="124"/>
+      <c r="DI13" s="124"/>
+      <c r="DJ13" s="124"/>
+      <c r="DK13" s="124"/>
+      <c r="DL13" s="124"/>
+      <c r="DM13" s="124"/>
+      <c r="DN13" s="124"/>
+      <c r="DO13" s="124"/>
+      <c r="DP13" s="124"/>
+      <c r="DQ13" s="124"/>
+      <c r="DR13" s="124"/>
+      <c r="DS13" s="124"/>
+      <c r="DT13" s="125" t="s">
         <v>1764</v>
       </c>
-      <c r="DU13" s="127" t="s">
+      <c r="DU13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="DV13" s="127"/>
-      <c r="DW13" s="127"/>
-      <c r="DX13" s="127"/>
-      <c r="DY13" s="127" t="s">
+      <c r="DV13" s="116"/>
+      <c r="DW13" s="116"/>
+      <c r="DX13" s="116"/>
+      <c r="DY13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="DZ13" s="127"/>
-      <c r="EA13" s="127"/>
-      <c r="EB13" s="127"/>
-      <c r="EC13" s="127"/>
-      <c r="ED13" s="127" t="s">
+      <c r="DZ13" s="116"/>
+      <c r="EA13" s="116"/>
+      <c r="EB13" s="116"/>
+      <c r="EC13" s="116"/>
+      <c r="ED13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EE13" s="127"/>
-      <c r="EF13" s="127"/>
-      <c r="EG13" s="127"/>
-      <c r="EH13" s="127"/>
-      <c r="EI13" s="127" t="s">
+      <c r="EE13" s="116"/>
+      <c r="EF13" s="116"/>
+      <c r="EG13" s="116"/>
+      <c r="EH13" s="116"/>
+      <c r="EI13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EJ13" s="127" t="s">
+      <c r="EJ13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EK13" s="127" t="s">
+      <c r="EK13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EL13" s="127" t="s">
+      <c r="EL13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EM13" s="127" t="s">
+      <c r="EM13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EN13" s="127" t="s">
+      <c r="EN13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EO13" s="127" t="s">
+      <c r="EO13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EP13" s="127" t="s">
+      <c r="EP13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EQ13" s="127" t="s">
+      <c r="EQ13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="ER13" s="127" t="s">
+      <c r="ER13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="ES13" s="127" t="s">
+      <c r="ES13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="ET13" s="127" t="s">
+      <c r="ET13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EU13" s="127" t="s">
+      <c r="EU13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EV13" s="127" t="s">
+      <c r="EV13" s="116" t="s">
         <v>1709</v>
       </c>
-      <c r="EW13" s="137" t="s">
+      <c r="EW13" s="127" t="s">
         <v>1729</v>
       </c>
-      <c r="EX13" s="125"/>
-      <c r="EY13" s="125"/>
-      <c r="EZ13" s="125"/>
-      <c r="FA13" s="126"/>
-      <c r="FB13" s="123"/>
-      <c r="FC13" s="123"/>
-      <c r="FD13" s="123"/>
-      <c r="FE13" s="123"/>
-      <c r="FF13" s="123"/>
-      <c r="FG13" s="128"/>
-      <c r="FH13" s="115"/>
-      <c r="FI13" s="115"/>
-      <c r="FJ13" s="115"/>
-      <c r="FK13" s="115"/>
-      <c r="FL13" s="115"/>
-      <c r="FM13" s="115"/>
-      <c r="FN13" s="115"/>
-      <c r="FO13" s="115"/>
-      <c r="FP13" s="115"/>
-      <c r="FQ13" s="115"/>
-      <c r="FR13" s="115"/>
-      <c r="FS13" s="115"/>
-      <c r="FT13" s="115"/>
-      <c r="FU13" s="115"/>
-      <c r="FV13" s="115"/>
-      <c r="FW13" s="115"/>
+      <c r="EX13" s="128"/>
+      <c r="EY13" s="128"/>
+      <c r="EZ13" s="128"/>
+      <c r="FA13" s="144"/>
+      <c r="FB13" s="137"/>
+      <c r="FC13" s="137"/>
+      <c r="FD13" s="137"/>
+      <c r="FE13" s="137"/>
+      <c r="FF13" s="137"/>
+      <c r="FG13" s="145"/>
+      <c r="FH13" s="136"/>
+      <c r="FI13" s="136"/>
+      <c r="FJ13" s="136"/>
+      <c r="FK13" s="136"/>
+      <c r="FL13" s="136"/>
+      <c r="FM13" s="136"/>
+      <c r="FN13" s="136"/>
+      <c r="FO13" s="136"/>
+      <c r="FP13" s="136"/>
+      <c r="FQ13" s="136"/>
+      <c r="FR13" s="136"/>
+      <c r="FS13" s="136"/>
+      <c r="FT13" s="136"/>
+      <c r="FU13" s="136"/>
+      <c r="FV13" s="136"/>
+      <c r="FW13" s="136"/>
     </row>
     <row r="14" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -38363,76 +38347,76 @@
       <c r="DE14" s="65" t="s">
         <v>1761</v>
       </c>
-      <c r="DF14" s="131"/>
-      <c r="DG14" s="131"/>
-      <c r="DH14" s="131"/>
-      <c r="DI14" s="131"/>
-      <c r="DJ14" s="131"/>
-      <c r="DK14" s="131"/>
-      <c r="DL14" s="131"/>
-      <c r="DM14" s="131"/>
-      <c r="DN14" s="131"/>
-      <c r="DO14" s="131"/>
-      <c r="DP14" s="131"/>
-      <c r="DQ14" s="131"/>
-      <c r="DR14" s="131"/>
-      <c r="DS14" s="131"/>
-      <c r="DT14" s="138"/>
-      <c r="DU14" s="127"/>
-      <c r="DV14" s="127"/>
-      <c r="DW14" s="127"/>
-      <c r="DX14" s="127"/>
-      <c r="DY14" s="127"/>
-      <c r="DZ14" s="127"/>
-      <c r="EA14" s="127"/>
-      <c r="EB14" s="127"/>
-      <c r="EC14" s="127"/>
-      <c r="ED14" s="127"/>
-      <c r="EE14" s="127"/>
-      <c r="EF14" s="127"/>
-      <c r="EG14" s="127"/>
-      <c r="EH14" s="127"/>
-      <c r="EI14" s="127"/>
-      <c r="EJ14" s="127"/>
-      <c r="EK14" s="127"/>
-      <c r="EL14" s="127"/>
-      <c r="EM14" s="127"/>
-      <c r="EN14" s="127"/>
-      <c r="EO14" s="127"/>
-      <c r="EP14" s="127"/>
-      <c r="EQ14" s="127"/>
-      <c r="ER14" s="127"/>
-      <c r="ES14" s="127"/>
-      <c r="ET14" s="127"/>
-      <c r="EU14" s="127"/>
-      <c r="EV14" s="127"/>
-      <c r="EW14" s="137"/>
-      <c r="EX14" s="125"/>
-      <c r="EY14" s="125"/>
-      <c r="EZ14" s="125"/>
-      <c r="FA14" s="126"/>
-      <c r="FB14" s="123"/>
-      <c r="FC14" s="123"/>
-      <c r="FD14" s="123"/>
-      <c r="FE14" s="123"/>
-      <c r="FF14" s="123"/>
-      <c r="FG14" s="128"/>
-      <c r="FH14" s="115"/>
-      <c r="FI14" s="115"/>
-      <c r="FJ14" s="115"/>
-      <c r="FK14" s="115"/>
-      <c r="FL14" s="115"/>
-      <c r="FM14" s="115"/>
-      <c r="FN14" s="115"/>
-      <c r="FO14" s="115"/>
-      <c r="FP14" s="115"/>
-      <c r="FQ14" s="115"/>
-      <c r="FR14" s="115"/>
-      <c r="FS14" s="115"/>
-      <c r="FT14" s="115"/>
-      <c r="FU14" s="115"/>
-      <c r="FV14" s="115"/>
-      <c r="FW14" s="115"/>
+      <c r="DF14" s="124"/>
+      <c r="DG14" s="124"/>
+      <c r="DH14" s="124"/>
+      <c r="DI14" s="124"/>
+      <c r="DJ14" s="124"/>
+      <c r="DK14" s="124"/>
+      <c r="DL14" s="124"/>
+      <c r="DM14" s="124"/>
+      <c r="DN14" s="124"/>
+      <c r="DO14" s="124"/>
+      <c r="DP14" s="124"/>
+      <c r="DQ14" s="124"/>
+      <c r="DR14" s="124"/>
+      <c r="DS14" s="124"/>
+      <c r="DT14" s="125"/>
+      <c r="DU14" s="116"/>
+      <c r="DV14" s="116"/>
+      <c r="DW14" s="116"/>
+      <c r="DX14" s="116"/>
+      <c r="DY14" s="116"/>
+      <c r="DZ14" s="116"/>
+      <c r="EA14" s="116"/>
+      <c r="EB14" s="116"/>
+      <c r="EC14" s="116"/>
+      <c r="ED14" s="116"/>
+      <c r="EE14" s="116"/>
+      <c r="EF14" s="116"/>
+      <c r="EG14" s="116"/>
+      <c r="EH14" s="116"/>
+      <c r="EI14" s="116"/>
+      <c r="EJ14" s="116"/>
+      <c r="EK14" s="116"/>
+      <c r="EL14" s="116"/>
+      <c r="EM14" s="116"/>
+      <c r="EN14" s="116"/>
+      <c r="EO14" s="116"/>
+      <c r="EP14" s="116"/>
+      <c r="EQ14" s="116"/>
+      <c r="ER14" s="116"/>
+      <c r="ES14" s="116"/>
+      <c r="ET14" s="116"/>
+      <c r="EU14" s="116"/>
+      <c r="EV14" s="116"/>
+      <c r="EW14" s="127"/>
+      <c r="EX14" s="128"/>
+      <c r="EY14" s="128"/>
+      <c r="EZ14" s="128"/>
+      <c r="FA14" s="144"/>
+      <c r="FB14" s="137"/>
+      <c r="FC14" s="137"/>
+      <c r="FD14" s="137"/>
+      <c r="FE14" s="137"/>
+      <c r="FF14" s="137"/>
+      <c r="FG14" s="145"/>
+      <c r="FH14" s="136"/>
+      <c r="FI14" s="136"/>
+      <c r="FJ14" s="136"/>
+      <c r="FK14" s="136"/>
+      <c r="FL14" s="136"/>
+      <c r="FM14" s="136"/>
+      <c r="FN14" s="136"/>
+      <c r="FO14" s="136"/>
+      <c r="FP14" s="136"/>
+      <c r="FQ14" s="136"/>
+      <c r="FR14" s="136"/>
+      <c r="FS14" s="136"/>
+      <c r="FT14" s="136"/>
+      <c r="FU14" s="136"/>
+      <c r="FV14" s="136"/>
+      <c r="FW14" s="136"/>
     </row>
     <row r="15" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
@@ -38564,61 +38548,61 @@
       <c r="DT15" s="80" t="s">
         <v>1763</v>
       </c>
-      <c r="DU15" s="127"/>
-      <c r="DV15" s="127"/>
-      <c r="DW15" s="127"/>
-      <c r="DX15" s="127"/>
-      <c r="DY15" s="127"/>
-      <c r="DZ15" s="127"/>
-      <c r="EA15" s="127"/>
-      <c r="EB15" s="127"/>
-      <c r="EC15" s="127"/>
-      <c r="ED15" s="127"/>
-      <c r="EE15" s="127"/>
-      <c r="EF15" s="127"/>
-      <c r="EG15" s="127"/>
-      <c r="EH15" s="127"/>
-      <c r="EI15" s="127"/>
-      <c r="EJ15" s="127"/>
-      <c r="EK15" s="127"/>
-      <c r="EL15" s="127"/>
-      <c r="EM15" s="127"/>
-      <c r="EN15" s="127"/>
-      <c r="EO15" s="127"/>
-      <c r="EP15" s="127"/>
-      <c r="EQ15" s="127"/>
-      <c r="ER15" s="127"/>
-      <c r="ES15" s="127"/>
-      <c r="ET15" s="127"/>
-      <c r="EU15" s="127"/>
-      <c r="EV15" s="127"/>
-      <c r="EW15" s="137"/>
-      <c r="EX15" s="125"/>
-      <c r="EY15" s="125"/>
-      <c r="EZ15" s="125"/>
-      <c r="FA15" s="126"/>
-      <c r="FB15" s="123"/>
-      <c r="FC15" s="123"/>
-      <c r="FD15" s="123"/>
-      <c r="FE15" s="123"/>
-      <c r="FF15" s="123"/>
-      <c r="FG15" s="128"/>
-      <c r="FH15" s="115"/>
-      <c r="FI15" s="115"/>
-      <c r="FJ15" s="115"/>
-      <c r="FK15" s="115"/>
-      <c r="FL15" s="115"/>
-      <c r="FM15" s="115"/>
-      <c r="FN15" s="115"/>
-      <c r="FO15" s="115"/>
-      <c r="FP15" s="115"/>
-      <c r="FQ15" s="115"/>
-      <c r="FR15" s="115"/>
-      <c r="FS15" s="115"/>
-      <c r="FT15" s="115"/>
-      <c r="FU15" s="115"/>
-      <c r="FV15" s="115"/>
-      <c r="FW15" s="115"/>
+      <c r="DU15" s="116"/>
+      <c r="DV15" s="116"/>
+      <c r="DW15" s="116"/>
+      <c r="DX15" s="116"/>
+      <c r="DY15" s="116"/>
+      <c r="DZ15" s="116"/>
+      <c r="EA15" s="116"/>
+      <c r="EB15" s="116"/>
+      <c r="EC15" s="116"/>
+      <c r="ED15" s="116"/>
+      <c r="EE15" s="116"/>
+      <c r="EF15" s="116"/>
+      <c r="EG15" s="116"/>
+      <c r="EH15" s="116"/>
+      <c r="EI15" s="116"/>
+      <c r="EJ15" s="116"/>
+      <c r="EK15" s="116"/>
+      <c r="EL15" s="116"/>
+      <c r="EM15" s="116"/>
+      <c r="EN15" s="116"/>
+      <c r="EO15" s="116"/>
+      <c r="EP15" s="116"/>
+      <c r="EQ15" s="116"/>
+      <c r="ER15" s="116"/>
+      <c r="ES15" s="116"/>
+      <c r="ET15" s="116"/>
+      <c r="EU15" s="116"/>
+      <c r="EV15" s="116"/>
+      <c r="EW15" s="127"/>
+      <c r="EX15" s="128"/>
+      <c r="EY15" s="128"/>
+      <c r="EZ15" s="128"/>
+      <c r="FA15" s="144"/>
+      <c r="FB15" s="137"/>
+      <c r="FC15" s="137"/>
+      <c r="FD15" s="137"/>
+      <c r="FE15" s="137"/>
+      <c r="FF15" s="137"/>
+      <c r="FG15" s="145"/>
+      <c r="FH15" s="136"/>
+      <c r="FI15" s="136"/>
+      <c r="FJ15" s="136"/>
+      <c r="FK15" s="136"/>
+      <c r="FL15" s="136"/>
+      <c r="FM15" s="136"/>
+      <c r="FN15" s="136"/>
+      <c r="FO15" s="136"/>
+      <c r="FP15" s="136"/>
+      <c r="FQ15" s="136"/>
+      <c r="FR15" s="136"/>
+      <c r="FS15" s="136"/>
+      <c r="FT15" s="136"/>
+      <c r="FU15" s="136"/>
+      <c r="FV15" s="136"/>
+      <c r="FW15" s="136"/>
     </row>
     <row r="16" spans="2:183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -38710,177 +38694,177 @@
       <c r="CF16" s="79" t="s">
         <v>1748</v>
       </c>
-      <c r="CG16" s="120" t="s">
+      <c r="CG16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="CH16" s="135"/>
-      <c r="CI16" s="135"/>
-      <c r="CJ16" s="135"/>
-      <c r="CK16" s="135"/>
-      <c r="CL16" s="135"/>
-      <c r="CM16" s="135"/>
-      <c r="CN16" s="135"/>
-      <c r="CO16" s="135"/>
-      <c r="CP16" s="135"/>
-      <c r="CQ16" s="135"/>
-      <c r="CR16" s="135"/>
-      <c r="CS16" s="132" t="s">
+      <c r="CH16" s="131"/>
+      <c r="CI16" s="131"/>
+      <c r="CJ16" s="131"/>
+      <c r="CK16" s="131"/>
+      <c r="CL16" s="131"/>
+      <c r="CM16" s="131"/>
+      <c r="CN16" s="131"/>
+      <c r="CO16" s="131"/>
+      <c r="CP16" s="131"/>
+      <c r="CQ16" s="131"/>
+      <c r="CR16" s="131"/>
+      <c r="CS16" s="135" t="s">
         <v>1757</v>
       </c>
-      <c r="CT16" s="133" t="s">
+      <c r="CT16" s="134" t="s">
         <v>1742</v>
       </c>
-      <c r="CU16" s="133"/>
-      <c r="CV16" s="133"/>
-      <c r="CW16" s="133"/>
-      <c r="CX16" s="133"/>
-      <c r="CY16" s="133"/>
-      <c r="CZ16" s="133"/>
-      <c r="DA16" s="133"/>
-      <c r="DB16" s="133"/>
-      <c r="DC16" s="133"/>
-      <c r="DD16" s="133"/>
-      <c r="DE16" s="133"/>
-      <c r="DF16" s="133"/>
-      <c r="DG16" s="133"/>
-      <c r="DH16" s="133"/>
-      <c r="DI16" s="133"/>
-      <c r="DJ16" s="133"/>
-      <c r="DK16" s="133"/>
-      <c r="DL16" s="133"/>
-      <c r="DM16" s="133"/>
-      <c r="DN16" s="133"/>
-      <c r="DO16" s="133"/>
-      <c r="DP16" s="133"/>
-      <c r="DQ16" s="133"/>
-      <c r="DR16" s="133"/>
-      <c r="DS16" s="133"/>
-      <c r="DT16" s="133"/>
-      <c r="DU16" s="133"/>
-      <c r="DV16" s="133"/>
-      <c r="DW16" s="133"/>
-      <c r="DX16" s="133"/>
-      <c r="DY16" s="129" t="s">
+      <c r="CU16" s="134"/>
+      <c r="CV16" s="134"/>
+      <c r="CW16" s="134"/>
+      <c r="CX16" s="134"/>
+      <c r="CY16" s="134"/>
+      <c r="CZ16" s="134"/>
+      <c r="DA16" s="134"/>
+      <c r="DB16" s="134"/>
+      <c r="DC16" s="134"/>
+      <c r="DD16" s="134"/>
+      <c r="DE16" s="134"/>
+      <c r="DF16" s="134"/>
+      <c r="DG16" s="134"/>
+      <c r="DH16" s="134"/>
+      <c r="DI16" s="134"/>
+      <c r="DJ16" s="134"/>
+      <c r="DK16" s="134"/>
+      <c r="DL16" s="134"/>
+      <c r="DM16" s="134"/>
+      <c r="DN16" s="134"/>
+      <c r="DO16" s="134"/>
+      <c r="DP16" s="134"/>
+      <c r="DQ16" s="134"/>
+      <c r="DR16" s="134"/>
+      <c r="DS16" s="134"/>
+      <c r="DT16" s="134"/>
+      <c r="DU16" s="134"/>
+      <c r="DV16" s="134"/>
+      <c r="DW16" s="134"/>
+      <c r="DX16" s="134"/>
+      <c r="DY16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="DZ16" s="129" t="s">
+      <c r="DZ16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EA16" s="129" t="s">
+      <c r="EA16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EB16" s="129" t="s">
+      <c r="EB16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EC16" s="129" t="s">
+      <c r="EC16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="ED16" s="129" t="s">
+      <c r="ED16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EE16" s="129" t="s">
+      <c r="EE16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EF16" s="129" t="s">
+      <c r="EF16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EG16" s="129" t="s">
+      <c r="EG16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EH16" s="129" t="s">
+      <c r="EH16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EI16" s="129" t="s">
+      <c r="EI16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EJ16" s="129" t="s">
+      <c r="EJ16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EK16" s="129" t="s">
+      <c r="EK16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EL16" s="129" t="s">
+      <c r="EL16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EM16" s="129" t="s">
+      <c r="EM16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EN16" s="129" t="s">
+      <c r="EN16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EO16" s="129" t="s">
+      <c r="EO16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EP16" s="129" t="s">
+      <c r="EP16" s="115" t="s">
         <v>1742</v>
       </c>
-      <c r="EQ16" s="116" t="s">
+      <c r="EQ16" s="138" t="s">
         <v>1742</v>
       </c>
-      <c r="ER16" s="117" t="s">
+      <c r="ER16" s="139" t="s">
         <v>1758</v>
       </c>
-      <c r="ES16" s="121" t="s">
+      <c r="ES16" s="129" t="s">
         <v>1742</v>
       </c>
-      <c r="ET16" s="120" t="s">
+      <c r="ET16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="EU16" s="120" t="s">
+      <c r="EU16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="EV16" s="120" t="s">
+      <c r="EV16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="EW16" s="120" t="s">
+      <c r="EW16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="EX16" s="120" t="s">
+      <c r="EX16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="EY16" s="120" t="s">
+      <c r="EY16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="EZ16" s="120" t="s">
+      <c r="EZ16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FA16" s="120" t="s">
+      <c r="FA16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FB16" s="120" t="s">
+      <c r="FB16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FC16" s="120" t="s">
+      <c r="FC16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FD16" s="120" t="s">
+      <c r="FD16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FE16" s="120" t="s">
+      <c r="FE16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FF16" s="120" t="s">
+      <c r="FF16" s="130" t="s">
         <v>1742</v>
       </c>
-      <c r="FG16" s="132" t="s">
+      <c r="FG16" s="135" t="s">
         <v>1729</v>
       </c>
-      <c r="FH16" s="115"/>
-      <c r="FI16" s="115"/>
-      <c r="FJ16" s="115"/>
-      <c r="FK16" s="115"/>
-      <c r="FL16" s="115"/>
-      <c r="FM16" s="115"/>
-      <c r="FN16" s="115"/>
-      <c r="FO16" s="115"/>
-      <c r="FP16" s="115"/>
-      <c r="FQ16" s="115"/>
-      <c r="FR16" s="115"/>
-      <c r="FS16" s="115"/>
-      <c r="FT16" s="115"/>
-      <c r="FU16" s="115"/>
-      <c r="FV16" s="115"/>
-      <c r="FW16" s="115"/>
+      <c r="FH16" s="136"/>
+      <c r="FI16" s="136"/>
+      <c r="FJ16" s="136"/>
+      <c r="FK16" s="136"/>
+      <c r="FL16" s="136"/>
+      <c r="FM16" s="136"/>
+      <c r="FN16" s="136"/>
+      <c r="FO16" s="136"/>
+      <c r="FP16" s="136"/>
+      <c r="FQ16" s="136"/>
+      <c r="FR16" s="136"/>
+      <c r="FS16" s="136"/>
+      <c r="FT16" s="136"/>
+      <c r="FU16" s="136"/>
+      <c r="FV16" s="136"/>
+      <c r="FW16" s="136"/>
     </row>
     <row r="17" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
@@ -38974,101 +38958,101 @@
       <c r="CF17" s="78" t="s">
         <v>1747</v>
       </c>
-      <c r="CG17" s="120"/>
-      <c r="CH17" s="135"/>
-      <c r="CI17" s="135"/>
-      <c r="CJ17" s="135"/>
-      <c r="CK17" s="135"/>
-      <c r="CL17" s="135"/>
-      <c r="CM17" s="135"/>
-      <c r="CN17" s="135"/>
-      <c r="CO17" s="135"/>
-      <c r="CP17" s="135"/>
-      <c r="CQ17" s="135"/>
-      <c r="CR17" s="135"/>
-      <c r="CS17" s="132"/>
-      <c r="CT17" s="133"/>
-      <c r="CU17" s="133"/>
-      <c r="CV17" s="133"/>
-      <c r="CW17" s="133"/>
-      <c r="CX17" s="133"/>
-      <c r="CY17" s="133"/>
-      <c r="CZ17" s="133"/>
-      <c r="DA17" s="133"/>
-      <c r="DB17" s="133"/>
-      <c r="DC17" s="133"/>
-      <c r="DD17" s="133"/>
-      <c r="DE17" s="133"/>
-      <c r="DF17" s="133"/>
-      <c r="DG17" s="133"/>
-      <c r="DH17" s="133"/>
-      <c r="DI17" s="133"/>
-      <c r="DJ17" s="133"/>
-      <c r="DK17" s="133"/>
-      <c r="DL17" s="133"/>
-      <c r="DM17" s="133"/>
-      <c r="DN17" s="133"/>
-      <c r="DO17" s="133"/>
-      <c r="DP17" s="133"/>
-      <c r="DQ17" s="133"/>
-      <c r="DR17" s="133"/>
-      <c r="DS17" s="133"/>
-      <c r="DT17" s="133"/>
-      <c r="DU17" s="133"/>
-      <c r="DV17" s="133"/>
-      <c r="DW17" s="133"/>
-      <c r="DX17" s="133"/>
-      <c r="DY17" s="129"/>
-      <c r="DZ17" s="129"/>
-      <c r="EA17" s="129"/>
-      <c r="EB17" s="129"/>
-      <c r="EC17" s="129"/>
-      <c r="ED17" s="129"/>
-      <c r="EE17" s="129"/>
-      <c r="EF17" s="129"/>
-      <c r="EG17" s="129"/>
-      <c r="EH17" s="129"/>
-      <c r="EI17" s="129"/>
-      <c r="EJ17" s="129"/>
-      <c r="EK17" s="129"/>
-      <c r="EL17" s="129"/>
-      <c r="EM17" s="129"/>
-      <c r="EN17" s="129"/>
-      <c r="EO17" s="129"/>
-      <c r="EP17" s="129"/>
-      <c r="EQ17" s="116"/>
-      <c r="ER17" s="117"/>
-      <c r="ES17" s="121"/>
-      <c r="ET17" s="120"/>
-      <c r="EU17" s="120"/>
-      <c r="EV17" s="120"/>
-      <c r="EW17" s="120"/>
-      <c r="EX17" s="120"/>
-      <c r="EY17" s="120"/>
-      <c r="EZ17" s="120"/>
-      <c r="FA17" s="120"/>
-      <c r="FB17" s="120"/>
-      <c r="FC17" s="120"/>
-      <c r="FD17" s="120"/>
-      <c r="FE17" s="120"/>
-      <c r="FF17" s="120"/>
-      <c r="FG17" s="132"/>
-      <c r="FH17" s="115"/>
-      <c r="FI17" s="115"/>
-      <c r="FJ17" s="115"/>
-      <c r="FK17" s="115"/>
-      <c r="FL17" s="115"/>
-      <c r="FM17" s="115"/>
-      <c r="FN17" s="115"/>
-      <c r="FO17" s="115"/>
-      <c r="FP17" s="115"/>
-      <c r="FQ17" s="115"/>
-      <c r="FR17" s="115"/>
-      <c r="FS17" s="115"/>
-      <c r="FT17" s="115"/>
-      <c r="FU17" s="115"/>
-      <c r="FV17" s="115"/>
-      <c r="FW17" s="115"/>
+      <c r="CG17" s="130"/>
+      <c r="CH17" s="131"/>
+      <c r="CI17" s="131"/>
+      <c r="CJ17" s="131"/>
+      <c r="CK17" s="131"/>
+      <c r="CL17" s="131"/>
+      <c r="CM17" s="131"/>
+      <c r="CN17" s="131"/>
+      <c r="CO17" s="131"/>
+      <c r="CP17" s="131"/>
+      <c r="CQ17" s="131"/>
+      <c r="CR17" s="131"/>
+      <c r="CS17" s="135"/>
+      <c r="CT17" s="134"/>
+      <c r="CU17" s="134"/>
+      <c r="CV17" s="134"/>
+      <c r="CW17" s="134"/>
+      <c r="CX17" s="134"/>
+      <c r="CY17" s="134"/>
+      <c r="CZ17" s="134"/>
+      <c r="DA17" s="134"/>
+      <c r="DB17" s="134"/>
+      <c r="DC17" s="134"/>
+      <c r="DD17" s="134"/>
+      <c r="DE17" s="134"/>
+      <c r="DF17" s="134"/>
+      <c r="DG17" s="134"/>
+      <c r="DH17" s="134"/>
+      <c r="DI17" s="134"/>
+      <c r="DJ17" s="134"/>
+      <c r="DK17" s="134"/>
+      <c r="DL17" s="134"/>
+      <c r="DM17" s="134"/>
+      <c r="DN17" s="134"/>
+      <c r="DO17" s="134"/>
+      <c r="DP17" s="134"/>
+      <c r="DQ17" s="134"/>
+      <c r="DR17" s="134"/>
+      <c r="DS17" s="134"/>
+      <c r="DT17" s="134"/>
+      <c r="DU17" s="134"/>
+      <c r="DV17" s="134"/>
+      <c r="DW17" s="134"/>
+      <c r="DX17" s="134"/>
+      <c r="DY17" s="115"/>
+      <c r="DZ17" s="115"/>
+      <c r="EA17" s="115"/>
+      <c r="EB17" s="115"/>
+      <c r="EC17" s="115"/>
+      <c r="ED17" s="115"/>
+      <c r="EE17" s="115"/>
+      <c r="EF17" s="115"/>
+      <c r="EG17" s="115"/>
+      <c r="EH17" s="115"/>
+      <c r="EI17" s="115"/>
+      <c r="EJ17" s="115"/>
+      <c r="EK17" s="115"/>
+      <c r="EL17" s="115"/>
+      <c r="EM17" s="115"/>
+      <c r="EN17" s="115"/>
+      <c r="EO17" s="115"/>
+      <c r="EP17" s="115"/>
+      <c r="EQ17" s="138"/>
+      <c r="ER17" s="139"/>
+      <c r="ES17" s="129"/>
+      <c r="ET17" s="130"/>
+      <c r="EU17" s="130"/>
+      <c r="EV17" s="130"/>
+      <c r="EW17" s="130"/>
+      <c r="EX17" s="130"/>
+      <c r="EY17" s="130"/>
+      <c r="EZ17" s="130"/>
+      <c r="FA17" s="130"/>
+      <c r="FB17" s="130"/>
+      <c r="FC17" s="130"/>
+      <c r="FD17" s="130"/>
+      <c r="FE17" s="130"/>
+      <c r="FF17" s="130"/>
+      <c r="FG17" s="135"/>
+      <c r="FH17" s="136"/>
+      <c r="FI17" s="136"/>
+      <c r="FJ17" s="136"/>
+      <c r="FK17" s="136"/>
+      <c r="FL17" s="136"/>
+      <c r="FM17" s="136"/>
+      <c r="FN17" s="136"/>
+      <c r="FO17" s="136"/>
+      <c r="FP17" s="136"/>
+      <c r="FQ17" s="136"/>
+      <c r="FR17" s="136"/>
+      <c r="FS17" s="136"/>
+      <c r="FT17" s="136"/>
+      <c r="FU17" s="136"/>
+      <c r="FV17" s="136"/>
+      <c r="FW17" s="136"/>
     </row>
     <row r="18" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
@@ -39173,88 +39157,88 @@
       <c r="CS18" s="68" t="s">
         <v>1755</v>
       </c>
-      <c r="CT18" s="133"/>
-      <c r="CU18" s="133"/>
-      <c r="CV18" s="133"/>
-      <c r="CW18" s="133"/>
-      <c r="CX18" s="133"/>
-      <c r="CY18" s="133"/>
-      <c r="CZ18" s="133"/>
-      <c r="DA18" s="133"/>
-      <c r="DB18" s="133"/>
-      <c r="DC18" s="133"/>
-      <c r="DD18" s="133"/>
-      <c r="DE18" s="133"/>
-      <c r="DF18" s="133"/>
-      <c r="DG18" s="133"/>
-      <c r="DH18" s="133"/>
-      <c r="DI18" s="133"/>
-      <c r="DJ18" s="133"/>
-      <c r="DK18" s="133"/>
-      <c r="DL18" s="133"/>
-      <c r="DM18" s="133"/>
-      <c r="DN18" s="133"/>
-      <c r="DO18" s="133"/>
-      <c r="DP18" s="133"/>
-      <c r="DQ18" s="133"/>
-      <c r="DR18" s="133"/>
-      <c r="DS18" s="133"/>
-      <c r="DT18" s="133"/>
-      <c r="DU18" s="133"/>
-      <c r="DV18" s="133"/>
-      <c r="DW18" s="133"/>
-      <c r="DX18" s="133"/>
-      <c r="DY18" s="129"/>
-      <c r="DZ18" s="129"/>
-      <c r="EA18" s="129"/>
-      <c r="EB18" s="129"/>
-      <c r="EC18" s="129"/>
-      <c r="ED18" s="129"/>
-      <c r="EE18" s="129"/>
-      <c r="EF18" s="129"/>
-      <c r="EG18" s="129"/>
-      <c r="EH18" s="129"/>
-      <c r="EI18" s="129"/>
-      <c r="EJ18" s="129"/>
-      <c r="EK18" s="129"/>
-      <c r="EL18" s="129"/>
-      <c r="EM18" s="129"/>
-      <c r="EN18" s="129"/>
-      <c r="EO18" s="129"/>
-      <c r="EP18" s="129"/>
-      <c r="EQ18" s="116"/>
-      <c r="ER18" s="117"/>
-      <c r="ES18" s="121"/>
-      <c r="ET18" s="120"/>
-      <c r="EU18" s="120"/>
-      <c r="EV18" s="120"/>
-      <c r="EW18" s="120"/>
-      <c r="EX18" s="120"/>
-      <c r="EY18" s="120"/>
-      <c r="EZ18" s="120"/>
-      <c r="FA18" s="120"/>
-      <c r="FB18" s="120"/>
-      <c r="FC18" s="120"/>
-      <c r="FD18" s="120"/>
-      <c r="FE18" s="120"/>
-      <c r="FF18" s="120"/>
-      <c r="FG18" s="132"/>
-      <c r="FH18" s="115"/>
-      <c r="FI18" s="115"/>
-      <c r="FJ18" s="115"/>
-      <c r="FK18" s="115"/>
-      <c r="FL18" s="115"/>
-      <c r="FM18" s="115"/>
-      <c r="FN18" s="115"/>
-      <c r="FO18" s="115"/>
-      <c r="FP18" s="115"/>
-      <c r="FQ18" s="115"/>
-      <c r="FR18" s="115"/>
-      <c r="FS18" s="115"/>
-      <c r="FT18" s="115"/>
-      <c r="FU18" s="115"/>
-      <c r="FV18" s="115"/>
-      <c r="FW18" s="115"/>
+      <c r="CT18" s="134"/>
+      <c r="CU18" s="134"/>
+      <c r="CV18" s="134"/>
+      <c r="CW18" s="134"/>
+      <c r="CX18" s="134"/>
+      <c r="CY18" s="134"/>
+      <c r="CZ18" s="134"/>
+      <c r="DA18" s="134"/>
+      <c r="DB18" s="134"/>
+      <c r="DC18" s="134"/>
+      <c r="DD18" s="134"/>
+      <c r="DE18" s="134"/>
+      <c r="DF18" s="134"/>
+      <c r="DG18" s="134"/>
+      <c r="DH18" s="134"/>
+      <c r="DI18" s="134"/>
+      <c r="DJ18" s="134"/>
+      <c r="DK18" s="134"/>
+      <c r="DL18" s="134"/>
+      <c r="DM18" s="134"/>
+      <c r="DN18" s="134"/>
+      <c r="DO18" s="134"/>
+      <c r="DP18" s="134"/>
+      <c r="DQ18" s="134"/>
+      <c r="DR18" s="134"/>
+      <c r="DS18" s="134"/>
+      <c r="DT18" s="134"/>
+      <c r="DU18" s="134"/>
+      <c r="DV18" s="134"/>
+      <c r="DW18" s="134"/>
+      <c r="DX18" s="134"/>
+      <c r="DY18" s="115"/>
+      <c r="DZ18" s="115"/>
+      <c r="EA18" s="115"/>
+      <c r="EB18" s="115"/>
+      <c r="EC18" s="115"/>
+      <c r="ED18" s="115"/>
+      <c r="EE18" s="115"/>
+      <c r="EF18" s="115"/>
+      <c r="EG18" s="115"/>
+      <c r="EH18" s="115"/>
+      <c r="EI18" s="115"/>
+      <c r="EJ18" s="115"/>
+      <c r="EK18" s="115"/>
+      <c r="EL18" s="115"/>
+      <c r="EM18" s="115"/>
+      <c r="EN18" s="115"/>
+      <c r="EO18" s="115"/>
+      <c r="EP18" s="115"/>
+      <c r="EQ18" s="138"/>
+      <c r="ER18" s="139"/>
+      <c r="ES18" s="129"/>
+      <c r="ET18" s="130"/>
+      <c r="EU18" s="130"/>
+      <c r="EV18" s="130"/>
+      <c r="EW18" s="130"/>
+      <c r="EX18" s="130"/>
+      <c r="EY18" s="130"/>
+      <c r="EZ18" s="130"/>
+      <c r="FA18" s="130"/>
+      <c r="FB18" s="130"/>
+      <c r="FC18" s="130"/>
+      <c r="FD18" s="130"/>
+      <c r="FE18" s="130"/>
+      <c r="FF18" s="130"/>
+      <c r="FG18" s="135"/>
+      <c r="FH18" s="136"/>
+      <c r="FI18" s="136"/>
+      <c r="FJ18" s="136"/>
+      <c r="FK18" s="136"/>
+      <c r="FL18" s="136"/>
+      <c r="FM18" s="136"/>
+      <c r="FN18" s="136"/>
+      <c r="FO18" s="136"/>
+      <c r="FP18" s="136"/>
+      <c r="FQ18" s="136"/>
+      <c r="FR18" s="136"/>
+      <c r="FS18" s="136"/>
+      <c r="FT18" s="136"/>
+      <c r="FU18" s="136"/>
+      <c r="FV18" s="136"/>
+      <c r="FW18" s="136"/>
     </row>
     <row r="19" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
@@ -39408,39 +39392,39 @@
       <c r="EP19" s="85" t="s">
         <v>1755</v>
       </c>
-      <c r="EQ19" s="116"/>
-      <c r="ER19" s="117"/>
-      <c r="ES19" s="121"/>
-      <c r="ET19" s="120"/>
-      <c r="EU19" s="120"/>
-      <c r="EV19" s="120"/>
-      <c r="EW19" s="120"/>
-      <c r="EX19" s="120"/>
-      <c r="EY19" s="120"/>
-      <c r="EZ19" s="120"/>
-      <c r="FA19" s="120"/>
-      <c r="FB19" s="120"/>
-      <c r="FC19" s="120"/>
-      <c r="FD19" s="120"/>
-      <c r="FE19" s="120"/>
-      <c r="FF19" s="120"/>
-      <c r="FG19" s="132"/>
-      <c r="FH19" s="115"/>
-      <c r="FI19" s="115"/>
-      <c r="FJ19" s="115"/>
-      <c r="FK19" s="115"/>
-      <c r="FL19" s="115"/>
-      <c r="FM19" s="115"/>
-      <c r="FN19" s="115"/>
-      <c r="FO19" s="115"/>
-      <c r="FP19" s="115"/>
-      <c r="FQ19" s="115"/>
-      <c r="FR19" s="115"/>
-      <c r="FS19" s="115"/>
-      <c r="FT19" s="115"/>
-      <c r="FU19" s="115"/>
-      <c r="FV19" s="115"/>
-      <c r="FW19" s="115"/>
+      <c r="EQ19" s="138"/>
+      <c r="ER19" s="139"/>
+      <c r="ES19" s="129"/>
+      <c r="ET19" s="130"/>
+      <c r="EU19" s="130"/>
+      <c r="EV19" s="130"/>
+      <c r="EW19" s="130"/>
+      <c r="EX19" s="130"/>
+      <c r="EY19" s="130"/>
+      <c r="EZ19" s="130"/>
+      <c r="FA19" s="130"/>
+      <c r="FB19" s="130"/>
+      <c r="FC19" s="130"/>
+      <c r="FD19" s="130"/>
+      <c r="FE19" s="130"/>
+      <c r="FF19" s="130"/>
+      <c r="FG19" s="135"/>
+      <c r="FH19" s="136"/>
+      <c r="FI19" s="136"/>
+      <c r="FJ19" s="136"/>
+      <c r="FK19" s="136"/>
+      <c r="FL19" s="136"/>
+      <c r="FM19" s="136"/>
+      <c r="FN19" s="136"/>
+      <c r="FO19" s="136"/>
+      <c r="FP19" s="136"/>
+      <c r="FQ19" s="136"/>
+      <c r="FR19" s="136"/>
+      <c r="FS19" s="136"/>
+      <c r="FT19" s="136"/>
+      <c r="FU19" s="136"/>
+      <c r="FV19" s="136"/>
+      <c r="FW19" s="136"/>
     </row>
     <row r="20" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
@@ -39531,232 +39515,232 @@
       <c r="CE20" s="66" t="s">
         <v>1754</v>
       </c>
-      <c r="CF20" s="136" t="s">
+      <c r="CF20" s="133" t="s">
         <v>1744</v>
       </c>
-      <c r="CG20" s="134" t="s">
+      <c r="CG20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CH20" s="134" t="s">
+      <c r="CH20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CI20" s="134" t="s">
+      <c r="CI20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CJ20" s="134" t="s">
+      <c r="CJ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CK20" s="134" t="s">
+      <c r="CK20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CL20" s="134" t="s">
+      <c r="CL20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CM20" s="134" t="s">
+      <c r="CM20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CN20" s="134" t="s">
+      <c r="CN20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CO20" s="134" t="s">
+      <c r="CO20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CP20" s="134" t="s">
+      <c r="CP20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CQ20" s="134" t="s">
+      <c r="CQ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CR20" s="134" t="s">
+      <c r="CR20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CS20" s="134" t="s">
+      <c r="CS20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CT20" s="134" t="s">
+      <c r="CT20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CU20" s="134" t="s">
+      <c r="CU20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CV20" s="134" t="s">
+      <c r="CV20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CW20" s="134" t="s">
+      <c r="CW20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CX20" s="134" t="s">
+      <c r="CX20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CY20" s="134" t="s">
+      <c r="CY20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="CZ20" s="134" t="s">
+      <c r="CZ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DA20" s="134" t="s">
+      <c r="DA20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DB20" s="134" t="s">
+      <c r="DB20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DC20" s="134" t="s">
+      <c r="DC20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DD20" s="134" t="s">
+      <c r="DD20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DE20" s="134" t="s">
+      <c r="DE20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DF20" s="134" t="s">
+      <c r="DF20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DG20" s="134" t="s">
+      <c r="DG20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DH20" s="134" t="s">
+      <c r="DH20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DI20" s="134" t="s">
+      <c r="DI20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DJ20" s="134" t="s">
+      <c r="DJ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DK20" s="134" t="s">
+      <c r="DK20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DL20" s="134" t="s">
+      <c r="DL20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DM20" s="134" t="s">
+      <c r="DM20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DN20" s="134" t="s">
+      <c r="DN20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DO20" s="134" t="s">
+      <c r="DO20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DP20" s="134" t="s">
+      <c r="DP20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DQ20" s="134" t="s">
+      <c r="DQ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DR20" s="134" t="s">
+      <c r="DR20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DS20" s="134" t="s">
+      <c r="DS20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DT20" s="134" t="s">
+      <c r="DT20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DU20" s="134" t="s">
+      <c r="DU20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DV20" s="134" t="s">
+      <c r="DV20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DW20" s="134" t="s">
+      <c r="DW20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DX20" s="134" t="s">
+      <c r="DX20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DY20" s="134" t="s">
+      <c r="DY20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="DZ20" s="134" t="s">
+      <c r="DZ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EA20" s="134" t="s">
+      <c r="EA20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EB20" s="134" t="s">
+      <c r="EB20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EC20" s="134" t="s">
+      <c r="EC20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="ED20" s="134" t="s">
+      <c r="ED20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EE20" s="134" t="s">
+      <c r="EE20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EF20" s="134" t="s">
+      <c r="EF20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EG20" s="134" t="s">
+      <c r="EG20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EH20" s="134" t="s">
+      <c r="EH20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EI20" s="134" t="s">
+      <c r="EI20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EJ20" s="134" t="s">
+      <c r="EJ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EK20" s="134" t="s">
+      <c r="EK20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EL20" s="134" t="s">
+      <c r="EL20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EM20" s="134" t="s">
+      <c r="EM20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EN20" s="134" t="s">
+      <c r="EN20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EO20" s="134" t="s">
+      <c r="EO20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EP20" s="134" t="s">
+      <c r="EP20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="EQ20" s="134" t="s">
+      <c r="EQ20" s="132" t="s">
         <v>1744</v>
       </c>
-      <c r="ER20" s="122" t="s">
+      <c r="ER20" s="142" t="s">
         <v>1755</v>
       </c>
-      <c r="ES20" s="121"/>
-      <c r="ET20" s="120"/>
-      <c r="EU20" s="120"/>
-      <c r="EV20" s="120"/>
-      <c r="EW20" s="120"/>
-      <c r="EX20" s="120"/>
-      <c r="EY20" s="120"/>
-      <c r="EZ20" s="120"/>
-      <c r="FA20" s="120"/>
-      <c r="FB20" s="120"/>
-      <c r="FC20" s="120"/>
-      <c r="FD20" s="120"/>
-      <c r="FE20" s="120"/>
-      <c r="FF20" s="120"/>
-      <c r="FG20" s="132"/>
-      <c r="FH20" s="115"/>
-      <c r="FI20" s="115"/>
-      <c r="FJ20" s="115"/>
-      <c r="FK20" s="115"/>
-      <c r="FL20" s="115"/>
-      <c r="FM20" s="115"/>
-      <c r="FN20" s="115"/>
-      <c r="FO20" s="115"/>
-      <c r="FP20" s="115"/>
-      <c r="FQ20" s="115"/>
-      <c r="FR20" s="115"/>
-      <c r="FS20" s="115"/>
-      <c r="FT20" s="115"/>
-      <c r="FU20" s="115"/>
-      <c r="FV20" s="115"/>
-      <c r="FW20" s="115"/>
+      <c r="ES20" s="129"/>
+      <c r="ET20" s="130"/>
+      <c r="EU20" s="130"/>
+      <c r="EV20" s="130"/>
+      <c r="EW20" s="130"/>
+      <c r="EX20" s="130"/>
+      <c r="EY20" s="130"/>
+      <c r="EZ20" s="130"/>
+      <c r="FA20" s="130"/>
+      <c r="FB20" s="130"/>
+      <c r="FC20" s="130"/>
+      <c r="FD20" s="130"/>
+      <c r="FE20" s="130"/>
+      <c r="FF20" s="130"/>
+      <c r="FG20" s="135"/>
+      <c r="FH20" s="136"/>
+      <c r="FI20" s="136"/>
+      <c r="FJ20" s="136"/>
+      <c r="FK20" s="136"/>
+      <c r="FL20" s="136"/>
+      <c r="FM20" s="136"/>
+      <c r="FN20" s="136"/>
+      <c r="FO20" s="136"/>
+      <c r="FP20" s="136"/>
+      <c r="FQ20" s="136"/>
+      <c r="FR20" s="136"/>
+      <c r="FS20" s="136"/>
+      <c r="FT20" s="136"/>
+      <c r="FU20" s="136"/>
+      <c r="FV20" s="136"/>
+      <c r="FW20" s="136"/>
     </row>
     <row r="21" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
@@ -39847,102 +39831,102 @@
       <c r="CE21" s="67" t="s">
         <v>1753</v>
       </c>
-      <c r="CF21" s="136"/>
-      <c r="CG21" s="134"/>
-      <c r="CH21" s="134"/>
-      <c r="CI21" s="134"/>
-      <c r="CJ21" s="134"/>
-      <c r="CK21" s="134"/>
-      <c r="CL21" s="134"/>
-      <c r="CM21" s="134"/>
-      <c r="CN21" s="134"/>
-      <c r="CO21" s="134"/>
-      <c r="CP21" s="134"/>
-      <c r="CQ21" s="134"/>
-      <c r="CR21" s="134"/>
-      <c r="CS21" s="134"/>
-      <c r="CT21" s="134"/>
-      <c r="CU21" s="134"/>
-      <c r="CV21" s="134"/>
-      <c r="CW21" s="134"/>
-      <c r="CX21" s="134"/>
-      <c r="CY21" s="134"/>
-      <c r="CZ21" s="134"/>
-      <c r="DA21" s="134"/>
-      <c r="DB21" s="134"/>
-      <c r="DC21" s="134"/>
-      <c r="DD21" s="134"/>
-      <c r="DE21" s="134"/>
-      <c r="DF21" s="134"/>
-      <c r="DG21" s="134"/>
-      <c r="DH21" s="134"/>
-      <c r="DI21" s="134"/>
-      <c r="DJ21" s="134"/>
-      <c r="DK21" s="134"/>
-      <c r="DL21" s="134"/>
-      <c r="DM21" s="134"/>
-      <c r="DN21" s="134"/>
-      <c r="DO21" s="134"/>
-      <c r="DP21" s="134"/>
-      <c r="DQ21" s="134"/>
-      <c r="DR21" s="134"/>
-      <c r="DS21" s="134"/>
-      <c r="DT21" s="134"/>
-      <c r="DU21" s="134"/>
-      <c r="DV21" s="134"/>
-      <c r="DW21" s="134"/>
-      <c r="DX21" s="134"/>
-      <c r="DY21" s="134"/>
-      <c r="DZ21" s="134"/>
-      <c r="EA21" s="134"/>
-      <c r="EB21" s="134"/>
-      <c r="EC21" s="134"/>
-      <c r="ED21" s="134"/>
-      <c r="EE21" s="134"/>
-      <c r="EF21" s="134"/>
-      <c r="EG21" s="134"/>
-      <c r="EH21" s="134"/>
-      <c r="EI21" s="134"/>
-      <c r="EJ21" s="134"/>
-      <c r="EK21" s="134"/>
-      <c r="EL21" s="134"/>
-      <c r="EM21" s="134"/>
-      <c r="EN21" s="134"/>
-      <c r="EO21" s="134"/>
-      <c r="EP21" s="134"/>
-      <c r="EQ21" s="134"/>
-      <c r="ER21" s="122"/>
-      <c r="ES21" s="121"/>
-      <c r="ET21" s="120"/>
-      <c r="EU21" s="120"/>
-      <c r="EV21" s="120"/>
-      <c r="EW21" s="120"/>
-      <c r="EX21" s="120"/>
-      <c r="EY21" s="120"/>
-      <c r="EZ21" s="120"/>
-      <c r="FA21" s="120"/>
-      <c r="FB21" s="120"/>
-      <c r="FC21" s="120"/>
-      <c r="FD21" s="120"/>
-      <c r="FE21" s="120"/>
-      <c r="FF21" s="120"/>
-      <c r="FG21" s="132"/>
-      <c r="FH21" s="115"/>
-      <c r="FI21" s="115"/>
-      <c r="FJ21" s="115"/>
-      <c r="FK21" s="115"/>
-      <c r="FL21" s="115"/>
-      <c r="FM21" s="115"/>
-      <c r="FN21" s="115"/>
-      <c r="FO21" s="115"/>
-      <c r="FP21" s="115"/>
-      <c r="FQ21" s="115"/>
-      <c r="FR21" s="115"/>
-      <c r="FS21" s="115"/>
-      <c r="FT21" s="115"/>
-      <c r="FU21" s="115"/>
-      <c r="FV21" s="115"/>
-      <c r="FW21" s="115"/>
+      <c r="CF21" s="133"/>
+      <c r="CG21" s="132"/>
+      <c r="CH21" s="132"/>
+      <c r="CI21" s="132"/>
+      <c r="CJ21" s="132"/>
+      <c r="CK21" s="132"/>
+      <c r="CL21" s="132"/>
+      <c r="CM21" s="132"/>
+      <c r="CN21" s="132"/>
+      <c r="CO21" s="132"/>
+      <c r="CP21" s="132"/>
+      <c r="CQ21" s="132"/>
+      <c r="CR21" s="132"/>
+      <c r="CS21" s="132"/>
+      <c r="CT21" s="132"/>
+      <c r="CU21" s="132"/>
+      <c r="CV21" s="132"/>
+      <c r="CW21" s="132"/>
+      <c r="CX21" s="132"/>
+      <c r="CY21" s="132"/>
+      <c r="CZ21" s="132"/>
+      <c r="DA21" s="132"/>
+      <c r="DB21" s="132"/>
+      <c r="DC21" s="132"/>
+      <c r="DD21" s="132"/>
+      <c r="DE21" s="132"/>
+      <c r="DF21" s="132"/>
+      <c r="DG21" s="132"/>
+      <c r="DH21" s="132"/>
+      <c r="DI21" s="132"/>
+      <c r="DJ21" s="132"/>
+      <c r="DK21" s="132"/>
+      <c r="DL21" s="132"/>
+      <c r="DM21" s="132"/>
+      <c r="DN21" s="132"/>
+      <c r="DO21" s="132"/>
+      <c r="DP21" s="132"/>
+      <c r="DQ21" s="132"/>
+      <c r="DR21" s="132"/>
+      <c r="DS21" s="132"/>
+      <c r="DT21" s="132"/>
+      <c r="DU21" s="132"/>
+      <c r="DV21" s="132"/>
+      <c r="DW21" s="132"/>
+      <c r="DX21" s="132"/>
+      <c r="DY21" s="132"/>
+      <c r="DZ21" s="132"/>
+      <c r="EA21" s="132"/>
+      <c r="EB21" s="132"/>
+      <c r="EC21" s="132"/>
+      <c r="ED21" s="132"/>
+      <c r="EE21" s="132"/>
+      <c r="EF21" s="132"/>
+      <c r="EG21" s="132"/>
+      <c r="EH21" s="132"/>
+      <c r="EI21" s="132"/>
+      <c r="EJ21" s="132"/>
+      <c r="EK21" s="132"/>
+      <c r="EL21" s="132"/>
+      <c r="EM21" s="132"/>
+      <c r="EN21" s="132"/>
+      <c r="EO21" s="132"/>
+      <c r="EP21" s="132"/>
+      <c r="EQ21" s="132"/>
+      <c r="ER21" s="142"/>
+      <c r="ES21" s="129"/>
+      <c r="ET21" s="130"/>
+      <c r="EU21" s="130"/>
+      <c r="EV21" s="130"/>
+      <c r="EW21" s="130"/>
+      <c r="EX21" s="130"/>
+      <c r="EY21" s="130"/>
+      <c r="EZ21" s="130"/>
+      <c r="FA21" s="130"/>
+      <c r="FB21" s="130"/>
+      <c r="FC21" s="130"/>
+      <c r="FD21" s="130"/>
+      <c r="FE21" s="130"/>
+      <c r="FF21" s="130"/>
+      <c r="FG21" s="135"/>
+      <c r="FH21" s="136"/>
+      <c r="FI21" s="136"/>
+      <c r="FJ21" s="136"/>
+      <c r="FK21" s="136"/>
+      <c r="FL21" s="136"/>
+      <c r="FM21" s="136"/>
+      <c r="FN21" s="136"/>
+      <c r="FO21" s="136"/>
+      <c r="FP21" s="136"/>
+      <c r="FQ21" s="136"/>
+      <c r="FR21" s="136"/>
+      <c r="FS21" s="136"/>
+      <c r="FT21" s="136"/>
+      <c r="FU21" s="136"/>
+      <c r="FV21" s="136"/>
+      <c r="FW21" s="136"/>
     </row>
     <row r="22" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -40121,22 +40105,22 @@
       <c r="FG22" s="89" t="s">
         <v>1196</v>
       </c>
-      <c r="FH22" s="115"/>
-      <c r="FI22" s="115"/>
-      <c r="FJ22" s="115"/>
-      <c r="FK22" s="115"/>
-      <c r="FL22" s="115"/>
-      <c r="FM22" s="115"/>
-      <c r="FN22" s="115"/>
-      <c r="FO22" s="115"/>
-      <c r="FP22" s="115"/>
-      <c r="FQ22" s="115"/>
-      <c r="FR22" s="115"/>
-      <c r="FS22" s="115"/>
-      <c r="FT22" s="115"/>
-      <c r="FU22" s="115"/>
-      <c r="FV22" s="115"/>
-      <c r="FW22" s="115"/>
+      <c r="FH22" s="136"/>
+      <c r="FI22" s="136"/>
+      <c r="FJ22" s="136"/>
+      <c r="FK22" s="136"/>
+      <c r="FL22" s="136"/>
+      <c r="FM22" s="136"/>
+      <c r="FN22" s="136"/>
+      <c r="FO22" s="136"/>
+      <c r="FP22" s="136"/>
+      <c r="FQ22" s="136"/>
+      <c r="FR22" s="136"/>
+      <c r="FS22" s="136"/>
+      <c r="FT22" s="136"/>
+      <c r="FU22" s="136"/>
+      <c r="FV22" s="136"/>
+      <c r="FW22" s="136"/>
     </row>
     <row r="23" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -40336,15 +40320,15 @@
       <c r="FN23" s="90" t="s">
         <v>1729</v>
       </c>
-      <c r="FO23" s="115"/>
-      <c r="FP23" s="115"/>
-      <c r="FQ23" s="115"/>
-      <c r="FR23" s="115"/>
-      <c r="FS23" s="115"/>
-      <c r="FT23" s="115"/>
-      <c r="FU23" s="115"/>
-      <c r="FV23" s="115"/>
-      <c r="FW23" s="115"/>
+      <c r="FO23" s="136"/>
+      <c r="FP23" s="136"/>
+      <c r="FQ23" s="136"/>
+      <c r="FR23" s="136"/>
+      <c r="FS23" s="136"/>
+      <c r="FT23" s="136"/>
+      <c r="FU23" s="136"/>
+      <c r="FV23" s="136"/>
+      <c r="FW23" s="136"/>
     </row>
     <row r="24" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -40576,9 +40560,9 @@
       <c r="FT24" s="92" t="s">
         <v>1729</v>
       </c>
-      <c r="FU24" s="115"/>
-      <c r="FV24" s="115"/>
-      <c r="FW24" s="115"/>
+      <c r="FU24" s="136"/>
+      <c r="FV24" s="136"/>
+      <c r="FW24" s="136"/>
     </row>
     <row r="25" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -40778,9 +40762,9 @@
       <c r="FT25" s="89" t="s">
         <v>1729</v>
       </c>
-      <c r="FU25" s="115"/>
-      <c r="FV25" s="115"/>
-      <c r="FW25" s="115"/>
+      <c r="FU25" s="136"/>
+      <c r="FV25" s="136"/>
+      <c r="FW25" s="136"/>
     </row>
     <row r="26" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -41015,8 +40999,8 @@
       <c r="FU26" s="82" t="s">
         <v>1729</v>
       </c>
-      <c r="FV26" s="115"/>
-      <c r="FW26" s="115"/>
+      <c r="FV26" s="136"/>
+      <c r="FW26" s="136"/>
     </row>
     <row r="27" spans="2:179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -41325,17 +41309,17 @@
       <c r="DT36" s="63" t="s">
         <v>1697</v>
       </c>
-      <c r="DU36" s="127" t="s">
+      <c r="DU36" s="116" t="s">
         <v>1258</v>
       </c>
-      <c r="DV36" s="145"/>
-      <c r="DW36" s="145"/>
-      <c r="DX36" s="145"/>
-      <c r="DY36" s="145"/>
-      <c r="DZ36" s="145"/>
-      <c r="EA36" s="145"/>
-      <c r="EB36" s="145"/>
-      <c r="EC36" s="145"/>
+      <c r="DV36" s="117"/>
+      <c r="DW36" s="117"/>
+      <c r="DX36" s="117"/>
+      <c r="DY36" s="117"/>
+      <c r="DZ36" s="117"/>
+      <c r="EA36" s="117"/>
+      <c r="EB36" s="117"/>
+      <c r="EC36" s="117"/>
       <c r="ED36" s="64"/>
       <c r="EE36" s="64"/>
       <c r="EF36" s="64"/>
@@ -41513,15 +41497,15 @@
       <c r="DT37" s="64" t="s">
         <v>1700</v>
       </c>
-      <c r="DU37" s="127"/>
-      <c r="DV37" s="145"/>
-      <c r="DW37" s="145"/>
-      <c r="DX37" s="145"/>
-      <c r="DY37" s="145"/>
-      <c r="DZ37" s="145"/>
-      <c r="EA37" s="145"/>
-      <c r="EB37" s="145"/>
-      <c r="EC37" s="145"/>
+      <c r="DU37" s="116"/>
+      <c r="DV37" s="117"/>
+      <c r="DW37" s="117"/>
+      <c r="DX37" s="117"/>
+      <c r="DY37" s="117"/>
+      <c r="DZ37" s="117"/>
+      <c r="EA37" s="117"/>
+      <c r="EB37" s="117"/>
+      <c r="EC37" s="117"/>
       <c r="ED37" s="64"/>
       <c r="EE37" s="64"/>
       <c r="EF37" s="64"/>
@@ -42432,25 +42416,25 @@
       <c r="EM44" s="67" t="s">
         <v>1706</v>
       </c>
-      <c r="EN44" s="144" t="s">
+      <c r="EN44" s="121" t="s">
         <v>1708</v>
       </c>
-      <c r="EO44" s="142"/>
-      <c r="EP44" s="142"/>
-      <c r="EQ44" s="144" t="s">
+      <c r="EO44" s="118"/>
+      <c r="EP44" s="118"/>
+      <c r="EQ44" s="121" t="s">
         <v>1708</v>
       </c>
-      <c r="ER44" s="142"/>
-      <c r="ES44" s="142"/>
-      <c r="ET44" s="142"/>
-      <c r="EU44" s="144" t="s">
+      <c r="ER44" s="118"/>
+      <c r="ES44" s="118"/>
+      <c r="ET44" s="118"/>
+      <c r="EU44" s="121" t="s">
         <v>1708</v>
       </c>
-      <c r="EV44" s="142"/>
-      <c r="EW44" s="142"/>
-      <c r="EX44" s="142"/>
-      <c r="EY44" s="142"/>
-      <c r="EZ44" s="142"/>
+      <c r="EV44" s="118"/>
+      <c r="EW44" s="118"/>
+      <c r="EX44" s="118"/>
+      <c r="EY44" s="118"/>
+      <c r="EZ44" s="118"/>
     </row>
     <row r="45" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -42607,19 +42591,19 @@
       <c r="EM45" s="67" t="s">
         <v>1707</v>
       </c>
-      <c r="EN45" s="144"/>
-      <c r="EO45" s="142"/>
-      <c r="EP45" s="142"/>
-      <c r="EQ45" s="144"/>
-      <c r="ER45" s="142"/>
-      <c r="ES45" s="142"/>
-      <c r="ET45" s="142"/>
-      <c r="EU45" s="144"/>
-      <c r="EV45" s="142"/>
-      <c r="EW45" s="142"/>
-      <c r="EX45" s="142"/>
-      <c r="EY45" s="142"/>
-      <c r="EZ45" s="142"/>
+      <c r="EN45" s="121"/>
+      <c r="EO45" s="118"/>
+      <c r="EP45" s="118"/>
+      <c r="EQ45" s="121"/>
+      <c r="ER45" s="118"/>
+      <c r="ES45" s="118"/>
+      <c r="ET45" s="118"/>
+      <c r="EU45" s="121"/>
+      <c r="EV45" s="118"/>
+      <c r="EW45" s="118"/>
+      <c r="EX45" s="118"/>
+      <c r="EY45" s="118"/>
+      <c r="EZ45" s="118"/>
     </row>
     <row r="46" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -42778,18 +42762,18 @@
       <c r="EU46" s="69"/>
       <c r="EV46" s="69"/>
       <c r="EW46" s="69"/>
-      <c r="EX46" s="140" t="s">
+      <c r="EX46" s="122" t="s">
         <v>1725</v>
       </c>
-      <c r="EY46" s="140"/>
-      <c r="EZ46" s="140" t="s">
+      <c r="EY46" s="122"/>
+      <c r="EZ46" s="122" t="s">
         <v>1725</v>
       </c>
-      <c r="FA46" s="140"/>
-      <c r="FB46" s="140" t="s">
+      <c r="FA46" s="122"/>
+      <c r="FB46" s="122" t="s">
         <v>1725</v>
       </c>
-      <c r="FC46" s="140"/>
+      <c r="FC46" s="122"/>
     </row>
     <row r="47" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -42921,45 +42905,45 @@
       <c r="DT47" s="64" t="s">
         <v>1719</v>
       </c>
-      <c r="DU47" s="143" t="s">
+      <c r="DU47" s="119" t="s">
         <v>1714</v>
       </c>
-      <c r="DV47" s="139"/>
-      <c r="DW47" s="139"/>
-      <c r="DX47" s="139"/>
-      <c r="DY47" s="139"/>
-      <c r="DZ47" s="139"/>
-      <c r="EA47" s="139"/>
-      <c r="EB47" s="139"/>
-      <c r="EC47" s="139"/>
-      <c r="ED47" s="139"/>
-      <c r="EE47" s="139"/>
-      <c r="EF47" s="139"/>
-      <c r="EG47" s="139"/>
-      <c r="EH47" s="139"/>
-      <c r="EI47" s="139"/>
-      <c r="EJ47" s="139"/>
-      <c r="EK47" s="139"/>
-      <c r="EL47" s="139"/>
-      <c r="EM47" s="139"/>
-      <c r="EN47" s="139"/>
-      <c r="EO47" s="139"/>
-      <c r="EP47" s="139"/>
-      <c r="EQ47" s="139"/>
-      <c r="ER47" s="139"/>
-      <c r="ES47" s="139"/>
-      <c r="ET47" s="139"/>
-      <c r="EU47" s="139"/>
-      <c r="EV47" s="139"/>
-      <c r="EW47" s="141" t="s">
+      <c r="DV47" s="120"/>
+      <c r="DW47" s="120"/>
+      <c r="DX47" s="120"/>
+      <c r="DY47" s="120"/>
+      <c r="DZ47" s="120"/>
+      <c r="EA47" s="120"/>
+      <c r="EB47" s="120"/>
+      <c r="EC47" s="120"/>
+      <c r="ED47" s="120"/>
+      <c r="EE47" s="120"/>
+      <c r="EF47" s="120"/>
+      <c r="EG47" s="120"/>
+      <c r="EH47" s="120"/>
+      <c r="EI47" s="120"/>
+      <c r="EJ47" s="120"/>
+      <c r="EK47" s="120"/>
+      <c r="EL47" s="120"/>
+      <c r="EM47" s="120"/>
+      <c r="EN47" s="120"/>
+      <c r="EO47" s="120"/>
+      <c r="EP47" s="120"/>
+      <c r="EQ47" s="120"/>
+      <c r="ER47" s="120"/>
+      <c r="ES47" s="120"/>
+      <c r="ET47" s="120"/>
+      <c r="EU47" s="120"/>
+      <c r="EV47" s="120"/>
+      <c r="EW47" s="123" t="s">
         <v>1721</v>
       </c>
-      <c r="EX47" s="140"/>
-      <c r="EY47" s="140"/>
-      <c r="EZ47" s="140"/>
-      <c r="FA47" s="140"/>
-      <c r="FB47" s="140"/>
-      <c r="FC47" s="140"/>
+      <c r="EX47" s="122"/>
+      <c r="EY47" s="122"/>
+      <c r="EZ47" s="122"/>
+      <c r="FA47" s="122"/>
+      <c r="FB47" s="122"/>
+      <c r="FC47" s="122"/>
     </row>
     <row r="48" spans="2:179" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -43091,41 +43075,41 @@
       <c r="DT48" s="68" t="s">
         <v>1720</v>
       </c>
-      <c r="DU48" s="143"/>
-      <c r="DV48" s="139"/>
-      <c r="DW48" s="139"/>
-      <c r="DX48" s="139"/>
-      <c r="DY48" s="139"/>
-      <c r="DZ48" s="139"/>
-      <c r="EA48" s="139"/>
-      <c r="EB48" s="139"/>
-      <c r="EC48" s="139"/>
-      <c r="ED48" s="139"/>
-      <c r="EE48" s="139"/>
-      <c r="EF48" s="139"/>
-      <c r="EG48" s="139"/>
-      <c r="EH48" s="139"/>
-      <c r="EI48" s="139"/>
-      <c r="EJ48" s="139"/>
-      <c r="EK48" s="139"/>
-      <c r="EL48" s="139"/>
-      <c r="EM48" s="139"/>
-      <c r="EN48" s="139"/>
-      <c r="EO48" s="139"/>
-      <c r="EP48" s="139"/>
-      <c r="EQ48" s="139"/>
-      <c r="ER48" s="139"/>
-      <c r="ES48" s="139"/>
-      <c r="ET48" s="139"/>
-      <c r="EU48" s="139"/>
-      <c r="EV48" s="139"/>
-      <c r="EW48" s="141"/>
-      <c r="EX48" s="140"/>
-      <c r="EY48" s="140"/>
-      <c r="EZ48" s="140"/>
-      <c r="FA48" s="140"/>
-      <c r="FB48" s="140"/>
-      <c r="FC48" s="140"/>
+      <c r="DU48" s="119"/>
+      <c r="DV48" s="120"/>
+      <c r="DW48" s="120"/>
+      <c r="DX48" s="120"/>
+      <c r="DY48" s="120"/>
+      <c r="DZ48" s="120"/>
+      <c r="EA48" s="120"/>
+      <c r="EB48" s="120"/>
+      <c r="EC48" s="120"/>
+      <c r="ED48" s="120"/>
+      <c r="EE48" s="120"/>
+      <c r="EF48" s="120"/>
+      <c r="EG48" s="120"/>
+      <c r="EH48" s="120"/>
+      <c r="EI48" s="120"/>
+      <c r="EJ48" s="120"/>
+      <c r="EK48" s="120"/>
+      <c r="EL48" s="120"/>
+      <c r="EM48" s="120"/>
+      <c r="EN48" s="120"/>
+      <c r="EO48" s="120"/>
+      <c r="EP48" s="120"/>
+      <c r="EQ48" s="120"/>
+      <c r="ER48" s="120"/>
+      <c r="ES48" s="120"/>
+      <c r="ET48" s="120"/>
+      <c r="EU48" s="120"/>
+      <c r="EV48" s="120"/>
+      <c r="EW48" s="123"/>
+      <c r="EX48" s="122"/>
+      <c r="EY48" s="122"/>
+      <c r="EZ48" s="122"/>
+      <c r="FA48" s="122"/>
+      <c r="FB48" s="122"/>
+      <c r="FC48" s="122"/>
     </row>
     <row r="49" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -43718,20 +43702,261 @@
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="EK16:EK18"/>
-    <mergeCell ref="EL16:EL18"/>
-    <mergeCell ref="EM16:EM18"/>
-    <mergeCell ref="EN16:EN18"/>
-    <mergeCell ref="EO16:EO18"/>
-    <mergeCell ref="DU36:DU37"/>
-    <mergeCell ref="DV36:DV37"/>
-    <mergeCell ref="DW36:DW37"/>
-    <mergeCell ref="DX36:DX37"/>
-    <mergeCell ref="DY36:DY37"/>
-    <mergeCell ref="DZ36:DZ37"/>
-    <mergeCell ref="EA36:EA37"/>
-    <mergeCell ref="EB36:EB37"/>
-    <mergeCell ref="EC36:EC37"/>
+    <mergeCell ref="FU7:FU25"/>
+    <mergeCell ref="FV7:FV26"/>
+    <mergeCell ref="FW7:FW26"/>
+    <mergeCell ref="FO7:FO23"/>
+    <mergeCell ref="FP7:FP23"/>
+    <mergeCell ref="FQ7:FQ23"/>
+    <mergeCell ref="FR7:FR23"/>
+    <mergeCell ref="FS7:FS23"/>
+    <mergeCell ref="FT7:FT23"/>
+    <mergeCell ref="FJ7:FJ22"/>
+    <mergeCell ref="FK7:FK22"/>
+    <mergeCell ref="FL7:FL22"/>
+    <mergeCell ref="FM7:FM22"/>
+    <mergeCell ref="EQ16:EQ19"/>
+    <mergeCell ref="ER16:ER19"/>
+    <mergeCell ref="EX7:EX11"/>
+    <mergeCell ref="EY7:EY11"/>
+    <mergeCell ref="EZ7:EZ11"/>
+    <mergeCell ref="FA7:FA11"/>
+    <mergeCell ref="FB16:FB21"/>
+    <mergeCell ref="ES16:ES21"/>
+    <mergeCell ref="ET16:ET21"/>
+    <mergeCell ref="EU16:EU21"/>
+    <mergeCell ref="EV16:EV21"/>
+    <mergeCell ref="ER20:ER21"/>
+    <mergeCell ref="FB7:FB15"/>
+    <mergeCell ref="EW9:EW10"/>
+    <mergeCell ref="EY12:EY15"/>
+    <mergeCell ref="EZ12:EZ15"/>
+    <mergeCell ref="FA12:FA15"/>
+    <mergeCell ref="ET13:ET15"/>
+    <mergeCell ref="FF7:FF15"/>
+    <mergeCell ref="FG7:FG15"/>
+    <mergeCell ref="EW16:EW21"/>
+    <mergeCell ref="EX16:EX21"/>
+    <mergeCell ref="EY16:EY21"/>
+    <mergeCell ref="EZ16:EZ21"/>
+    <mergeCell ref="FA16:FA21"/>
+    <mergeCell ref="FH7:FH22"/>
+    <mergeCell ref="FI7:FI22"/>
+    <mergeCell ref="EP16:EP18"/>
+    <mergeCell ref="EE16:EE18"/>
+    <mergeCell ref="EF16:EF18"/>
+    <mergeCell ref="EG16:EG18"/>
+    <mergeCell ref="EH16:EH18"/>
+    <mergeCell ref="EI16:EI18"/>
+    <mergeCell ref="EJ16:EJ18"/>
+    <mergeCell ref="EP9:EP10"/>
+    <mergeCell ref="EQ9:EQ10"/>
+    <mergeCell ref="ER9:ER10"/>
+    <mergeCell ref="ES9:ES10"/>
+    <mergeCell ref="ET9:ET10"/>
+    <mergeCell ref="EU9:EU10"/>
+    <mergeCell ref="EJ9:EJ10"/>
+    <mergeCell ref="EK9:EK10"/>
+    <mergeCell ref="EL9:EL10"/>
+    <mergeCell ref="EM9:EM10"/>
+    <mergeCell ref="FN7:FN22"/>
+    <mergeCell ref="DF13:DF14"/>
+    <mergeCell ref="DG13:DG14"/>
+    <mergeCell ref="DH13:DH14"/>
+    <mergeCell ref="DI13:DI14"/>
+    <mergeCell ref="DJ13:DJ14"/>
+    <mergeCell ref="DK13:DK14"/>
+    <mergeCell ref="DL13:DL14"/>
+    <mergeCell ref="DM13:DM14"/>
+    <mergeCell ref="FC16:FC21"/>
+    <mergeCell ref="FD16:FD21"/>
+    <mergeCell ref="FE16:FE21"/>
+    <mergeCell ref="FF16:FF21"/>
+    <mergeCell ref="FG16:FG21"/>
+    <mergeCell ref="FC7:FC15"/>
+    <mergeCell ref="FD7:FD15"/>
+    <mergeCell ref="FE7:FE15"/>
+    <mergeCell ref="DY16:DY18"/>
+    <mergeCell ref="DZ16:DZ18"/>
+    <mergeCell ref="EA16:EA18"/>
+    <mergeCell ref="EB16:EB18"/>
+    <mergeCell ref="EC16:EC18"/>
+    <mergeCell ref="ED16:ED18"/>
+    <mergeCell ref="DS16:DS18"/>
+    <mergeCell ref="DT16:DT18"/>
+    <mergeCell ref="DU16:DU18"/>
+    <mergeCell ref="DV16:DV18"/>
+    <mergeCell ref="DW16:DW18"/>
+    <mergeCell ref="DX16:DX18"/>
+    <mergeCell ref="DN16:DN18"/>
+    <mergeCell ref="DO16:DO18"/>
+    <mergeCell ref="DP16:DP18"/>
+    <mergeCell ref="DQ16:DQ18"/>
+    <mergeCell ref="DR16:DR18"/>
+    <mergeCell ref="DG16:DG18"/>
+    <mergeCell ref="DH16:DH18"/>
+    <mergeCell ref="DI16:DI18"/>
+    <mergeCell ref="DJ16:DJ18"/>
+    <mergeCell ref="DK16:DK18"/>
+    <mergeCell ref="DL16:DL18"/>
+    <mergeCell ref="DE16:DE18"/>
+    <mergeCell ref="DF16:DF18"/>
+    <mergeCell ref="CU16:CU18"/>
+    <mergeCell ref="CV16:CV18"/>
+    <mergeCell ref="CW16:CW18"/>
+    <mergeCell ref="CX16:CX18"/>
+    <mergeCell ref="CY16:CY18"/>
+    <mergeCell ref="CZ16:CZ18"/>
+    <mergeCell ref="DD16:DD18"/>
+    <mergeCell ref="DM16:DM18"/>
+    <mergeCell ref="CS16:CS17"/>
+    <mergeCell ref="CT16:CT18"/>
+    <mergeCell ref="EO20:EO21"/>
+    <mergeCell ref="EP20:EP21"/>
+    <mergeCell ref="EQ20:EQ21"/>
+    <mergeCell ref="EL20:EL21"/>
+    <mergeCell ref="EM20:EM21"/>
+    <mergeCell ref="EN20:EN21"/>
+    <mergeCell ref="DT20:DT21"/>
+    <mergeCell ref="DU20:DU21"/>
+    <mergeCell ref="DV20:DV21"/>
+    <mergeCell ref="DK20:DK21"/>
+    <mergeCell ref="DL20:DL21"/>
+    <mergeCell ref="DM20:DM21"/>
+    <mergeCell ref="DN20:DN21"/>
+    <mergeCell ref="DO20:DO21"/>
+    <mergeCell ref="DP20:DP21"/>
+    <mergeCell ref="DE20:DE21"/>
+    <mergeCell ref="DF20:DF21"/>
+    <mergeCell ref="DG20:DG21"/>
+    <mergeCell ref="DA16:DA18"/>
+    <mergeCell ref="DB16:DB18"/>
+    <mergeCell ref="DC16:DC18"/>
+    <mergeCell ref="CM16:CM17"/>
+    <mergeCell ref="CN16:CN17"/>
+    <mergeCell ref="EI20:EI21"/>
+    <mergeCell ref="EJ20:EJ21"/>
+    <mergeCell ref="EK20:EK21"/>
+    <mergeCell ref="EC20:EC21"/>
+    <mergeCell ref="ED20:ED21"/>
+    <mergeCell ref="EE20:EE21"/>
+    <mergeCell ref="EF20:EF21"/>
+    <mergeCell ref="EG20:EG21"/>
+    <mergeCell ref="EH20:EH21"/>
+    <mergeCell ref="DW20:DW21"/>
+    <mergeCell ref="DX20:DX21"/>
+    <mergeCell ref="DY20:DY21"/>
+    <mergeCell ref="DZ20:DZ21"/>
+    <mergeCell ref="EA20:EA21"/>
+    <mergeCell ref="EB20:EB21"/>
+    <mergeCell ref="DQ20:DQ21"/>
+    <mergeCell ref="DR20:DR21"/>
+    <mergeCell ref="DS20:DS21"/>
+    <mergeCell ref="CO16:CO17"/>
+    <mergeCell ref="CP16:CP17"/>
+    <mergeCell ref="CQ16:CQ17"/>
+    <mergeCell ref="CR16:CR17"/>
+    <mergeCell ref="DH20:DH21"/>
+    <mergeCell ref="DI20:DI21"/>
+    <mergeCell ref="DJ20:DJ21"/>
+    <mergeCell ref="CY20:CY21"/>
+    <mergeCell ref="CZ20:CZ21"/>
+    <mergeCell ref="DA20:DA21"/>
+    <mergeCell ref="DB20:DB21"/>
+    <mergeCell ref="DC20:DC21"/>
+    <mergeCell ref="DD20:DD21"/>
+    <mergeCell ref="CS20:CS21"/>
+    <mergeCell ref="CT20:CT21"/>
+    <mergeCell ref="CU20:CU21"/>
+    <mergeCell ref="CV20:CV21"/>
+    <mergeCell ref="CW20:CW21"/>
+    <mergeCell ref="CX20:CX21"/>
+    <mergeCell ref="CM20:CM21"/>
+    <mergeCell ref="CN20:CN21"/>
+    <mergeCell ref="CO20:CO21"/>
+    <mergeCell ref="CP20:CP21"/>
+    <mergeCell ref="CQ20:CQ21"/>
+    <mergeCell ref="CR20:CR21"/>
+    <mergeCell ref="CG16:CG17"/>
+    <mergeCell ref="CH16:CH17"/>
+    <mergeCell ref="CG20:CG21"/>
+    <mergeCell ref="CF20:CF21"/>
+    <mergeCell ref="CH20:CH21"/>
+    <mergeCell ref="CI20:CI21"/>
+    <mergeCell ref="CJ20:CJ21"/>
+    <mergeCell ref="CK20:CK21"/>
+    <mergeCell ref="CL20:CL21"/>
+    <mergeCell ref="CI16:CI17"/>
+    <mergeCell ref="CJ16:CJ17"/>
+    <mergeCell ref="CK16:CK17"/>
+    <mergeCell ref="CL16:CL17"/>
+    <mergeCell ref="EN9:EN10"/>
+    <mergeCell ref="EO9:EO10"/>
+    <mergeCell ref="EU13:EU15"/>
+    <mergeCell ref="EV13:EV15"/>
+    <mergeCell ref="EW13:EW15"/>
+    <mergeCell ref="EX12:EX15"/>
+    <mergeCell ref="ET7:ET8"/>
+    <mergeCell ref="EU7:EU8"/>
+    <mergeCell ref="EV7:EV8"/>
+    <mergeCell ref="EW7:EW8"/>
+    <mergeCell ref="EV9:EV10"/>
+    <mergeCell ref="EP13:EP15"/>
+    <mergeCell ref="EQ13:EQ15"/>
+    <mergeCell ref="ER13:ER15"/>
+    <mergeCell ref="ES13:ES15"/>
+    <mergeCell ref="EN13:EN15"/>
+    <mergeCell ref="EO13:EO15"/>
+    <mergeCell ref="EH13:EH15"/>
+    <mergeCell ref="EI13:EI15"/>
+    <mergeCell ref="EJ13:EJ15"/>
+    <mergeCell ref="EK13:EK15"/>
+    <mergeCell ref="EL13:EL15"/>
+    <mergeCell ref="EM13:EM15"/>
+    <mergeCell ref="DX13:DX15"/>
+    <mergeCell ref="DY13:DY15"/>
+    <mergeCell ref="DZ13:DZ15"/>
+    <mergeCell ref="EA13:EA15"/>
+    <mergeCell ref="EB13:EB15"/>
+    <mergeCell ref="EC13:EC15"/>
+    <mergeCell ref="ED13:ED15"/>
+    <mergeCell ref="EE13:EE15"/>
+    <mergeCell ref="EF13:EF15"/>
+    <mergeCell ref="EG13:EG15"/>
+    <mergeCell ref="DU13:DU15"/>
+    <mergeCell ref="DV13:DV15"/>
+    <mergeCell ref="DW13:DW15"/>
+    <mergeCell ref="DR13:DR14"/>
+    <mergeCell ref="DS13:DS14"/>
+    <mergeCell ref="DT13:DT14"/>
+    <mergeCell ref="DN13:DN14"/>
+    <mergeCell ref="DO13:DO14"/>
+    <mergeCell ref="DP13:DP14"/>
+    <mergeCell ref="DQ13:DQ14"/>
+    <mergeCell ref="EB47:EB48"/>
+    <mergeCell ref="FA46:FA48"/>
+    <mergeCell ref="FB46:FB48"/>
+    <mergeCell ref="FC46:FC48"/>
+    <mergeCell ref="ER47:ER48"/>
+    <mergeCell ref="ES47:ES48"/>
+    <mergeCell ref="ET47:ET48"/>
+    <mergeCell ref="EU47:EU48"/>
+    <mergeCell ref="EV47:EV48"/>
+    <mergeCell ref="EW47:EW48"/>
+    <mergeCell ref="EX46:EX48"/>
+    <mergeCell ref="EY46:EY48"/>
+    <mergeCell ref="EL47:EL48"/>
+    <mergeCell ref="EM47:EM48"/>
+    <mergeCell ref="EN47:EN48"/>
+    <mergeCell ref="EO47:EO48"/>
+    <mergeCell ref="EP47:EP48"/>
+    <mergeCell ref="EQ47:EQ48"/>
+    <mergeCell ref="EF47:EF48"/>
+    <mergeCell ref="EG47:EG48"/>
+    <mergeCell ref="EH47:EH48"/>
+    <mergeCell ref="EI47:EI48"/>
+    <mergeCell ref="EJ47:EJ48"/>
+    <mergeCell ref="EK47:EK48"/>
     <mergeCell ref="EV44:EV45"/>
     <mergeCell ref="EW44:EW45"/>
     <mergeCell ref="EX44:EX45"/>
@@ -43756,261 +43981,20 @@
     <mergeCell ref="EE47:EE48"/>
     <mergeCell ref="DZ47:DZ48"/>
     <mergeCell ref="EA47:EA48"/>
-    <mergeCell ref="EB47:EB48"/>
-    <mergeCell ref="FA46:FA48"/>
-    <mergeCell ref="FB46:FB48"/>
-    <mergeCell ref="FC46:FC48"/>
-    <mergeCell ref="ER47:ER48"/>
-    <mergeCell ref="ES47:ES48"/>
-    <mergeCell ref="ET47:ET48"/>
-    <mergeCell ref="EU47:EU48"/>
-    <mergeCell ref="EV47:EV48"/>
-    <mergeCell ref="EW47:EW48"/>
-    <mergeCell ref="EX46:EX48"/>
-    <mergeCell ref="EY46:EY48"/>
-    <mergeCell ref="EL47:EL48"/>
-    <mergeCell ref="EM47:EM48"/>
-    <mergeCell ref="EN47:EN48"/>
-    <mergeCell ref="EO47:EO48"/>
-    <mergeCell ref="EP47:EP48"/>
-    <mergeCell ref="EQ47:EQ48"/>
-    <mergeCell ref="EF47:EF48"/>
-    <mergeCell ref="EG47:EG48"/>
-    <mergeCell ref="EH47:EH48"/>
-    <mergeCell ref="EI47:EI48"/>
-    <mergeCell ref="EJ47:EJ48"/>
-    <mergeCell ref="EK47:EK48"/>
-    <mergeCell ref="DU13:DU15"/>
-    <mergeCell ref="DV13:DV15"/>
-    <mergeCell ref="DW13:DW15"/>
-    <mergeCell ref="DR13:DR14"/>
-    <mergeCell ref="DS13:DS14"/>
-    <mergeCell ref="DT13:DT14"/>
-    <mergeCell ref="DN13:DN14"/>
-    <mergeCell ref="DO13:DO14"/>
-    <mergeCell ref="DP13:DP14"/>
-    <mergeCell ref="DQ13:DQ14"/>
-    <mergeCell ref="EH13:EH15"/>
-    <mergeCell ref="EI13:EI15"/>
-    <mergeCell ref="EJ13:EJ15"/>
-    <mergeCell ref="EK13:EK15"/>
-    <mergeCell ref="EL13:EL15"/>
-    <mergeCell ref="EM13:EM15"/>
-    <mergeCell ref="DX13:DX15"/>
-    <mergeCell ref="DY13:DY15"/>
-    <mergeCell ref="DZ13:DZ15"/>
-    <mergeCell ref="EA13:EA15"/>
-    <mergeCell ref="EB13:EB15"/>
-    <mergeCell ref="EC13:EC15"/>
-    <mergeCell ref="ED13:ED15"/>
-    <mergeCell ref="EE13:EE15"/>
-    <mergeCell ref="EF13:EF15"/>
-    <mergeCell ref="EG13:EG15"/>
-    <mergeCell ref="EN9:EN10"/>
-    <mergeCell ref="EO9:EO10"/>
-    <mergeCell ref="EU13:EU15"/>
-    <mergeCell ref="EV13:EV15"/>
-    <mergeCell ref="EW13:EW15"/>
-    <mergeCell ref="EX12:EX15"/>
-    <mergeCell ref="ET7:ET8"/>
-    <mergeCell ref="EU7:EU8"/>
-    <mergeCell ref="EV7:EV8"/>
-    <mergeCell ref="EW7:EW8"/>
-    <mergeCell ref="EV9:EV10"/>
-    <mergeCell ref="EP13:EP15"/>
-    <mergeCell ref="EQ13:EQ15"/>
-    <mergeCell ref="ER13:ER15"/>
-    <mergeCell ref="ES13:ES15"/>
-    <mergeCell ref="EN13:EN15"/>
-    <mergeCell ref="EO13:EO15"/>
-    <mergeCell ref="CG16:CG17"/>
-    <mergeCell ref="CH16:CH17"/>
-    <mergeCell ref="CG20:CG21"/>
-    <mergeCell ref="CF20:CF21"/>
-    <mergeCell ref="CH20:CH21"/>
-    <mergeCell ref="CI20:CI21"/>
-    <mergeCell ref="CJ20:CJ21"/>
-    <mergeCell ref="CK20:CK21"/>
-    <mergeCell ref="CL20:CL21"/>
-    <mergeCell ref="CI16:CI17"/>
-    <mergeCell ref="CJ16:CJ17"/>
-    <mergeCell ref="CK16:CK17"/>
-    <mergeCell ref="CL16:CL17"/>
-    <mergeCell ref="CS20:CS21"/>
-    <mergeCell ref="CT20:CT21"/>
-    <mergeCell ref="CU20:CU21"/>
-    <mergeCell ref="CV20:CV21"/>
-    <mergeCell ref="CW20:CW21"/>
-    <mergeCell ref="CX20:CX21"/>
-    <mergeCell ref="CM20:CM21"/>
-    <mergeCell ref="CN20:CN21"/>
-    <mergeCell ref="CO20:CO21"/>
-    <mergeCell ref="CP20:CP21"/>
-    <mergeCell ref="CQ20:CQ21"/>
-    <mergeCell ref="CR20:CR21"/>
-    <mergeCell ref="DH20:DH21"/>
-    <mergeCell ref="DI20:DI21"/>
-    <mergeCell ref="DJ20:DJ21"/>
-    <mergeCell ref="CY20:CY21"/>
-    <mergeCell ref="CZ20:CZ21"/>
-    <mergeCell ref="DA20:DA21"/>
-    <mergeCell ref="DB20:DB21"/>
-    <mergeCell ref="DC20:DC21"/>
-    <mergeCell ref="DD20:DD21"/>
-    <mergeCell ref="CM16:CM17"/>
-    <mergeCell ref="CN16:CN17"/>
-    <mergeCell ref="EI20:EI21"/>
-    <mergeCell ref="EJ20:EJ21"/>
-    <mergeCell ref="EK20:EK21"/>
-    <mergeCell ref="EC20:EC21"/>
-    <mergeCell ref="ED20:ED21"/>
-    <mergeCell ref="EE20:EE21"/>
-    <mergeCell ref="EF20:EF21"/>
-    <mergeCell ref="EG20:EG21"/>
-    <mergeCell ref="EH20:EH21"/>
-    <mergeCell ref="DW20:DW21"/>
-    <mergeCell ref="DX20:DX21"/>
-    <mergeCell ref="DY20:DY21"/>
-    <mergeCell ref="DZ20:DZ21"/>
-    <mergeCell ref="EA20:EA21"/>
-    <mergeCell ref="EB20:EB21"/>
-    <mergeCell ref="DQ20:DQ21"/>
-    <mergeCell ref="DR20:DR21"/>
-    <mergeCell ref="DS20:DS21"/>
-    <mergeCell ref="CO16:CO17"/>
-    <mergeCell ref="CP16:CP17"/>
-    <mergeCell ref="CQ16:CQ17"/>
-    <mergeCell ref="CR16:CR17"/>
-    <mergeCell ref="DM16:DM18"/>
-    <mergeCell ref="CS16:CS17"/>
-    <mergeCell ref="CT16:CT18"/>
-    <mergeCell ref="EO20:EO21"/>
-    <mergeCell ref="EP20:EP21"/>
-    <mergeCell ref="EQ20:EQ21"/>
-    <mergeCell ref="EL20:EL21"/>
-    <mergeCell ref="EM20:EM21"/>
-    <mergeCell ref="EN20:EN21"/>
-    <mergeCell ref="DT20:DT21"/>
-    <mergeCell ref="DU20:DU21"/>
-    <mergeCell ref="DV20:DV21"/>
-    <mergeCell ref="DK20:DK21"/>
-    <mergeCell ref="DL20:DL21"/>
-    <mergeCell ref="DM20:DM21"/>
-    <mergeCell ref="DN20:DN21"/>
-    <mergeCell ref="DO20:DO21"/>
-    <mergeCell ref="DP20:DP21"/>
-    <mergeCell ref="DE20:DE21"/>
-    <mergeCell ref="DF20:DF21"/>
-    <mergeCell ref="DG20:DG21"/>
-    <mergeCell ref="DA16:DA18"/>
-    <mergeCell ref="DB16:DB18"/>
-    <mergeCell ref="DC16:DC18"/>
-    <mergeCell ref="DG16:DG18"/>
-    <mergeCell ref="DH16:DH18"/>
-    <mergeCell ref="DI16:DI18"/>
-    <mergeCell ref="DJ16:DJ18"/>
-    <mergeCell ref="DK16:DK18"/>
-    <mergeCell ref="DL16:DL18"/>
-    <mergeCell ref="DE16:DE18"/>
-    <mergeCell ref="DF16:DF18"/>
-    <mergeCell ref="CU16:CU18"/>
-    <mergeCell ref="CV16:CV18"/>
-    <mergeCell ref="CW16:CW18"/>
-    <mergeCell ref="CX16:CX18"/>
-    <mergeCell ref="CY16:CY18"/>
-    <mergeCell ref="CZ16:CZ18"/>
-    <mergeCell ref="DD16:DD18"/>
-    <mergeCell ref="DT16:DT18"/>
-    <mergeCell ref="DU16:DU18"/>
-    <mergeCell ref="DV16:DV18"/>
-    <mergeCell ref="DW16:DW18"/>
-    <mergeCell ref="DX16:DX18"/>
-    <mergeCell ref="DN16:DN18"/>
-    <mergeCell ref="DO16:DO18"/>
-    <mergeCell ref="DP16:DP18"/>
-    <mergeCell ref="DQ16:DQ18"/>
-    <mergeCell ref="DR16:DR18"/>
-    <mergeCell ref="FN7:FN22"/>
-    <mergeCell ref="DF13:DF14"/>
-    <mergeCell ref="DG13:DG14"/>
-    <mergeCell ref="DH13:DH14"/>
-    <mergeCell ref="DI13:DI14"/>
-    <mergeCell ref="DJ13:DJ14"/>
-    <mergeCell ref="DK13:DK14"/>
-    <mergeCell ref="DL13:DL14"/>
-    <mergeCell ref="DM13:DM14"/>
-    <mergeCell ref="FC16:FC21"/>
-    <mergeCell ref="FD16:FD21"/>
-    <mergeCell ref="FE16:FE21"/>
-    <mergeCell ref="FF16:FF21"/>
-    <mergeCell ref="FG16:FG21"/>
-    <mergeCell ref="FC7:FC15"/>
-    <mergeCell ref="FD7:FD15"/>
-    <mergeCell ref="FE7:FE15"/>
-    <mergeCell ref="DY16:DY18"/>
-    <mergeCell ref="DZ16:DZ18"/>
-    <mergeCell ref="EA16:EA18"/>
-    <mergeCell ref="EB16:EB18"/>
-    <mergeCell ref="EC16:EC18"/>
-    <mergeCell ref="ED16:ED18"/>
-    <mergeCell ref="DS16:DS18"/>
-    <mergeCell ref="EW16:EW21"/>
-    <mergeCell ref="EX16:EX21"/>
-    <mergeCell ref="EY16:EY21"/>
-    <mergeCell ref="EZ16:EZ21"/>
-    <mergeCell ref="FA16:FA21"/>
-    <mergeCell ref="FH7:FH22"/>
-    <mergeCell ref="FI7:FI22"/>
-    <mergeCell ref="EP16:EP18"/>
-    <mergeCell ref="EE16:EE18"/>
-    <mergeCell ref="EF16:EF18"/>
-    <mergeCell ref="EG16:EG18"/>
-    <mergeCell ref="EH16:EH18"/>
-    <mergeCell ref="EI16:EI18"/>
-    <mergeCell ref="EJ16:EJ18"/>
-    <mergeCell ref="EP9:EP10"/>
-    <mergeCell ref="EQ9:EQ10"/>
-    <mergeCell ref="ER9:ER10"/>
-    <mergeCell ref="ES9:ES10"/>
-    <mergeCell ref="ET9:ET10"/>
-    <mergeCell ref="EU9:EU10"/>
-    <mergeCell ref="EJ9:EJ10"/>
-    <mergeCell ref="EK9:EK10"/>
-    <mergeCell ref="EL9:EL10"/>
-    <mergeCell ref="EM9:EM10"/>
-    <mergeCell ref="FJ7:FJ22"/>
-    <mergeCell ref="FK7:FK22"/>
-    <mergeCell ref="FL7:FL22"/>
-    <mergeCell ref="FM7:FM22"/>
-    <mergeCell ref="EQ16:EQ19"/>
-    <mergeCell ref="ER16:ER19"/>
-    <mergeCell ref="EX7:EX11"/>
-    <mergeCell ref="EY7:EY11"/>
-    <mergeCell ref="EZ7:EZ11"/>
-    <mergeCell ref="FA7:FA11"/>
-    <mergeCell ref="FB16:FB21"/>
-    <mergeCell ref="ES16:ES21"/>
-    <mergeCell ref="ET16:ET21"/>
-    <mergeCell ref="EU16:EU21"/>
-    <mergeCell ref="EV16:EV21"/>
-    <mergeCell ref="ER20:ER21"/>
-    <mergeCell ref="FB7:FB15"/>
-    <mergeCell ref="EW9:EW10"/>
-    <mergeCell ref="EY12:EY15"/>
-    <mergeCell ref="EZ12:EZ15"/>
-    <mergeCell ref="FA12:FA15"/>
-    <mergeCell ref="ET13:ET15"/>
-    <mergeCell ref="FF7:FF15"/>
-    <mergeCell ref="FG7:FG15"/>
-    <mergeCell ref="FU7:FU25"/>
-    <mergeCell ref="FV7:FV26"/>
-    <mergeCell ref="FW7:FW26"/>
-    <mergeCell ref="FO7:FO23"/>
-    <mergeCell ref="FP7:FP23"/>
-    <mergeCell ref="FQ7:FQ23"/>
-    <mergeCell ref="FR7:FR23"/>
-    <mergeCell ref="FS7:FS23"/>
-    <mergeCell ref="FT7:FT23"/>
+    <mergeCell ref="EK16:EK18"/>
+    <mergeCell ref="EL16:EL18"/>
+    <mergeCell ref="EM16:EM18"/>
+    <mergeCell ref="EN16:EN18"/>
+    <mergeCell ref="EO16:EO18"/>
+    <mergeCell ref="DU36:DU37"/>
+    <mergeCell ref="DV36:DV37"/>
+    <mergeCell ref="DW36:DW37"/>
+    <mergeCell ref="DX36:DX37"/>
+    <mergeCell ref="DY36:DY37"/>
+    <mergeCell ref="DZ36:DZ37"/>
+    <mergeCell ref="EA36:EA37"/>
+    <mergeCell ref="EB36:EB37"/>
+    <mergeCell ref="EC36:EC37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
